--- a/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB75050-926B-4116-B7B4-E0E3BE0CB9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8A00D-365A-D849-9094-B3ABA1B45B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -58,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -382,6 +374,9 @@
   </si>
   <si>
     <t>phôt</t>
+  </si>
+  <si>
+    <t>Bs Hương T:2 ; H:2</t>
   </si>
 </sst>
 </file>
@@ -1001,15 +996,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1021,6 +1007,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1044,19 +1033,24 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,6 +1060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1132,7 +1127,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1473,144 +1468,144 @@
   </sheetPr>
   <dimension ref="A2:AP42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="52" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="52" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="8" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="3" customWidth="1"/>
-    <col min="28" max="29" width="9.140625" style="1"/>
-    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="1"/>
-    <col min="32" max="32" width="4.7109375" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="3" customWidth="1"/>
+    <col min="28" max="29" width="9.1640625" style="1"/>
+    <col min="30" max="30" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" style="1"/>
+    <col min="32" max="32" width="4.6640625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:42" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="139" t="s">
+    <row r="2" spans="1:42" ht="37" x14ac:dyDescent="0.45">
+      <c r="B2" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="135" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A4" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="147" t="s">
+      <c r="D4" s="138"/>
+      <c r="E4" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="134" t="s">
+      <c r="F4" s="146"/>
+      <c r="G4" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134" t="s">
+      <c r="H4" s="138"/>
+      <c r="I4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="141" t="s">
+      <c r="J4" s="138"/>
+      <c r="K4" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="141"/>
-      <c r="M4" s="134" t="s">
+      <c r="L4" s="139"/>
+      <c r="M4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134" t="s">
+      <c r="N4" s="138"/>
+      <c r="O4" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134" t="s">
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134" t="s">
+      <c r="R4" s="138"/>
+      <c r="S4" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="134"/>
-      <c r="U4" s="142" t="s">
+      <c r="T4" s="138"/>
+      <c r="U4" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="142"/>
-      <c r="W4" s="145" t="s">
+      <c r="V4" s="140"/>
+      <c r="W4" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="143" t="s">
+      <c r="X4" s="144"/>
+      <c r="Y4" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="140" t="s">
+      <c r="Z4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="134" t="s">
+      <c r="AA4" s="138" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="135"/>
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="138"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="51" t="s">
         <v>5</v>
       </c>
@@ -1677,9 +1672,9 @@
       <c r="X5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="134"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="138"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -1696,7 +1691,7 @@
       <c r="AO5"/>
       <c r="AP5"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1790,7 +1785,7 @@
       </c>
       <c r="AA6" s="70"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1884,7 +1879,7 @@
       </c>
       <c r="AA7" s="88"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1991,7 +1986,7 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
     </row>
-    <row r="9" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2085,7 +2080,7 @@
       </c>
       <c r="AA9" s="88"/>
     </row>
-    <row r="10" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2093,11 +2088,11 @@
         <v>44017</v>
       </c>
       <c r="C10" s="130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="E10" s="17">
         <v>0</v>
@@ -2107,11 +2102,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="130">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3300000</v>
       </c>
       <c r="I10" s="40">
         <v>0</v>
@@ -2128,18 +2123,18 @@
         <v>0</v>
       </c>
       <c r="M10" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="O10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Q10" s="14">
         <v>0</v>
@@ -2171,27 +2166,27 @@
       </c>
       <c r="Y10" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3600000</v>
       </c>
       <c r="Z10" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7700000</v>
       </c>
       <c r="AA10" s="88"/>
     </row>
-    <row r="11" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="58">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="C11" s="130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E11" s="17">
         <v>0</v>
@@ -2201,11 +2196,11 @@
         <v>0</v>
       </c>
       <c r="G11" s="130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="I11" s="40">
         <v>0</v>
@@ -2229,11 +2224,11 @@
         <v>0</v>
       </c>
       <c r="O11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Q11" s="14">
         <v>0</v>
@@ -2265,15 +2260,15 @@
       </c>
       <c r="Y11" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Z11" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="AA11" s="88"/>
     </row>
-    <row r="12" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2281,25 +2276,25 @@
         <v>44019</v>
       </c>
       <c r="C12" s="130">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="E12" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="G12" s="130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I12" s="40">
         <v>0</v>
@@ -2316,11 +2311,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="O12" s="14">
         <v>0</v>
@@ -2359,15 +2354,15 @@
       </c>
       <c r="Y12" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Z12" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3600000</v>
       </c>
       <c r="AA12" s="88"/>
     </row>
-    <row r="13" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2375,25 +2370,25 @@
         <v>44020</v>
       </c>
       <c r="C13" s="130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E13" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="G13" s="130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="I13" s="40">
         <v>0</v>
@@ -2424,11 +2419,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="S13" s="13">
         <v>0</v>
@@ -2453,15 +2448,17 @@
       </c>
       <c r="Y13" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="Z13" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="88"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+        <v>3030000</v>
+      </c>
+      <c r="AA13" s="88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -2469,11 +2466,11 @@
         <v>44021</v>
       </c>
       <c r="C14" s="130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="E14" s="17">
         <v>0</v>
@@ -2483,11 +2480,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="I14" s="40">
         <v>0</v>
@@ -2551,7 +2548,7 @@
       </c>
       <c r="Z14" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1700000</v>
       </c>
       <c r="AA14" s="88"/>
       <c r="AB14" s="11"/>
@@ -2559,17 +2556,17 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="102"/>
       <c r="B15" s="58">
         <v>44022</v>
       </c>
       <c r="C15" s="130">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="E15" s="17">
         <v>0</v>
@@ -2579,11 +2576,11 @@
         <v>0</v>
       </c>
       <c r="G15" s="130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
@@ -2642,7 +2639,7 @@
       </c>
       <c r="Z15" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3400000</v>
       </c>
       <c r="AA15" s="102"/>
       <c r="AB15" s="11"/>
@@ -2650,17 +2647,17 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="102"/>
       <c r="B16" s="58">
         <v>44023</v>
       </c>
       <c r="C16" s="130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="E16" s="17">
         <v>0</v>
@@ -2670,11 +2667,11 @@
         <v>0</v>
       </c>
       <c r="G16" s="130">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H16" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2700000</v>
       </c>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
@@ -2733,7 +2730,7 @@
       </c>
       <c r="Z16" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3300000</v>
       </c>
       <c r="AA16" s="102"/>
       <c r="AB16" s="11"/>
@@ -2741,7 +2738,7 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="102"/>
       <c r="B17" s="58">
         <v>44024</v>
@@ -2832,7 +2829,7 @@
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="102"/>
       <c r="B18" s="58">
         <v>44025</v>
@@ -2923,7 +2920,7 @@
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="102"/>
       <c r="B19" s="58">
         <v>44026</v>
@@ -3014,7 +3011,7 @@
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="102"/>
       <c r="B20" s="58">
         <v>44027</v>
@@ -3105,7 +3102,7 @@
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="102"/>
       <c r="B21" s="58">
         <v>44029</v>
@@ -3196,7 +3193,7 @@
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="102"/>
       <c r="B22" s="58">
         <v>44029</v>
@@ -3287,7 +3284,7 @@
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="102"/>
       <c r="B23" s="58">
         <v>44030</v>
@@ -3378,7 +3375,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="102"/>
       <c r="B24" s="58">
         <v>44031</v>
@@ -3469,7 +3466,7 @@
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="102"/>
       <c r="B25" s="58">
         <v>44032</v>
@@ -3560,7 +3557,7 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="102"/>
       <c r="B26" s="58">
         <v>44033</v>
@@ -3651,7 +3648,7 @@
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="102"/>
       <c r="B27" s="58">
         <v>44034</v>
@@ -3742,7 +3739,7 @@
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="102"/>
       <c r="B28" s="58">
         <v>44035</v>
@@ -3833,7 +3830,7 @@
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="102"/>
       <c r="B29" s="58">
         <v>44036</v>
@@ -3924,7 +3921,7 @@
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="102"/>
       <c r="B30" s="58">
         <v>44037</v>
@@ -4015,7 +4012,7 @@
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="102"/>
       <c r="B31" s="58">
         <v>44039</v>
@@ -4106,7 +4103,7 @@
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="102"/>
       <c r="B32" s="58">
         <v>44039</v>
@@ -4197,7 +4194,7 @@
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="102"/>
       <c r="B33" s="58">
         <v>44040</v>
@@ -4288,7 +4285,7 @@
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="104"/>
       <c r="B34" s="58">
         <v>44041</v>
@@ -4379,7 +4376,7 @@
       <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="104"/>
       <c r="B35" s="58">
         <v>44042</v>
@@ -4470,7 +4467,7 @@
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="130"/>
       <c r="B36" s="58">
         <v>44043</v>
@@ -4558,185 +4555,190 @@
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="58" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="39">
-        <f>SUM(D7:D35)</f>
-        <v>3400000</v>
+        <f t="shared" ref="D37:Z37" si="13">SUM(D7:D35)</f>
+        <v>11800000</v>
       </c>
       <c r="E37" s="39">
-        <f>SUM(E7:E35)</f>
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="F37" s="39">
+        <f t="shared" si="13"/>
+        <v>1000000</v>
+      </c>
+      <c r="G37" s="39">
+        <f t="shared" si="13"/>
+        <v>58</v>
+      </c>
+      <c r="H37" s="39">
+        <f t="shared" si="13"/>
+        <v>17400000</v>
+      </c>
+      <c r="I37" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="39">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L37" s="39">
+        <f t="shared" si="13"/>
+        <v>60000</v>
+      </c>
+      <c r="M37" s="39">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="N37" s="39">
+        <f t="shared" si="13"/>
+        <v>7200000</v>
+      </c>
+      <c r="O37" s="39">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P37" s="39">
+        <f t="shared" si="13"/>
+        <v>2400000</v>
+      </c>
+      <c r="Q37" s="39">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="F37" s="39">
-        <f>SUM(F7:F35)</f>
-        <v>100000</v>
-      </c>
-      <c r="G37" s="39">
-        <f>SUM(G7:G35)</f>
-        <v>20</v>
-      </c>
-      <c r="H37" s="39">
-        <f>SUM(H7:H35)</f>
-        <v>6000000</v>
-      </c>
-      <c r="I37" s="39">
-        <f>SUM(I7:I35)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="39">
-        <f>SUM(J7:J35)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="39">
-        <f>SUM(K7:K35)</f>
-        <v>2</v>
-      </c>
-      <c r="L37" s="39">
-        <f>SUM(L7:L35)</f>
-        <v>60000</v>
-      </c>
-      <c r="M37" s="39">
-        <f>SUM(M7:M35)</f>
-        <v>12</v>
-      </c>
-      <c r="N37" s="39">
-        <f>SUM(N7:N35)</f>
-        <v>3600000</v>
-      </c>
-      <c r="O37" s="39">
-        <f>SUM(O7:O35)</f>
-        <v>2</v>
-      </c>
-      <c r="P37" s="39">
-        <f>SUM(P7:P35)</f>
-        <v>1200000</v>
-      </c>
-      <c r="Q37" s="39">
-        <f>SUM(Q7:Q35)</f>
-        <v>0</v>
-      </c>
       <c r="R37" s="39">
-        <f>SUM(R7:R35)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>30000</v>
       </c>
       <c r="S37" s="39">
-        <f>SUM(S7:S35)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T37" s="39">
-        <f>SUM(T7:T35)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U37" s="39">
-        <f>SUM(U7:U35)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V37" s="39">
-        <f>SUM(V7:V35)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W37" s="39">
-        <f>SUM(W7:W35)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X37" s="39">
-        <f>SUM(X7:X35)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y37" s="39">
-        <f>SUM(Y7:Y35)</f>
-        <v>4860000</v>
+        <f t="shared" si="13"/>
+        <v>9690000</v>
       </c>
       <c r="Z37" s="39">
-        <f>SUM(Z7:Z35)</f>
-        <v>14360000</v>
+        <f t="shared" si="13"/>
+        <v>39890000</v>
       </c>
       <c r="AA37" s="70"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="54"/>
       <c r="B38" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="136">
+      <c r="C38" s="148">
         <v>80</v>
       </c>
-      <c r="D38" s="136"/>
+      <c r="D38" s="148"/>
       <c r="E38" s="119"/>
       <c r="F38" s="119"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="137"/>
-      <c r="N38" s="137"/>
-      <c r="O38" s="137"/>
-      <c r="P38" s="137"/>
-      <c r="Q38" s="137"/>
-      <c r="R38" s="137"/>
-      <c r="S38" s="137"/>
-      <c r="T38" s="137"/>
-      <c r="U38" s="137"/>
-      <c r="V38" s="137"/>
-      <c r="W38" s="137"/>
-      <c r="X38" s="137"/>
-      <c r="Y38" s="137"/>
-      <c r="Z38" s="137"/>
-      <c r="AA38" s="137"/>
-    </row>
-    <row r="39" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="134"/>
+      <c r="U38" s="134"/>
+      <c r="V38" s="134"/>
+      <c r="W38" s="134"/>
+      <c r="X38" s="134"/>
+      <c r="Y38" s="134"/>
+      <c r="Z38" s="134"/>
+      <c r="AA38" s="134"/>
+    </row>
+    <row r="39" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="138">
+      <c r="C39" s="135">
         <v>247</v>
       </c>
-      <c r="D39" s="138"/>
+      <c r="D39" s="135"/>
       <c r="E39" s="120"/>
       <c r="F39" s="120"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="137"/>
-      <c r="L39" s="137"/>
-      <c r="M39" s="137"/>
-      <c r="N39" s="137"/>
-      <c r="O39" s="137"/>
-      <c r="P39" s="137"/>
-      <c r="Q39" s="137"/>
-      <c r="R39" s="137"/>
-      <c r="S39" s="137"/>
-      <c r="T39" s="137"/>
-      <c r="U39" s="137"/>
-      <c r="V39" s="137"/>
-      <c r="W39" s="137"/>
-      <c r="X39" s="137"/>
-      <c r="Y39" s="137"/>
-      <c r="Z39" s="137"/>
-      <c r="AA39" s="137"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="134"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="134"/>
+      <c r="W39" s="134"/>
+      <c r="X39" s="134"/>
+      <c r="Y39" s="134"/>
+      <c r="Z39" s="134"/>
+      <c r="AA39" s="134"/>
       <c r="AD39" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="53"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AA42" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="AA4:AA39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="G39:AA39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AA2"/>
@@ -4753,11 +4755,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4779,14 +4776,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" style="20" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="149" t="s">
         <v>92</v>
       </c>
@@ -4796,7 +4793,7 @@
       <c r="E1" s="149"/>
       <c r="F1" s="149"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -4835,7 +4832,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -4854,7 +4851,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -4873,7 +4870,7 @@
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -4892,7 +4889,7 @@
       </c>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -4911,7 +4908,7 @@
       </c>
       <c r="F8" s="63"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
         <v>7</v>
       </c>
@@ -4930,7 +4927,7 @@
       </c>
       <c r="F9" s="63"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -4949,7 +4946,7 @@
       </c>
       <c r="F10" s="63"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -4968,7 +4965,7 @@
       </c>
       <c r="F11" s="63"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -4987,7 +4984,7 @@
       </c>
       <c r="F12" s="63"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -5006,7 +5003,7 @@
       </c>
       <c r="F13" s="63"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -5025,7 +5022,7 @@
       </c>
       <c r="F14" s="63"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
         <v>12</v>
       </c>
@@ -5044,7 +5041,7 @@
       </c>
       <c r="F15" s="63"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>13</v>
       </c>
@@ -5063,7 +5060,7 @@
       </c>
       <c r="F16" s="63"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
         <v>14</v>
       </c>
@@ -5082,7 +5079,7 @@
       </c>
       <c r="F17" s="63"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <v>15</v>
       </c>
@@ -5101,7 +5098,7 @@
       </c>
       <c r="F18" s="63"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <v>17</v>
       </c>
@@ -5120,7 +5117,7 @@
       </c>
       <c r="F19" s="63"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="34">
         <v>17</v>
       </c>
@@ -5139,7 +5136,7 @@
       </c>
       <c r="F20" s="63"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <v>18</v>
       </c>
@@ -5158,7 +5155,7 @@
       </c>
       <c r="F21" s="63"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="34">
         <v>19</v>
       </c>
@@ -5177,7 +5174,7 @@
       </c>
       <c r="F22" s="63"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="34">
         <v>20</v>
       </c>
@@ -5196,7 +5193,7 @@
       </c>
       <c r="F23" s="63"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="34">
         <v>21</v>
       </c>
@@ -5215,7 +5212,7 @@
       </c>
       <c r="F24" s="63"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="34">
         <v>22</v>
       </c>
@@ -5234,7 +5231,7 @@
       </c>
       <c r="F25" s="63"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="34">
         <v>23</v>
       </c>
@@ -5253,7 +5250,7 @@
       </c>
       <c r="F26" s="50"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="34">
         <v>24</v>
       </c>
@@ -5272,7 +5269,7 @@
       </c>
       <c r="F27" s="50"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="34">
         <v>25</v>
       </c>
@@ -5291,7 +5288,7 @@
       </c>
       <c r="F28" s="50"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="34">
         <v>27</v>
       </c>
@@ -5310,7 +5307,7 @@
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="34">
         <v>27</v>
       </c>
@@ -5329,7 +5326,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="34">
         <v>28</v>
       </c>
@@ -5348,7 +5345,7 @@
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="105" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>29</v>
       </c>
@@ -5367,7 +5364,7 @@
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="105" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34">
         <v>30</v>
       </c>
@@ -5386,7 +5383,7 @@
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
         <v>32</v>
       </c>
@@ -5428,33 +5425,33 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="87" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="20" customWidth="1"/>
     <col min="3" max="3" width="18" style="93" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="76" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="84" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="76" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="84" customWidth="1"/>
     <col min="6" max="6" width="30" style="78" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="97" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="150" t="s">
+    <row r="2" spans="1:6" s="97" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+    </row>
+    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
     </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
@@ -5474,7 +5471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="68"/>
       <c r="B5" s="96"/>
       <c r="C5" s="99"/>
@@ -5482,11 +5479,11 @@
       <c r="E5" s="101"/>
       <c r="F5" s="68"/>
     </row>
-    <row r="6" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154">
+    <row r="6" spans="1:6" s="73" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="153">
         <v>1</v>
       </c>
-      <c r="B6" s="151">
+      <c r="B6" s="150">
         <v>44013</v>
       </c>
       <c r="C6" s="81" t="s">
@@ -5498,9 +5495,9 @@
       <c r="E6" s="92"/>
       <c r="F6" s="79"/>
     </row>
-    <row r="7" spans="1:6" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="153"/>
+    <row r="7" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="154"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="81" t="s">
         <v>84</v>
       </c>
@@ -5510,9 +5507,9 @@
       <c r="E7" s="92"/>
       <c r="F7" s="79"/>
     </row>
-    <row r="8" spans="1:6" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="153"/>
+    <row r="8" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="154"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="81" t="s">
         <v>100</v>
       </c>
@@ -5522,9 +5519,9 @@
       <c r="E8" s="92"/>
       <c r="F8" s="79"/>
     </row>
-    <row r="9" spans="1:6" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
-      <c r="B9" s="153"/>
+    <row r="9" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="154"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="81" t="s">
         <v>101</v>
       </c>
@@ -5534,9 +5531,9 @@
       <c r="E9" s="92"/>
       <c r="F9" s="79"/>
     </row>
-    <row r="10" spans="1:6" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
-      <c r="B10" s="153"/>
+    <row r="10" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="154"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="81" t="s">
         <v>102</v>
       </c>
@@ -5546,8 +5543,8 @@
       <c r="E10" s="92"/>
       <c r="F10" s="79"/>
     </row>
-    <row r="11" spans="1:6" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
+    <row r="11" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="155"/>
       <c r="B11" s="152"/>
       <c r="C11" s="81" t="s">
         <v>83</v>
@@ -5558,11 +5555,11 @@
       <c r="E11" s="92"/>
       <c r="F11" s="79"/>
     </row>
-    <row r="12" spans="1:6" s="73" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="73" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="89">
         <v>2</v>
       </c>
-      <c r="B12" s="151">
+      <c r="B12" s="150">
         <v>44014</v>
       </c>
       <c r="C12" s="81"/>
@@ -5572,7 +5569,7 @@
       <c r="E12" s="92"/>
       <c r="F12" s="79"/>
     </row>
-    <row r="13" spans="1:6" s="114" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="114" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="113"/>
       <c r="B13" s="152"/>
       <c r="C13" s="81"/>
@@ -5582,11 +5579,11 @@
       <c r="E13" s="92"/>
       <c r="F13" s="79"/>
     </row>
-    <row r="14" spans="1:6" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="154">
+    <row r="14" spans="1:6" s="77" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="153">
         <v>3</v>
       </c>
-      <c r="B14" s="151">
+      <c r="B14" s="150">
         <v>44015</v>
       </c>
       <c r="C14" s="81" t="s">
@@ -5598,9 +5595,9 @@
       <c r="E14" s="92"/>
       <c r="F14" s="110"/>
     </row>
-    <row r="15" spans="1:6" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
-      <c r="B15" s="153"/>
+    <row r="15" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="154"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="81" t="s">
         <v>104</v>
       </c>
@@ -5610,9 +5607,9 @@
       <c r="E15" s="92"/>
       <c r="F15" s="110"/>
     </row>
-    <row r="16" spans="1:6" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
-      <c r="B16" s="153"/>
+    <row r="16" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="154"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="81" t="s">
         <v>105</v>
       </c>
@@ -5622,9 +5619,9 @@
       <c r="E16" s="92"/>
       <c r="F16" s="110"/>
     </row>
-    <row r="17" spans="1:6" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
-      <c r="B17" s="153"/>
+    <row r="17" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="154"/>
+      <c r="B17" s="151"/>
       <c r="C17" s="81" t="s">
         <v>57</v>
       </c>
@@ -5636,7 +5633,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="112">
         <v>7</v>
       </c>
@@ -5650,7 +5647,7 @@
       <c r="E18" s="92"/>
       <c r="F18" s="110"/>
     </row>
-    <row r="19" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="89">
         <v>7</v>
       </c>
@@ -5664,7 +5661,7 @@
       <c r="E19" s="92"/>
       <c r="F19" s="79"/>
     </row>
-    <row r="20" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="89">
         <v>8</v>
       </c>
@@ -5678,9 +5675,9 @@
       <c r="E20" s="92"/>
       <c r="F20" s="79"/>
     </row>
-    <row r="21" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="113"/>
-      <c r="B21" s="151">
+      <c r="B21" s="150">
         <v>44019</v>
       </c>
       <c r="C21" s="81"/>
@@ -5690,9 +5687,9 @@
       <c r="E21" s="92"/>
       <c r="F21" s="79"/>
     </row>
-    <row r="22" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="113"/>
-      <c r="B22" s="153"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="81"/>
       <c r="D22" s="91">
         <v>0</v>
@@ -5700,9 +5697,9 @@
       <c r="E22" s="92"/>
       <c r="F22" s="79"/>
     </row>
-    <row r="23" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="113"/>
-      <c r="B23" s="153"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="81"/>
       <c r="D23" s="91">
         <v>0</v>
@@ -5712,7 +5709,7 @@
       </c>
       <c r="F23" s="79"/>
     </row>
-    <row r="24" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="89">
         <v>9</v>
       </c>
@@ -5724,7 +5721,7 @@
       <c r="E24" s="92"/>
       <c r="F24" s="79"/>
     </row>
-    <row r="25" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="89">
         <v>10</v>
       </c>
@@ -5738,9 +5735,9 @@
       <c r="E25" s="92"/>
       <c r="F25" s="79"/>
     </row>
-    <row r="26" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="113"/>
-      <c r="B26" s="151">
+      <c r="B26" s="150">
         <v>44021</v>
       </c>
       <c r="C26" s="81"/>
@@ -5750,9 +5747,9 @@
       <c r="E26" s="92"/>
       <c r="F26" s="79"/>
     </row>
-    <row r="27" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="113"/>
-      <c r="B27" s="153"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="81"/>
       <c r="D27" s="91">
         <v>0</v>
@@ -5760,9 +5757,9 @@
       <c r="E27" s="92"/>
       <c r="F27" s="79"/>
     </row>
-    <row r="28" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="113"/>
-      <c r="B28" s="153"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="81"/>
       <c r="D28" s="91">
         <v>0</v>
@@ -5770,7 +5767,7 @@
       <c r="E28" s="92"/>
       <c r="F28" s="79"/>
     </row>
-    <row r="29" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="113">
         <v>11</v>
       </c>
@@ -5782,7 +5779,7 @@
       <c r="E29" s="92"/>
       <c r="F29" s="79"/>
     </row>
-    <row r="30" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="89">
         <v>12</v>
       </c>
@@ -5796,7 +5793,7 @@
       <c r="E30" s="92"/>
       <c r="F30" s="79"/>
     </row>
-    <row r="31" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="89">
         <v>13</v>
       </c>
@@ -5810,9 +5807,9 @@
       <c r="E31" s="92"/>
       <c r="F31" s="79"/>
     </row>
-    <row r="32" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="113"/>
-      <c r="B32" s="151">
+      <c r="B32" s="150">
         <v>44024</v>
       </c>
       <c r="C32" s="81"/>
@@ -5822,9 +5819,9 @@
       <c r="E32" s="92"/>
       <c r="F32" s="79"/>
     </row>
-    <row r="33" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="113"/>
-      <c r="B33" s="153"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="81"/>
       <c r="D33" s="91">
         <v>0</v>
@@ -5832,9 +5829,9 @@
       <c r="E33" s="92"/>
       <c r="F33" s="79"/>
     </row>
-    <row r="34" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="113"/>
-      <c r="B34" s="153"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="81"/>
       <c r="D34" s="91">
         <v>0</v>
@@ -5842,9 +5839,9 @@
       <c r="E34" s="92"/>
       <c r="F34" s="79"/>
     </row>
-    <row r="35" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="113"/>
-      <c r="B35" s="153"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="81"/>
       <c r="D35" s="91">
         <v>0</v>
@@ -5852,9 +5849,9 @@
       <c r="E35" s="92"/>
       <c r="F35" s="79"/>
     </row>
-    <row r="36" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="113"/>
-      <c r="B36" s="153"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="81"/>
       <c r="D36" s="91">
         <v>0</v>
@@ -5862,7 +5859,7 @@
       <c r="E36" s="92"/>
       <c r="F36" s="79"/>
     </row>
-    <row r="37" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="89">
         <v>14</v>
       </c>
@@ -5874,7 +5871,7 @@
       <c r="E37" s="92"/>
       <c r="F37" s="79"/>
     </row>
-    <row r="38" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="89">
         <v>15</v>
       </c>
@@ -5888,7 +5885,7 @@
       <c r="E38" s="92"/>
       <c r="F38" s="79"/>
     </row>
-    <row r="39" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="89">
         <v>17</v>
       </c>
@@ -5902,7 +5899,7 @@
       <c r="E39" s="92"/>
       <c r="F39" s="79"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="89">
         <v>17</v>
       </c>
@@ -5916,7 +5913,7 @@
       <c r="E40" s="92"/>
       <c r="F40" s="79"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="89">
         <v>18</v>
       </c>
@@ -5930,7 +5927,7 @@
       <c r="E41" s="92"/>
       <c r="F41" s="79"/>
     </row>
-    <row r="42" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="89">
         <v>19</v>
       </c>
@@ -5944,7 +5941,7 @@
       <c r="E42" s="92"/>
       <c r="F42" s="79"/>
     </row>
-    <row r="43" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="89">
         <v>20</v>
       </c>
@@ -5958,7 +5955,7 @@
       <c r="E43" s="92"/>
       <c r="F43" s="79"/>
     </row>
-    <row r="44" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="89">
         <v>21</v>
       </c>
@@ -5972,7 +5969,7 @@
       <c r="E44" s="92"/>
       <c r="F44" s="79"/>
     </row>
-    <row r="45" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="89">
         <v>22</v>
       </c>
@@ -5986,7 +5983,7 @@
       <c r="E45" s="92"/>
       <c r="F45" s="79"/>
     </row>
-    <row r="46" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="89">
         <v>23</v>
       </c>
@@ -6000,7 +5997,7 @@
       <c r="E46" s="92"/>
       <c r="F46" s="79"/>
     </row>
-    <row r="47" spans="1:6" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="89">
         <v>24</v>
       </c>
@@ -6014,7 +6011,7 @@
       <c r="E47" s="92"/>
       <c r="F47" s="79"/>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="89">
         <v>25</v>
       </c>
@@ -6028,11 +6025,11 @@
       <c r="E48" s="92"/>
       <c r="F48" s="79"/>
     </row>
-    <row r="49" spans="1:6" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="89">
         <v>27</v>
       </c>
-      <c r="B49" s="151"/>
+      <c r="B49" s="150"/>
       <c r="C49" s="81"/>
       <c r="D49" s="91">
         <v>0</v>
@@ -6040,9 +6037,9 @@
       <c r="E49" s="92"/>
       <c r="F49" s="79"/>
     </row>
-    <row r="50" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="113"/>
-      <c r="B50" s="153"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="81"/>
       <c r="D50" s="91">
         <v>0</v>
@@ -6050,7 +6047,7 @@
       <c r="E50" s="92"/>
       <c r="F50" s="79"/>
     </row>
-    <row r="51" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="113"/>
       <c r="B51" s="152"/>
       <c r="C51" s="81"/>
@@ -6060,11 +6057,11 @@
       <c r="E51" s="92"/>
       <c r="F51" s="79"/>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="89">
         <v>27</v>
       </c>
-      <c r="B52" s="151">
+      <c r="B52" s="150">
         <v>44039</v>
       </c>
       <c r="C52" s="81"/>
@@ -6076,7 +6073,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="89">
         <v>27</v>
       </c>
@@ -6088,7 +6085,7 @@
       <c r="E53" s="92"/>
       <c r="F53" s="79"/>
     </row>
-    <row r="54" spans="1:6" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="89">
         <v>28</v>
       </c>
@@ -6102,11 +6099,11 @@
       <c r="E54" s="92"/>
       <c r="F54" s="79"/>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="154">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="153">
         <v>29</v>
       </c>
-      <c r="B55" s="151">
+      <c r="B55" s="150">
         <v>44040</v>
       </c>
       <c r="C55" s="81"/>
@@ -6116,9 +6113,9 @@
       <c r="E55" s="92"/>
       <c r="F55" s="79"/>
     </row>
-    <row r="56" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="155"/>
-      <c r="B56" s="153"/>
+    <row r="56" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="154"/>
+      <c r="B56" s="151"/>
       <c r="C56" s="81"/>
       <c r="D56" s="91">
         <v>0</v>
@@ -6126,9 +6123,9 @@
       <c r="E56" s="92"/>
       <c r="F56" s="79"/>
     </row>
-    <row r="57" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="155"/>
-      <c r="B57" s="153"/>
+    <row r="57" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="154"/>
+      <c r="B57" s="151"/>
       <c r="C57" s="81"/>
       <c r="D57" s="91">
         <v>0</v>
@@ -6136,9 +6133,9 @@
       <c r="E57" s="92"/>
       <c r="F57" s="79"/>
     </row>
-    <row r="58" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="155"/>
-      <c r="B58" s="153"/>
+    <row r="58" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="154"/>
+      <c r="B58" s="151"/>
       <c r="C58" s="81"/>
       <c r="D58" s="91">
         <v>0</v>
@@ -6146,9 +6143,9 @@
       <c r="E58" s="92"/>
       <c r="F58" s="79"/>
     </row>
-    <row r="59" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="155"/>
-      <c r="B59" s="153"/>
+    <row r="59" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="154"/>
+      <c r="B59" s="151"/>
       <c r="C59" s="81"/>
       <c r="D59" s="91">
         <v>0</v>
@@ -6156,8 +6153,8 @@
       <c r="E59" s="92"/>
       <c r="F59" s="79"/>
     </row>
-    <row r="60" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="156"/>
+    <row r="60" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="155"/>
       <c r="B60" s="152"/>
       <c r="C60" s="81"/>
       <c r="D60" s="91">
@@ -6166,7 +6163,7 @@
       <c r="E60" s="92"/>
       <c r="F60" s="79"/>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="89">
         <v>30</v>
       </c>
@@ -6180,11 +6177,11 @@
       <c r="E61" s="92"/>
       <c r="F61" s="79"/>
     </row>
-    <row r="62" spans="1:6" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="89">
         <v>32</v>
       </c>
-      <c r="B62" s="151">
+      <c r="B62" s="150">
         <v>44042</v>
       </c>
       <c r="C62" s="81"/>
@@ -6194,7 +6191,7 @@
       <c r="E62" s="92"/>
       <c r="F62" s="79"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="89"/>
       <c r="B63" s="152"/>
       <c r="C63" s="81"/>
@@ -6204,7 +6201,7 @@
       <c r="E63" s="42"/>
       <c r="F63" s="79"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="34">
         <v>35</v>
       </c>
@@ -6219,7 +6216,7 @@
       <c r="E64" s="91"/>
       <c r="F64" s="80"/>
     </row>
-    <row r="65" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="87"/>
       <c r="B65" s="20"/>
       <c r="C65" s="93"/>
@@ -6229,11 +6226,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B62:B63"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B21:B24"/>
@@ -6243,10 +6235,15 @@
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B62:B63"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6262,17 +6259,17 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="127"/>
+    <col min="1" max="1" width="4.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="127"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="157" t="s">
         <v>94</v>
       </c>
@@ -6282,7 +6279,7 @@
       <c r="E2" s="157"/>
       <c r="F2" s="157"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -6302,7 +6299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -6320,7 +6317,7 @@
       </c>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <v>2</v>
       </c>
@@ -6332,7 +6329,7 @@
       <c r="E6" s="42"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="158">
         <v>44015</v>
@@ -6342,7 +6339,7 @@
       <c r="E7" s="42"/>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>3</v>
       </c>
@@ -6352,7 +6349,7 @@
       <c r="E8" s="42"/>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
         <v>4</v>
       </c>
@@ -6364,7 +6361,7 @@
       <c r="E9" s="42"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>5</v>
       </c>
@@ -6376,7 +6373,7 @@
       <c r="E10" s="42"/>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
         <v>7</v>
       </c>
@@ -6388,7 +6385,7 @@
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <v>7</v>
       </c>
@@ -6400,7 +6397,7 @@
       <c r="E12" s="42"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <v>8</v>
       </c>
@@ -6412,7 +6409,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <v>9</v>
       </c>
@@ -6424,7 +6421,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
         <v>10</v>
       </c>
@@ -6436,7 +6433,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>11</v>
       </c>
@@ -6448,7 +6445,7 @@
       <c r="E16" s="42"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
         <v>12</v>
       </c>
@@ -6460,7 +6457,7 @@
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <v>13</v>
       </c>
@@ -6472,7 +6469,7 @@
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <v>14</v>
       </c>
@@ -6484,7 +6481,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="34">
         <v>15</v>
       </c>
@@ -6496,7 +6493,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <v>17</v>
       </c>
@@ -6508,7 +6505,7 @@
       <c r="E21" s="42"/>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="34">
         <v>17</v>
       </c>
@@ -6520,7 +6517,7 @@
       <c r="E22" s="42"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="34">
         <v>18</v>
       </c>
@@ -6532,7 +6529,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="34">
         <v>19</v>
       </c>
@@ -6544,7 +6541,7 @@
       <c r="E24" s="42"/>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="34">
         <v>20</v>
       </c>
@@ -6556,7 +6553,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="34">
         <v>21</v>
       </c>
@@ -6568,7 +6565,7 @@
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="34">
         <v>22</v>
       </c>
@@ -6580,7 +6577,7 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="34">
         <v>23</v>
       </c>
@@ -6592,7 +6589,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="34">
         <v>24</v>
       </c>
@@ -6604,7 +6601,7 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34">
         <v>25</v>
       </c>
@@ -6616,7 +6613,7 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34">
         <v>27</v>
       </c>
@@ -6626,7 +6623,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -6638,7 +6635,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34">
         <v>28</v>
       </c>
@@ -6650,7 +6647,7 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
         <v>29</v>
       </c>
@@ -6662,7 +6659,7 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="34">
         <v>30</v>
       </c>
@@ -6674,7 +6671,7 @@
       <c r="E35" s="42"/>
       <c r="F35" s="34"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="34">
         <v>31</v>
       </c>
@@ -6686,7 +6683,7 @@
       <c r="E36" s="42"/>
       <c r="F36" s="34"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="26">
         <v>32</v>
       </c>
@@ -6724,17 +6721,17 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B2" s="162" t="s">
         <v>95</v>
       </c>
@@ -6742,7 +6739,7 @@
       <c r="D2" s="163"/>
       <c r="E2" s="163"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -6759,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="115" t="s">
         <v>58</v>
@@ -6774,7 +6771,7 @@
         <v>5825000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="114" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
       <c r="B5" s="165" t="s">
         <v>61</v>
@@ -6789,7 +6786,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="114" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="166"/>
       <c r="C6" s="81" t="s">
@@ -6802,7 +6799,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="122" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="122" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="124">
         <v>44019</v>
@@ -6817,7 +6814,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="122" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="122" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="124" t="s">
         <v>96</v>
@@ -6832,7 +6829,7 @@
         <v>1032000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="122" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="122" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="124" t="s">
         <v>96</v>
@@ -6847,7 +6844,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="164" t="s">
         <v>34</v>
@@ -6859,74 +6856,74 @@
         <v>12137000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" s="64"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" s="64"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="K22" s="64"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -6946,21 +6943,21 @@
       <c r="U23" s="61"/>
       <c r="V23" s="61"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="K24" s="64"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -6968,20 +6965,20 @@
       <c r="F26" s="8"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="K27" s="64"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -6992,7 +6989,7 @@
       <c r="R29" s="64"/>
       <c r="S29" s="64"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -7003,28 +7000,28 @@
       <c r="R30" s="64"/>
       <c r="S30" s="64"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="O31" s="64"/>
       <c r="P31" s="64"/>
       <c r="Q31" s="64"/>
       <c r="R31" s="64"/>
       <c r="S31" s="64"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="O32" s="64"/>
       <c r="P32" s="64"/>
       <c r="Q32" s="64"/>
       <c r="R32" s="64"/>
       <c r="S32" s="64"/>
     </row>
-    <row r="33" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:19" x14ac:dyDescent="0.2">
       <c r="O33" s="64"/>
       <c r="P33" s="64"/>
       <c r="Q33" s="64"/>
       <c r="R33" s="64"/>
       <c r="S33" s="64"/>
     </row>
-    <row r="34" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:19" x14ac:dyDescent="0.2">
       <c r="O34" s="64"/>
       <c r="P34" s="64"/>
       <c r="Q34" s="64"/>
@@ -7055,19 +7052,19 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="157" t="s">
         <v>91</v>
       </c>
@@ -7078,18 +7075,18 @@
       <c r="G2" s="157"/>
       <c r="H2" s="157"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="167" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="167"/>
       <c r="D5" s="167"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
@@ -7100,7 +7097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="31">
         <v>1</v>
       </c>
@@ -7109,17 +7106,17 @@
       </c>
       <c r="D8" s="42">
         <f>'khám bệnh'!D37+'khám bệnh'!F37+'khám bệnh'!H37</f>
-        <v>9500000</v>
+        <v>30200000</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="47">
         <f>SUM(D8,D9)</f>
-        <v>14360000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>39890000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="31">
         <v>2</v>
       </c>
@@ -7128,7 +7125,7 @@
       </c>
       <c r="D9" s="42">
         <f>'khám bệnh'!Y37</f>
-        <v>4860000</v>
+        <v>9690000</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
@@ -7139,7 +7136,7 @@
         <v>16607000</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="31">
         <v>3</v>
       </c>
@@ -7158,7 +7155,7 @@
         <v>12137000</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="31">
         <v>4</v>
       </c>
@@ -7167,16 +7164,16 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>31017000</v>
+        <v>56547000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C12"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="168" t="s">
         <v>28</v>
       </c>
@@ -7184,8 +7181,8 @@
       <c r="D13" s="168"/>
       <c r="E13" s="168"/>
     </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -7199,7 +7196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="38">
         <v>1</v>
       </c>
@@ -7213,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="38">
         <v>2</v>
       </c>
@@ -7225,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="38">
         <v>4</v>
       </c>
@@ -7237,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="38">
         <v>5</v>
       </c>
@@ -7250,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="36">
         <v>7</v>
       </c>
@@ -7265,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="30">
         <v>7</v>
       </c>
@@ -7280,7 +7277,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="29">
         <v>8</v>
       </c>
@@ -7293,7 +7290,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="167" t="s">
         <v>42</v>
       </c>
@@ -7301,41 +7298,41 @@
       <c r="D26" s="167"/>
       <c r="E26" s="167"/>
     </row>
-    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="169">
         <f>SUM(D11,-E23)</f>
-        <v>30967000</v>
+        <v>56497000</v>
       </c>
       <c r="C27" s="170"/>
       <c r="D27" s="170"/>
       <c r="E27" s="171"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -7358,20 +7355,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805A625-BAF6-47D2-B82C-BA12E06CE220}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="177" t="s">
         <v>97</v>
       </c>
@@ -7380,7 +7377,7 @@
       <c r="D1" s="177"/>
       <c r="E1" s="177"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="168" t="s">
         <v>65</v>
       </c>
@@ -7389,11 +7386,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="122" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="123"/>
       <c r="B3" s="123"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>66</v>
       </c>
@@ -7409,7 +7406,7 @@
         <v>16657000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>67</v>
       </c>
@@ -7425,7 +7422,7 @@
         <v>11627185</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>68</v>
       </c>
@@ -7441,7 +7438,7 @@
         <v>5029815</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="168" t="s">
         <v>73</v>
       </c>
@@ -7449,7 +7446,7 @@
       <c r="C8" s="168"/>
       <c r="D8" s="168"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="175" t="s">
         <v>74</v>
       </c>
@@ -7459,7 +7456,7 @@
       </c>
       <c r="D9" s="176"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>75</v>
       </c>
@@ -7474,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>98</v>
       </c>
@@ -7487,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="47"/>
       <c r="C12" s="23" t="s">
@@ -7495,7 +7492,7 @@
       </c>
       <c r="D12" s="47"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>77</v>
       </c>
@@ -7511,19 +7508,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="8"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
         <f>B13-D13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C22" s="8"/>
     </row>
   </sheetData>

--- a/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8A00D-365A-D849-9094-B3ABA1B45B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C704BD-9E91-4DE1-B1CA-DF937F661AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -18,39 +18,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AA$4:$AA$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{B4A529C0-6BA5-41CF-9E48-08065A9A6D68}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
   <si>
     <t>STT</t>
   </si>
@@ -193,9 +176,6 @@
     <t>tiền</t>
   </si>
   <si>
-    <t>Bs Mai</t>
-  </si>
-  <si>
     <t>tiền cô Hương</t>
   </si>
   <si>
@@ -235,15 +215,6 @@
     <t>50 hộp</t>
   </si>
   <si>
-    <t>29/05/2020</t>
-  </si>
-  <si>
-    <t>kem đông y đa năng</t>
-  </si>
-  <si>
-    <t>lá tắm thảo dược</t>
-  </si>
-  <si>
     <t>10 lọ</t>
   </si>
   <si>
@@ -307,9 +278,6 @@
     <t>Sing 5mg</t>
   </si>
   <si>
-    <t>Trả mã ngày 21/12/2019</t>
-  </si>
-  <si>
     <t>Tinh chất an bì khang</t>
   </si>
   <si>
@@ -373,10 +341,85 @@
     <t>Thanh toán mã ngày 04/05/2020</t>
   </si>
   <si>
-    <t>phôt</t>
-  </si>
-  <si>
     <t>Bs Hương T:2 ; H:2</t>
+  </si>
+  <si>
+    <t>Bs Hương T:2 ; H:0</t>
+  </si>
+  <si>
+    <t>Monitazon</t>
+  </si>
+  <si>
+    <t>Enter ống</t>
+  </si>
+  <si>
+    <t>Clarityne viên</t>
+  </si>
+  <si>
+    <t>Flixotide</t>
+  </si>
+  <si>
+    <t>Buồng đệm</t>
+  </si>
+  <si>
+    <t>Máy KD</t>
+  </si>
+  <si>
+    <t>Insotac Fast</t>
+  </si>
+  <si>
+    <t>Vitamin K2-D3</t>
+  </si>
+  <si>
+    <t>Biomucan</t>
+  </si>
+  <si>
+    <t>kem đa năng</t>
+  </si>
+  <si>
+    <t>Lá tắm thảo dược</t>
+  </si>
+  <si>
+    <t>Thanh toán mã ngày 02/07/2020</t>
+  </si>
+  <si>
+    <t>Thanh toán mã ngày 29/05/2020</t>
+  </si>
+  <si>
+    <t>Pumicort</t>
+  </si>
+  <si>
+    <t>Sing 4mg (g)</t>
+  </si>
+  <si>
+    <t>Thanh toán mã ngày 30/06/2020</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>dây mạng</t>
+  </si>
+  <si>
+    <t>2 cái</t>
+  </si>
+  <si>
+    <t>kẹp gim</t>
+  </si>
+  <si>
+    <t>1 cái</t>
+  </si>
+  <si>
+    <t>kẹo</t>
+  </si>
+  <si>
+    <t>6 gói</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>tebexerol</t>
   </si>
 </sst>
 </file>
@@ -390,7 +433,7 @@
     <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,13 +536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -517,6 +553,18 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Va"/>
     </font>
   </fonts>
   <fills count="3">
@@ -689,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -810,9 +858,6 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,9 +895,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -879,7 +921,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -892,38 +933,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,9 +964,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,7 +971,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -982,7 +998,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1000,6 +1016,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,9 +1039,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,24 +1062,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1060,7 +1084,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,12 +1108,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1121,13 +1138,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1468,193 +1537,193 @@
   </sheetPr>
   <dimension ref="A2:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="52" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="51" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="8" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="3" customWidth="1"/>
-    <col min="28" max="29" width="9.1640625" style="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" style="1"/>
-    <col min="32" max="32" width="4.6640625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.1640625" style="1"/>
+    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="3" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="1"/>
+    <col min="32" max="32" width="4.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:42" ht="37" x14ac:dyDescent="0.45">
-      <c r="B2" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="147" t="s">
+    <row r="2" spans="1:42" ht="36">
+      <c r="B2" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="138" t="s">
+      <c r="D4" s="125"/>
+      <c r="E4" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="139"/>
+      <c r="G4" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="125"/>
+      <c r="K4" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="132"/>
+      <c r="M4" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="125"/>
+      <c r="U4" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="138"/>
-      <c r="K4" s="139" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="139"/>
-      <c r="M4" s="138" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="138"/>
-      <c r="U4" s="140" t="s">
+      <c r="V4" s="133"/>
+      <c r="W4" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="140"/>
-      <c r="W4" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="141" t="s">
+      <c r="X4" s="137"/>
+      <c r="Y4" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="137" t="s">
+      <c r="Z4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="138" t="s">
+      <c r="AA4" s="125" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="138"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="51" t="s">
+    <row r="5" spans="1:42" ht="15" customHeight="1">
+      <c r="A5" s="125"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="Q5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="T5" s="13" t="s">
@@ -1666,15 +1735,15 @@
       <c r="V5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="94" t="s">
+      <c r="W5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="94" t="s">
+      <c r="X5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="138"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="125"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -1691,7 +1760,7 @@
       <c r="AO5"/>
       <c r="AP5"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1768,7 +1837,7 @@
         <f>PRODUCT(U6,700000)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="94">
+      <c r="W6" s="89">
         <v>0</v>
       </c>
       <c r="X6" s="18">
@@ -1783,16 +1852,16 @@
         <f>SUM(D6,H6,Y6,F6)</f>
         <v>1730000</v>
       </c>
-      <c r="AA6" s="70"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AA6" s="68"/>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="57">
         <v>44014</v>
       </c>
-      <c r="C7" s="130">
+      <c r="C7" s="118">
         <v>8</v>
       </c>
       <c r="D7" s="17">
@@ -1806,7 +1875,7 @@
         <f t="shared" ref="F7:F35" si="1">PRODUCT(E7,100000)</f>
         <v>100000</v>
       </c>
-      <c r="G7" s="130">
+      <c r="G7" s="118">
         <v>0</v>
       </c>
       <c r="H7" s="40">
@@ -1820,7 +1889,7 @@
         <f t="shared" ref="J7:J14" si="3">PRODUCT(I7,300000)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="131">
+      <c r="K7" s="119">
         <v>0</v>
       </c>
       <c r="L7" s="41">
@@ -1855,14 +1924,14 @@
         <f t="shared" ref="T7:T36" si="8">PRODUCT(S7,50000)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="132">
-        <v>0</v>
-      </c>
-      <c r="V7" s="132">
+      <c r="U7" s="120">
+        <v>0</v>
+      </c>
+      <c r="V7" s="120">
         <f t="shared" ref="V7:V36" si="9">PRODUCT(U7,700000)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="132">
+      <c r="W7" s="120">
         <v>0</v>
       </c>
       <c r="X7" s="18">
@@ -1877,16 +1946,16 @@
         <f t="shared" ref="Z7:Z36" si="12">SUM(D7,H7,Y7,F7)</f>
         <v>1700000</v>
       </c>
-      <c r="AA7" s="88"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AA7" s="85"/>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="57">
         <v>44015</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="118">
         <v>5</v>
       </c>
       <c r="D8" s="17">
@@ -1900,7 +1969,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="130">
+      <c r="G8" s="118">
         <v>3</v>
       </c>
       <c r="H8" s="40">
@@ -1914,7 +1983,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="131">
+      <c r="K8" s="119">
         <v>0</v>
       </c>
       <c r="L8" s="41">
@@ -1949,14 +2018,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U8" s="132">
-        <v>0</v>
-      </c>
-      <c r="V8" s="132">
+      <c r="U8" s="120">
+        <v>0</v>
+      </c>
+      <c r="V8" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W8" s="132">
+      <c r="W8" s="120">
         <v>0</v>
       </c>
       <c r="X8" s="18">
@@ -1971,7 +2040,7 @@
         <f t="shared" si="12"/>
         <v>2500000</v>
       </c>
-      <c r="AA8" s="88"/>
+      <c r="AA8" s="85"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
@@ -1986,14 +2055,14 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
     </row>
-    <row r="9" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" customFormat="1">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="57">
         <v>44016</v>
       </c>
-      <c r="C9" s="130">
+      <c r="C9" s="118">
         <v>4</v>
       </c>
       <c r="D9" s="17">
@@ -2007,7 +2076,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="130">
+      <c r="G9" s="118">
         <v>17</v>
       </c>
       <c r="H9" s="40">
@@ -2021,7 +2090,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="131">
+      <c r="K9" s="119">
         <v>2</v>
       </c>
       <c r="L9" s="41">
@@ -2056,14 +2125,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U9" s="132">
-        <v>0</v>
-      </c>
-      <c r="V9" s="132">
+      <c r="U9" s="120">
+        <v>0</v>
+      </c>
+      <c r="V9" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W9" s="132">
+      <c r="W9" s="120">
         <v>0</v>
       </c>
       <c r="X9" s="18">
@@ -2078,16 +2147,16 @@
         <f t="shared" si="12"/>
         <v>10160000</v>
       </c>
-      <c r="AA9" s="88"/>
-    </row>
-    <row r="10" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="85"/>
+    </row>
+    <row r="10" spans="1:42" customFormat="1">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="57">
         <v>44017</v>
       </c>
-      <c r="C10" s="130">
+      <c r="C10" s="118">
         <v>4</v>
       </c>
       <c r="D10" s="17">
@@ -2101,7 +2170,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="130">
+      <c r="G10" s="118">
         <v>11</v>
       </c>
       <c r="H10" s="40">
@@ -2115,7 +2184,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="131">
+      <c r="K10" s="119">
         <v>0</v>
       </c>
       <c r="L10" s="41">
@@ -2150,14 +2219,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U10" s="132">
-        <v>0</v>
-      </c>
-      <c r="V10" s="132">
+      <c r="U10" s="120">
+        <v>0</v>
+      </c>
+      <c r="V10" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W10" s="132">
+      <c r="W10" s="120">
         <v>0</v>
       </c>
       <c r="X10" s="18">
@@ -2172,16 +2241,16 @@
         <f t="shared" si="12"/>
         <v>7700000</v>
       </c>
-      <c r="AA10" s="88"/>
-    </row>
-    <row r="11" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA10" s="85"/>
+    </row>
+    <row r="11" spans="1:42" customFormat="1">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="57">
         <v>44018</v>
       </c>
-      <c r="C11" s="130">
+      <c r="C11" s="118">
         <v>5</v>
       </c>
       <c r="D11" s="17">
@@ -2195,7 +2264,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="130">
+      <c r="G11" s="118">
         <v>4</v>
       </c>
       <c r="H11" s="40">
@@ -2209,7 +2278,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="131">
+      <c r="K11" s="119">
         <v>0</v>
       </c>
       <c r="L11" s="41">
@@ -2244,14 +2313,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U11" s="132">
-        <v>0</v>
-      </c>
-      <c r="V11" s="132">
+      <c r="U11" s="120">
+        <v>0</v>
+      </c>
+      <c r="V11" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W11" s="132">
+      <c r="W11" s="120">
         <v>0</v>
       </c>
       <c r="X11" s="18">
@@ -2266,16 +2335,16 @@
         <f t="shared" si="12"/>
         <v>2800000</v>
       </c>
-      <c r="AA11" s="88"/>
-    </row>
-    <row r="12" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA11" s="85"/>
+    </row>
+    <row r="12" spans="1:42" customFormat="1">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="57">
         <v>44019</v>
       </c>
-      <c r="C12" s="130">
+      <c r="C12" s="118">
         <v>10</v>
       </c>
       <c r="D12" s="17">
@@ -2289,7 +2358,7 @@
         <f t="shared" si="1"/>
         <v>400000</v>
       </c>
-      <c r="G12" s="130">
+      <c r="G12" s="118">
         <v>2</v>
       </c>
       <c r="H12" s="40">
@@ -2303,7 +2372,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="131">
+      <c r="K12" s="119">
         <v>0</v>
       </c>
       <c r="L12" s="41">
@@ -2338,14 +2407,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U12" s="132">
-        <v>0</v>
-      </c>
-      <c r="V12" s="132">
+      <c r="U12" s="120">
+        <v>0</v>
+      </c>
+      <c r="V12" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W12" s="132">
+      <c r="W12" s="120">
         <v>0</v>
       </c>
       <c r="X12" s="18">
@@ -2360,16 +2429,16 @@
         <f t="shared" si="12"/>
         <v>3600000</v>
       </c>
-      <c r="AA12" s="88"/>
-    </row>
-    <row r="13" spans="1:42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA12" s="85"/>
+    </row>
+    <row r="13" spans="1:42" customFormat="1">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="57">
         <v>44020</v>
       </c>
-      <c r="C13" s="130">
+      <c r="C13" s="118">
         <v>5</v>
       </c>
       <c r="D13" s="17">
@@ -2383,7 +2452,7 @@
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
-      <c r="G13" s="130">
+      <c r="G13" s="118">
         <v>5</v>
       </c>
       <c r="H13" s="40">
@@ -2397,7 +2466,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="131">
+      <c r="K13" s="119">
         <v>0</v>
       </c>
       <c r="L13" s="41">
@@ -2432,14 +2501,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U13" s="132">
-        <v>0</v>
-      </c>
-      <c r="V13" s="132">
+      <c r="U13" s="120">
+        <v>0</v>
+      </c>
+      <c r="V13" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W13" s="132">
+      <c r="W13" s="120">
         <v>0</v>
       </c>
       <c r="X13" s="18">
@@ -2454,18 +2523,18 @@
         <f t="shared" si="12"/>
         <v>3030000</v>
       </c>
-      <c r="AA13" s="88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AA13" s="85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="57">
         <v>44021</v>
       </c>
-      <c r="C14" s="130">
+      <c r="C14" s="118">
         <v>4</v>
       </c>
       <c r="D14" s="17">
@@ -2479,7 +2548,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="130">
+      <c r="G14" s="118">
         <v>3</v>
       </c>
       <c r="H14" s="40">
@@ -2493,7 +2562,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="131">
+      <c r="K14" s="119">
         <v>0</v>
       </c>
       <c r="L14" s="41">
@@ -2528,14 +2597,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U14" s="132">
-        <v>0</v>
-      </c>
-      <c r="V14" s="132">
+      <c r="U14" s="120">
+        <v>0</v>
+      </c>
+      <c r="V14" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W14" s="132">
+      <c r="W14" s="120">
         <v>0</v>
       </c>
       <c r="X14" s="18">
@@ -2550,18 +2619,18 @@
         <f t="shared" si="12"/>
         <v>1700000</v>
       </c>
-      <c r="AA14" s="88"/>
+      <c r="AA14" s="85"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="58">
+    <row r="15" spans="1:42">
+      <c r="A15" s="92"/>
+      <c r="B15" s="57">
         <v>44022</v>
       </c>
-      <c r="C15" s="130">
+      <c r="C15" s="118">
         <v>11</v>
       </c>
       <c r="D15" s="17">
@@ -2575,7 +2644,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="130">
+      <c r="G15" s="118">
         <v>4</v>
       </c>
       <c r="H15" s="40">
@@ -2584,7 +2653,7 @@
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="131">
+      <c r="K15" s="119">
         <v>0</v>
       </c>
       <c r="L15" s="41">
@@ -2619,14 +2688,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U15" s="132">
-        <v>0</v>
-      </c>
-      <c r="V15" s="132">
+      <c r="U15" s="120">
+        <v>0</v>
+      </c>
+      <c r="V15" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W15" s="132">
+      <c r="W15" s="120">
         <v>0</v>
       </c>
       <c r="X15" s="18">
@@ -2641,18 +2710,18 @@
         <f t="shared" si="12"/>
         <v>3400000</v>
       </c>
-      <c r="AA15" s="102"/>
+      <c r="AA15" s="92"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
-      <c r="B16" s="58">
+    <row r="16" spans="1:42">
+      <c r="A16" s="92"/>
+      <c r="B16" s="57">
         <v>44023</v>
       </c>
-      <c r="C16" s="130">
+      <c r="C16" s="118">
         <v>3</v>
       </c>
       <c r="D16" s="17">
@@ -2664,9 +2733,9 @@
       </c>
       <c r="F16" s="17">
         <f>PRODUCT(E17,100000)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="130">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="118">
         <v>9</v>
       </c>
       <c r="H16" s="40">
@@ -2675,7 +2744,7 @@
       </c>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="131">
+      <c r="K16" s="119">
         <v>0</v>
       </c>
       <c r="L16" s="41">
@@ -2710,14 +2779,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U16" s="132">
-        <v>0</v>
-      </c>
-      <c r="V16" s="132">
+      <c r="U16" s="120">
+        <v>0</v>
+      </c>
+      <c r="V16" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W16" s="132">
+      <c r="W16" s="120">
         <v>0</v>
       </c>
       <c r="X16" s="18">
@@ -2730,62 +2799,62 @@
       </c>
       <c r="Z16" s="17">
         <f t="shared" si="12"/>
-        <v>3300000</v>
-      </c>
-      <c r="AA16" s="102"/>
+        <v>3400000</v>
+      </c>
+      <c r="AA16" s="92"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="102"/>
-      <c r="B17" s="58">
+    <row r="17" spans="1:31">
+      <c r="A17" s="92"/>
+      <c r="B17" s="57">
         <v>44024</v>
       </c>
-      <c r="C17" s="130">
-        <v>0</v>
+      <c r="C17" s="118">
+        <v>7</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="E17" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="130">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="G17" s="118">
+        <v>19</v>
       </c>
       <c r="H17" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5700000</v>
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="131">
-        <v>0</v>
+      <c r="K17" s="119">
+        <v>1</v>
       </c>
       <c r="L17" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M17" s="14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N17" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3900000</v>
       </c>
       <c r="O17" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P17" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="Q17" s="14">
         <v>0</v>
@@ -2801,14 +2870,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U17" s="132">
-        <v>0</v>
-      </c>
-      <c r="V17" s="132">
+      <c r="U17" s="120">
+        <v>0</v>
+      </c>
+      <c r="V17" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W17" s="132">
+      <c r="W17" s="120">
         <v>0</v>
       </c>
       <c r="X17" s="18">
@@ -2817,29 +2886,29 @@
       </c>
       <c r="Y17" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5730000</v>
       </c>
       <c r="Z17" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="102"/>
+        <v>12930000</v>
+      </c>
+      <c r="AA17" s="92"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="58">
+    <row r="18" spans="1:31">
+      <c r="A18" s="92"/>
+      <c r="B18" s="57">
         <v>44025</v>
       </c>
-      <c r="C18" s="130">
-        <v>0</v>
+      <c r="C18" s="118">
+        <v>8</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -2848,21 +2917,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="130">
-        <v>0</v>
+      <c r="G18" s="118">
+        <v>2</v>
       </c>
       <c r="H18" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="131">
-        <v>0</v>
+      <c r="K18" s="119">
+        <v>2</v>
       </c>
       <c r="L18" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="M18" s="14">
         <v>0</v>
@@ -2892,14 +2961,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U18" s="132">
-        <v>0</v>
-      </c>
-      <c r="V18" s="132">
+      <c r="U18" s="120">
+        <v>0</v>
+      </c>
+      <c r="V18" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W18" s="132">
+      <c r="W18" s="120">
         <v>0</v>
       </c>
       <c r="X18" s="18">
@@ -2908,29 +2977,29 @@
       </c>
       <c r="Y18" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="Z18" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="102"/>
+        <v>2260000</v>
+      </c>
+      <c r="AA18" s="92"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
-      <c r="B19" s="58">
+    <row r="19" spans="1:31">
+      <c r="A19" s="92"/>
+      <c r="B19" s="57">
         <v>44026</v>
       </c>
-      <c r="C19" s="130">
-        <v>0</v>
+      <c r="C19" s="118">
+        <v>14</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
@@ -2939,16 +3008,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="130">
-        <v>0</v>
+      <c r="G19" s="118">
+        <v>2</v>
       </c>
       <c r="H19" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="131">
+      <c r="K19" s="119">
         <v>0</v>
       </c>
       <c r="L19" s="41">
@@ -2983,14 +3052,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U19" s="132">
-        <v>0</v>
-      </c>
-      <c r="V19" s="132">
+      <c r="U19" s="120">
+        <v>0</v>
+      </c>
+      <c r="V19" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W19" s="132">
+      <c r="W19" s="120">
         <v>0</v>
       </c>
       <c r="X19" s="18">
@@ -3003,43 +3072,45 @@
       </c>
       <c r="Z19" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="102"/>
+        <v>3400000</v>
+      </c>
+      <c r="AA19" s="124" t="s">
+        <v>103</v>
+      </c>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="58">
+    <row r="20" spans="1:31">
+      <c r="A20" s="92"/>
+      <c r="B20" s="57">
         <v>44027</v>
       </c>
-      <c r="C20" s="130">
-        <v>0</v>
+      <c r="C20" s="118">
+        <v>11</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="130">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="G20" s="118">
+        <v>6</v>
       </c>
       <c r="H20" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="131">
+      <c r="K20" s="119">
         <v>0</v>
       </c>
       <c r="L20" s="41">
@@ -3047,11 +3118,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="O20" s="14">
         <v>0</v>
@@ -3068,20 +3139,20 @@
         <v>0</v>
       </c>
       <c r="S20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="132">
-        <v>0</v>
-      </c>
-      <c r="V20" s="132">
+        <v>50000</v>
+      </c>
+      <c r="U20" s="120">
+        <v>0</v>
+      </c>
+      <c r="V20" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W20" s="132">
+      <c r="W20" s="120">
         <v>0</v>
       </c>
       <c r="X20" s="18">
@@ -3090,29 +3161,29 @@
       </c>
       <c r="Y20" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="Z20" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="102"/>
+        <v>4750000</v>
+      </c>
+      <c r="AA20" s="92"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
-      <c r="B21" s="58">
-        <v>44029</v>
-      </c>
-      <c r="C21" s="130">
-        <v>0</v>
+    <row r="21" spans="1:31">
+      <c r="A21" s="92"/>
+      <c r="B21" s="57">
+        <v>44028</v>
+      </c>
+      <c r="C21" s="118">
+        <v>2</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -3121,16 +3192,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="130">
-        <v>0</v>
+      <c r="G21" s="118">
+        <v>1</v>
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="131">
+      <c r="K21" s="119">
         <v>0</v>
       </c>
       <c r="L21" s="41">
@@ -3145,11 +3216,11 @@
         <v>0</v>
       </c>
       <c r="O21" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Q21" s="14">
         <v>0</v>
@@ -3165,14 +3236,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U21" s="132">
-        <v>0</v>
-      </c>
-      <c r="V21" s="132">
+      <c r="U21" s="120">
+        <v>0</v>
+      </c>
+      <c r="V21" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W21" s="132">
+      <c r="W21" s="120">
         <v>0</v>
       </c>
       <c r="X21" s="18">
@@ -3181,29 +3252,29 @@
       </c>
       <c r="Y21" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Z21" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="102"/>
+        <v>1300000</v>
+      </c>
+      <c r="AA21" s="92"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="102"/>
-      <c r="B22" s="58">
+    <row r="22" spans="1:31">
+      <c r="A22" s="92"/>
+      <c r="B22" s="57">
         <v>44029</v>
       </c>
-      <c r="C22" s="130">
-        <v>0</v>
+      <c r="C22" s="118">
+        <v>7</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -3212,16 +3283,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="130">
-        <v>0</v>
+      <c r="G22" s="118">
+        <v>3</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="131">
+      <c r="K22" s="119">
         <v>0</v>
       </c>
       <c r="L22" s="41">
@@ -3229,25 +3300,25 @@
         <v>0</v>
       </c>
       <c r="M22" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="O22" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="Q22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="S22" s="13">
         <v>0</v>
@@ -3256,14 +3327,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U22" s="132">
-        <v>0</v>
-      </c>
-      <c r="V22" s="132">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="132">
+      <c r="U22" s="120">
+        <v>1</v>
+      </c>
+      <c r="V22" s="120">
+        <v>800000</v>
+      </c>
+      <c r="W22" s="120">
         <v>0</v>
       </c>
       <c r="X22" s="18">
@@ -3272,47 +3342,47 @@
       </c>
       <c r="Y22" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2630000</v>
       </c>
       <c r="Z22" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="102"/>
+        <v>4930000</v>
+      </c>
+      <c r="AA22" s="92"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="102"/>
-      <c r="B23" s="58">
+    <row r="23" spans="1:31">
+      <c r="A23" s="92"/>
+      <c r="B23" s="57">
         <v>44030</v>
       </c>
-      <c r="C23" s="130">
-        <v>0</v>
+      <c r="C23" s="118">
+        <v>14</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="E23" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="130">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="G23" s="118">
+        <v>12</v>
       </c>
       <c r="H23" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3600000</v>
       </c>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="131">
+      <c r="K23" s="119">
         <v>0</v>
       </c>
       <c r="L23" s="41">
@@ -3320,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="M23" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N23" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="O23" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Q23" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="S23" s="13">
         <v>0</v>
@@ -3347,14 +3417,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U23" s="132">
-        <v>0</v>
-      </c>
-      <c r="V23" s="132">
+      <c r="U23" s="120">
+        <v>0</v>
+      </c>
+      <c r="V23" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W23" s="132">
+      <c r="W23" s="120">
         <v>0</v>
       </c>
       <c r="X23" s="18">
@@ -3363,47 +3433,47 @@
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2730000</v>
       </c>
       <c r="Z23" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="102"/>
+        <v>9230000</v>
+      </c>
+      <c r="AA23" s="92"/>
       <c r="AB23" s="11"/>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="102"/>
-      <c r="B24" s="58">
+    <row r="24" spans="1:31">
+      <c r="A24" s="92"/>
+      <c r="B24" s="57">
         <v>44031</v>
       </c>
-      <c r="C24" s="130">
-        <v>0</v>
+      <c r="C24" s="118">
+        <v>1</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="E24" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="130">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="G24" s="118">
+        <v>12</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3600000</v>
       </c>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="131">
+      <c r="K24" s="119">
         <v>0</v>
       </c>
       <c r="L24" s="41">
@@ -3411,11 +3481,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N24" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="O24" s="14">
         <v>0</v>
@@ -3425,11 +3495,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="S24" s="13">
         <v>0</v>
@@ -3438,14 +3508,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U24" s="132">
-        <v>0</v>
-      </c>
-      <c r="V24" s="132">
+      <c r="U24" s="120">
+        <v>0</v>
+      </c>
+      <c r="V24" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W24" s="132">
+      <c r="W24" s="120">
         <v>0</v>
       </c>
       <c r="X24" s="18">
@@ -3454,29 +3524,29 @@
       </c>
       <c r="Y24" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2160000</v>
       </c>
       <c r="Z24" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="102"/>
+        <v>6060000</v>
+      </c>
+      <c r="AA24" s="92"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="58">
+    <row r="25" spans="1:31">
+      <c r="A25" s="92"/>
+      <c r="B25" s="57">
         <v>44032</v>
       </c>
-      <c r="C25" s="130">
-        <v>0</v>
+      <c r="C25" s="118">
+        <v>11</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
@@ -3485,16 +3555,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="130">
-        <v>0</v>
+      <c r="G25" s="118">
+        <v>1</v>
       </c>
       <c r="H25" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="131">
+      <c r="K25" s="119">
         <v>0</v>
       </c>
       <c r="L25" s="41">
@@ -3502,11 +3572,11 @@
         <v>0</v>
       </c>
       <c r="M25" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="O25" s="14">
         <v>0</v>
@@ -3529,14 +3599,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U25" s="132">
-        <v>0</v>
-      </c>
-      <c r="V25" s="132">
+      <c r="U25" s="120">
+        <v>0</v>
+      </c>
+      <c r="V25" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W25" s="132">
+      <c r="W25" s="120">
         <v>0</v>
       </c>
       <c r="X25" s="18">
@@ -3545,24 +3615,24 @@
       </c>
       <c r="Y25" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="Z25" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="102"/>
+        <v>2800000</v>
+      </c>
+      <c r="AA25" s="92"/>
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="102"/>
-      <c r="B26" s="58">
+    <row r="26" spans="1:31">
+      <c r="A26" s="92"/>
+      <c r="B26" s="57">
         <v>44033</v>
       </c>
-      <c r="C26" s="130">
+      <c r="C26" s="118">
         <v>0</v>
       </c>
       <c r="D26" s="17">
@@ -3576,7 +3646,7 @@
         <f>PRODUCT(E27,100000)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="130">
+      <c r="G26" s="118">
         <v>0</v>
       </c>
       <c r="H26" s="40">
@@ -3585,7 +3655,7 @@
       </c>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="131">
+      <c r="K26" s="119">
         <v>0</v>
       </c>
       <c r="L26" s="41">
@@ -3620,14 +3690,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U26" s="132">
-        <v>0</v>
-      </c>
-      <c r="V26" s="132">
+      <c r="U26" s="120">
+        <v>0</v>
+      </c>
+      <c r="V26" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W26" s="132">
+      <c r="W26" s="120">
         <v>0</v>
       </c>
       <c r="X26" s="18">
@@ -3642,18 +3712,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="102"/>
+      <c r="AA26" s="92"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="58">
+    <row r="27" spans="1:31">
+      <c r="A27" s="92"/>
+      <c r="B27" s="57">
         <v>44034</v>
       </c>
-      <c r="C27" s="130">
+      <c r="C27" s="118">
         <v>0</v>
       </c>
       <c r="D27" s="17">
@@ -3667,7 +3737,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="130">
+      <c r="G27" s="118">
         <v>0</v>
       </c>
       <c r="H27" s="40">
@@ -3676,7 +3746,7 @@
       </c>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="131">
+      <c r="K27" s="119">
         <v>0</v>
       </c>
       <c r="L27" s="41">
@@ -3711,14 +3781,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U27" s="132">
-        <v>0</v>
-      </c>
-      <c r="V27" s="132">
+      <c r="U27" s="120">
+        <v>0</v>
+      </c>
+      <c r="V27" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W27" s="132">
+      <c r="W27" s="120">
         <v>0</v>
       </c>
       <c r="X27" s="18">
@@ -3733,18 +3803,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="102"/>
+      <c r="AA27" s="92"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="102"/>
-      <c r="B28" s="58">
+    <row r="28" spans="1:31">
+      <c r="A28" s="92"/>
+      <c r="B28" s="57">
         <v>44035</v>
       </c>
-      <c r="C28" s="130">
+      <c r="C28" s="118">
         <v>0</v>
       </c>
       <c r="D28" s="17">
@@ -3758,7 +3828,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="130">
+      <c r="G28" s="118">
         <v>0</v>
       </c>
       <c r="H28" s="40">
@@ -3767,7 +3837,7 @@
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="131">
+      <c r="K28" s="119">
         <v>0</v>
       </c>
       <c r="L28" s="41">
@@ -3802,14 +3872,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U28" s="132">
-        <v>0</v>
-      </c>
-      <c r="V28" s="132">
+      <c r="U28" s="120">
+        <v>0</v>
+      </c>
+      <c r="V28" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W28" s="132">
+      <c r="W28" s="120">
         <v>0</v>
       </c>
       <c r="X28" s="18">
@@ -3824,18 +3894,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="102"/>
+      <c r="AA28" s="92"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="102"/>
-      <c r="B29" s="58">
+    <row r="29" spans="1:31">
+      <c r="A29" s="92"/>
+      <c r="B29" s="57">
         <v>44036</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="118">
         <v>0</v>
       </c>
       <c r="D29" s="17">
@@ -3849,7 +3919,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="130">
+      <c r="G29" s="118">
         <v>0</v>
       </c>
       <c r="H29" s="40">
@@ -3858,7 +3928,7 @@
       </c>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="131">
+      <c r="K29" s="119">
         <v>0</v>
       </c>
       <c r="L29" s="41">
@@ -3893,14 +3963,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U29" s="132">
-        <v>0</v>
-      </c>
-      <c r="V29" s="132">
+      <c r="U29" s="120">
+        <v>0</v>
+      </c>
+      <c r="V29" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W29" s="132">
+      <c r="W29" s="120">
         <v>0</v>
       </c>
       <c r="X29" s="18">
@@ -3915,18 +3985,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="102"/>
+      <c r="AA29" s="92"/>
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="102"/>
-      <c r="B30" s="58">
+    <row r="30" spans="1:31">
+      <c r="A30" s="92"/>
+      <c r="B30" s="57">
         <v>44037</v>
       </c>
-      <c r="C30" s="130">
+      <c r="C30" s="118">
         <v>0</v>
       </c>
       <c r="D30" s="17">
@@ -3940,7 +4010,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="130">
+      <c r="G30" s="118">
         <v>0</v>
       </c>
       <c r="H30" s="40">
@@ -3949,7 +4019,7 @@
       </c>
       <c r="I30" s="40"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="131">
+      <c r="K30" s="119">
         <v>0</v>
       </c>
       <c r="L30" s="41">
@@ -3984,14 +4054,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U30" s="132">
-        <v>0</v>
-      </c>
-      <c r="V30" s="132">
+      <c r="U30" s="120">
+        <v>0</v>
+      </c>
+      <c r="V30" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W30" s="132">
+      <c r="W30" s="120">
         <v>0</v>
       </c>
       <c r="X30" s="18">
@@ -4006,18 +4076,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="102"/>
+      <c r="AA30" s="92"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="102"/>
-      <c r="B31" s="58">
+    <row r="31" spans="1:31">
+      <c r="A31" s="92"/>
+      <c r="B31" s="57">
         <v>44039</v>
       </c>
-      <c r="C31" s="130">
+      <c r="C31" s="118">
         <v>0</v>
       </c>
       <c r="D31" s="17">
@@ -4031,7 +4101,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="130">
+      <c r="G31" s="118">
         <v>0</v>
       </c>
       <c r="H31" s="40">
@@ -4040,7 +4110,7 @@
       </c>
       <c r="I31" s="40"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="131">
+      <c r="K31" s="119">
         <v>0</v>
       </c>
       <c r="L31" s="41">
@@ -4075,14 +4145,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U31" s="132">
-        <v>0</v>
-      </c>
-      <c r="V31" s="132">
+      <c r="U31" s="120">
+        <v>0</v>
+      </c>
+      <c r="V31" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W31" s="132">
+      <c r="W31" s="120">
         <v>0</v>
       </c>
       <c r="X31" s="18">
@@ -4097,18 +4167,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="102"/>
+      <c r="AA31" s="92"/>
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="102"/>
-      <c r="B32" s="58">
+    <row r="32" spans="1:31">
+      <c r="A32" s="92"/>
+      <c r="B32" s="57">
         <v>44039</v>
       </c>
-      <c r="C32" s="130">
+      <c r="C32" s="118">
         <v>0</v>
       </c>
       <c r="D32" s="17">
@@ -4122,7 +4192,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="130">
+      <c r="G32" s="118">
         <v>0</v>
       </c>
       <c r="H32" s="40">
@@ -4131,7 +4201,7 @@
       </c>
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="131">
+      <c r="K32" s="119">
         <v>0</v>
       </c>
       <c r="L32" s="41">
@@ -4166,14 +4236,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U32" s="132">
-        <v>0</v>
-      </c>
-      <c r="V32" s="132">
+      <c r="U32" s="120">
+        <v>0</v>
+      </c>
+      <c r="V32" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W32" s="132">
+      <c r="W32" s="120">
         <v>0</v>
       </c>
       <c r="X32" s="18">
@@ -4188,18 +4258,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="102"/>
+      <c r="AA32" s="92"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="102"/>
-      <c r="B33" s="58">
+    <row r="33" spans="1:31">
+      <c r="A33" s="92"/>
+      <c r="B33" s="57">
         <v>44040</v>
       </c>
-      <c r="C33" s="130">
+      <c r="C33" s="118">
         <v>0</v>
       </c>
       <c r="D33" s="17">
@@ -4213,7 +4283,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G33" s="130">
+      <c r="G33" s="118">
         <v>0</v>
       </c>
       <c r="H33" s="40">
@@ -4222,7 +4292,7 @@
       </c>
       <c r="I33" s="40"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="131">
+      <c r="K33" s="119">
         <v>0</v>
       </c>
       <c r="L33" s="41">
@@ -4257,14 +4327,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U33" s="132">
-        <v>0</v>
-      </c>
-      <c r="V33" s="132">
+      <c r="U33" s="120">
+        <v>0</v>
+      </c>
+      <c r="V33" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W33" s="132">
+      <c r="W33" s="120">
         <v>0</v>
       </c>
       <c r="X33" s="18">
@@ -4279,18 +4349,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="102"/>
+      <c r="AA33" s="92"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
-      <c r="B34" s="58">
+    <row r="34" spans="1:31">
+      <c r="A34" s="94"/>
+      <c r="B34" s="57">
         <v>44041</v>
       </c>
-      <c r="C34" s="130">
+      <c r="C34" s="118">
         <v>0</v>
       </c>
       <c r="D34" s="17">
@@ -4304,7 +4374,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="130">
+      <c r="G34" s="118">
         <v>0</v>
       </c>
       <c r="H34" s="40">
@@ -4313,7 +4383,7 @@
       </c>
       <c r="I34" s="40"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="131">
+      <c r="K34" s="119">
         <v>0</v>
       </c>
       <c r="L34" s="41">
@@ -4348,14 +4418,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U34" s="132">
-        <v>0</v>
-      </c>
-      <c r="V34" s="132">
+      <c r="U34" s="120">
+        <v>0</v>
+      </c>
+      <c r="V34" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W34" s="132">
+      <c r="W34" s="120">
         <v>0</v>
       </c>
       <c r="X34" s="18">
@@ -4370,18 +4440,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="104"/>
+      <c r="AA34" s="94"/>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
-      <c r="B35" s="58">
+    <row r="35" spans="1:31">
+      <c r="A35" s="94"/>
+      <c r="B35" s="57">
         <v>44042</v>
       </c>
-      <c r="C35" s="130">
+      <c r="C35" s="118">
         <v>0</v>
       </c>
       <c r="D35" s="17">
@@ -4395,7 +4465,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="130">
+      <c r="G35" s="118">
         <v>0</v>
       </c>
       <c r="H35" s="40">
@@ -4404,7 +4474,7 @@
       </c>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="131">
+      <c r="K35" s="119">
         <v>0</v>
       </c>
       <c r="L35" s="41">
@@ -4439,14 +4509,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U35" s="132">
-        <v>0</v>
-      </c>
-      <c r="V35" s="132">
+      <c r="U35" s="120">
+        <v>0</v>
+      </c>
+      <c r="V35" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W35" s="132">
+      <c r="W35" s="120">
         <v>0</v>
       </c>
       <c r="X35" s="18">
@@ -4461,18 +4531,18 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="104"/>
+      <c r="AA35" s="94"/>
       <c r="AB35" s="11"/>
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="130"/>
-      <c r="B36" s="58">
+    <row r="36" spans="1:31">
+      <c r="A36" s="118"/>
+      <c r="B36" s="57">
         <v>44043</v>
       </c>
-      <c r="C36" s="130">
+      <c r="C36" s="118">
         <v>0</v>
       </c>
       <c r="D36" s="17">
@@ -4483,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="17"/>
-      <c r="G36" s="130">
+      <c r="G36" s="118">
         <v>0</v>
       </c>
       <c r="H36" s="40">
@@ -4492,7 +4562,7 @@
       </c>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="131">
+      <c r="K36" s="119">
         <v>0</v>
       </c>
       <c r="L36" s="41">
@@ -4527,14 +4597,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U36" s="132">
-        <v>0</v>
-      </c>
-      <c r="V36" s="132">
+      <c r="U36" s="120">
+        <v>0</v>
+      </c>
+      <c r="V36" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W36" s="132">
+      <c r="W36" s="120">
         <v>0</v>
       </c>
       <c r="X36" s="18">
@@ -4549,37 +4619,37 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="130"/>
+      <c r="AA36" s="118"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31">
       <c r="A37" s="4"/>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="39">
         <f t="shared" ref="D37:Z37" si="13">SUM(D7:D35)</f>
-        <v>11800000</v>
+        <v>26800000</v>
       </c>
       <c r="E37" s="39">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F37" s="39">
         <f t="shared" si="13"/>
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="G37" s="39">
         <f t="shared" si="13"/>
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="H37" s="39">
         <f t="shared" si="13"/>
-        <v>17400000</v>
+        <v>34800000</v>
       </c>
       <c r="I37" s="39">
         <f t="shared" si="13"/>
@@ -4591,51 +4661,51 @@
       </c>
       <c r="K37" s="39">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L37" s="39">
         <f t="shared" si="13"/>
-        <v>60000</v>
+        <v>150000</v>
       </c>
       <c r="M37" s="39">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N37" s="39">
         <f t="shared" si="13"/>
-        <v>7200000</v>
+        <v>16800000</v>
       </c>
       <c r="O37" s="39">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P37" s="39">
         <f t="shared" si="13"/>
-        <v>2400000</v>
+        <v>6600000</v>
       </c>
       <c r="Q37" s="39">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R37" s="39">
         <f t="shared" si="13"/>
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="S37" s="39">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="39">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="U37" s="39">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="39">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="W37" s="39">
         <f t="shared" si="13"/>
@@ -4647,98 +4717,93 @@
       </c>
       <c r="Y37" s="39">
         <f t="shared" si="13"/>
-        <v>9690000</v>
+        <v>24550000</v>
       </c>
       <c r="Z37" s="39">
         <f t="shared" si="13"/>
-        <v>39890000</v>
-      </c>
-      <c r="AA37" s="70"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="60" t="s">
+        <v>87650000</v>
+      </c>
+      <c r="AA37" s="68"/>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="53"/>
+      <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="148">
+      <c r="C38" s="127">
         <v>80</v>
       </c>
-      <c r="D38" s="148"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="134"/>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="134"/>
-      <c r="R38" s="134"/>
-      <c r="S38" s="134"/>
-      <c r="T38" s="134"/>
-      <c r="U38" s="134"/>
-      <c r="V38" s="134"/>
-      <c r="W38" s="134"/>
-      <c r="X38" s="134"/>
-      <c r="Y38" s="134"/>
-      <c r="Z38" s="134"/>
-      <c r="AA38" s="134"/>
-    </row>
-    <row r="39" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="135">
+      <c r="D38" s="127"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="128"/>
+      <c r="Q38" s="128"/>
+      <c r="R38" s="128"/>
+      <c r="S38" s="128"/>
+      <c r="T38" s="128"/>
+      <c r="U38" s="128"/>
+      <c r="V38" s="128"/>
+      <c r="W38" s="128"/>
+      <c r="X38" s="128"/>
+      <c r="Y38" s="128"/>
+      <c r="Z38" s="128"/>
+      <c r="AA38" s="128"/>
+    </row>
+    <row r="39" spans="1:31" s="11" customFormat="1">
+      <c r="B39" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="129">
         <v>247</v>
       </c>
-      <c r="D39" s="135"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="134"/>
-      <c r="X39" s="134"/>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="134"/>
-      <c r="AA39" s="134"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="128"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="128"/>
+      <c r="Q39" s="128"/>
+      <c r="R39" s="128"/>
+      <c r="S39" s="128"/>
+      <c r="T39" s="128"/>
+      <c r="U39" s="128"/>
+      <c r="V39" s="128"/>
+      <c r="W39" s="128"/>
+      <c r="X39" s="128"/>
+      <c r="Y39" s="128"/>
+      <c r="Z39" s="128"/>
+      <c r="AA39" s="128"/>
       <c r="AD39" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="53"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="J40" s="52"/>
+    </row>
+    <row r="42" spans="1:31">
       <c r="AA42" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="AA4:AA39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="G39:AA39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AA2"/>
@@ -4755,6 +4820,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4773,27 +4843,27 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="149" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="31.5">
+      <c r="A1" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -4813,482 +4883,482 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="34">
         <v>1</v>
       </c>
       <c r="B4" s="21">
         <v>44013</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="167">
         <v>1388509</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="167">
         <v>2135000</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="167">
         <f>SUM(D4,-C4)</f>
         <v>746491</v>
       </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="169"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="34">
         <v>2</v>
       </c>
       <c r="B5" s="21">
         <v>44014</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="167">
         <v>2289927</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="167">
         <v>3482000</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="167">
         <f t="shared" ref="E5:E33" si="0">SUM(D5,-C5)</f>
         <v>1192073</v>
       </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="169"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="34">
         <v>3</v>
       </c>
       <c r="B6" s="21">
         <v>44015</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="167">
         <v>1208542</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="167">
         <v>1750000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="167">
         <f t="shared" si="0"/>
         <v>541458</v>
       </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="169"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="34">
         <v>4</v>
       </c>
       <c r="B7" s="21">
         <v>44016</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="167">
         <v>6740207</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="167">
         <v>9290000</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="167">
         <f t="shared" si="0"/>
         <v>2549793</v>
       </c>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="169"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="34">
         <v>5</v>
       </c>
       <c r="B8" s="21">
         <v>44017</v>
       </c>
-      <c r="C8" s="42">
-        <v>0</v>
-      </c>
-      <c r="D8" s="42">
-        <v>0</v>
-      </c>
-      <c r="E8" s="42">
+      <c r="C8" s="167">
+        <v>2714582</v>
+      </c>
+      <c r="D8" s="167">
+        <v>11300000</v>
+      </c>
+      <c r="E8" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="63"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8585418</v>
+      </c>
+      <c r="F8" s="62"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="34">
         <v>7</v>
       </c>
       <c r="B9" s="21">
-        <v>44019</v>
-      </c>
-      <c r="C9" s="42">
-        <v>0</v>
-      </c>
-      <c r="D9" s="42">
-        <v>0</v>
-      </c>
-      <c r="E9" s="42">
+        <v>44018</v>
+      </c>
+      <c r="C9" s="170">
+        <v>1627218</v>
+      </c>
+      <c r="D9" s="170">
+        <v>5008000</v>
+      </c>
+      <c r="E9" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="63"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3380782</v>
+      </c>
+      <c r="F9" s="62"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="34">
         <v>7</v>
       </c>
       <c r="B10" s="21">
         <v>44019</v>
       </c>
-      <c r="C10" s="42">
-        <v>0</v>
-      </c>
-      <c r="D10" s="42">
-        <v>0</v>
-      </c>
-      <c r="E10" s="42">
+      <c r="C10" s="170">
+        <v>1560518</v>
+      </c>
+      <c r="D10" s="170">
+        <v>6440000</v>
+      </c>
+      <c r="E10" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="63"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4879482</v>
+      </c>
+      <c r="F10" s="62"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="34">
         <v>8</v>
       </c>
       <c r="B11" s="21">
         <v>44020</v>
       </c>
-      <c r="C11" s="42">
-        <v>0</v>
-      </c>
-      <c r="D11" s="42">
-        <v>0</v>
-      </c>
-      <c r="E11" s="42">
+      <c r="C11" s="170">
+        <v>680564</v>
+      </c>
+      <c r="D11" s="170">
+        <v>3656000</v>
+      </c>
+      <c r="E11" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="63"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2975436</v>
+      </c>
+      <c r="F11" s="62"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="34">
         <v>9</v>
       </c>
       <c r="B12" s="21">
         <v>44021</v>
       </c>
-      <c r="C12" s="42">
-        <v>0</v>
-      </c>
-      <c r="D12" s="42">
-        <v>0</v>
-      </c>
-      <c r="E12" s="42">
+      <c r="C12" s="170">
+        <v>665194</v>
+      </c>
+      <c r="D12" s="170">
+        <v>2960000</v>
+      </c>
+      <c r="E12" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="63"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2294806</v>
+      </c>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="34">
         <v>10</v>
       </c>
       <c r="B13" s="21">
         <v>44022</v>
       </c>
-      <c r="C13" s="42">
-        <v>0</v>
-      </c>
-      <c r="D13" s="42">
-        <v>0</v>
-      </c>
-      <c r="E13" s="42">
+      <c r="C13" s="170">
+        <v>1724864</v>
+      </c>
+      <c r="D13" s="170">
+        <v>5890000</v>
+      </c>
+      <c r="E13" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="63"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4165136</v>
+      </c>
+      <c r="F13" s="62"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="34">
         <v>11</v>
       </c>
       <c r="B14" s="21">
         <v>44023</v>
       </c>
-      <c r="C14" s="42">
-        <v>0</v>
-      </c>
-      <c r="D14" s="42">
-        <v>0</v>
-      </c>
-      <c r="E14" s="42">
+      <c r="C14" s="170">
+        <v>2975927</v>
+      </c>
+      <c r="D14" s="170">
+        <v>9141000</v>
+      </c>
+      <c r="E14" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="63"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6165073</v>
+      </c>
+      <c r="F14" s="62"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="34">
         <v>12</v>
       </c>
       <c r="B15" s="21">
         <v>44024</v>
       </c>
-      <c r="C15" s="42">
-        <v>0</v>
-      </c>
-      <c r="D15" s="42">
-        <v>0</v>
-      </c>
-      <c r="E15" s="42">
+      <c r="C15" s="170">
+        <v>4290790</v>
+      </c>
+      <c r="D15" s="170">
+        <v>18819000</v>
+      </c>
+      <c r="E15" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="63"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14528210</v>
+      </c>
+      <c r="F15" s="62"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="34">
         <v>13</v>
       </c>
       <c r="B16" s="21">
         <v>44025</v>
       </c>
-      <c r="C16" s="42">
-        <v>0</v>
-      </c>
-      <c r="D16" s="42">
-        <v>0</v>
-      </c>
-      <c r="E16" s="42">
+      <c r="C16" s="170">
+        <v>2084637</v>
+      </c>
+      <c r="D16" s="170">
+        <v>5393000</v>
+      </c>
+      <c r="E16" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="63"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3308363</v>
+      </c>
+      <c r="F16" s="62"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="34">
         <v>14</v>
       </c>
       <c r="B17" s="21">
         <v>44026</v>
       </c>
-      <c r="C17" s="42">
-        <v>0</v>
-      </c>
-      <c r="D17" s="42">
-        <v>0</v>
-      </c>
-      <c r="E17" s="42">
+      <c r="C17" s="170">
+        <v>2762818</v>
+      </c>
+      <c r="D17" s="170">
+        <v>7185000</v>
+      </c>
+      <c r="E17" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="63"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4422182</v>
+      </c>
+      <c r="F17" s="62"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="34">
         <v>15</v>
       </c>
       <c r="B18" s="21">
         <v>44027</v>
       </c>
-      <c r="C18" s="42">
-        <v>0</v>
-      </c>
-      <c r="D18" s="42">
-        <v>0</v>
-      </c>
-      <c r="E18" s="42">
+      <c r="C18" s="170">
+        <v>4590956</v>
+      </c>
+      <c r="D18" s="170">
+        <v>11150000</v>
+      </c>
+      <c r="E18" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="63"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6559044</v>
+      </c>
+      <c r="F18" s="62"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="34">
         <v>17</v>
       </c>
       <c r="B19" s="21">
-        <v>44029</v>
-      </c>
-      <c r="C19" s="42">
-        <v>0</v>
-      </c>
-      <c r="D19" s="42">
-        <v>0</v>
-      </c>
-      <c r="E19" s="42">
+        <v>44028</v>
+      </c>
+      <c r="C19" s="170">
+        <v>370481</v>
+      </c>
+      <c r="D19" s="170">
+        <v>1810000</v>
+      </c>
+      <c r="E19" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="63"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1439519</v>
+      </c>
+      <c r="F19" s="62"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="34">
         <v>17</v>
       </c>
       <c r="B20" s="21">
         <v>44029</v>
       </c>
-      <c r="C20" s="42">
-        <v>0</v>
-      </c>
-      <c r="D20" s="42">
-        <v>0</v>
-      </c>
-      <c r="E20" s="42">
+      <c r="C20" s="170">
+        <v>1735853</v>
+      </c>
+      <c r="D20" s="170">
+        <v>7610000</v>
+      </c>
+      <c r="E20" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="63"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5874147</v>
+      </c>
+      <c r="F20" s="62"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="34">
         <v>18</v>
       </c>
       <c r="B21" s="21">
         <v>44030</v>
       </c>
-      <c r="C21" s="42">
-        <v>0</v>
-      </c>
-      <c r="D21" s="42">
-        <v>0</v>
-      </c>
-      <c r="E21" s="42">
+      <c r="C21" s="170">
+        <v>5646367</v>
+      </c>
+      <c r="D21" s="170">
+        <v>17295000</v>
+      </c>
+      <c r="E21" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="63"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11648633</v>
+      </c>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="34">
         <v>19</v>
       </c>
       <c r="B22" s="21">
         <v>44031</v>
       </c>
-      <c r="C22" s="42">
-        <v>0</v>
-      </c>
-      <c r="D22" s="42">
-        <v>0</v>
-      </c>
-      <c r="E22" s="42">
+      <c r="C22" s="170">
+        <v>2599301</v>
+      </c>
+      <c r="D22" s="170">
+        <v>9990000</v>
+      </c>
+      <c r="E22" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="63"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7390699</v>
+      </c>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="34">
         <v>20</v>
       </c>
       <c r="B23" s="21">
         <v>44032</v>
       </c>
-      <c r="C23" s="42">
-        <v>0</v>
-      </c>
-      <c r="D23" s="42">
-        <v>0</v>
-      </c>
-      <c r="E23" s="42">
+      <c r="C23" s="170">
+        <v>2995309</v>
+      </c>
+      <c r="D23" s="170">
+        <v>7211000</v>
+      </c>
+      <c r="E23" s="167">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="63"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4215691</v>
+      </c>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="34">
         <v>21</v>
       </c>
       <c r="B24" s="21">
         <v>44033</v>
       </c>
-      <c r="C24" s="42">
-        <v>0</v>
-      </c>
-      <c r="D24" s="42">
-        <v>0</v>
-      </c>
-      <c r="E24" s="42">
+      <c r="C24" s="167">
+        <v>0</v>
+      </c>
+      <c r="D24" s="167">
+        <v>0</v>
+      </c>
+      <c r="E24" s="167">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="63"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="34">
         <v>22</v>
       </c>
       <c r="B25" s="21">
         <v>44034</v>
       </c>
-      <c r="C25" s="42">
-        <v>0</v>
-      </c>
-      <c r="D25" s="42">
-        <v>0</v>
-      </c>
-      <c r="E25" s="42">
+      <c r="C25" s="171">
+        <v>0</v>
+      </c>
+      <c r="D25" s="171">
+        <v>0</v>
+      </c>
+      <c r="E25" s="167">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="63"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="34">
         <v>23</v>
       </c>
       <c r="B26" s="21">
         <v>44035</v>
       </c>
-      <c r="C26" s="42">
-        <v>0</v>
-      </c>
-      <c r="D26" s="42">
-        <v>0</v>
-      </c>
-      <c r="E26" s="42">
+      <c r="C26" s="167">
+        <v>0</v>
+      </c>
+      <c r="D26" s="167">
+        <v>0</v>
+      </c>
+      <c r="E26" s="167">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="50"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="168"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="34">
         <v>24</v>
       </c>
       <c r="B27" s="21">
         <v>44036</v>
       </c>
-      <c r="C27" s="42">
-        <v>0</v>
-      </c>
-      <c r="D27" s="42">
-        <v>0</v>
-      </c>
-      <c r="E27" s="42">
+      <c r="C27" s="167">
+        <v>0</v>
+      </c>
+      <c r="D27" s="167">
+        <v>0</v>
+      </c>
+      <c r="E27" s="167">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="50"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="168"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="34">
         <v>25</v>
       </c>
       <c r="B28" s="21">
         <v>44037</v>
       </c>
-      <c r="C28" s="42">
-        <v>0</v>
-      </c>
-      <c r="D28" s="42">
-        <v>0</v>
-      </c>
-      <c r="E28" s="42">
+      <c r="C28" s="167">
+        <v>0</v>
+      </c>
+      <c r="D28" s="167">
+        <v>0</v>
+      </c>
+      <c r="E28" s="167">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="168"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="34">
         <v>27</v>
       </c>
@@ -5307,7 +5377,7 @@
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="34">
         <v>27</v>
       </c>
@@ -5326,7 +5396,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="34">
         <v>28</v>
       </c>
@@ -5345,7 +5415,7 @@
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="105" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="95" customFormat="1">
       <c r="A32" s="34">
         <v>29</v>
       </c>
@@ -5364,7 +5434,7 @@
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="105" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="95" customFormat="1">
       <c r="A33" s="34">
         <v>30</v>
       </c>
@@ -5383,7 +5453,7 @@
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="34">
         <v>32</v>
       </c>
@@ -5392,15 +5462,15 @@
       </c>
       <c r="C34" s="43">
         <f>SUM(C4:C33)</f>
-        <v>11627185</v>
+        <v>50652564</v>
       </c>
       <c r="D34" s="43">
         <f>SUM(D4:D33)</f>
-        <v>16657000</v>
+        <v>147515000</v>
       </c>
       <c r="E34" s="43">
         <f>SUM(E4:E33)</f>
-        <v>5029815</v>
+        <v>96862436</v>
       </c>
       <c r="F34" s="23"/>
     </row>
@@ -5415,836 +5485,929 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F65"/>
+  <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="87" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18" style="93" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="76" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="84" customWidth="1"/>
-    <col min="6" max="6" width="30" style="78" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="84" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="175" customWidth="1"/>
+    <col min="4" max="4" width="18" style="176" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="74" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="81" customWidth="1"/>
+    <col min="7" max="7" width="30" style="76" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="97" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="156" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-    </row>
-    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="91" customFormat="1" ht="31.5">
+      <c r="A2" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5">
       <c r="B3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="95" t="s">
+      <c r="C3" s="174"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="173"/>
+      <c r="D4" s="180" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="172" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="71" customFormat="1">
+      <c r="A5" s="145">
+        <v>1</v>
+      </c>
+      <c r="B5" s="142">
+        <v>44013</v>
+      </c>
+      <c r="C5" s="173">
+        <v>1</v>
+      </c>
+      <c r="D5" s="178" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="98">
+        <v>750000</v>
+      </c>
+      <c r="F5" s="182"/>
+      <c r="G5" s="183"/>
+    </row>
+    <row r="6" spans="1:7" s="117" customFormat="1">
+      <c r="A6" s="146"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="173">
+        <v>2</v>
+      </c>
+      <c r="D6" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="87">
+        <v>365000</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" s="117" customFormat="1">
+      <c r="A7" s="146"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="173">
+        <v>3</v>
+      </c>
+      <c r="D7" s="177" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="87">
+        <v>560000</v>
+      </c>
+      <c r="F7" s="88"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7" s="117" customFormat="1">
+      <c r="A8" s="146"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="173">
+        <v>4</v>
+      </c>
+      <c r="D8" s="177" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="87">
+        <v>870000</v>
+      </c>
+      <c r="F8" s="88"/>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:7" s="117" customFormat="1">
+      <c r="A9" s="146"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="173">
+        <v>5</v>
+      </c>
+      <c r="D9" s="177" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="87">
+        <v>275000</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="77"/>
+    </row>
+    <row r="10" spans="1:7" s="117" customFormat="1">
+      <c r="A10" s="147"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="173">
+        <v>6</v>
+      </c>
+      <c r="D10" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="87">
+        <v>360000</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7" s="71" customFormat="1" hidden="1">
+      <c r="A11" s="86">
+        <v>2</v>
+      </c>
+      <c r="B11" s="142">
+        <v>44014</v>
+      </c>
+      <c r="C11" s="173"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="87">
+        <v>0</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="1:7" s="103" customFormat="1" hidden="1">
+      <c r="A12" s="102"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="87">
+        <v>0</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="G12" s="77"/>
+    </row>
+    <row r="13" spans="1:7" s="75" customFormat="1">
+      <c r="A13" s="145">
+        <v>2</v>
+      </c>
+      <c r="B13" s="142">
+        <v>44015</v>
+      </c>
+      <c r="C13" s="173">
+        <v>1</v>
+      </c>
+      <c r="D13" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="87">
+        <v>650000</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="100"/>
+    </row>
+    <row r="14" spans="1:7" s="117" customFormat="1">
+      <c r="A14" s="146"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="173">
+        <v>2</v>
+      </c>
+      <c r="D14" s="177" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="87">
+        <v>1820000</v>
+      </c>
+      <c r="F14" s="88"/>
+      <c r="G14" s="100"/>
+    </row>
+    <row r="15" spans="1:7" s="117" customFormat="1">
+      <c r="A15" s="146"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="173">
+        <v>3</v>
+      </c>
+      <c r="D15" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="87">
+        <v>436000</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="100"/>
+    </row>
+    <row r="16" spans="1:7" s="122" customFormat="1">
+      <c r="A16" s="146"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="173">
+        <v>4</v>
+      </c>
+      <c r="D16" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="88">
+        <v>16950000</v>
+      </c>
+      <c r="G16" s="100"/>
+    </row>
+    <row r="17" spans="1:7" s="117" customFormat="1">
+      <c r="A17" s="146"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="173">
+        <v>5</v>
+      </c>
+      <c r="D17" s="177" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="87">
+        <v>16950000</v>
+      </c>
+      <c r="F17" s="88"/>
+      <c r="G17" s="100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="99" customFormat="1">
+      <c r="A18" s="145">
+        <v>3</v>
+      </c>
+      <c r="B18" s="142">
+        <v>44016</v>
+      </c>
+      <c r="C18" s="173">
+        <v>1</v>
+      </c>
+      <c r="D18" s="177" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="87">
+        <v>2800000</v>
+      </c>
+      <c r="F18" s="88"/>
+      <c r="G18" s="100"/>
+    </row>
+    <row r="19" spans="1:7" s="122" customFormat="1">
+      <c r="A19" s="146"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="173">
+        <v>2</v>
+      </c>
+      <c r="D19" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="87">
+        <v>650000</v>
+      </c>
+      <c r="F19" s="88"/>
+      <c r="G19" s="100"/>
+    </row>
+    <row r="20" spans="1:7" s="122" customFormat="1">
+      <c r="A20" s="146"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="173">
+        <v>3</v>
+      </c>
+      <c r="D20" s="177" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="87">
+        <v>1950000</v>
+      </c>
+      <c r="F20" s="88"/>
+      <c r="G20" s="100"/>
+    </row>
+    <row r="21" spans="1:7" s="122" customFormat="1">
+      <c r="A21" s="146"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="173">
+        <v>4</v>
+      </c>
+      <c r="D21" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="87">
+        <v>2080000</v>
+      </c>
+      <c r="F21" s="88"/>
+      <c r="G21" s="100"/>
+    </row>
+    <row r="22" spans="1:7" s="122" customFormat="1">
+      <c r="A22" s="146"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="173">
+        <v>5</v>
+      </c>
+      <c r="D22" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="87">
+        <v>2300000</v>
+      </c>
+      <c r="F22" s="88"/>
+      <c r="G22" s="100"/>
+    </row>
+    <row r="23" spans="1:7" s="122" customFormat="1">
+      <c r="A23" s="146"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="173">
+        <v>6</v>
+      </c>
+      <c r="D23" s="177" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="87">
+        <v>1560000</v>
+      </c>
+      <c r="F23" s="88"/>
+      <c r="G23" s="100"/>
+    </row>
+    <row r="24" spans="1:7" s="122" customFormat="1">
+      <c r="A24" s="147"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="173">
+        <v>7</v>
+      </c>
+      <c r="D24" s="177" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88">
+        <v>6000000</v>
+      </c>
+      <c r="G24" s="100"/>
+    </row>
+    <row r="25" spans="1:7" s="80" customFormat="1">
+      <c r="A25" s="145">
+        <v>4</v>
+      </c>
+      <c r="B25" s="142">
+        <v>44023</v>
+      </c>
+      <c r="C25" s="173">
+        <v>1</v>
+      </c>
+      <c r="D25" s="178" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="87">
+        <v>4950000</v>
+      </c>
+      <c r="F25" s="88"/>
+      <c r="G25" s="100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="122" customFormat="1">
+      <c r="A26" s="146"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="173">
+        <v>2</v>
+      </c>
+      <c r="D26" s="178" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="87">
+        <v>2500000</v>
+      </c>
+      <c r="F26" s="88"/>
+      <c r="G26" s="77"/>
+    </row>
+    <row r="27" spans="1:7" s="122" customFormat="1">
+      <c r="A27" s="146"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="173">
+        <v>3</v>
+      </c>
+      <c r="D27" s="178" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="87">
+        <v>4050000</v>
+      </c>
+      <c r="F27" s="88"/>
+      <c r="G27" s="77"/>
+    </row>
+    <row r="28" spans="1:7" s="122" customFormat="1">
+      <c r="A28" s="147"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="173">
+        <v>4</v>
+      </c>
+      <c r="D28" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88">
+        <v>1500000</v>
+      </c>
+      <c r="G28" s="184"/>
+    </row>
+    <row r="29" spans="1:7" s="80" customFormat="1">
+      <c r="A29" s="145">
+        <v>5</v>
+      </c>
+      <c r="B29" s="142">
+        <v>44026</v>
+      </c>
+      <c r="C29" s="173">
+        <v>1</v>
+      </c>
+      <c r="D29" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="87">
+        <v>1500000</v>
+      </c>
+      <c r="F29" s="88"/>
+      <c r="G29" s="145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="122" customFormat="1">
+      <c r="A30" s="147"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="173">
+        <v>2</v>
+      </c>
+      <c r="D30" s="177" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="87">
+        <v>1500000</v>
+      </c>
+      <c r="F30" s="88"/>
+      <c r="G30" s="147"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="145">
+        <v>6</v>
+      </c>
+      <c r="B31" s="142">
+        <v>44027</v>
+      </c>
+      <c r="C31" s="173">
+        <v>1</v>
+      </c>
+      <c r="D31" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="87">
+        <v>5300000</v>
+      </c>
+      <c r="F31" s="88"/>
+      <c r="G31" s="77"/>
+    </row>
+    <row r="32" spans="1:7" s="122" customFormat="1">
+      <c r="A32" s="146"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="173">
+        <v>2</v>
+      </c>
+      <c r="D32" s="177" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="87">
+        <v>560000</v>
+      </c>
+      <c r="F32" s="88"/>
+      <c r="G32" s="77"/>
+    </row>
+    <row r="33" spans="1:7" s="122" customFormat="1">
+      <c r="A33" s="146"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="173">
+        <v>3</v>
+      </c>
+      <c r="D33" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="87">
+        <v>360000</v>
+      </c>
+      <c r="F33" s="88"/>
+      <c r="G33" s="77"/>
+    </row>
+    <row r="34" spans="1:7" s="122" customFormat="1">
+      <c r="A34" s="147"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="173">
+        <v>4</v>
+      </c>
+      <c r="D34" s="177" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="87">
+        <v>360000</v>
+      </c>
+      <c r="F34" s="88"/>
+      <c r="G34" s="77"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="145">
+        <v>7</v>
+      </c>
+      <c r="B35" s="142">
+        <v>44029</v>
+      </c>
+      <c r="C35" s="173">
+        <v>1</v>
+      </c>
+      <c r="D35" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="87">
+        <v>774000</v>
+      </c>
+      <c r="F35" s="88"/>
+      <c r="G35" s="77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="122" customFormat="1">
+      <c r="A36" s="147"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="173">
+        <v>2</v>
+      </c>
+      <c r="D36" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="87">
+        <v>774000</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="82" customFormat="1">
+      <c r="A37" s="86">
+        <v>19</v>
+      </c>
+      <c r="B37" s="101">
+        <v>44029</v>
+      </c>
+      <c r="C37" s="173"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="87">
+        <v>0</v>
+      </c>
+      <c r="F37" s="88"/>
+      <c r="G37" s="77"/>
+    </row>
+    <row r="38" spans="1:7" s="64" customFormat="1">
+      <c r="A38" s="86">
+        <v>20</v>
+      </c>
+      <c r="B38" s="101">
+        <v>44030</v>
+      </c>
+      <c r="C38" s="173"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="87">
+        <v>0</v>
+      </c>
+      <c r="F38" s="88"/>
+      <c r="G38" s="77"/>
+    </row>
+    <row r="39" spans="1:7" s="70" customFormat="1">
+      <c r="A39" s="86">
+        <v>21</v>
+      </c>
+      <c r="B39" s="101">
+        <v>44031</v>
+      </c>
+      <c r="C39" s="173"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="87">
+        <v>0</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="77"/>
+    </row>
+    <row r="40" spans="1:7" s="83" customFormat="1">
+      <c r="A40" s="86">
         <v>22</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="B40" s="101">
+        <v>44032</v>
+      </c>
+      <c r="C40" s="173"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="87">
+        <v>0</v>
+      </c>
+      <c r="F40" s="88"/>
+      <c r="G40" s="77"/>
+    </row>
+    <row r="41" spans="1:7" s="97" customFormat="1">
+      <c r="A41" s="86">
         <v>23</v>
       </c>
-      <c r="F4" s="67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="68"/>
-    </row>
-    <row r="6" spans="1:6" s="73" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="153">
-        <v>1</v>
-      </c>
-      <c r="B6" s="150">
-        <v>44013</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="91">
-        <v>750000</v>
-      </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="79"/>
-    </row>
-    <row r="7" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="154"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="91">
-        <v>365000</v>
-      </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="79"/>
-    </row>
-    <row r="8" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="154"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="91">
-        <v>560000</v>
-      </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="79"/>
-    </row>
-    <row r="9" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="154"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="91">
-        <v>870000</v>
-      </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="79"/>
-    </row>
-    <row r="10" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="154"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="91">
-        <v>275000</v>
-      </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="79"/>
-    </row>
-    <row r="11" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="155"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="91">
-        <v>360000</v>
-      </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="79"/>
-    </row>
-    <row r="12" spans="1:6" s="73" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89">
-        <v>2</v>
-      </c>
-      <c r="B12" s="150">
-        <v>44014</v>
-      </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="91">
-        <v>0</v>
-      </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="79"/>
-    </row>
-    <row r="13" spans="1:6" s="114" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="91">
-        <v>0</v>
-      </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="79"/>
-    </row>
-    <row r="14" spans="1:6" s="77" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="153">
-        <v>3</v>
-      </c>
-      <c r="B14" s="150">
-        <v>44015</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="91">
-        <v>650000</v>
-      </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="110"/>
-    </row>
-    <row r="15" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="154"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="91">
-        <v>1820000</v>
-      </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="110"/>
-    </row>
-    <row r="16" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="154"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="91">
-        <v>436000</v>
-      </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="110"/>
-    </row>
-    <row r="17" spans="1:6" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="154"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="91">
-        <v>16950000</v>
-      </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="110" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="112">
-        <v>7</v>
-      </c>
-      <c r="B18" s="111">
-        <v>44016</v>
-      </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="91">
-        <v>0</v>
-      </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="110"/>
-    </row>
-    <row r="19" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="89">
-        <v>7</v>
-      </c>
-      <c r="B19" s="111">
-        <v>44017</v>
-      </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="91">
-        <v>0</v>
-      </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="79"/>
-    </row>
-    <row r="20" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89">
+      <c r="B41" s="101">
+        <v>44033</v>
+      </c>
+      <c r="C41" s="173"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="87">
+        <v>0</v>
+      </c>
+      <c r="F41" s="88"/>
+      <c r="G41" s="77"/>
+    </row>
+    <row r="42" spans="1:7" s="65" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="86">
+        <v>24</v>
+      </c>
+      <c r="B42" s="101">
+        <v>44034</v>
+      </c>
+      <c r="C42" s="173"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="87">
+        <v>0</v>
+      </c>
+      <c r="F42" s="88"/>
+      <c r="G42" s="77"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1">
+      <c r="A43" s="86">
+        <v>25</v>
+      </c>
+      <c r="B43" s="101">
+        <v>44035</v>
+      </c>
+      <c r="C43" s="173"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="87">
+        <v>0</v>
+      </c>
+      <c r="F43" s="88"/>
+      <c r="G43" s="77"/>
+    </row>
+    <row r="44" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="86">
+        <v>27</v>
+      </c>
+      <c r="B44" s="142"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="87">
+        <v>0</v>
+      </c>
+      <c r="F44" s="88"/>
+      <c r="G44" s="77"/>
+    </row>
+    <row r="45" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="102"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="173"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="87">
+        <v>0</v>
+      </c>
+      <c r="F45" s="88"/>
+      <c r="G45" s="77"/>
+    </row>
+    <row r="46" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="102"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="87">
+        <v>0</v>
+      </c>
+      <c r="F46" s="88"/>
+      <c r="G46" s="77"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1">
+      <c r="A47" s="86">
+        <v>27</v>
+      </c>
+      <c r="B47" s="142">
+        <v>44039</v>
+      </c>
+      <c r="C47" s="173"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="87">
+        <v>0</v>
+      </c>
+      <c r="F47" s="88"/>
+      <c r="G47" s="77"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1">
+      <c r="A48" s="86">
+        <v>27</v>
+      </c>
+      <c r="B48" s="143"/>
+      <c r="C48" s="173"/>
+      <c r="D48" s="177"/>
+      <c r="E48" s="87">
+        <v>0</v>
+      </c>
+      <c r="F48" s="88"/>
+      <c r="G48" s="77"/>
+    </row>
+    <row r="49" spans="1:7" s="67" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="86">
+        <v>28</v>
+      </c>
+      <c r="B49" s="101">
+        <v>44039</v>
+      </c>
+      <c r="C49" s="173"/>
+      <c r="D49" s="177"/>
+      <c r="E49" s="87">
+        <v>0</v>
+      </c>
+      <c r="F49" s="88"/>
+      <c r="G49" s="77"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1">
+      <c r="A50" s="145">
+        <v>29</v>
+      </c>
+      <c r="B50" s="142">
+        <v>44040</v>
+      </c>
+      <c r="C50" s="173"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="87">
+        <v>0</v>
+      </c>
+      <c r="F50" s="88"/>
+      <c r="G50" s="77"/>
+    </row>
+    <row r="51" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="146"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="87">
+        <v>0</v>
+      </c>
+      <c r="F51" s="88"/>
+      <c r="G51" s="77"/>
+    </row>
+    <row r="52" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="146"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="177"/>
+      <c r="E52" s="87">
+        <v>0</v>
+      </c>
+      <c r="F52" s="88"/>
+      <c r="G52" s="77"/>
+    </row>
+    <row r="53" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="146"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="87">
+        <v>0</v>
+      </c>
+      <c r="F53" s="88"/>
+      <c r="G53" s="77"/>
+    </row>
+    <row r="54" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="146"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="87">
+        <v>0</v>
+      </c>
+      <c r="F54" s="88"/>
+      <c r="G54" s="77"/>
+    </row>
+    <row r="55" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="147"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="87">
+        <v>0</v>
+      </c>
+      <c r="F55" s="88"/>
+      <c r="G55" s="77"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1">
+      <c r="A56" s="86">
+        <v>30</v>
+      </c>
+      <c r="B56" s="101">
+        <v>44041</v>
+      </c>
+      <c r="C56" s="173"/>
+      <c r="D56" s="177"/>
+      <c r="E56" s="87">
+        <v>0</v>
+      </c>
+      <c r="F56" s="88"/>
+      <c r="G56" s="77"/>
+    </row>
+    <row r="57" spans="1:7" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="86">
+        <v>32</v>
+      </c>
+      <c r="B57" s="142">
+        <v>44042</v>
+      </c>
+      <c r="C57" s="173"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="87">
+        <v>0</v>
+      </c>
+      <c r="F57" s="88"/>
+      <c r="G57" s="77"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="86"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="173"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="87">
+        <v>0</v>
+      </c>
+      <c r="F58" s="42"/>
+      <c r="G58" s="77"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="34">
+        <v>35</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="111">
-        <v>44019</v>
-      </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="91">
-        <v>0</v>
-      </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="79"/>
-    </row>
-    <row r="21" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
-      <c r="B21" s="150">
-        <v>44019</v>
-      </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="91">
-        <v>0</v>
-      </c>
-      <c r="E21" s="92"/>
-      <c r="F21" s="79"/>
-    </row>
-    <row r="22" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="91">
-        <v>0</v>
-      </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="79"/>
-    </row>
-    <row r="23" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="91">
-        <v>0</v>
-      </c>
-      <c r="E23" s="92">
-        <v>1500000</v>
-      </c>
-      <c r="F23" s="79"/>
-    </row>
-    <row r="24" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="89">
-        <v>9</v>
-      </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="91">
-        <v>0</v>
-      </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="79"/>
-    </row>
-    <row r="25" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="89">
-        <v>10</v>
-      </c>
-      <c r="B25" s="111">
-        <v>44020</v>
-      </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="91">
-        <v>0</v>
-      </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="79"/>
-    </row>
-    <row r="26" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="150">
-        <v>44021</v>
-      </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="91">
-        <v>0</v>
-      </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="79"/>
-    </row>
-    <row r="27" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="91">
-        <v>0</v>
-      </c>
-      <c r="E27" s="92"/>
-      <c r="F27" s="79"/>
-    </row>
-    <row r="28" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="91">
-        <v>0</v>
-      </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="79"/>
-    </row>
-    <row r="29" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="113">
-        <v>11</v>
-      </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="91">
-        <v>0</v>
-      </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="79"/>
-    </row>
-    <row r="30" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="89">
-        <v>12</v>
-      </c>
-      <c r="B30" s="111">
-        <v>44022</v>
-      </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="91">
-        <v>0</v>
-      </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="79"/>
-    </row>
-    <row r="31" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="89">
-        <v>13</v>
-      </c>
-      <c r="B31" s="111">
-        <v>44023</v>
-      </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="91">
-        <v>0</v>
-      </c>
-      <c r="E31" s="92"/>
-      <c r="F31" s="79"/>
-    </row>
-    <row r="32" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="150">
-        <v>44024</v>
-      </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="91">
-        <v>0</v>
-      </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="79"/>
-    </row>
-    <row r="33" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="113"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="91">
-        <v>0</v>
-      </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="79"/>
-    </row>
-    <row r="34" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="91">
-        <v>0</v>
-      </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="79"/>
-    </row>
-    <row r="35" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="91">
-        <v>0</v>
-      </c>
-      <c r="E35" s="92"/>
-      <c r="F35" s="79"/>
-    </row>
-    <row r="36" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="91">
-        <v>0</v>
-      </c>
-      <c r="E36" s="92"/>
-      <c r="F36" s="79"/>
-    </row>
-    <row r="37" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="89">
-        <v>14</v>
-      </c>
-      <c r="B37" s="152"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="91">
-        <v>0</v>
-      </c>
-      <c r="E37" s="92"/>
-      <c r="F37" s="79"/>
-    </row>
-    <row r="38" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="89">
-        <v>15</v>
-      </c>
-      <c r="B38" s="111">
-        <v>44025</v>
-      </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="91">
-        <v>0</v>
-      </c>
-      <c r="E38" s="92"/>
-      <c r="F38" s="79"/>
-    </row>
-    <row r="39" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="89">
-        <v>17</v>
-      </c>
-      <c r="B39" s="111">
-        <v>44026</v>
-      </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="91">
-        <v>0</v>
-      </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="79"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="89">
-        <v>17</v>
-      </c>
-      <c r="B40" s="111">
-        <v>44027</v>
-      </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="91">
-        <v>0</v>
-      </c>
-      <c r="E40" s="92"/>
-      <c r="F40" s="79"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="89">
-        <v>18</v>
-      </c>
-      <c r="B41" s="111">
-        <v>44029</v>
-      </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="91">
-        <v>0</v>
-      </c>
-      <c r="E41" s="92"/>
-      <c r="F41" s="79"/>
-    </row>
-    <row r="42" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="89">
-        <v>19</v>
-      </c>
-      <c r="B42" s="111">
-        <v>44029</v>
-      </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="91">
-        <v>0</v>
-      </c>
-      <c r="E42" s="92"/>
-      <c r="F42" s="79"/>
-    </row>
-    <row r="43" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="89">
-        <v>20</v>
-      </c>
-      <c r="B43" s="111">
-        <v>44030</v>
-      </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="91">
-        <v>0</v>
-      </c>
-      <c r="E43" s="92"/>
-      <c r="F43" s="79"/>
-    </row>
-    <row r="44" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="89">
-        <v>21</v>
-      </c>
-      <c r="B44" s="111">
-        <v>44031</v>
-      </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="91">
-        <v>0</v>
-      </c>
-      <c r="E44" s="92"/>
-      <c r="F44" s="79"/>
-    </row>
-    <row r="45" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="89">
-        <v>22</v>
-      </c>
-      <c r="B45" s="111">
-        <v>44032</v>
-      </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="91">
-        <v>0</v>
-      </c>
-      <c r="E45" s="92"/>
-      <c r="F45" s="79"/>
-    </row>
-    <row r="46" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="89">
-        <v>23</v>
-      </c>
-      <c r="B46" s="111">
-        <v>44033</v>
-      </c>
-      <c r="C46" s="81"/>
-      <c r="D46" s="91">
-        <v>0</v>
-      </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="79"/>
-    </row>
-    <row r="47" spans="1:6" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="89">
-        <v>24</v>
-      </c>
-      <c r="B47" s="111">
-        <v>44034</v>
-      </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="91">
-        <v>0</v>
-      </c>
-      <c r="E47" s="92"/>
-      <c r="F47" s="79"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="89">
-        <v>25</v>
-      </c>
-      <c r="B48" s="111">
-        <v>44035</v>
-      </c>
-      <c r="C48" s="81"/>
-      <c r="D48" s="91">
-        <v>0</v>
-      </c>
-      <c r="E48" s="92"/>
-      <c r="F48" s="79"/>
-    </row>
-    <row r="49" spans="1:6" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="89">
-        <v>27</v>
-      </c>
-      <c r="B49" s="150"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="91">
-        <v>0</v>
-      </c>
-      <c r="E49" s="92"/>
-      <c r="F49" s="79"/>
-    </row>
-    <row r="50" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="113"/>
-      <c r="B50" s="151"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="91">
-        <v>0</v>
-      </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="79"/>
-    </row>
-    <row r="51" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="113"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="91">
-        <v>0</v>
-      </c>
-      <c r="E51" s="92"/>
-      <c r="F51" s="79"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="89">
-        <v>27</v>
-      </c>
-      <c r="B52" s="150">
-        <v>44039</v>
-      </c>
-      <c r="C52" s="81"/>
-      <c r="D52" s="91">
-        <v>0</v>
-      </c>
-      <c r="E52" s="92"/>
-      <c r="F52" s="79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="89">
-        <v>27</v>
-      </c>
-      <c r="B53" s="152"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="91">
-        <v>0</v>
-      </c>
-      <c r="E53" s="92"/>
-      <c r="F53" s="79"/>
-    </row>
-    <row r="54" spans="1:6" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="89">
-        <v>28</v>
-      </c>
-      <c r="B54" s="111">
-        <v>44039</v>
-      </c>
-      <c r="C54" s="81"/>
-      <c r="D54" s="91">
-        <v>0</v>
-      </c>
-      <c r="E54" s="92"/>
-      <c r="F54" s="79"/>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="153">
-        <v>29</v>
-      </c>
-      <c r="B55" s="150">
-        <v>44040</v>
-      </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="91">
-        <v>0</v>
-      </c>
-      <c r="E55" s="92"/>
-      <c r="F55" s="79"/>
-    </row>
-    <row r="56" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="154"/>
-      <c r="B56" s="151"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="91">
-        <v>0</v>
-      </c>
-      <c r="E56" s="92"/>
-      <c r="F56" s="79"/>
-    </row>
-    <row r="57" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="154"/>
-      <c r="B57" s="151"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="91">
-        <v>0</v>
-      </c>
-      <c r="E57" s="92"/>
-      <c r="F57" s="79"/>
-    </row>
-    <row r="58" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="154"/>
-      <c r="B58" s="151"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="91">
-        <v>0</v>
-      </c>
-      <c r="E58" s="92"/>
-      <c r="F58" s="79"/>
-    </row>
-    <row r="59" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="154"/>
-      <c r="B59" s="151"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="91">
-        <v>0</v>
-      </c>
-      <c r="E59" s="92"/>
-      <c r="F59" s="79"/>
-    </row>
-    <row r="60" spans="1:6" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="155"/>
-      <c r="B60" s="152"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="91">
-        <v>0</v>
-      </c>
-      <c r="E60" s="92"/>
-      <c r="F60" s="79"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="89">
-        <v>30</v>
-      </c>
-      <c r="B61" s="111">
-        <v>44041</v>
-      </c>
-      <c r="C61" s="81"/>
-      <c r="D61" s="91">
-        <v>0</v>
-      </c>
-      <c r="E61" s="92"/>
-      <c r="F61" s="79"/>
-    </row>
-    <row r="62" spans="1:6" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="89">
-        <v>32</v>
-      </c>
-      <c r="B62" s="150">
-        <v>44042</v>
-      </c>
-      <c r="C62" s="81"/>
-      <c r="D62" s="91">
-        <v>0</v>
-      </c>
-      <c r="E62" s="92"/>
-      <c r="F62" s="79"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="89"/>
-      <c r="B63" s="152"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="91">
-        <v>0</v>
-      </c>
-      <c r="E63" s="42"/>
-      <c r="F63" s="79"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="34">
-        <v>35</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="90"/>
-      <c r="D64" s="91">
-        <f>SUM(D12:D63)</f>
-        <v>19856000</v>
-      </c>
-      <c r="E64" s="91"/>
-      <c r="F64" s="80"/>
-    </row>
-    <row r="65" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="87"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="78"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="87">
+        <f>SUM(E5:E58)</f>
+        <v>56230000</v>
+      </c>
+      <c r="F59" s="87">
+        <f>SUM(F5:F58)</f>
+        <v>25224000</v>
+      </c>
+      <c r="G59" s="78"/>
+    </row>
+    <row r="60" spans="1:7" s="93" customFormat="1">
+      <c r="A60" s="84"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="175"/>
+      <c r="D60" s="176"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B62:B63"/>
+  <mergeCells count="22">
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" fitToWidth="0" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6255,35 +6418,35 @@
   </sheetPr>
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="127"/>
+    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="115"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="157" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.5">
+      <c r="A2" s="148" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="113" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -6299,15 +6462,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="125">
+      <c r="B5" s="113">
         <v>44013</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D5" s="26">
         <v>200</v>
@@ -6317,11 +6480,11 @@
       </c>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="26">
         <v>2</v>
       </c>
-      <c r="B6" s="125">
+      <c r="B6" s="113">
         <v>44014</v>
       </c>
       <c r="C6" s="34"/>
@@ -6329,9 +6492,9 @@
       <c r="E6" s="42"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="105" customFormat="1" hidden="1">
       <c r="A7" s="34"/>
-      <c r="B7" s="158">
+      <c r="B7" s="149">
         <v>44015</v>
       </c>
       <c r="C7" s="34"/>
@@ -6339,21 +6502,21 @@
       <c r="E7" s="42"/>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="159"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="42"/>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="72" customFormat="1" hidden="1">
       <c r="A9" s="34">
         <v>4</v>
       </c>
-      <c r="B9" s="125">
+      <c r="B9" s="113">
         <v>44016</v>
       </c>
       <c r="C9" s="34"/>
@@ -6361,23 +6524,29 @@
       <c r="E9" s="42"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="34">
         <v>5</v>
       </c>
-      <c r="B10" s="125">
+      <c r="B10" s="113">
         <v>44017</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="42"/>
+      <c r="C10" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="42">
+        <v>50000</v>
+      </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="34">
         <v>7</v>
       </c>
-      <c r="B11" s="126">
+      <c r="B11" s="114">
         <v>44019</v>
       </c>
       <c r="C11" s="34"/>
@@ -6385,11 +6554,11 @@
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="34">
         <v>7</v>
       </c>
-      <c r="B12" s="125">
+      <c r="B12" s="113">
         <v>44019</v>
       </c>
       <c r="C12" s="34"/>
@@ -6397,11 +6566,11 @@
       <c r="E12" s="42"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="34">
         <v>8</v>
       </c>
-      <c r="B13" s="125">
+      <c r="B13" s="113">
         <v>44020</v>
       </c>
       <c r="C13" s="34"/>
@@ -6409,11 +6578,11 @@
       <c r="E13" s="42"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="34">
         <v>9</v>
       </c>
-      <c r="B14" s="126">
+      <c r="B14" s="114">
         <v>44021</v>
       </c>
       <c r="C14" s="34"/>
@@ -6421,11 +6590,11 @@
       <c r="E14" s="42"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="82" customFormat="1" hidden="1">
       <c r="A15" s="34">
         <v>10</v>
       </c>
-      <c r="B15" s="125">
+      <c r="B15" s="113">
         <v>44022</v>
       </c>
       <c r="C15" s="34"/>
@@ -6433,23 +6602,29 @@
       <c r="E15" s="42"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="34">
         <v>11</v>
       </c>
-      <c r="B16" s="125">
+      <c r="B16" s="113">
         <v>44023</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="42">
+        <v>50000</v>
+      </c>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="34">
         <v>12</v>
       </c>
-      <c r="B17" s="126">
+      <c r="B17" s="114">
         <v>44024</v>
       </c>
       <c r="C17" s="34"/>
@@ -6457,11 +6632,11 @@
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="34">
         <v>13</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="113">
         <v>44025</v>
       </c>
       <c r="C18" s="34"/>
@@ -6469,11 +6644,11 @@
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="34">
         <v>14</v>
       </c>
-      <c r="B19" s="125">
+      <c r="B19" s="113">
         <v>44026</v>
       </c>
       <c r="C19" s="34"/>
@@ -6481,11 +6656,11 @@
       <c r="E19" s="42"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="34">
         <v>15</v>
       </c>
-      <c r="B20" s="126">
+      <c r="B20" s="114">
         <v>44027</v>
       </c>
       <c r="C20" s="34"/>
@@ -6493,23 +6668,29 @@
       <c r="E20" s="42"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="73" customFormat="1">
       <c r="A21" s="34">
         <v>17</v>
       </c>
-      <c r="B21" s="125">
-        <v>44029</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="42"/>
+      <c r="B21" s="113">
+        <v>44028</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="34">
+        <v>200</v>
+      </c>
+      <c r="E21" s="42">
+        <v>50000</v>
+      </c>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="34">
         <v>17</v>
       </c>
-      <c r="B22" s="125">
+      <c r="B22" s="113">
         <v>44029</v>
       </c>
       <c r="C22" s="34"/>
@@ -6517,11 +6698,11 @@
       <c r="E22" s="42"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="34">
         <v>18</v>
       </c>
-      <c r="B23" s="126">
+      <c r="B23" s="114">
         <v>44030</v>
       </c>
       <c r="C23" s="34"/>
@@ -6529,23 +6710,29 @@
       <c r="E23" s="42"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="34">
         <v>19</v>
       </c>
-      <c r="B24" s="125">
+      <c r="B24" s="113">
         <v>44031</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="42"/>
+      <c r="C24" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="42">
+        <v>30000</v>
+      </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="34">
         <v>20</v>
       </c>
-      <c r="B25" s="125">
+      <c r="B25" s="113">
         <v>44032</v>
       </c>
       <c r="C25" s="34"/>
@@ -6553,11 +6740,11 @@
       <c r="E25" s="42"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="34">
         <v>21</v>
       </c>
-      <c r="B26" s="126">
+      <c r="B26" s="114">
         <v>44033</v>
       </c>
       <c r="C26" s="34"/>
@@ -6565,11 +6752,11 @@
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="34">
         <v>22</v>
       </c>
-      <c r="B27" s="125">
+      <c r="B27" s="113">
         <v>44034</v>
       </c>
       <c r="C27" s="34"/>
@@ -6577,11 +6764,11 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="34">
         <v>23</v>
       </c>
-      <c r="B28" s="125">
+      <c r="B28" s="113">
         <v>44035</v>
       </c>
       <c r="C28" s="34"/>
@@ -6589,11 +6776,11 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="34">
         <v>24</v>
       </c>
-      <c r="B29" s="126">
+      <c r="B29" s="114">
         <v>44036</v>
       </c>
       <c r="C29" s="34"/>
@@ -6601,11 +6788,11 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="93" customFormat="1">
       <c r="A30" s="34">
         <v>25</v>
       </c>
-      <c r="B30" s="160">
+      <c r="B30" s="151">
         <v>44039</v>
       </c>
       <c r="C30" s="34"/>
@@ -6613,21 +6800,21 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="93" customFormat="1">
       <c r="A31" s="34">
         <v>27</v>
       </c>
-      <c r="B31" s="161"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="34">
         <v>27</v>
       </c>
-      <c r="B32" s="126">
+      <c r="B32" s="114">
         <v>44039</v>
       </c>
       <c r="C32" s="34"/>
@@ -6635,11 +6822,11 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="69" customFormat="1">
       <c r="A33" s="34">
         <v>28</v>
       </c>
-      <c r="B33" s="125">
+      <c r="B33" s="113">
         <v>44040</v>
       </c>
       <c r="C33" s="34"/>
@@ -6647,11 +6834,11 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="69" customFormat="1">
       <c r="A34" s="34">
         <v>29</v>
       </c>
-      <c r="B34" s="125">
+      <c r="B34" s="113">
         <v>44041</v>
       </c>
       <c r="C34" s="34"/>
@@ -6659,11 +6846,11 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="34">
         <v>30</v>
       </c>
-      <c r="B35" s="126">
+      <c r="B35" s="114">
         <v>44042</v>
       </c>
       <c r="C35" s="34"/>
@@ -6671,11 +6858,11 @@
       <c r="E35" s="42"/>
       <c r="F35" s="34"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="34">
         <v>31</v>
       </c>
-      <c r="B36" s="125">
+      <c r="B36" s="113">
         <v>43982</v>
       </c>
       <c r="C36" s="34"/>
@@ -6683,18 +6870,18 @@
       <c r="E36" s="42"/>
       <c r="F36" s="34"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="26">
         <v>32</v>
       </c>
-      <c r="B37" s="125"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="43">
         <f>SUM(E5:E36)</f>
-        <v>50000</v>
+        <v>230000</v>
       </c>
       <c r="F37" s="26"/>
     </row>
@@ -6715,31 +6902,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V34"/>
+  <dimension ref="A2:V32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B2" s="162" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.25">
+      <c r="B2" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -6752,289 +6939,260 @@
       <c r="D3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="96" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="114" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="103" customFormat="1">
       <c r="A4" s="23"/>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="98">
+        <v>5825000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="110" customFormat="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="112">
+        <v>44019</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="108">
-        <v>5825000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="114" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="165" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="92">
+      <c r="E5" s="88">
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="114" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="110" customFormat="1">
       <c r="A6" s="23"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="81" t="s">
-        <v>63</v>
+      <c r="B6" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>82</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="92">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="122" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E6" s="88">
+        <v>1032000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="110" customFormat="1">
       <c r="A7" s="23"/>
-      <c r="B7" s="124">
-        <v>44019</v>
-      </c>
-      <c r="C7" s="133" t="s">
-        <v>86</v>
+      <c r="B7" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="92">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="122" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E7" s="88">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="75" customFormat="1">
       <c r="A8" s="23"/>
-      <c r="B8" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="92">
-        <v>1032000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="122" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="92">
-        <v>780000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="164" t="s">
+      <c r="B8" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="48">
-        <f>SUM(E4:E9)</f>
-        <v>12137000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="48">
+        <f>SUM(E4:E7)</f>
+        <v>9137000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" s="63"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" s="63"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="64"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="64"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22">
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+    </row>
+    <row r="20" spans="2:22">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K20" s="63"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="63"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+    </row>
+    <row r="22" spans="2:22">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="K22" s="64"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K22" s="63"/>
+    </row>
+    <row r="23" spans="2:22">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="64"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K23" s="63"/>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="K24" s="64"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F24" s="8"/>
+      <c r="K24" s="63"/>
+    </row>
+    <row r="25" spans="2:22">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="K25" s="64"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K25" s="63"/>
+    </row>
+    <row r="26" spans="2:22">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="8"/>
-      <c r="K26" s="64"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:22">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="K27" s="64"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+    </row>
+    <row r="28" spans="2:22">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-    </row>
-    <row r="33" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-    </row>
-    <row r="34" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7049,44 +7207,44 @@
   <dimension ref="B2:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="167" t="s">
+    <row r="2" spans="2:8" ht="28.5">
+      <c r="B2" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="C6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
@@ -7097,7 +7255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8">
       <c r="B8" s="31">
         <v>1</v>
       </c>
@@ -7106,17 +7264,17 @@
       </c>
       <c r="D8" s="42">
         <f>'khám bệnh'!D37+'khám bệnh'!F37+'khám bệnh'!H37</f>
-        <v>30200000</v>
+        <v>63100000</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="47">
         <f>SUM(D8,D9)</f>
-        <v>39890000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+        <v>87650000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="31">
         <v>2</v>
       </c>
@@ -7125,18 +7283,18 @@
       </c>
       <c r="D9" s="42">
         <f>'khám bệnh'!Y37</f>
-        <v>9690000</v>
+        <v>24550000</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E37)</f>
-        <v>16607000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+        <v>91055000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="31">
         <v>3</v>
       </c>
@@ -7145,17 +7303,17 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D34</f>
-        <v>16657000</v>
+        <v>147515000</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="47">
-        <f>nợ!E10+nhập!E65</f>
-        <v>12137000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+        <f>nợ!E8+nhập!F59</f>
+        <v>34361000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="31">
         <v>4</v>
       </c>
@@ -7164,25 +7322,25 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>56547000</v>
+        <v>235165000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8">
       <c r="C12"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="168" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-    </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+    </row>
+    <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
+    <row r="16" spans="2:8">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -7196,11 +7354,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="161" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7210,11 +7368,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="172"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7222,23 +7380,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="172"/>
+      <c r="C19" s="161"/>
       <c r="D19" s="34" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="172"/>
+      <c r="C20" s="161"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7247,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" ht="19.5" customHeight="1">
       <c r="B21" s="36">
         <v>7</v>
       </c>
@@ -7258,11 +7416,11 @@
         <v>17</v>
       </c>
       <c r="E21" s="49">
-        <f>nhập!D65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f>nhập!E59</f>
+        <v>56230000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="18.75" customHeight="1">
       <c r="B22" s="30">
         <v>7</v>
       </c>
@@ -7274,65 +7432,65 @@
       </c>
       <c r="E22" s="43">
         <f>chi!E37</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="18.75" customHeight="1">
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="173" t="s">
+      <c r="C23" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="174"/>
+      <c r="D23" s="163"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="167" t="s">
+        <v>56460000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B26" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-    </row>
-    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="169">
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+    </row>
+    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B27" s="158">
         <f>SUM(D11,-E23)</f>
-        <v>56497000</v>
-      </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="171"/>
+        <v>178705000</v>
+      </c>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="15:15">
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="15:15">
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="15:15">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="15:15">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -7356,171 +7514,171 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="168" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="157" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="157"/>
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="123"/>
-      <c r="B3" s="123"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" s="110" customFormat="1">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="47">
         <f>E4</f>
-        <v>16657000</v>
+        <v>147515000</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E4" s="47">
         <f>thuốc!D34</f>
-        <v>16657000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147515000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="47">
+        <f>chi!E37+nhập!E59</f>
+        <v>56460000</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="B5" s="47">
-        <f>chi!E37+nhập!D64</f>
-        <v>19906000</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="E5" s="47">
         <f>thuốc!C34</f>
-        <v>11627185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50652564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>-3249000</v>
+        <v>91055000</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="47">
         <f>E4-E5</f>
-        <v>5029815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="168" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="175" t="s">
+        <v>96862436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="164" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="165"/>
+      <c r="C9" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="175" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="176"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="165"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10" s="47">
         <f>B7</f>
         <v>0</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" s="47">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="128"/>
+        <v>93</v>
+      </c>
+      <c r="B11" s="116"/>
       <c r="C11" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D11" s="47">
         <f>E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="23"/>
       <c r="B12" s="47"/>
       <c r="C12" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D12" s="47"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B13" s="47">
         <f>B10+B11</f>
         <v>0</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D13" s="47">
         <f>D12+D11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="D14" s="8"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="B21" s="8">
         <f>B13-D13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4">
       <c r="C22" s="8"/>
     </row>
   </sheetData>

--- a/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C704BD-9E91-4DE1-B1CA-DF937F661AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C4A493-A32E-4F8C-98E3-93A11DE96E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="4215" windowWidth="11490" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <t>Báo cáo công nợ tháng 7/2020</t>
   </si>
   <si>
-    <t>30/07/2020</t>
-  </si>
-  <si>
     <t>BÁO CÁO TÀI CHÍNH T7/2020</t>
   </si>
   <si>
@@ -420,6 +417,9 @@
   </si>
   <si>
     <t>tebexerol</t>
+  </si>
+  <si>
+    <t>30/06/2020</t>
   </si>
 </sst>
 </file>
@@ -1019,14 +1019,57 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1039,6 +1082,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,10 +1108,24 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,15 +1135,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1140,58 +1192,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1582,99 +1582,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:42" ht="36">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
     </row>
     <row r="4" spans="1:42">
-      <c r="A4" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="126" t="s">
+      <c r="A4" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="138" t="s">
+      <c r="D4" s="147"/>
+      <c r="E4" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="139"/>
-      <c r="G4" s="125" t="s">
+      <c r="F4" s="155"/>
+      <c r="G4" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125" t="s">
+      <c r="H4" s="147"/>
+      <c r="I4" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="125"/>
-      <c r="K4" s="132" t="s">
+      <c r="J4" s="147"/>
+      <c r="K4" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="132"/>
-      <c r="M4" s="125" t="s">
+      <c r="L4" s="148"/>
+      <c r="M4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125" t="s">
+      <c r="N4" s="147"/>
+      <c r="O4" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125" t="s">
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125" t="s">
+      <c r="R4" s="147"/>
+      <c r="S4" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="125"/>
-      <c r="U4" s="133" t="s">
+      <c r="T4" s="147"/>
+      <c r="U4" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="133"/>
-      <c r="W4" s="136" t="s">
+      <c r="V4" s="149"/>
+      <c r="W4" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="134" t="s">
+      <c r="X4" s="153"/>
+      <c r="Y4" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="131" t="s">
+      <c r="Z4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="125" t="s">
+      <c r="AA4" s="147" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1">
-      <c r="A5" s="125"/>
-      <c r="B5" s="126"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1741,9 +1741,9 @@
       <c r="X5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="125"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="147"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -2524,7 +2524,7 @@
         <v>3030000</v>
       </c>
       <c r="AA13" s="85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -3075,7 +3075,7 @@
         <v>3400000</v>
       </c>
       <c r="AA19" s="124" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
@@ -4730,65 +4730,65 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="127">
+      <c r="C38" s="157">
         <v>80</v>
       </c>
-      <c r="D38" s="127"/>
+      <c r="D38" s="157"/>
       <c r="E38" s="107"/>
       <c r="F38" s="107"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="128"/>
-      <c r="Q38" s="128"/>
-      <c r="R38" s="128"/>
-      <c r="S38" s="128"/>
-      <c r="T38" s="128"/>
-      <c r="U38" s="128"/>
-      <c r="V38" s="128"/>
-      <c r="W38" s="128"/>
-      <c r="X38" s="128"/>
-      <c r="Y38" s="128"/>
-      <c r="Z38" s="128"/>
-      <c r="AA38" s="128"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="143"/>
+      <c r="U38" s="143"/>
+      <c r="V38" s="143"/>
+      <c r="W38" s="143"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="143"/>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="143"/>
     </row>
     <row r="39" spans="1:31" s="11" customFormat="1">
       <c r="B39" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="129">
+      <c r="C39" s="144">
         <v>247</v>
       </c>
-      <c r="D39" s="129"/>
+      <c r="D39" s="144"/>
       <c r="E39" s="108"/>
       <c r="F39" s="108"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
-      <c r="N39" s="128"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="128"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="128"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="128"/>
-      <c r="U39" s="128"/>
-      <c r="V39" s="128"/>
-      <c r="W39" s="128"/>
-      <c r="X39" s="128"/>
-      <c r="Y39" s="128"/>
-      <c r="Z39" s="128"/>
-      <c r="AA39" s="128"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="143"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="143"/>
+      <c r="P39" s="143"/>
+      <c r="Q39" s="143"/>
+      <c r="R39" s="143"/>
+      <c r="S39" s="143"/>
+      <c r="T39" s="143"/>
+      <c r="U39" s="143"/>
+      <c r="V39" s="143"/>
+      <c r="W39" s="143"/>
+      <c r="X39" s="143"/>
+      <c r="Y39" s="143"/>
+      <c r="Z39" s="143"/>
+      <c r="AA39" s="143"/>
       <c r="AD39" s="11" t="s">
         <v>9</v>
       </c>
@@ -4804,6 +4804,11 @@
   </sheetData>
   <autoFilter ref="AA4:AA39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="G39:AA39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AA2"/>
@@ -4820,11 +4825,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4843,7 +4843,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4854,14 +4854,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
@@ -4890,17 +4890,17 @@
       <c r="B4" s="21">
         <v>44013</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="125">
         <v>1388509</v>
       </c>
-      <c r="D4" s="167">
+      <c r="D4" s="125">
         <v>2135000</v>
       </c>
-      <c r="E4" s="167">
+      <c r="E4" s="125">
         <f>SUM(D4,-C4)</f>
         <v>746491</v>
       </c>
-      <c r="F4" s="169"/>
+      <c r="F4" s="127"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="34">
@@ -4909,17 +4909,17 @@
       <c r="B5" s="21">
         <v>44014</v>
       </c>
-      <c r="C5" s="167">
+      <c r="C5" s="125">
         <v>2289927</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="125">
         <v>3482000</v>
       </c>
-      <c r="E5" s="167">
+      <c r="E5" s="125">
         <f t="shared" ref="E5:E33" si="0">SUM(D5,-C5)</f>
         <v>1192073</v>
       </c>
-      <c r="F5" s="169"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="34">
@@ -4928,17 +4928,17 @@
       <c r="B6" s="21">
         <v>44015</v>
       </c>
-      <c r="C6" s="167">
+      <c r="C6" s="125">
         <v>1208542</v>
       </c>
-      <c r="D6" s="167">
+      <c r="D6" s="125">
         <v>1750000</v>
       </c>
-      <c r="E6" s="167">
+      <c r="E6" s="125">
         <f t="shared" si="0"/>
         <v>541458</v>
       </c>
-      <c r="F6" s="169"/>
+      <c r="F6" s="127"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="34">
@@ -4947,17 +4947,17 @@
       <c r="B7" s="21">
         <v>44016</v>
       </c>
-      <c r="C7" s="167">
+      <c r="C7" s="125">
         <v>6740207</v>
       </c>
-      <c r="D7" s="167">
+      <c r="D7" s="125">
         <v>9290000</v>
       </c>
-      <c r="E7" s="167">
+      <c r="E7" s="125">
         <f t="shared" si="0"/>
         <v>2549793</v>
       </c>
-      <c r="F7" s="169"/>
+      <c r="F7" s="127"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="34">
@@ -4966,15 +4966,15 @@
       <c r="B8" s="21">
         <v>44017</v>
       </c>
-      <c r="C8" s="167">
+      <c r="C8" s="125">
         <v>2714582</v>
       </c>
-      <c r="D8" s="167">
-        <v>11300000</v>
-      </c>
-      <c r="E8" s="167">
+      <c r="D8" s="128">
+        <v>3700000</v>
+      </c>
+      <c r="E8" s="125">
         <f t="shared" si="0"/>
-        <v>8585418</v>
+        <v>985418</v>
       </c>
       <c r="F8" s="62"/>
     </row>
@@ -4985,15 +4985,15 @@
       <c r="B9" s="21">
         <v>44018</v>
       </c>
-      <c r="C9" s="170">
+      <c r="C9" s="128">
         <v>1627218</v>
       </c>
-      <c r="D9" s="170">
-        <v>5008000</v>
-      </c>
-      <c r="E9" s="167">
+      <c r="D9" s="128">
+        <v>2208000</v>
+      </c>
+      <c r="E9" s="125">
         <f t="shared" si="0"/>
-        <v>3380782</v>
+        <v>580782</v>
       </c>
       <c r="F9" s="62"/>
     </row>
@@ -5004,15 +5004,15 @@
       <c r="B10" s="21">
         <v>44019</v>
       </c>
-      <c r="C10" s="170">
+      <c r="C10" s="128">
         <v>1560518</v>
       </c>
-      <c r="D10" s="170">
-        <v>6440000</v>
-      </c>
-      <c r="E10" s="167">
+      <c r="D10" s="128">
+        <v>2240000</v>
+      </c>
+      <c r="E10" s="125">
         <f t="shared" si="0"/>
-        <v>4879482</v>
+        <v>679482</v>
       </c>
       <c r="F10" s="62"/>
     </row>
@@ -5023,15 +5023,15 @@
       <c r="B11" s="21">
         <v>44020</v>
       </c>
-      <c r="C11" s="170">
+      <c r="C11" s="128">
         <v>680564</v>
       </c>
-      <c r="D11" s="170">
-        <v>3656000</v>
-      </c>
-      <c r="E11" s="167">
+      <c r="D11" s="128">
+        <v>1026000</v>
+      </c>
+      <c r="E11" s="125">
         <f t="shared" si="0"/>
-        <v>2975436</v>
+        <v>345436</v>
       </c>
       <c r="F11" s="62"/>
     </row>
@@ -5042,15 +5042,15 @@
       <c r="B12" s="21">
         <v>44021</v>
       </c>
-      <c r="C12" s="170">
+      <c r="C12" s="128">
         <v>665194</v>
       </c>
-      <c r="D12" s="170">
-        <v>2960000</v>
-      </c>
-      <c r="E12" s="167">
+      <c r="D12" s="128">
+        <v>840000</v>
+      </c>
+      <c r="E12" s="125">
         <f t="shared" si="0"/>
-        <v>2294806</v>
+        <v>174806</v>
       </c>
       <c r="F12" s="62"/>
     </row>
@@ -5061,15 +5061,15 @@
       <c r="B13" s="21">
         <v>44022</v>
       </c>
-      <c r="C13" s="170">
+      <c r="C13" s="128">
         <v>1724864</v>
       </c>
-      <c r="D13" s="170">
-        <v>5890000</v>
-      </c>
-      <c r="E13" s="167">
+      <c r="D13" s="128">
+        <v>2490000</v>
+      </c>
+      <c r="E13" s="125">
         <f t="shared" si="0"/>
-        <v>4165136</v>
+        <v>765136</v>
       </c>
       <c r="F13" s="62"/>
     </row>
@@ -5080,15 +5080,15 @@
       <c r="B14" s="21">
         <v>44023</v>
       </c>
-      <c r="C14" s="170">
+      <c r="C14" s="128">
         <v>2975927</v>
       </c>
-      <c r="D14" s="170">
-        <v>9141000</v>
-      </c>
-      <c r="E14" s="167">
+      <c r="D14" s="128">
+        <v>4341000</v>
+      </c>
+      <c r="E14" s="125">
         <f t="shared" si="0"/>
-        <v>6165073</v>
+        <v>1365073</v>
       </c>
       <c r="F14" s="62"/>
     </row>
@@ -5099,15 +5099,15 @@
       <c r="B15" s="21">
         <v>44024</v>
       </c>
-      <c r="C15" s="170">
+      <c r="C15" s="128">
         <v>4290790</v>
       </c>
-      <c r="D15" s="170">
-        <v>18819000</v>
-      </c>
-      <c r="E15" s="167">
+      <c r="D15" s="128">
+        <v>5839000</v>
+      </c>
+      <c r="E15" s="125">
         <f t="shared" si="0"/>
-        <v>14528210</v>
+        <v>1548210</v>
       </c>
       <c r="F15" s="62"/>
     </row>
@@ -5118,15 +5118,15 @@
       <c r="B16" s="21">
         <v>44025</v>
       </c>
-      <c r="C16" s="170">
+      <c r="C16" s="128">
         <v>2084637</v>
       </c>
-      <c r="D16" s="170">
-        <v>5393000</v>
-      </c>
-      <c r="E16" s="167">
+      <c r="D16" s="128">
+        <v>3133000</v>
+      </c>
+      <c r="E16" s="125">
         <f t="shared" si="0"/>
-        <v>3308363</v>
+        <v>1048363</v>
       </c>
       <c r="F16" s="62"/>
     </row>
@@ -5137,15 +5137,15 @@
       <c r="B17" s="21">
         <v>44026</v>
       </c>
-      <c r="C17" s="170">
+      <c r="C17" s="128">
         <v>2762818</v>
       </c>
-      <c r="D17" s="170">
-        <v>7185000</v>
-      </c>
-      <c r="E17" s="167">
+      <c r="D17" s="128">
+        <v>3785000</v>
+      </c>
+      <c r="E17" s="125">
         <f t="shared" si="0"/>
-        <v>4422182</v>
+        <v>1022182</v>
       </c>
       <c r="F17" s="62"/>
     </row>
@@ -5156,15 +5156,15 @@
       <c r="B18" s="21">
         <v>44027</v>
       </c>
-      <c r="C18" s="170">
+      <c r="C18" s="128">
         <v>4590956</v>
       </c>
-      <c r="D18" s="170">
-        <v>11150000</v>
-      </c>
-      <c r="E18" s="167">
+      <c r="D18" s="128">
+        <v>6400000</v>
+      </c>
+      <c r="E18" s="125">
         <f t="shared" si="0"/>
-        <v>6559044</v>
+        <v>1809044</v>
       </c>
       <c r="F18" s="62"/>
     </row>
@@ -5175,15 +5175,15 @@
       <c r="B19" s="21">
         <v>44028</v>
       </c>
-      <c r="C19" s="170">
+      <c r="C19" s="128">
         <v>370481</v>
       </c>
-      <c r="D19" s="170">
-        <v>1810000</v>
-      </c>
-      <c r="E19" s="167">
+      <c r="D19" s="128">
+        <v>510000</v>
+      </c>
+      <c r="E19" s="125">
         <f t="shared" si="0"/>
-        <v>1439519</v>
+        <v>139519</v>
       </c>
       <c r="F19" s="62"/>
     </row>
@@ -5194,15 +5194,15 @@
       <c r="B20" s="21">
         <v>44029</v>
       </c>
-      <c r="C20" s="170">
+      <c r="C20" s="128">
         <v>1735853</v>
       </c>
-      <c r="D20" s="170">
-        <v>7610000</v>
-      </c>
-      <c r="E20" s="167">
+      <c r="D20" s="128">
+        <v>2680000</v>
+      </c>
+      <c r="E20" s="125">
         <f t="shared" si="0"/>
-        <v>5874147</v>
+        <v>944147</v>
       </c>
       <c r="F20" s="62"/>
     </row>
@@ -5213,15 +5213,15 @@
       <c r="B21" s="21">
         <v>44030</v>
       </c>
-      <c r="C21" s="170">
+      <c r="C21" s="128">
         <v>5646367</v>
       </c>
-      <c r="D21" s="170">
-        <v>17295000</v>
-      </c>
-      <c r="E21" s="167">
+      <c r="D21" s="128">
+        <v>8065000</v>
+      </c>
+      <c r="E21" s="125">
         <f t="shared" si="0"/>
-        <v>11648633</v>
+        <v>2418633</v>
       </c>
       <c r="F21" s="62"/>
     </row>
@@ -5232,15 +5232,15 @@
       <c r="B22" s="21">
         <v>44031</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="128">
         <v>2599301</v>
       </c>
-      <c r="D22" s="170">
-        <v>9990000</v>
-      </c>
-      <c r="E22" s="167">
+      <c r="D22" s="128">
+        <v>3280000</v>
+      </c>
+      <c r="E22" s="125">
         <f t="shared" si="0"/>
-        <v>7390699</v>
+        <v>680699</v>
       </c>
       <c r="F22" s="62"/>
     </row>
@@ -5251,15 +5251,15 @@
       <c r="B23" s="21">
         <v>44032</v>
       </c>
-      <c r="C23" s="170">
+      <c r="C23" s="128">
         <v>2995309</v>
       </c>
-      <c r="D23" s="170">
-        <v>7211000</v>
-      </c>
-      <c r="E23" s="167">
+      <c r="D23" s="128">
+        <v>4411000</v>
+      </c>
+      <c r="E23" s="125">
         <f t="shared" si="0"/>
-        <v>4215691</v>
+        <v>1415691</v>
       </c>
       <c r="F23" s="62"/>
     </row>
@@ -5270,13 +5270,13 @@
       <c r="B24" s="21">
         <v>44033</v>
       </c>
-      <c r="C24" s="167">
-        <v>0</v>
-      </c>
-      <c r="D24" s="167">
-        <v>0</v>
-      </c>
-      <c r="E24" s="167">
+      <c r="C24" s="125">
+        <v>0</v>
+      </c>
+      <c r="D24" s="125">
+        <v>0</v>
+      </c>
+      <c r="E24" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5289,13 +5289,13 @@
       <c r="B25" s="21">
         <v>44034</v>
       </c>
-      <c r="C25" s="171">
-        <v>0</v>
-      </c>
-      <c r="D25" s="171">
-        <v>0</v>
-      </c>
-      <c r="E25" s="167">
+      <c r="C25" s="129">
+        <v>0</v>
+      </c>
+      <c r="D25" s="125">
+        <v>0</v>
+      </c>
+      <c r="E25" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5308,17 +5308,17 @@
       <c r="B26" s="21">
         <v>44035</v>
       </c>
-      <c r="C26" s="167">
-        <v>0</v>
-      </c>
-      <c r="D26" s="167">
-        <v>0</v>
-      </c>
-      <c r="E26" s="167">
+      <c r="C26" s="125">
+        <v>0</v>
+      </c>
+      <c r="D26" s="125">
+        <v>0</v>
+      </c>
+      <c r="E26" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="168"/>
+      <c r="F26" s="126"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="34">
@@ -5327,17 +5327,17 @@
       <c r="B27" s="21">
         <v>44036</v>
       </c>
-      <c r="C27" s="167">
-        <v>0</v>
-      </c>
-      <c r="D27" s="167">
-        <v>0</v>
-      </c>
-      <c r="E27" s="167">
+      <c r="C27" s="125">
+        <v>0</v>
+      </c>
+      <c r="D27" s="125">
+        <v>0</v>
+      </c>
+      <c r="E27" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="168"/>
+      <c r="F27" s="126"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="34">
@@ -5346,17 +5346,17 @@
       <c r="B28" s="21">
         <v>44037</v>
       </c>
-      <c r="C28" s="167">
-        <v>0</v>
-      </c>
-      <c r="D28" s="167">
-        <v>0</v>
-      </c>
-      <c r="E28" s="167">
+      <c r="C28" s="125">
+        <v>0</v>
+      </c>
+      <c r="D28" s="125">
+        <v>0</v>
+      </c>
+      <c r="E28" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="168"/>
+      <c r="F28" s="126"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="34">
@@ -5368,7 +5368,7 @@
       <c r="C29" s="42">
         <v>0</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="125">
         <v>0</v>
       </c>
       <c r="E29" s="42">
@@ -5387,7 +5387,7 @@
       <c r="C30" s="42">
         <v>0</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="125">
         <v>0</v>
       </c>
       <c r="E30" s="42">
@@ -5466,11 +5466,11 @@
       </c>
       <c r="D34" s="43">
         <f>SUM(D4:D33)</f>
-        <v>147515000</v>
+        <v>71605000</v>
       </c>
       <c r="E34" s="43">
         <f>SUM(E4:E33)</f>
-        <v>96862436</v>
+        <v>20952436</v>
       </c>
       <c r="F34" s="23"/>
     </row>
@@ -5499,8 +5499,8 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="84" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="175" customWidth="1"/>
-    <col min="4" max="4" width="18" style="176" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="133" customWidth="1"/>
+    <col min="4" max="4" width="18" style="134" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="74" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="81" customWidth="1"/>
     <col min="7" max="7" width="30" style="76" customWidth="1"/>
@@ -5510,19 +5510,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="91" customFormat="1" ht="31.5">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
     </row>
     <row r="3" spans="1:7" ht="31.5">
       <c r="B3" s="25"/>
-      <c r="C3" s="174"/>
+      <c r="C3" s="132"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="66" t="s">
@@ -5531,46 +5531,46 @@
       <c r="B4" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="180" t="s">
+      <c r="C4" s="131"/>
+      <c r="D4" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="172" t="s">
+      <c r="E4" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="181" t="s">
+      <c r="G4" s="139" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="71" customFormat="1">
-      <c r="A5" s="145">
+      <c r="A5" s="159">
         <v>1</v>
       </c>
-      <c r="B5" s="142">
+      <c r="B5" s="162">
         <v>44013</v>
       </c>
-      <c r="C5" s="173">
+      <c r="C5" s="131">
         <v>1</v>
       </c>
-      <c r="D5" s="178" t="s">
-        <v>94</v>
+      <c r="D5" s="136" t="s">
+        <v>93</v>
       </c>
       <c r="E5" s="98">
         <v>750000</v>
       </c>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="141"/>
     </row>
     <row r="6" spans="1:7" s="117" customFormat="1">
-      <c r="A6" s="146"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="173">
+      <c r="A6" s="160"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="131">
         <v>2</v>
       </c>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="135" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="87">
@@ -5580,13 +5580,13 @@
       <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" s="117" customFormat="1">
-      <c r="A7" s="146"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="173">
+      <c r="A7" s="160"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="131">
         <v>3</v>
       </c>
-      <c r="D7" s="177" t="s">
-        <v>95</v>
+      <c r="D7" s="135" t="s">
+        <v>94</v>
       </c>
       <c r="E7" s="87">
         <v>560000</v>
@@ -5595,13 +5595,13 @@
       <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" s="117" customFormat="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="173">
+      <c r="A8" s="160"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="131">
         <v>4</v>
       </c>
-      <c r="D8" s="177" t="s">
-        <v>96</v>
+      <c r="D8" s="135" t="s">
+        <v>95</v>
       </c>
       <c r="E8" s="87">
         <v>870000</v>
@@ -5610,13 +5610,13 @@
       <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" s="117" customFormat="1">
-      <c r="A9" s="146"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="173">
+      <c r="A9" s="160"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="131">
         <v>5</v>
       </c>
-      <c r="D9" s="177" t="s">
-        <v>97</v>
+      <c r="D9" s="135" t="s">
+        <v>96</v>
       </c>
       <c r="E9" s="87">
         <v>275000</v>
@@ -5625,12 +5625,12 @@
       <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" s="117" customFormat="1">
-      <c r="A10" s="147"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="173">
+      <c r="A10" s="161"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="131">
         <v>6</v>
       </c>
-      <c r="D10" s="177" t="s">
+      <c r="D10" s="135" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="87">
@@ -5643,11 +5643,11 @@
       <c r="A11" s="86">
         <v>2</v>
       </c>
-      <c r="B11" s="142">
+      <c r="B11" s="162">
         <v>44014</v>
       </c>
-      <c r="C11" s="173"/>
-      <c r="D11" s="177"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="87">
         <v>0</v>
       </c>
@@ -5656,9 +5656,9 @@
     </row>
     <row r="12" spans="1:7" s="103" customFormat="1" hidden="1">
       <c r="A12" s="102"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="177"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="87">
         <v>0</v>
       </c>
@@ -5666,17 +5666,17 @@
       <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" s="75" customFormat="1">
-      <c r="A13" s="145">
+      <c r="A13" s="159">
         <v>2</v>
       </c>
-      <c r="B13" s="142">
+      <c r="B13" s="162">
         <v>44015</v>
       </c>
-      <c r="C13" s="173">
+      <c r="C13" s="131">
         <v>1</v>
       </c>
-      <c r="D13" s="177" t="s">
-        <v>98</v>
+      <c r="D13" s="135" t="s">
+        <v>97</v>
       </c>
       <c r="E13" s="87">
         <v>650000</v>
@@ -5685,13 +5685,13 @@
       <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" s="117" customFormat="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="173">
+      <c r="A14" s="160"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="131">
         <v>2</v>
       </c>
-      <c r="D14" s="177" t="s">
-        <v>99</v>
+      <c r="D14" s="135" t="s">
+        <v>98</v>
       </c>
       <c r="E14" s="87">
         <v>1820000</v>
@@ -5700,13 +5700,13 @@
       <c r="G14" s="100"/>
     </row>
     <row r="15" spans="1:7" s="117" customFormat="1">
-      <c r="A15" s="146"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="173">
+      <c r="A15" s="160"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="131">
         <v>3</v>
       </c>
-      <c r="D15" s="177" t="s">
-        <v>100</v>
+      <c r="D15" s="135" t="s">
+        <v>99</v>
       </c>
       <c r="E15" s="87">
         <v>436000</v>
@@ -5715,12 +5715,12 @@
       <c r="G15" s="100"/>
     </row>
     <row r="16" spans="1:7" s="122" customFormat="1">
-      <c r="A16" s="146"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="173">
+      <c r="A16" s="160"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="131">
         <v>4</v>
       </c>
-      <c r="D16" s="177" t="s">
+      <c r="D16" s="135" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="87"/>
@@ -5730,12 +5730,12 @@
       <c r="G16" s="100"/>
     </row>
     <row r="17" spans="1:7" s="117" customFormat="1">
-      <c r="A17" s="146"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="173">
+      <c r="A17" s="160"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="131">
         <v>5</v>
       </c>
-      <c r="D17" s="177" t="s">
+      <c r="D17" s="135" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="87">
@@ -5743,21 +5743,21 @@
       </c>
       <c r="F17" s="88"/>
       <c r="G17" s="100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="99" customFormat="1">
-      <c r="A18" s="145">
+      <c r="A18" s="159">
         <v>3</v>
       </c>
-      <c r="B18" s="142">
+      <c r="B18" s="162">
         <v>44016</v>
       </c>
-      <c r="C18" s="173">
+      <c r="C18" s="131">
         <v>1</v>
       </c>
-      <c r="D18" s="177" t="s">
-        <v>104</v>
+      <c r="D18" s="135" t="s">
+        <v>103</v>
       </c>
       <c r="E18" s="87">
         <v>2800000</v>
@@ -5766,13 +5766,13 @@
       <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7" s="122" customFormat="1">
-      <c r="A19" s="146"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="173">
+      <c r="A19" s="160"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="131">
         <v>2</v>
       </c>
-      <c r="D19" s="177" t="s">
-        <v>105</v>
+      <c r="D19" s="135" t="s">
+        <v>104</v>
       </c>
       <c r="E19" s="87">
         <v>650000</v>
@@ -5781,13 +5781,13 @@
       <c r="G19" s="100"/>
     </row>
     <row r="20" spans="1:7" s="122" customFormat="1">
-      <c r="A20" s="146"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="173">
+      <c r="A20" s="160"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="131">
         <v>3</v>
       </c>
-      <c r="D20" s="177" t="s">
-        <v>106</v>
+      <c r="D20" s="135" t="s">
+        <v>105</v>
       </c>
       <c r="E20" s="87">
         <v>1950000</v>
@@ -5796,13 +5796,13 @@
       <c r="G20" s="100"/>
     </row>
     <row r="21" spans="1:7" s="122" customFormat="1">
-      <c r="A21" s="146"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="173">
+      <c r="A21" s="160"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="131">
         <v>4</v>
       </c>
-      <c r="D21" s="177" t="s">
-        <v>107</v>
+      <c r="D21" s="135" t="s">
+        <v>106</v>
       </c>
       <c r="E21" s="87">
         <v>2080000</v>
@@ -5811,13 +5811,13 @@
       <c r="G21" s="100"/>
     </row>
     <row r="22" spans="1:7" s="122" customFormat="1">
-      <c r="A22" s="146"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="173">
+      <c r="A22" s="160"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="131">
         <v>5</v>
       </c>
-      <c r="D22" s="177" t="s">
-        <v>108</v>
+      <c r="D22" s="135" t="s">
+        <v>107</v>
       </c>
       <c r="E22" s="87">
         <v>2300000</v>
@@ -5826,13 +5826,13 @@
       <c r="G22" s="100"/>
     </row>
     <row r="23" spans="1:7" s="122" customFormat="1">
-      <c r="A23" s="146"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="173">
+      <c r="A23" s="160"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="131">
         <v>6</v>
       </c>
-      <c r="D23" s="177" t="s">
-        <v>109</v>
+      <c r="D23" s="135" t="s">
+        <v>108</v>
       </c>
       <c r="E23" s="87">
         <v>1560000</v>
@@ -5841,13 +5841,13 @@
       <c r="G23" s="100"/>
     </row>
     <row r="24" spans="1:7" s="122" customFormat="1">
-      <c r="A24" s="147"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="173">
+      <c r="A24" s="161"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="131">
         <v>7</v>
       </c>
-      <c r="D24" s="177" t="s">
-        <v>128</v>
+      <c r="D24" s="135" t="s">
+        <v>127</v>
       </c>
       <c r="E24" s="87"/>
       <c r="F24" s="88">
@@ -5856,34 +5856,34 @@
       <c r="G24" s="100"/>
     </row>
     <row r="25" spans="1:7" s="80" customFormat="1">
-      <c r="A25" s="145">
+      <c r="A25" s="159">
         <v>4</v>
       </c>
-      <c r="B25" s="142">
+      <c r="B25" s="162">
         <v>44023</v>
       </c>
-      <c r="C25" s="173">
+      <c r="C25" s="131">
         <v>1</v>
       </c>
-      <c r="D25" s="178" t="s">
-        <v>110</v>
+      <c r="D25" s="136" t="s">
+        <v>109</v>
       </c>
       <c r="E25" s="87">
         <v>4950000</v>
       </c>
       <c r="F25" s="88"/>
       <c r="G25" s="100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="122" customFormat="1">
-      <c r="A26" s="146"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="173">
+      <c r="A26" s="160"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="131">
         <v>2</v>
       </c>
-      <c r="D26" s="178" t="s">
-        <v>111</v>
+      <c r="D26" s="136" t="s">
+        <v>110</v>
       </c>
       <c r="E26" s="87">
         <v>2500000</v>
@@ -5892,13 +5892,13 @@
       <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" s="122" customFormat="1">
-      <c r="A27" s="146"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="173">
+      <c r="A27" s="160"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="131">
         <v>3</v>
       </c>
-      <c r="D27" s="178" t="s">
-        <v>112</v>
+      <c r="D27" s="136" t="s">
+        <v>111</v>
       </c>
       <c r="E27" s="87">
         <v>4050000</v>
@@ -5907,68 +5907,68 @@
       <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" s="122" customFormat="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="173">
+      <c r="A28" s="161"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="131">
         <v>4</v>
       </c>
-      <c r="D28" s="177" t="s">
-        <v>113</v>
+      <c r="D28" s="135" t="s">
+        <v>112</v>
       </c>
       <c r="E28" s="87"/>
       <c r="F28" s="88">
         <v>1500000</v>
       </c>
-      <c r="G28" s="184"/>
+      <c r="G28" s="142"/>
     </row>
     <row r="29" spans="1:7" s="80" customFormat="1">
-      <c r="A29" s="145">
+      <c r="A29" s="159">
         <v>5</v>
       </c>
-      <c r="B29" s="142">
+      <c r="B29" s="162">
         <v>44026</v>
       </c>
-      <c r="C29" s="173">
+      <c r="C29" s="131">
         <v>1</v>
       </c>
-      <c r="D29" s="177" t="s">
-        <v>113</v>
+      <c r="D29" s="135" t="s">
+        <v>112</v>
       </c>
       <c r="E29" s="87">
         <v>1500000</v>
       </c>
       <c r="F29" s="88"/>
-      <c r="G29" s="145" t="s">
-        <v>116</v>
+      <c r="G29" s="159" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="122" customFormat="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="173">
+      <c r="A30" s="161"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="131">
         <v>2</v>
       </c>
-      <c r="D30" s="177" t="s">
-        <v>114</v>
+      <c r="D30" s="135" t="s">
+        <v>113</v>
       </c>
       <c r="E30" s="87">
         <v>1500000</v>
       </c>
       <c r="F30" s="88"/>
-      <c r="G30" s="147"/>
+      <c r="G30" s="161"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="145">
+      <c r="A31" s="159">
         <v>6</v>
       </c>
-      <c r="B31" s="142">
+      <c r="B31" s="162">
         <v>44027</v>
       </c>
-      <c r="C31" s="173">
+      <c r="C31" s="131">
         <v>1</v>
       </c>
-      <c r="D31" s="177" t="s">
-        <v>117</v>
+      <c r="D31" s="135" t="s">
+        <v>116</v>
       </c>
       <c r="E31" s="87">
         <v>5300000</v>
@@ -5977,13 +5977,13 @@
       <c r="G31" s="77"/>
     </row>
     <row r="32" spans="1:7" s="122" customFormat="1">
-      <c r="A32" s="146"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="173">
+      <c r="A32" s="160"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="131">
         <v>2</v>
       </c>
-      <c r="D32" s="177" t="s">
-        <v>95</v>
+      <c r="D32" s="135" t="s">
+        <v>94</v>
       </c>
       <c r="E32" s="87">
         <v>560000</v>
@@ -5992,12 +5992,12 @@
       <c r="G32" s="77"/>
     </row>
     <row r="33" spans="1:7" s="122" customFormat="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="173">
+      <c r="A33" s="160"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="131">
         <v>3</v>
       </c>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="135" t="s">
         <v>80</v>
       </c>
       <c r="E33" s="87">
@@ -6007,13 +6007,13 @@
       <c r="G33" s="77"/>
     </row>
     <row r="34" spans="1:7" s="122" customFormat="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="143"/>
-      <c r="C34" s="173">
+      <c r="A34" s="161"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="131">
         <v>4</v>
       </c>
-      <c r="D34" s="177" t="s">
-        <v>118</v>
+      <c r="D34" s="135" t="s">
+        <v>117</v>
       </c>
       <c r="E34" s="87">
         <v>360000</v>
@@ -6022,16 +6022,16 @@
       <c r="G34" s="77"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="145">
+      <c r="A35" s="159">
         <v>7</v>
       </c>
-      <c r="B35" s="142">
+      <c r="B35" s="162">
         <v>44029</v>
       </c>
-      <c r="C35" s="173">
+      <c r="C35" s="131">
         <v>1</v>
       </c>
-      <c r="D35" s="177" t="s">
+      <c r="D35" s="135" t="s">
         <v>82</v>
       </c>
       <c r="E35" s="87">
@@ -6039,23 +6039,23 @@
       </c>
       <c r="F35" s="88"/>
       <c r="G35" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="122" customFormat="1">
-      <c r="A36" s="147"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="173">
+      <c r="A36" s="161"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="131">
         <v>2</v>
       </c>
-      <c r="D36" s="177" t="s">
+      <c r="D36" s="135" t="s">
         <v>82</v>
       </c>
       <c r="F36" s="87">
         <v>774000</v>
       </c>
       <c r="G36" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="82" customFormat="1">
@@ -6065,8 +6065,8 @@
       <c r="B37" s="101">
         <v>44029</v>
       </c>
-      <c r="C37" s="173"/>
-      <c r="D37" s="177"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="135"/>
       <c r="E37" s="87">
         <v>0</v>
       </c>
@@ -6080,8 +6080,8 @@
       <c r="B38" s="101">
         <v>44030</v>
       </c>
-      <c r="C38" s="173"/>
-      <c r="D38" s="177"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="135"/>
       <c r="E38" s="87">
         <v>0</v>
       </c>
@@ -6095,8 +6095,8 @@
       <c r="B39" s="101">
         <v>44031</v>
       </c>
-      <c r="C39" s="173"/>
-      <c r="D39" s="177"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="135"/>
       <c r="E39" s="87">
         <v>0</v>
       </c>
@@ -6110,8 +6110,8 @@
       <c r="B40" s="101">
         <v>44032</v>
       </c>
-      <c r="C40" s="173"/>
-      <c r="D40" s="177"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="135"/>
       <c r="E40" s="87">
         <v>0</v>
       </c>
@@ -6125,8 +6125,8 @@
       <c r="B41" s="101">
         <v>44033</v>
       </c>
-      <c r="C41" s="173"/>
-      <c r="D41" s="177"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="135"/>
       <c r="E41" s="87">
         <v>0</v>
       </c>
@@ -6140,8 +6140,8 @@
       <c r="B42" s="101">
         <v>44034</v>
       </c>
-      <c r="C42" s="173"/>
-      <c r="D42" s="177"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="135"/>
       <c r="E42" s="87">
         <v>0</v>
       </c>
@@ -6155,8 +6155,8 @@
       <c r="B43" s="101">
         <v>44035</v>
       </c>
-      <c r="C43" s="173"/>
-      <c r="D43" s="177"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="135"/>
       <c r="E43" s="87">
         <v>0</v>
       </c>
@@ -6167,9 +6167,9 @@
       <c r="A44" s="86">
         <v>27</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="177"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="135"/>
       <c r="E44" s="87">
         <v>0</v>
       </c>
@@ -6178,9 +6178,9 @@
     </row>
     <row r="45" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="102"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="173"/>
-      <c r="D45" s="177"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="135"/>
       <c r="E45" s="87">
         <v>0</v>
       </c>
@@ -6189,9 +6189,9 @@
     </row>
     <row r="46" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="102"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="173"/>
-      <c r="D46" s="177"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="135"/>
       <c r="E46" s="87">
         <v>0</v>
       </c>
@@ -6202,11 +6202,11 @@
       <c r="A47" s="86">
         <v>27</v>
       </c>
-      <c r="B47" s="142">
+      <c r="B47" s="162">
         <v>44039</v>
       </c>
-      <c r="C47" s="173"/>
-      <c r="D47" s="177"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="135"/>
       <c r="E47" s="87">
         <v>0</v>
       </c>
@@ -6217,9 +6217,9 @@
       <c r="A48" s="86">
         <v>27</v>
       </c>
-      <c r="B48" s="143"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="177"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="135"/>
       <c r="E48" s="87">
         <v>0</v>
       </c>
@@ -6233,8 +6233,8 @@
       <c r="B49" s="101">
         <v>44039</v>
       </c>
-      <c r="C49" s="173"/>
-      <c r="D49" s="177"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="135"/>
       <c r="E49" s="87">
         <v>0</v>
       </c>
@@ -6242,14 +6242,14 @@
       <c r="G49" s="77"/>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="145">
+      <c r="A50" s="159">
         <v>29</v>
       </c>
-      <c r="B50" s="142">
+      <c r="B50" s="162">
         <v>44040</v>
       </c>
-      <c r="C50" s="173"/>
-      <c r="D50" s="177"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="135"/>
       <c r="E50" s="87">
         <v>0</v>
       </c>
@@ -6257,10 +6257,10 @@
       <c r="G50" s="77"/>
     </row>
     <row r="51" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="146"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="177"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="135"/>
       <c r="E51" s="87">
         <v>0</v>
       </c>
@@ -6268,10 +6268,10 @@
       <c r="G51" s="77"/>
     </row>
     <row r="52" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="146"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="177"/>
+      <c r="A52" s="160"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="135"/>
       <c r="E52" s="87">
         <v>0</v>
       </c>
@@ -6279,10 +6279,10 @@
       <c r="G52" s="77"/>
     </row>
     <row r="53" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="146"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="177"/>
+      <c r="A53" s="160"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="135"/>
       <c r="E53" s="87">
         <v>0</v>
       </c>
@@ -6290,10 +6290,10 @@
       <c r="G53" s="77"/>
     </row>
     <row r="54" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="146"/>
-      <c r="B54" s="144"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="177"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="135"/>
       <c r="E54" s="87">
         <v>0</v>
       </c>
@@ -6301,10 +6301,10 @@
       <c r="G54" s="77"/>
     </row>
     <row r="55" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="147"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="177"/>
+      <c r="A55" s="161"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="135"/>
       <c r="E55" s="87">
         <v>0</v>
       </c>
@@ -6318,8 +6318,8 @@
       <c r="B56" s="101">
         <v>44041</v>
       </c>
-      <c r="C56" s="173"/>
-      <c r="D56" s="177"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="135"/>
       <c r="E56" s="87">
         <v>0</v>
       </c>
@@ -6330,11 +6330,11 @@
       <c r="A57" s="86">
         <v>32</v>
       </c>
-      <c r="B57" s="142">
+      <c r="B57" s="162">
         <v>44042</v>
       </c>
-      <c r="C57" s="173"/>
-      <c r="D57" s="177"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="135"/>
       <c r="E57" s="87">
         <v>0</v>
       </c>
@@ -6343,9 +6343,9 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="86"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="173"/>
-      <c r="D58" s="177"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="135"/>
       <c r="E58" s="87">
         <v>0</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="123"/>
-      <c r="D59" s="179"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="87">
         <f>SUM(E5:E58)</f>
         <v>56230000</v>
@@ -6374,24 +6374,14 @@
     <row r="60" spans="1:7" s="93" customFormat="1">
       <c r="A60" s="84"/>
       <c r="B60" s="20"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="176"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="134"/>
       <c r="E60" s="74"/>
       <c r="F60" s="81"/>
       <c r="G60" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
     <mergeCell ref="B50:B55"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="B57:B58"/>
@@ -6404,10 +6394,20 @@
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="B18:B24"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6433,14 +6433,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="28.5">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
@@ -6470,7 +6470,7 @@
         <v>44013</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="26">
         <v>200</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="7" spans="1:6" s="105" customFormat="1" hidden="1">
       <c r="A7" s="34"/>
-      <c r="B7" s="149">
+      <c r="B7" s="167">
         <v>44015</v>
       </c>
       <c r="C7" s="34"/>
@@ -6506,7 +6506,7 @@
       <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="150"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="42"/>
@@ -6532,10 +6532,10 @@
         <v>44017</v>
       </c>
       <c r="C10" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>121</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>122</v>
       </c>
       <c r="E10" s="42">
         <v>50000</v>
@@ -6610,10 +6610,10 @@
         <v>44023</v>
       </c>
       <c r="C16" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>124</v>
       </c>
       <c r="E16" s="42">
         <v>50000</v>
@@ -6676,7 +6676,7 @@
         <v>44028</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="34">
         <v>200</v>
@@ -6718,10 +6718,10 @@
         <v>44031</v>
       </c>
       <c r="C24" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>125</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>126</v>
       </c>
       <c r="E24" s="42">
         <v>30000</v>
@@ -6792,7 +6792,7 @@
       <c r="A30" s="34">
         <v>25</v>
       </c>
-      <c r="B30" s="151">
+      <c r="B30" s="169">
         <v>44039</v>
       </c>
       <c r="C30" s="34"/>
@@ -6804,7 +6804,7 @@
       <c r="A31" s="34">
         <v>27</v>
       </c>
-      <c r="B31" s="152"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="42"/>
@@ -6904,8 +6904,8 @@
   </sheetPr>
   <dimension ref="A2:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6919,12 +6919,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="20.25">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
@@ -6976,7 +6976,7 @@
     <row r="6" spans="1:6" s="110" customFormat="1">
       <c r="A6" s="23"/>
       <c r="B6" s="112" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C6" s="79" t="s">
         <v>82</v>
@@ -6991,7 +6991,7 @@
     <row r="7" spans="1:6" s="110" customFormat="1">
       <c r="A7" s="23"/>
       <c r="B7" s="112" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C7" s="79" t="s">
         <v>83</v>
@@ -7005,11 +7005,11 @@
     </row>
     <row r="8" spans="1:6" s="75" customFormat="1">
       <c r="A8" s="23"/>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
       <c r="E8" s="48">
         <f>SUM(E4:E7)</f>
         <v>9137000</v>
@@ -7206,7 +7206,7 @@
   </sheetPr>
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -7223,22 +7223,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
     </row>
     <row r="6" spans="2:8">
       <c r="C6"/>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E37)</f>
-        <v>91055000</v>
+        <v>15145000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D34</f>
-        <v>147515000</v>
+        <v>71605000</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>235165000</v>
+        <v>159255000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
@@ -7332,12 +7332,12 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
     </row>
     <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
     <row r="16" spans="2:8">
@@ -7358,7 +7358,7 @@
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="179" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7372,7 +7372,7 @@
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="161"/>
+      <c r="C18" s="179"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7384,9 +7384,9 @@
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="161"/>
+      <c r="C19" s="179"/>
       <c r="D19" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
@@ -7396,7 +7396,7 @@
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="161"/>
+      <c r="C20" s="179"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7439,31 +7439,31 @@
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="162" t="s">
+      <c r="C23" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="163"/>
+      <c r="D23" s="181"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
         <v>56460000</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
     </row>
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B27" s="158">
+      <c r="B27" s="176">
         <f>SUM(D11,-E23)</f>
-        <v>178705000</v>
-      </c>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="160"/>
+        <v>102795000</v>
+      </c>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="178"/>
       <c r="O27" s="8"/>
     </row>
     <row r="28" spans="2:15">
@@ -7527,19 +7527,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="166" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="A1" s="184" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="157"/>
+      <c r="B2" s="175"/>
       <c r="D2" t="s">
         <v>65</v>
       </c>
@@ -7554,14 +7554,14 @@
       </c>
       <c r="B4" s="47">
         <f>E4</f>
-        <v>147515000</v>
+        <v>71605000</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="47">
         <f>thuốc!D34</f>
-        <v>147515000</v>
+        <v>71605000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7586,33 +7586,33 @@
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>91055000</v>
+        <v>15145000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="47">
         <f>E4-E5</f>
-        <v>96862436</v>
+        <v>20952436</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="165"/>
-      <c r="C9" s="164" t="s">
+      <c r="B9" s="183"/>
+      <c r="C9" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="165"/>
+      <c r="D9" s="183"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
@@ -7631,7 +7631,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="116"/>
       <c r="C11" s="23" t="s">

--- a/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C4A493-A32E-4F8C-98E3-93A11DE96E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9919D9-48DB-4C7B-BF8A-3442550EBA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="4215" windowWidth="11490" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -1071,6 +1071,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1082,9 +1091,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,15 +1114,18 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,15 +1133,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1582,99 +1582,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:42" ht="36">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
     </row>
     <row r="4" spans="1:42">
-      <c r="A4" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="156" t="s">
+      <c r="A4" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="154" t="s">
+      <c r="D4" s="143"/>
+      <c r="E4" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="147" t="s">
+      <c r="F4" s="157"/>
+      <c r="G4" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147" t="s">
+      <c r="H4" s="143"/>
+      <c r="I4" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="148" t="s">
+      <c r="J4" s="143"/>
+      <c r="K4" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="148"/>
-      <c r="M4" s="147" t="s">
+      <c r="L4" s="150"/>
+      <c r="M4" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147" t="s">
+      <c r="N4" s="143"/>
+      <c r="O4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147" t="s">
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147" t="s">
+      <c r="R4" s="143"/>
+      <c r="S4" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="147"/>
-      <c r="U4" s="149" t="s">
+      <c r="T4" s="143"/>
+      <c r="U4" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="149"/>
-      <c r="W4" s="152" t="s">
+      <c r="V4" s="151"/>
+      <c r="W4" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="150" t="s">
+      <c r="X4" s="155"/>
+      <c r="Y4" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="146" t="s">
+      <c r="Z4" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="147" t="s">
+      <c r="AA4" s="143" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1741,9 +1741,9 @@
       <c r="X5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="147"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="149"/>
+      <c r="AA5" s="143"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -4730,65 +4730,65 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="157">
+      <c r="C38" s="145">
         <v>80</v>
       </c>
-      <c r="D38" s="157"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="107"/>
       <c r="F38" s="107"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="143"/>
-      <c r="S38" s="143"/>
-      <c r="T38" s="143"/>
-      <c r="U38" s="143"/>
-      <c r="V38" s="143"/>
-      <c r="W38" s="143"/>
-      <c r="X38" s="143"/>
-      <c r="Y38" s="143"/>
-      <c r="Z38" s="143"/>
-      <c r="AA38" s="143"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
+      <c r="K38" s="146"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="146"/>
+      <c r="N38" s="146"/>
+      <c r="O38" s="146"/>
+      <c r="P38" s="146"/>
+      <c r="Q38" s="146"/>
+      <c r="R38" s="146"/>
+      <c r="S38" s="146"/>
+      <c r="T38" s="146"/>
+      <c r="U38" s="146"/>
+      <c r="V38" s="146"/>
+      <c r="W38" s="146"/>
+      <c r="X38" s="146"/>
+      <c r="Y38" s="146"/>
+      <c r="Z38" s="146"/>
+      <c r="AA38" s="146"/>
     </row>
     <row r="39" spans="1:31" s="11" customFormat="1">
       <c r="B39" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="144">
+      <c r="C39" s="147">
         <v>247</v>
       </c>
-      <c r="D39" s="144"/>
+      <c r="D39" s="147"/>
       <c r="E39" s="108"/>
       <c r="F39" s="108"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="143"/>
-      <c r="S39" s="143"/>
-      <c r="T39" s="143"/>
-      <c r="U39" s="143"/>
-      <c r="V39" s="143"/>
-      <c r="W39" s="143"/>
-      <c r="X39" s="143"/>
-      <c r="Y39" s="143"/>
-      <c r="Z39" s="143"/>
-      <c r="AA39" s="143"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
+      <c r="K39" s="146"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="146"/>
+      <c r="N39" s="146"/>
+      <c r="O39" s="146"/>
+      <c r="P39" s="146"/>
+      <c r="Q39" s="146"/>
+      <c r="R39" s="146"/>
+      <c r="S39" s="146"/>
+      <c r="T39" s="146"/>
+      <c r="U39" s="146"/>
+      <c r="V39" s="146"/>
+      <c r="W39" s="146"/>
+      <c r="X39" s="146"/>
+      <c r="Y39" s="146"/>
+      <c r="Z39" s="146"/>
+      <c r="AA39" s="146"/>
       <c r="AD39" s="11" t="s">
         <v>9</v>
       </c>
@@ -4804,11 +4804,6 @@
   </sheetData>
   <autoFilter ref="AA4:AA39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="G39:AA39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AA2"/>
@@ -4825,6 +4820,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4842,8 +4842,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4913,11 +4913,11 @@
         <v>2289927</v>
       </c>
       <c r="D5" s="125">
-        <v>3482000</v>
+        <v>3332000</v>
       </c>
       <c r="E5" s="125">
         <f t="shared" ref="E5:E33" si="0">SUM(D5,-C5)</f>
-        <v>1192073</v>
+        <v>1042073</v>
       </c>
       <c r="F5" s="127"/>
     </row>
@@ -5466,11 +5466,11 @@
       </c>
       <c r="D34" s="43">
         <f>SUM(D4:D33)</f>
-        <v>71605000</v>
+        <v>71455000</v>
       </c>
       <c r="E34" s="43">
         <f>SUM(E4:E33)</f>
-        <v>20952436</v>
+        <v>20802436</v>
       </c>
       <c r="F34" s="23"/>
     </row>
@@ -5546,10 +5546,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="71" customFormat="1">
-      <c r="A5" s="159">
+      <c r="A5" s="162">
         <v>1</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="159">
         <v>44013</v>
       </c>
       <c r="C5" s="131">
@@ -5565,8 +5565,8 @@
       <c r="G5" s="141"/>
     </row>
     <row r="6" spans="1:7" s="117" customFormat="1">
-      <c r="A6" s="160"/>
-      <c r="B6" s="164"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="131">
         <v>2</v>
       </c>
@@ -5580,8 +5580,8 @@
       <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" s="117" customFormat="1">
-      <c r="A7" s="160"/>
-      <c r="B7" s="164"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="160"/>
       <c r="C7" s="131">
         <v>3</v>
       </c>
@@ -5595,8 +5595,8 @@
       <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" s="117" customFormat="1">
-      <c r="A8" s="160"/>
-      <c r="B8" s="164"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="131">
         <v>4</v>
       </c>
@@ -5610,8 +5610,8 @@
       <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" s="117" customFormat="1">
-      <c r="A9" s="160"/>
-      <c r="B9" s="164"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="131">
         <v>5</v>
       </c>
@@ -5625,8 +5625,8 @@
       <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" s="117" customFormat="1">
-      <c r="A10" s="161"/>
-      <c r="B10" s="163"/>
+      <c r="A10" s="164"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="131">
         <v>6</v>
       </c>
@@ -5643,7 +5643,7 @@
       <c r="A11" s="86">
         <v>2</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="159">
         <v>44014</v>
       </c>
       <c r="C11" s="131"/>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="12" spans="1:7" s="103" customFormat="1" hidden="1">
       <c r="A12" s="102"/>
-      <c r="B12" s="163"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="131"/>
       <c r="D12" s="135"/>
       <c r="E12" s="87">
@@ -5666,10 +5666,10 @@
       <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" s="75" customFormat="1">
-      <c r="A13" s="159">
+      <c r="A13" s="162">
         <v>2</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="159">
         <v>44015</v>
       </c>
       <c r="C13" s="131">
@@ -5685,8 +5685,8 @@
       <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" s="117" customFormat="1">
-      <c r="A14" s="160"/>
-      <c r="B14" s="164"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="131">
         <v>2</v>
       </c>
@@ -5700,8 +5700,8 @@
       <c r="G14" s="100"/>
     </row>
     <row r="15" spans="1:7" s="117" customFormat="1">
-      <c r="A15" s="160"/>
-      <c r="B15" s="164"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="131">
         <v>3</v>
       </c>
@@ -5715,8 +5715,8 @@
       <c r="G15" s="100"/>
     </row>
     <row r="16" spans="1:7" s="122" customFormat="1">
-      <c r="A16" s="160"/>
-      <c r="B16" s="164"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="131">
         <v>4</v>
       </c>
@@ -5730,8 +5730,8 @@
       <c r="G16" s="100"/>
     </row>
     <row r="17" spans="1:7" s="117" customFormat="1">
-      <c r="A17" s="160"/>
-      <c r="B17" s="164"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="131">
         <v>5</v>
       </c>
@@ -5747,10 +5747,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="99" customFormat="1">
-      <c r="A18" s="159">
+      <c r="A18" s="162">
         <v>3</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="159">
         <v>44016</v>
       </c>
       <c r="C18" s="131">
@@ -5766,8 +5766,8 @@
       <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7" s="122" customFormat="1">
-      <c r="A19" s="160"/>
-      <c r="B19" s="164"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="131">
         <v>2</v>
       </c>
@@ -5781,8 +5781,8 @@
       <c r="G19" s="100"/>
     </row>
     <row r="20" spans="1:7" s="122" customFormat="1">
-      <c r="A20" s="160"/>
-      <c r="B20" s="164"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="131">
         <v>3</v>
       </c>
@@ -5796,8 +5796,8 @@
       <c r="G20" s="100"/>
     </row>
     <row r="21" spans="1:7" s="122" customFormat="1">
-      <c r="A21" s="160"/>
-      <c r="B21" s="164"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="131">
         <v>4</v>
       </c>
@@ -5811,8 +5811,8 @@
       <c r="G21" s="100"/>
     </row>
     <row r="22" spans="1:7" s="122" customFormat="1">
-      <c r="A22" s="160"/>
-      <c r="B22" s="164"/>
+      <c r="A22" s="163"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="131">
         <v>5</v>
       </c>
@@ -5826,8 +5826,8 @@
       <c r="G22" s="100"/>
     </row>
     <row r="23" spans="1:7" s="122" customFormat="1">
-      <c r="A23" s="160"/>
-      <c r="B23" s="164"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="131">
         <v>6</v>
       </c>
@@ -5841,8 +5841,8 @@
       <c r="G23" s="100"/>
     </row>
     <row r="24" spans="1:7" s="122" customFormat="1">
-      <c r="A24" s="161"/>
-      <c r="B24" s="163"/>
+      <c r="A24" s="164"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="131">
         <v>7</v>
       </c>
@@ -5856,10 +5856,10 @@
       <c r="G24" s="100"/>
     </row>
     <row r="25" spans="1:7" s="80" customFormat="1">
-      <c r="A25" s="159">
+      <c r="A25" s="162">
         <v>4</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="159">
         <v>44023</v>
       </c>
       <c r="C25" s="131">
@@ -5877,8 +5877,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="122" customFormat="1">
-      <c r="A26" s="160"/>
-      <c r="B26" s="164"/>
+      <c r="A26" s="163"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="131">
         <v>2</v>
       </c>
@@ -5892,8 +5892,8 @@
       <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" s="122" customFormat="1">
-      <c r="A27" s="160"/>
-      <c r="B27" s="164"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="131">
         <v>3</v>
       </c>
@@ -5907,8 +5907,8 @@
       <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" s="122" customFormat="1">
-      <c r="A28" s="161"/>
-      <c r="B28" s="163"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="161"/>
       <c r="C28" s="131">
         <v>4</v>
       </c>
@@ -5922,10 +5922,10 @@
       <c r="G28" s="142"/>
     </row>
     <row r="29" spans="1:7" s="80" customFormat="1">
-      <c r="A29" s="159">
+      <c r="A29" s="162">
         <v>5</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="159">
         <v>44026</v>
       </c>
       <c r="C29" s="131">
@@ -5938,13 +5938,13 @@
         <v>1500000</v>
       </c>
       <c r="F29" s="88"/>
-      <c r="G29" s="159" t="s">
+      <c r="G29" s="162" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="122" customFormat="1">
-      <c r="A30" s="161"/>
-      <c r="B30" s="163"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="131">
         <v>2</v>
       </c>
@@ -5955,13 +5955,13 @@
         <v>1500000</v>
       </c>
       <c r="F30" s="88"/>
-      <c r="G30" s="161"/>
+      <c r="G30" s="164"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="159">
+      <c r="A31" s="162">
         <v>6</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="159">
         <v>44027</v>
       </c>
       <c r="C31" s="131">
@@ -5977,8 +5977,8 @@
       <c r="G31" s="77"/>
     </row>
     <row r="32" spans="1:7" s="122" customFormat="1">
-      <c r="A32" s="160"/>
-      <c r="B32" s="164"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="131">
         <v>2</v>
       </c>
@@ -5992,8 +5992,8 @@
       <c r="G32" s="77"/>
     </row>
     <row r="33" spans="1:7" s="122" customFormat="1">
-      <c r="A33" s="160"/>
-      <c r="B33" s="164"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="131">
         <v>3</v>
       </c>
@@ -6007,8 +6007,8 @@
       <c r="G33" s="77"/>
     </row>
     <row r="34" spans="1:7" s="122" customFormat="1">
-      <c r="A34" s="161"/>
-      <c r="B34" s="163"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="161"/>
       <c r="C34" s="131">
         <v>4</v>
       </c>
@@ -6022,10 +6022,10 @@
       <c r="G34" s="77"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="159">
+      <c r="A35" s="162">
         <v>7</v>
       </c>
-      <c r="B35" s="162">
+      <c r="B35" s="159">
         <v>44029</v>
       </c>
       <c r="C35" s="131">
@@ -6043,8 +6043,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="122" customFormat="1">
-      <c r="A36" s="161"/>
-      <c r="B36" s="163"/>
+      <c r="A36" s="164"/>
+      <c r="B36" s="161"/>
       <c r="C36" s="131">
         <v>2</v>
       </c>
@@ -6167,7 +6167,7 @@
       <c r="A44" s="86">
         <v>27</v>
       </c>
-      <c r="B44" s="162"/>
+      <c r="B44" s="159"/>
       <c r="C44" s="131"/>
       <c r="D44" s="135"/>
       <c r="E44" s="87">
@@ -6178,7 +6178,7 @@
     </row>
     <row r="45" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="102"/>
-      <c r="B45" s="164"/>
+      <c r="B45" s="160"/>
       <c r="C45" s="131"/>
       <c r="D45" s="135"/>
       <c r="E45" s="87">
@@ -6189,7 +6189,7 @@
     </row>
     <row r="46" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="102"/>
-      <c r="B46" s="163"/>
+      <c r="B46" s="161"/>
       <c r="C46" s="131"/>
       <c r="D46" s="135"/>
       <c r="E46" s="87">
@@ -6202,7 +6202,7 @@
       <c r="A47" s="86">
         <v>27</v>
       </c>
-      <c r="B47" s="162">
+      <c r="B47" s="159">
         <v>44039</v>
       </c>
       <c r="C47" s="131"/>
@@ -6217,7 +6217,7 @@
       <c r="A48" s="86">
         <v>27</v>
       </c>
-      <c r="B48" s="163"/>
+      <c r="B48" s="161"/>
       <c r="C48" s="131"/>
       <c r="D48" s="135"/>
       <c r="E48" s="87">
@@ -6242,10 +6242,10 @@
       <c r="G49" s="77"/>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="159">
+      <c r="A50" s="162">
         <v>29</v>
       </c>
-      <c r="B50" s="162">
+      <c r="B50" s="159">
         <v>44040</v>
       </c>
       <c r="C50" s="131"/>
@@ -6257,8 +6257,8 @@
       <c r="G50" s="77"/>
     </row>
     <row r="51" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="160"/>
-      <c r="B51" s="164"/>
+      <c r="A51" s="163"/>
+      <c r="B51" s="160"/>
       <c r="C51" s="131"/>
       <c r="D51" s="135"/>
       <c r="E51" s="87">
@@ -6268,8 +6268,8 @@
       <c r="G51" s="77"/>
     </row>
     <row r="52" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="160"/>
-      <c r="B52" s="164"/>
+      <c r="A52" s="163"/>
+      <c r="B52" s="160"/>
       <c r="C52" s="131"/>
       <c r="D52" s="135"/>
       <c r="E52" s="87">
@@ -6279,8 +6279,8 @@
       <c r="G52" s="77"/>
     </row>
     <row r="53" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="160"/>
-      <c r="B53" s="164"/>
+      <c r="A53" s="163"/>
+      <c r="B53" s="160"/>
       <c r="C53" s="131"/>
       <c r="D53" s="135"/>
       <c r="E53" s="87">
@@ -6290,8 +6290,8 @@
       <c r="G53" s="77"/>
     </row>
     <row r="54" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="160"/>
-      <c r="B54" s="164"/>
+      <c r="A54" s="163"/>
+      <c r="B54" s="160"/>
       <c r="C54" s="131"/>
       <c r="D54" s="135"/>
       <c r="E54" s="87">
@@ -6301,8 +6301,8 @@
       <c r="G54" s="77"/>
     </row>
     <row r="55" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="161"/>
-      <c r="B55" s="163"/>
+      <c r="A55" s="164"/>
+      <c r="B55" s="161"/>
       <c r="C55" s="131"/>
       <c r="D55" s="135"/>
       <c r="E55" s="87">
@@ -6330,7 +6330,7 @@
       <c r="A57" s="86">
         <v>32</v>
       </c>
-      <c r="B57" s="162">
+      <c r="B57" s="159">
         <v>44042</v>
       </c>
       <c r="C57" s="131"/>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="86"/>
-      <c r="B58" s="163"/>
+      <c r="B58" s="161"/>
       <c r="C58" s="131"/>
       <c r="D58" s="135"/>
       <c r="E58" s="87">
@@ -6382,6 +6382,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B50:B55"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="B57:B58"/>
@@ -6398,12 +6404,6 @@
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7206,7 +7206,7 @@
   </sheetPr>
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E37)</f>
-        <v>15145000</v>
+        <v>14995000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D34</f>
-        <v>71605000</v>
+        <v>71455000</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>159255000</v>
+        <v>159105000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
@@ -7459,7 +7459,7 @@
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
       <c r="B27" s="176">
         <f>SUM(D11,-E23)</f>
-        <v>102795000</v>
+        <v>102645000</v>
       </c>
       <c r="C27" s="177"/>
       <c r="D27" s="177"/>
@@ -7554,14 +7554,14 @@
       </c>
       <c r="B4" s="47">
         <f>E4</f>
-        <v>71605000</v>
+        <v>71455000</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="47">
         <f>thuốc!D34</f>
-        <v>71605000</v>
+        <v>71455000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7586,14 +7586,14 @@
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>15145000</v>
+        <v>14995000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="47">
         <f>E4-E5</f>
-        <v>20952436</v>
+        <v>20802436</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9919D9-48DB-4C7B-BF8A-3442550EBA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C151616-A061-7B45-A238-8ECDB0401237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -433,7 +425,7 @@
     <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +557,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Va"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -737,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1071,15 +1070,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1091,6 +1081,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,15 +1107,18 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,6 +1129,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1193,10 +1192,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1545,136 +1545,136 @@
       <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="51" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="51" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="8" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="3" customWidth="1"/>
-    <col min="28" max="29" width="9.140625" style="1"/>
-    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="1"/>
-    <col min="32" max="32" width="4.7109375" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="3" customWidth="1"/>
+    <col min="28" max="29" width="9.1640625" style="1"/>
+    <col min="30" max="30" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" style="1"/>
+    <col min="32" max="32" width="4.6640625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:42" ht="36">
-      <c r="B2" s="148" t="s">
+    <row r="2" spans="1:42" ht="37">
+      <c r="B2" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
     </row>
     <row r="4" spans="1:42">
-      <c r="A4" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="144" t="s">
+      <c r="A4" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="156" t="s">
+      <c r="D4" s="147"/>
+      <c r="E4" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="143" t="s">
+      <c r="F4" s="155"/>
+      <c r="G4" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143" t="s">
+      <c r="H4" s="147"/>
+      <c r="I4" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="143"/>
-      <c r="K4" s="150" t="s">
+      <c r="J4" s="147"/>
+      <c r="K4" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="143" t="s">
+      <c r="L4" s="148"/>
+      <c r="M4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143" t="s">
+      <c r="N4" s="147"/>
+      <c r="O4" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143" t="s">
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143" t="s">
+      <c r="R4" s="147"/>
+      <c r="S4" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="143"/>
-      <c r="U4" s="151" t="s">
+      <c r="T4" s="147"/>
+      <c r="U4" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="151"/>
-      <c r="W4" s="154" t="s">
+      <c r="V4" s="149"/>
+      <c r="W4" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="152" t="s">
+      <c r="X4" s="153"/>
+      <c r="Y4" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="149" t="s">
+      <c r="Z4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="143" t="s">
+      <c r="AA4" s="147" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1">
-      <c r="A5" s="143"/>
-      <c r="B5" s="144"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1741,9 +1741,9 @@
       <c r="X5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="149"/>
-      <c r="AA5" s="143"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="147"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -4730,65 +4730,65 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="145">
+      <c r="C38" s="157">
         <v>80</v>
       </c>
-      <c r="D38" s="145"/>
+      <c r="D38" s="157"/>
       <c r="E38" s="107"/>
       <c r="F38" s="107"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
-      <c r="O38" s="146"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="146"/>
-      <c r="R38" s="146"/>
-      <c r="S38" s="146"/>
-      <c r="T38" s="146"/>
-      <c r="U38" s="146"/>
-      <c r="V38" s="146"/>
-      <c r="W38" s="146"/>
-      <c r="X38" s="146"/>
-      <c r="Y38" s="146"/>
-      <c r="Z38" s="146"/>
-      <c r="AA38" s="146"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="143"/>
+      <c r="U38" s="143"/>
+      <c r="V38" s="143"/>
+      <c r="W38" s="143"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="143"/>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="143"/>
     </row>
     <row r="39" spans="1:31" s="11" customFormat="1">
       <c r="B39" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="147">
+      <c r="C39" s="144">
         <v>247</v>
       </c>
-      <c r="D39" s="147"/>
+      <c r="D39" s="144"/>
       <c r="E39" s="108"/>
       <c r="F39" s="108"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
-      <c r="O39" s="146"/>
-      <c r="P39" s="146"/>
-      <c r="Q39" s="146"/>
-      <c r="R39" s="146"/>
-      <c r="S39" s="146"/>
-      <c r="T39" s="146"/>
-      <c r="U39" s="146"/>
-      <c r="V39" s="146"/>
-      <c r="W39" s="146"/>
-      <c r="X39" s="146"/>
-      <c r="Y39" s="146"/>
-      <c r="Z39" s="146"/>
-      <c r="AA39" s="146"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="143"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="143"/>
+      <c r="P39" s="143"/>
+      <c r="Q39" s="143"/>
+      <c r="R39" s="143"/>
+      <c r="S39" s="143"/>
+      <c r="T39" s="143"/>
+      <c r="U39" s="143"/>
+      <c r="V39" s="143"/>
+      <c r="W39" s="143"/>
+      <c r="X39" s="143"/>
+      <c r="Y39" s="143"/>
+      <c r="Z39" s="143"/>
+      <c r="AA39" s="143"/>
       <c r="AD39" s="11" t="s">
         <v>9</v>
       </c>
@@ -4804,6 +4804,11 @@
   </sheetData>
   <autoFilter ref="AA4:AA39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="G39:AA39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AA2"/>
@@ -4820,11 +4825,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4842,18 +4842,18 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5">
+    <row r="1" spans="1:6" ht="31">
       <c r="A1" s="158" t="s">
         <v>87</v>
       </c>
@@ -5271,14 +5271,14 @@
         <v>44033</v>
       </c>
       <c r="C24" s="125">
-        <v>0</v>
+        <v>2305928</v>
       </c>
       <c r="D24" s="125">
-        <v>0</v>
+        <v>3226000</v>
       </c>
       <c r="E24" s="125">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>920072</v>
       </c>
       <c r="F24" s="62"/>
     </row>
@@ -5290,37 +5290,37 @@
         <v>44034</v>
       </c>
       <c r="C25" s="129">
-        <v>0</v>
+        <v>778362</v>
       </c>
       <c r="D25" s="125">
-        <v>0</v>
+        <v>925000</v>
       </c>
       <c r="E25" s="125">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>146638</v>
       </c>
       <c r="F25" s="62"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="34">
         <v>23</v>
       </c>
       <c r="B26" s="21">
         <v>44035</v>
       </c>
-      <c r="C26" s="125">
-        <v>0</v>
+      <c r="C26" s="185">
+        <v>1618454</v>
       </c>
       <c r="D26" s="125">
-        <v>0</v>
+        <v>2415000</v>
       </c>
       <c r="E26" s="125">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>796546</v>
       </c>
       <c r="F26" s="126"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="34">
         <v>24</v>
       </c>
@@ -5328,14 +5328,14 @@
         <v>44036</v>
       </c>
       <c r="C27" s="125">
-        <v>0</v>
-      </c>
-      <c r="D27" s="125">
-        <v>0</v>
+        <v>2263045</v>
+      </c>
+      <c r="D27" s="185">
+        <v>3106000</v>
       </c>
       <c r="E27" s="125">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>842955</v>
       </c>
       <c r="F27" s="126"/>
     </row>
@@ -5346,14 +5346,13 @@
       <c r="B28" s="21">
         <v>44037</v>
       </c>
-      <c r="C28" s="125">
-        <v>0</v>
-      </c>
-      <c r="D28" s="125">
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
         <v>0</v>
       </c>
       <c r="E28" s="125">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="126"/>
@@ -5363,7 +5362,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="21">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="C29" s="42">
         <v>0</v>
@@ -5384,15 +5383,15 @@
       <c r="B30" s="21">
         <v>44039</v>
       </c>
-      <c r="C30" s="42">
-        <v>0</v>
+      <c r="C30" s="125">
+        <v>3919610</v>
       </c>
       <c r="D30" s="125">
-        <v>0</v>
+        <v>5480000</v>
       </c>
       <c r="E30" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1560390</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -5404,14 +5403,14 @@
         <v>44040</v>
       </c>
       <c r="C31" s="42">
-        <v>0</v>
+        <v>1782136</v>
       </c>
       <c r="D31" s="42">
-        <v>0</v>
+        <v>2490000</v>
       </c>
       <c r="E31" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>707864</v>
       </c>
       <c r="F31" s="22"/>
     </row>
@@ -5423,14 +5422,14 @@
         <v>44041</v>
       </c>
       <c r="C32" s="42">
-        <v>0</v>
+        <v>894346</v>
       </c>
       <c r="D32" s="42">
-        <v>0</v>
+        <v>1680000</v>
       </c>
       <c r="E32" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>785654</v>
       </c>
       <c r="F32" s="34"/>
     </row>
@@ -5442,14 +5441,14 @@
         <v>44042</v>
       </c>
       <c r="C33" s="42">
-        <v>0</v>
+        <v>292196</v>
       </c>
       <c r="D33" s="42">
-        <v>0</v>
+        <v>3407000</v>
       </c>
       <c r="E33" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3114804</v>
       </c>
       <c r="F33" s="34"/>
     </row>
@@ -5462,15 +5461,15 @@
       </c>
       <c r="C34" s="43">
         <f>SUM(C4:C33)</f>
-        <v>50652564</v>
+        <v>64506641</v>
       </c>
       <c r="D34" s="43">
         <f>SUM(D4:D33)</f>
-        <v>71455000</v>
+        <v>94184000</v>
       </c>
       <c r="E34" s="43">
         <f>SUM(E4:E33)</f>
-        <v>20802436</v>
+        <v>29677359</v>
       </c>
       <c r="F34" s="23"/>
     </row>
@@ -5491,25 +5490,25 @@
   </sheetPr>
   <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="84" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="133" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="84" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="133" customWidth="1"/>
     <col min="4" max="4" width="18" style="134" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="74" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="81" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="81" customWidth="1"/>
     <col min="7" max="7" width="30" style="76" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="91" customFormat="1" ht="31.5">
+    <row r="2" spans="1:7" s="91" customFormat="1" ht="31">
       <c r="A2" s="165" t="s">
         <v>88</v>
       </c>
@@ -5520,7 +5519,7 @@
       <c r="F2" s="165"/>
       <c r="G2" s="165"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5">
+    <row r="3" spans="1:7" ht="31">
       <c r="B3" s="25"/>
       <c r="C3" s="132"/>
     </row>
@@ -5545,8 +5544,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="71" customFormat="1">
-      <c r="A5" s="162">
+    <row r="5" spans="1:7" s="71" customFormat="1" ht="16">
+      <c r="A5" s="161">
         <v>1</v>
       </c>
       <c r="B5" s="159">
@@ -5564,9 +5563,9 @@
       <c r="F5" s="140"/>
       <c r="G5" s="141"/>
     </row>
-    <row r="6" spans="1:7" s="117" customFormat="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="160"/>
+    <row r="6" spans="1:7" s="117" customFormat="1" ht="16">
+      <c r="A6" s="162"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="131">
         <v>2</v>
       </c>
@@ -5579,9 +5578,9 @@
       <c r="F6" s="88"/>
       <c r="G6" s="77"/>
     </row>
-    <row r="7" spans="1:7" s="117" customFormat="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="160"/>
+    <row r="7" spans="1:7" s="117" customFormat="1" ht="16">
+      <c r="A7" s="162"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="131">
         <v>3</v>
       </c>
@@ -5594,9 +5593,9 @@
       <c r="F7" s="88"/>
       <c r="G7" s="77"/>
     </row>
-    <row r="8" spans="1:7" s="117" customFormat="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="160"/>
+    <row r="8" spans="1:7" s="117" customFormat="1" ht="16">
+      <c r="A8" s="162"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="131">
         <v>4</v>
       </c>
@@ -5609,9 +5608,9 @@
       <c r="F8" s="88"/>
       <c r="G8" s="77"/>
     </row>
-    <row r="9" spans="1:7" s="117" customFormat="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="160"/>
+    <row r="9" spans="1:7" s="117" customFormat="1" ht="16">
+      <c r="A9" s="162"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="131">
         <v>5</v>
       </c>
@@ -5624,9 +5623,9 @@
       <c r="F9" s="88"/>
       <c r="G9" s="77"/>
     </row>
-    <row r="10" spans="1:7" s="117" customFormat="1">
-      <c r="A10" s="164"/>
-      <c r="B10" s="161"/>
+    <row r="10" spans="1:7" s="117" customFormat="1" ht="16">
+      <c r="A10" s="163"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="131">
         <v>6</v>
       </c>
@@ -5656,7 +5655,7 @@
     </row>
     <row r="12" spans="1:7" s="103" customFormat="1" hidden="1">
       <c r="A12" s="102"/>
-      <c r="B12" s="161"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="131"/>
       <c r="D12" s="135"/>
       <c r="E12" s="87">
@@ -5665,8 +5664,8 @@
       <c r="F12" s="88"/>
       <c r="G12" s="77"/>
     </row>
-    <row r="13" spans="1:7" s="75" customFormat="1">
-      <c r="A13" s="162">
+    <row r="13" spans="1:7" s="75" customFormat="1" ht="16">
+      <c r="A13" s="161">
         <v>2</v>
       </c>
       <c r="B13" s="159">
@@ -5684,9 +5683,9 @@
       <c r="F13" s="88"/>
       <c r="G13" s="100"/>
     </row>
-    <row r="14" spans="1:7" s="117" customFormat="1">
-      <c r="A14" s="163"/>
-      <c r="B14" s="160"/>
+    <row r="14" spans="1:7" s="117" customFormat="1" ht="16">
+      <c r="A14" s="162"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="131">
         <v>2</v>
       </c>
@@ -5699,9 +5698,9 @@
       <c r="F14" s="88"/>
       <c r="G14" s="100"/>
     </row>
-    <row r="15" spans="1:7" s="117" customFormat="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="160"/>
+    <row r="15" spans="1:7" s="117" customFormat="1" ht="16">
+      <c r="A15" s="162"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="131">
         <v>3</v>
       </c>
@@ -5714,9 +5713,9 @@
       <c r="F15" s="88"/>
       <c r="G15" s="100"/>
     </row>
-    <row r="16" spans="1:7" s="122" customFormat="1">
-      <c r="A16" s="163"/>
-      <c r="B16" s="160"/>
+    <row r="16" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A16" s="162"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="131">
         <v>4</v>
       </c>
@@ -5729,9 +5728,9 @@
       </c>
       <c r="G16" s="100"/>
     </row>
-    <row r="17" spans="1:7" s="117" customFormat="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="160"/>
+    <row r="17" spans="1:7" s="117" customFormat="1" ht="16">
+      <c r="A17" s="162"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="131">
         <v>5</v>
       </c>
@@ -5746,8 +5745,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="99" customFormat="1">
-      <c r="A18" s="162">
+    <row r="18" spans="1:7" s="99" customFormat="1" ht="16">
+      <c r="A18" s="161">
         <v>3</v>
       </c>
       <c r="B18" s="159">
@@ -5765,9 +5764,9 @@
       <c r="F18" s="88"/>
       <c r="G18" s="100"/>
     </row>
-    <row r="19" spans="1:7" s="122" customFormat="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="160"/>
+    <row r="19" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A19" s="162"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="131">
         <v>2</v>
       </c>
@@ -5780,9 +5779,9 @@
       <c r="F19" s="88"/>
       <c r="G19" s="100"/>
     </row>
-    <row r="20" spans="1:7" s="122" customFormat="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="160"/>
+    <row r="20" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A20" s="162"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="131">
         <v>3</v>
       </c>
@@ -5795,9 +5794,9 @@
       <c r="F20" s="88"/>
       <c r="G20" s="100"/>
     </row>
-    <row r="21" spans="1:7" s="122" customFormat="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="160"/>
+    <row r="21" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A21" s="162"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="131">
         <v>4</v>
       </c>
@@ -5810,9 +5809,9 @@
       <c r="F21" s="88"/>
       <c r="G21" s="100"/>
     </row>
-    <row r="22" spans="1:7" s="122" customFormat="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="160"/>
+    <row r="22" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A22" s="162"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="131">
         <v>5</v>
       </c>
@@ -5825,9 +5824,9 @@
       <c r="F22" s="88"/>
       <c r="G22" s="100"/>
     </row>
-    <row r="23" spans="1:7" s="122" customFormat="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="160"/>
+    <row r="23" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A23" s="162"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="131">
         <v>6</v>
       </c>
@@ -5840,9 +5839,9 @@
       <c r="F23" s="88"/>
       <c r="G23" s="100"/>
     </row>
-    <row r="24" spans="1:7" s="122" customFormat="1">
-      <c r="A24" s="164"/>
-      <c r="B24" s="161"/>
+    <row r="24" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A24" s="163"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="131">
         <v>7</v>
       </c>
@@ -5855,8 +5854,8 @@
       </c>
       <c r="G24" s="100"/>
     </row>
-    <row r="25" spans="1:7" s="80" customFormat="1">
-      <c r="A25" s="162">
+    <row r="25" spans="1:7" s="80" customFormat="1" ht="16">
+      <c r="A25" s="161">
         <v>4</v>
       </c>
       <c r="B25" s="159">
@@ -5876,9 +5875,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="122" customFormat="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="160"/>
+    <row r="26" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A26" s="162"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="131">
         <v>2</v>
       </c>
@@ -5891,9 +5890,9 @@
       <c r="F26" s="88"/>
       <c r="G26" s="77"/>
     </row>
-    <row r="27" spans="1:7" s="122" customFormat="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="160"/>
+    <row r="27" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A27" s="162"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="131">
         <v>3</v>
       </c>
@@ -5906,9 +5905,9 @@
       <c r="F27" s="88"/>
       <c r="G27" s="77"/>
     </row>
-    <row r="28" spans="1:7" s="122" customFormat="1">
-      <c r="A28" s="164"/>
-      <c r="B28" s="161"/>
+    <row r="28" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A28" s="163"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="131">
         <v>4</v>
       </c>
@@ -5921,8 +5920,8 @@
       </c>
       <c r="G28" s="142"/>
     </row>
-    <row r="29" spans="1:7" s="80" customFormat="1">
-      <c r="A29" s="162">
+    <row r="29" spans="1:7" s="80" customFormat="1" ht="16">
+      <c r="A29" s="161">
         <v>5</v>
       </c>
       <c r="B29" s="159">
@@ -5938,13 +5937,13 @@
         <v>1500000</v>
       </c>
       <c r="F29" s="88"/>
-      <c r="G29" s="162" t="s">
+      <c r="G29" s="161" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="122" customFormat="1">
-      <c r="A30" s="164"/>
-      <c r="B30" s="161"/>
+    <row r="30" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A30" s="163"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="131">
         <v>2</v>
       </c>
@@ -5955,10 +5954,10 @@
         <v>1500000</v>
       </c>
       <c r="F30" s="88"/>
-      <c r="G30" s="164"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="162">
+      <c r="G30" s="163"/>
+    </row>
+    <row r="31" spans="1:7" ht="16">
+      <c r="A31" s="161">
         <v>6</v>
       </c>
       <c r="B31" s="159">
@@ -5976,9 +5975,9 @@
       <c r="F31" s="88"/>
       <c r="G31" s="77"/>
     </row>
-    <row r="32" spans="1:7" s="122" customFormat="1">
-      <c r="A32" s="163"/>
-      <c r="B32" s="160"/>
+    <row r="32" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A32" s="162"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="131">
         <v>2</v>
       </c>
@@ -5991,9 +5990,9 @@
       <c r="F32" s="88"/>
       <c r="G32" s="77"/>
     </row>
-    <row r="33" spans="1:7" s="122" customFormat="1">
-      <c r="A33" s="163"/>
-      <c r="B33" s="160"/>
+    <row r="33" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A33" s="162"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="131">
         <v>3</v>
       </c>
@@ -6006,9 +6005,9 @@
       <c r="F33" s="88"/>
       <c r="G33" s="77"/>
     </row>
-    <row r="34" spans="1:7" s="122" customFormat="1">
-      <c r="A34" s="164"/>
-      <c r="B34" s="161"/>
+    <row r="34" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A34" s="163"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="131">
         <v>4</v>
       </c>
@@ -6021,8 +6020,8 @@
       <c r="F34" s="88"/>
       <c r="G34" s="77"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="162">
+    <row r="35" spans="1:7" ht="16">
+      <c r="A35" s="161">
         <v>7</v>
       </c>
       <c r="B35" s="159">
@@ -6042,9 +6041,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="122" customFormat="1">
-      <c r="A36" s="164"/>
-      <c r="B36" s="161"/>
+    <row r="36" spans="1:7" s="122" customFormat="1" ht="16">
+      <c r="A36" s="163"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="131">
         <v>2</v>
       </c>
@@ -6178,7 +6177,7 @@
     </row>
     <row r="45" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="102"/>
-      <c r="B45" s="160"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="131"/>
       <c r="D45" s="135"/>
       <c r="E45" s="87">
@@ -6189,7 +6188,7 @@
     </row>
     <row r="46" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="102"/>
-      <c r="B46" s="161"/>
+      <c r="B46" s="160"/>
       <c r="C46" s="131"/>
       <c r="D46" s="135"/>
       <c r="E46" s="87">
@@ -6217,7 +6216,7 @@
       <c r="A48" s="86">
         <v>27</v>
       </c>
-      <c r="B48" s="161"/>
+      <c r="B48" s="160"/>
       <c r="C48" s="131"/>
       <c r="D48" s="135"/>
       <c r="E48" s="87">
@@ -6242,7 +6241,7 @@
       <c r="G49" s="77"/>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="162">
+      <c r="A50" s="161">
         <v>29</v>
       </c>
       <c r="B50" s="159">
@@ -6257,8 +6256,8 @@
       <c r="G50" s="77"/>
     </row>
     <row r="51" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="163"/>
-      <c r="B51" s="160"/>
+      <c r="A51" s="162"/>
+      <c r="B51" s="164"/>
       <c r="C51" s="131"/>
       <c r="D51" s="135"/>
       <c r="E51" s="87">
@@ -6268,8 +6267,8 @@
       <c r="G51" s="77"/>
     </row>
     <row r="52" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="163"/>
-      <c r="B52" s="160"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="164"/>
       <c r="C52" s="131"/>
       <c r="D52" s="135"/>
       <c r="E52" s="87">
@@ -6279,8 +6278,8 @@
       <c r="G52" s="77"/>
     </row>
     <row r="53" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="163"/>
-      <c r="B53" s="160"/>
+      <c r="A53" s="162"/>
+      <c r="B53" s="164"/>
       <c r="C53" s="131"/>
       <c r="D53" s="135"/>
       <c r="E53" s="87">
@@ -6290,8 +6289,8 @@
       <c r="G53" s="77"/>
     </row>
     <row r="54" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="163"/>
-      <c r="B54" s="160"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="164"/>
       <c r="C54" s="131"/>
       <c r="D54" s="135"/>
       <c r="E54" s="87">
@@ -6301,8 +6300,8 @@
       <c r="G54" s="77"/>
     </row>
     <row r="55" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="164"/>
-      <c r="B55" s="161"/>
+      <c r="A55" s="163"/>
+      <c r="B55" s="160"/>
       <c r="C55" s="131"/>
       <c r="D55" s="135"/>
       <c r="E55" s="87">
@@ -6343,7 +6342,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="86"/>
-      <c r="B58" s="161"/>
+      <c r="B58" s="160"/>
       <c r="C58" s="131"/>
       <c r="D58" s="135"/>
       <c r="E58" s="87">
@@ -6382,12 +6381,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B50:B55"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="B57:B58"/>
@@ -6404,10 +6397,16 @@
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6422,17 +6421,17 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="115"/>
+    <col min="1" max="1" width="4.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="115"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5">
+    <row r="2" spans="1:6" ht="29">
       <c r="A2" s="166" t="s">
         <v>89</v>
       </c>
@@ -6908,17 +6907,17 @@
       <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25">
+    <row r="2" spans="1:6" ht="20">
       <c r="B2" s="171" t="s">
         <v>90</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>5825000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="110" customFormat="1">
+    <row r="5" spans="1:6" s="110" customFormat="1" ht="16">
       <c r="A5" s="23"/>
       <c r="B5" s="112">
         <v>44019</v>
@@ -6973,7 +6972,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="110" customFormat="1">
+    <row r="6" spans="1:6" s="110" customFormat="1" ht="16">
       <c r="A6" s="23"/>
       <c r="B6" s="112" t="s">
         <v>128</v>
@@ -6988,7 +6987,7 @@
         <v>1032000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="110" customFormat="1">
+    <row r="7" spans="1:6" s="110" customFormat="1" ht="16">
       <c r="A7" s="23"/>
       <c r="B7" s="112" t="s">
         <v>128</v>
@@ -7210,19 +7209,19 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5">
+    <row r="2" spans="2:8" ht="29">
       <c r="B2" s="166" t="s">
         <v>86</v>
       </c>
@@ -7291,7 +7290,7 @@
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E37)</f>
-        <v>14995000</v>
+        <v>37724000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -7303,7 +7302,7 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D34</f>
-        <v>71455000</v>
+        <v>94184000</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
@@ -7322,7 +7321,7 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>159105000</v>
+        <v>181834000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
@@ -7448,7 +7447,7 @@
         <v>56460000</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1">
+    <row r="26" spans="2:15" ht="16" thickBot="1">
       <c r="B26" s="174" t="s">
         <v>42</v>
       </c>
@@ -7459,7 +7458,7 @@
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
       <c r="B27" s="176">
         <f>SUM(D11,-E23)</f>
-        <v>102645000</v>
+        <v>125374000</v>
       </c>
       <c r="C27" s="177"/>
       <c r="D27" s="177"/>
@@ -7517,13 +7516,13 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
@@ -7554,14 +7553,14 @@
       </c>
       <c r="B4" s="47">
         <f>E4</f>
-        <v>71455000</v>
+        <v>94184000</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="47">
         <f>thuốc!D34</f>
-        <v>71455000</v>
+        <v>94184000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7577,7 +7576,7 @@
       </c>
       <c r="E5" s="47">
         <f>thuốc!C34</f>
-        <v>50652564</v>
+        <v>64506641</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7586,14 +7585,14 @@
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>14995000</v>
+        <v>37724000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="47">
         <f>E4-E5</f>
-        <v>20802436</v>
+        <v>29677359</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C151616-A061-7B45-A238-8ECDB0401237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC688A98-E4F4-4251-AB1E-6FA288226C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -177,9 +187,6 @@
     <t>Tiền thuốc nợ</t>
   </si>
   <si>
-    <t>CHUYÊN KHOA</t>
-  </si>
-  <si>
     <t>SLBN</t>
   </si>
   <si>
@@ -412,6 +419,12 @@
   </si>
   <si>
     <t>30/06/2020</t>
+  </si>
+  <si>
+    <t>50% CK</t>
+  </si>
+  <si>
+    <t>Bs Hương T:0 ; H:1</t>
   </si>
 </sst>
 </file>
@@ -425,7 +438,7 @@
     <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,18 +565,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Va"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -736,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1028,9 +1029,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1069,6 +1067,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1081,9 +1092,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1107,18 +1115,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1129,9 +1134,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1192,11 +1194,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1538,143 +1540,143 @@
   <dimension ref="A2:AP42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="51" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="51" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="8" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="3" customWidth="1"/>
-    <col min="28" max="29" width="9.1640625" style="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" style="1"/>
-    <col min="32" max="32" width="4.6640625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.1640625" style="1"/>
+    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="3" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="1"/>
+    <col min="32" max="32" width="4.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:42" ht="37">
-      <c r="B2" s="145" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="156" t="s">
+    <row r="2" spans="1:42" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="147" t="s">
+      <c r="D4" s="144"/>
+      <c r="E4" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="158"/>
+      <c r="G4" s="144" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="144"/>
+      <c r="K4" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="151"/>
+      <c r="M4" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="144"/>
+      <c r="U4" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="148" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="148"/>
-      <c r="M4" s="147" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="147"/>
-      <c r="U4" s="149" t="s">
+      <c r="V4" s="152"/>
+      <c r="W4" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="149"/>
-      <c r="W4" s="152" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="150" t="s">
+      <c r="X4" s="156"/>
+      <c r="Y4" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="146" t="s">
+      <c r="Z4" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="147" t="s">
+      <c r="AA4" s="144" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="156"/>
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="144"/>
+      <c r="B5" s="145"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1741,9 +1743,9 @@
       <c r="X5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="147"/>
+      <c r="Y5" s="154"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="144"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -1760,7 +1762,7 @@
       <c r="AO5"/>
       <c r="AP5"/>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1792,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="40">
-        <f>PRODUCT(I7,300000)</f>
+        <f>PRODUCT(I7,150000)</f>
         <v>0</v>
       </c>
       <c r="K6" s="10">
@@ -1854,7 +1856,7 @@
       </c>
       <c r="AA6" s="68"/>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1872,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" ref="F7:F35" si="1">PRODUCT(E7,100000)</f>
+        <f t="shared" ref="F7:F36" si="1">PRODUCT(E7,100000)</f>
         <v>100000</v>
       </c>
       <c r="G7" s="118">
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="40">
-        <f t="shared" ref="J7:J14" si="3">PRODUCT(I7,300000)</f>
+        <f t="shared" ref="J7:J36" si="3">PRODUCT(I8,150000)</f>
         <v>0</v>
       </c>
       <c r="K7" s="119">
@@ -1943,12 +1945,12 @@
         <v>0</v>
       </c>
       <c r="Z7" s="17">
-        <f t="shared" ref="Z7:Z36" si="12">SUM(D7,H7,Y7,F7)</f>
+        <f>SUM(D7,H7,Y7,F7)</f>
         <v>1700000</v>
       </c>
       <c r="AA7" s="85"/>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>600000</v>
       </c>
       <c r="Z8" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D8,H8,Y8,F8)</f>
         <v>2500000</v>
       </c>
       <c r="AA8" s="85"/>
@@ -2055,7 +2057,7 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
     </row>
-    <row r="9" spans="1:42" customFormat="1">
+    <row r="9" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2144,12 +2146,12 @@
         <v>4260000</v>
       </c>
       <c r="Z9" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D9,H9,Y9,F9)</f>
         <v>10160000</v>
       </c>
       <c r="AA9" s="85"/>
     </row>
-    <row r="10" spans="1:42" customFormat="1">
+    <row r="10" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2238,12 +2240,12 @@
         <v>3600000</v>
       </c>
       <c r="Z10" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D10,H10,Y10,F10)</f>
         <v>7700000</v>
       </c>
       <c r="AA10" s="85"/>
     </row>
-    <row r="11" spans="1:42" customFormat="1">
+    <row r="11" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2332,12 +2334,12 @@
         <v>600000</v>
       </c>
       <c r="Z11" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D11,H11,Y11,F11)</f>
         <v>2800000</v>
       </c>
       <c r="AA11" s="85"/>
     </row>
-    <row r="12" spans="1:42" customFormat="1">
+    <row r="12" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2426,12 +2428,12 @@
         <v>600000</v>
       </c>
       <c r="Z12" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D12,H12,Y12,F12)</f>
         <v>3600000</v>
       </c>
       <c r="AA12" s="85"/>
     </row>
-    <row r="13" spans="1:42" customFormat="1">
+    <row r="13" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2520,14 +2522,14 @@
         <v>30000</v>
       </c>
       <c r="Z13" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D13,H13,Y13,F13)</f>
         <v>3030000</v>
       </c>
       <c r="AA13" s="85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -2616,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D14,H14,Y14,F14)</f>
         <v>1700000</v>
       </c>
       <c r="AA14" s="85"/>
@@ -2625,7 +2627,7 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="92"/>
       <c r="B15" s="57">
         <v>44022</v>
@@ -2651,8 +2653,13 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="40">
+        <v>0</v>
+      </c>
+      <c r="J15" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K15" s="119">
         <v>0</v>
       </c>
@@ -2707,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D15,H15,Y15,F15)</f>
         <v>3400000</v>
       </c>
       <c r="AA15" s="92"/>
@@ -2716,7 +2723,7 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="92"/>
       <c r="B16" s="57">
         <v>44023</v>
@@ -2742,8 +2749,13 @@
         <f t="shared" si="2"/>
         <v>2700000</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="40">
+        <v>0</v>
+      </c>
+      <c r="J16" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K16" s="119">
         <v>0</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D16,H16,Y16,F16)</f>
         <v>3400000</v>
       </c>
       <c r="AA16" s="92"/>
@@ -2807,7 +2819,7 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="92"/>
       <c r="B17" s="57">
         <v>44024</v>
@@ -2833,8 +2845,13 @@
         <f t="shared" si="2"/>
         <v>5700000</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="40">
+        <v>0</v>
+      </c>
+      <c r="J17" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K17" s="119">
         <v>1</v>
       </c>
@@ -2889,7 +2906,7 @@
         <v>5730000</v>
       </c>
       <c r="Z17" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D17,H17,Y17,F17)</f>
         <v>12930000</v>
       </c>
       <c r="AA17" s="92"/>
@@ -2898,7 +2915,7 @@
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="92"/>
       <c r="B18" s="57">
         <v>44025</v>
@@ -2924,8 +2941,13 @@
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="J18" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K18" s="119">
         <v>2</v>
       </c>
@@ -2980,7 +3002,7 @@
         <v>60000</v>
       </c>
       <c r="Z18" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D18,H18,Y18,F18)</f>
         <v>2260000</v>
       </c>
       <c r="AA18" s="92"/>
@@ -2989,7 +3011,7 @@
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="92"/>
       <c r="B19" s="57">
         <v>44026</v>
@@ -3015,8 +3037,13 @@
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+      <c r="I19" s="40">
+        <v>0</v>
+      </c>
+      <c r="J19" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K19" s="119">
         <v>0</v>
       </c>
@@ -3071,18 +3098,18 @@
         <v>0</v>
       </c>
       <c r="Z19" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D19,H19,Y19,F19)</f>
         <v>3400000</v>
       </c>
       <c r="AA19" s="124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="92"/>
       <c r="B20" s="57">
         <v>44027</v>
@@ -3108,8 +3135,13 @@
         <f t="shared" si="2"/>
         <v>1800000</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
+      <c r="I20" s="40">
+        <v>0</v>
+      </c>
+      <c r="J20" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K20" s="119">
         <v>0</v>
       </c>
@@ -3164,7 +3196,7 @@
         <v>650000</v>
       </c>
       <c r="Z20" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D20,H20,Y20,F20)</f>
         <v>4750000</v>
       </c>
       <c r="AA20" s="92"/>
@@ -3173,7 +3205,7 @@
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="92"/>
       <c r="B21" s="57">
         <v>44028</v>
@@ -3199,8 +3231,13 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
+      <c r="I21" s="40">
+        <v>0</v>
+      </c>
+      <c r="J21" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K21" s="119">
         <v>0</v>
       </c>
@@ -3255,7 +3292,7 @@
         <v>600000</v>
       </c>
       <c r="Z21" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D21,H21,Y21,F21)</f>
         <v>1300000</v>
       </c>
       <c r="AA21" s="92"/>
@@ -3264,7 +3301,7 @@
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="92"/>
       <c r="B22" s="57">
         <v>44029</v>
@@ -3290,8 +3327,13 @@
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
+      <c r="I22" s="40">
+        <v>0</v>
+      </c>
+      <c r="J22" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K22" s="119">
         <v>0</v>
       </c>
@@ -3345,7 +3387,7 @@
         <v>2630000</v>
       </c>
       <c r="Z22" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D22,H22,Y22,F22)</f>
         <v>4930000</v>
       </c>
       <c r="AA22" s="92"/>
@@ -3354,7 +3396,7 @@
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="92"/>
       <c r="B23" s="57">
         <v>44030</v>
@@ -3380,8 +3422,13 @@
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
+      <c r="I23" s="40">
+        <v>0</v>
+      </c>
+      <c r="J23" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K23" s="119">
         <v>0</v>
       </c>
@@ -3436,7 +3483,7 @@
         <v>2730000</v>
       </c>
       <c r="Z23" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D23,H23,Y23,F23)</f>
         <v>9230000</v>
       </c>
       <c r="AA23" s="92"/>
@@ -3445,7 +3492,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="92"/>
       <c r="B24" s="57">
         <v>44031</v>
@@ -3471,8 +3518,13 @@
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
+      <c r="I24" s="40">
+        <v>0</v>
+      </c>
+      <c r="J24" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K24" s="119">
         <v>0</v>
       </c>
@@ -3527,7 +3579,7 @@
         <v>2160000</v>
       </c>
       <c r="Z24" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D24,H24,Y24,F24)</f>
         <v>6060000</v>
       </c>
       <c r="AA24" s="92"/>
@@ -3536,7 +3588,7 @@
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="92"/>
       <c r="B25" s="57">
         <v>44032</v>
@@ -3562,8 +3614,13 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
+      <c r="I25" s="40">
+        <v>0</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K25" s="119">
         <v>0</v>
       </c>
@@ -3618,7 +3675,7 @@
         <v>300000</v>
       </c>
       <c r="Z25" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D25,H25,Y25,F25)</f>
         <v>2800000</v>
       </c>
       <c r="AA25" s="92"/>
@@ -3627,47 +3684,52 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="92"/>
       <c r="B26" s="57">
         <v>44033</v>
       </c>
       <c r="C26" s="118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="E26" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="17">
-        <f>PRODUCT(E27,100000)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
       <c r="G26" s="118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
+        <v>1200000</v>
+      </c>
+      <c r="I26" s="40">
+        <v>0</v>
+      </c>
+      <c r="J26" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K26" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="O26" s="14">
         <v>0</v>
@@ -3706,11 +3768,11 @@
       </c>
       <c r="Y26" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>330000</v>
       </c>
       <c r="Z26" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(D26,H26,Y26,F26)</f>
+        <v>2230000</v>
       </c>
       <c r="AA26" s="92"/>
       <c r="AB26" s="11"/>
@@ -3718,17 +3780,17 @@
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="92"/>
       <c r="B27" s="57">
         <v>44034</v>
       </c>
       <c r="C27" s="118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="E27" s="17">
         <v>0</v>
@@ -3738,14 +3800,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
+        <v>600000</v>
+      </c>
+      <c r="I27" s="40">
+        <v>0</v>
+      </c>
+      <c r="J27" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K27" s="119">
         <v>0</v>
       </c>
@@ -3775,11 +3842,11 @@
         <v>0</v>
       </c>
       <c r="S27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="U27" s="120">
         <v>0</v>
@@ -3797,29 +3864,31 @@
       </c>
       <c r="Y27" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Z27" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="92"/>
+        <f>SUM(D27,H27,Y27,F27)</f>
+        <v>1250000</v>
+      </c>
+      <c r="AA27" s="143" t="s">
+        <v>129</v>
+      </c>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="92"/>
       <c r="B28" s="57">
         <v>44035</v>
       </c>
       <c r="C28" s="118">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="E28" s="17">
         <v>0</v>
@@ -3829,27 +3898,32 @@
         <v>0</v>
       </c>
       <c r="G28" s="118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+        <v>600000</v>
+      </c>
+      <c r="I28" s="40">
+        <v>0</v>
+      </c>
+      <c r="J28" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K28" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M28" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="O28" s="14">
         <v>0</v>
@@ -3888,11 +3962,11 @@
       </c>
       <c r="Y28" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>330000</v>
       </c>
       <c r="Z28" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(D28,H28,Y28,F28)</f>
+        <v>2530000</v>
       </c>
       <c r="AA28" s="92"/>
       <c r="AB28" s="11"/>
@@ -3900,17 +3974,17 @@
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="92"/>
       <c r="B29" s="57">
         <v>44036</v>
       </c>
       <c r="C29" s="118">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="E29" s="17">
         <v>0</v>
@@ -3920,14 +3994,19 @@
         <v>0</v>
       </c>
       <c r="G29" s="118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
+        <v>1200000</v>
+      </c>
+      <c r="I29" s="40">
+        <v>0</v>
+      </c>
+      <c r="J29" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K29" s="119">
         <v>0</v>
       </c>
@@ -3936,11 +4015,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="O29" s="14">
         <v>0</v>
@@ -3979,11 +4058,11 @@
       </c>
       <c r="Y29" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="Z29" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(D29,H29,Y29,F29)</f>
+        <v>2700000</v>
       </c>
       <c r="AA29" s="92"/>
       <c r="AB29" s="11"/>
@@ -3991,7 +4070,7 @@
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="92"/>
       <c r="B30" s="57">
         <v>44037</v>
@@ -4017,8 +4096,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="40">
+        <v>0</v>
+      </c>
+      <c r="J30" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K30" s="119">
         <v>0</v>
       </c>
@@ -4073,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D30,H30,Y30,F30)</f>
         <v>0</v>
       </c>
       <c r="AA30" s="92"/>
@@ -4082,10 +4166,10 @@
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="92"/>
       <c r="B31" s="57">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="C31" s="118">
         <v>0</v>
@@ -4108,8 +4192,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="I31" s="40">
+        <v>0</v>
+      </c>
+      <c r="J31" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K31" s="119">
         <v>0</v>
       </c>
@@ -4164,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D31,H31,Y31,F31)</f>
         <v>0</v>
       </c>
       <c r="AA31" s="92"/>
@@ -4173,17 +4262,17 @@
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="92"/>
       <c r="B32" s="57">
         <v>44039</v>
       </c>
       <c r="C32" s="118">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="E32" s="17">
         <v>0</v>
@@ -4193,27 +4282,32 @@
         <v>0</v>
       </c>
       <c r="G32" s="118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
+        <v>1500000</v>
+      </c>
+      <c r="I32" s="40">
+        <v>0</v>
+      </c>
+      <c r="J32" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K32" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M32" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="O32" s="14">
         <v>0</v>
@@ -4223,11 +4317,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="S32" s="13">
         <v>0</v>
@@ -4252,11 +4346,11 @@
       </c>
       <c r="Y32" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>660000</v>
       </c>
       <c r="Z32" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(D32,H32,Y32,F32)</f>
+        <v>3560000</v>
       </c>
       <c r="AA32" s="92"/>
       <c r="AB32" s="11"/>
@@ -4264,17 +4358,17 @@
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="92"/>
       <c r="B33" s="57">
         <v>44040</v>
       </c>
       <c r="C33" s="118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="E33" s="17">
         <v>0</v>
@@ -4284,14 +4378,19 @@
         <v>0</v>
       </c>
       <c r="G33" s="118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
+        <v>900000</v>
+      </c>
+      <c r="I33" s="40">
+        <v>0</v>
+      </c>
+      <c r="J33" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K33" s="119">
         <v>0</v>
       </c>
@@ -4300,18 +4399,18 @@
         <v>0</v>
       </c>
       <c r="M33" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="O33" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Q33" s="14">
         <v>0</v>
@@ -4343,11 +4442,11 @@
       </c>
       <c r="Y33" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="Z33" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(D33,H33,Y33,F33)</f>
+        <v>2900000</v>
       </c>
       <c r="AA33" s="92"/>
       <c r="AB33" s="11"/>
@@ -4355,17 +4454,17 @@
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="94"/>
       <c r="B34" s="57">
         <v>44041</v>
       </c>
       <c r="C34" s="118">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="E34" s="17">
         <v>0</v>
@@ -4375,14 +4474,19 @@
         <v>0</v>
       </c>
       <c r="G34" s="118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
+        <v>300000</v>
+      </c>
+      <c r="I34" s="40">
+        <v>0</v>
+      </c>
+      <c r="J34" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K34" s="119">
         <v>0</v>
       </c>
@@ -4437,8 +4541,8 @@
         <v>0</v>
       </c>
       <c r="Z34" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(D34,H34,Y34,F34)</f>
+        <v>1700000</v>
       </c>
       <c r="AA34" s="94"/>
       <c r="AB34" s="11"/>
@@ -4446,17 +4550,17 @@
       <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="94"/>
       <c r="B35" s="57">
         <v>44042</v>
       </c>
       <c r="C35" s="118">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="E35" s="17">
         <v>0</v>
@@ -4466,14 +4570,19 @@
         <v>0</v>
       </c>
       <c r="G35" s="118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+        <v>600000</v>
+      </c>
+      <c r="I35" s="40">
+        <v>0</v>
+      </c>
+      <c r="J35" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K35" s="119">
         <v>0</v>
       </c>
@@ -4482,11 +4591,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="O35" s="14">
         <v>0</v>
@@ -4525,11 +4634,11 @@
       </c>
       <c r="Y35" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="Z35" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>SUM(D35,H35,Y35,F35)</f>
+        <v>2900000</v>
       </c>
       <c r="AA35" s="94"/>
       <c r="AB35" s="11"/>
@@ -4537,7 +4646,7 @@
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="118"/>
       <c r="B36" s="57">
         <v>44043</v>
@@ -4552,7 +4661,10 @@
       <c r="E36" s="17">
         <v>0</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G36" s="118">
         <v>0</v>
       </c>
@@ -4560,8 +4672,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+      <c r="I36" s="40">
+        <v>0</v>
+      </c>
+      <c r="J36" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K36" s="119">
         <v>0</v>
       </c>
@@ -4616,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="17">
-        <f t="shared" si="12"/>
+        <f>SUM(D36,H36,Y36,F36)</f>
         <v>0</v>
       </c>
       <c r="AA36" s="118"/>
@@ -4625,190 +4742,185 @@
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="39">
-        <f t="shared" ref="D37:Z37" si="13">SUM(D7:D35)</f>
-        <v>26800000</v>
+        <f>SUM(D7:D36)</f>
+        <v>36400000</v>
       </c>
       <c r="E37" s="39">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" ref="E37:X37" si="12">SUM(E7:E36)</f>
+        <v>15</v>
       </c>
       <c r="F37" s="39">
-        <f t="shared" si="13"/>
-        <v>1500000</v>
+        <f t="shared" si="12"/>
+        <v>1600000</v>
       </c>
       <c r="G37" s="39">
-        <f t="shared" si="13"/>
-        <v>116</v>
+        <f t="shared" si="12"/>
+        <v>139</v>
       </c>
       <c r="H37" s="39">
-        <f t="shared" si="13"/>
-        <v>34800000</v>
+        <f t="shared" si="12"/>
+        <v>41700000</v>
       </c>
       <c r="I37" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J37" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K37" s="39">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="L37" s="39">
-        <f t="shared" si="13"/>
-        <v>150000</v>
+        <f t="shared" si="12"/>
+        <v>240000</v>
       </c>
       <c r="M37" s="39">
-        <f t="shared" si="13"/>
-        <v>56</v>
+        <f t="shared" si="12"/>
+        <v>64</v>
       </c>
       <c r="N37" s="39">
-        <f t="shared" si="13"/>
-        <v>16800000</v>
+        <f t="shared" si="12"/>
+        <v>19200000</v>
       </c>
       <c r="O37" s="39">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="P37" s="39">
-        <f t="shared" si="13"/>
-        <v>6600000</v>
+        <f t="shared" si="12"/>
+        <v>7200000</v>
       </c>
       <c r="Q37" s="39">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="R37" s="39">
-        <f t="shared" si="13"/>
-        <v>150000</v>
+        <f t="shared" si="12"/>
+        <v>180000</v>
       </c>
       <c r="S37" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T37" s="39">
+        <f t="shared" si="12"/>
+        <v>100000</v>
+      </c>
+      <c r="U37" s="39">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="T37" s="39">
-        <f t="shared" si="13"/>
-        <v>50000</v>
-      </c>
-      <c r="U37" s="39">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
       <c r="V37" s="39">
-        <f t="shared" si="13"/>
+        <f>SUM(V7:V36)</f>
         <v>800000</v>
       </c>
       <c r="W37" s="39">
-        <f t="shared" si="13"/>
+        <f>SUM(W7:W36)</f>
         <v>0</v>
       </c>
       <c r="X37" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="X37:Y37" si="13">SUM(X7:X36)</f>
         <v>0</v>
       </c>
       <c r="Y37" s="39">
         <f t="shared" si="13"/>
-        <v>24550000</v>
+        <v>27720000</v>
       </c>
       <c r="Z37" s="39">
-        <f t="shared" si="13"/>
-        <v>87650000</v>
+        <f>SUM(Z7:Z36)</f>
+        <v>107420000</v>
       </c>
       <c r="AA37" s="68"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="157">
-        <v>80</v>
-      </c>
-      <c r="D38" s="157"/>
+      <c r="C38" s="146">
+        <v>0</v>
+      </c>
+      <c r="D38" s="146"/>
       <c r="E38" s="107"/>
       <c r="F38" s="107"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="143"/>
-      <c r="S38" s="143"/>
-      <c r="T38" s="143"/>
-      <c r="U38" s="143"/>
-      <c r="V38" s="143"/>
-      <c r="W38" s="143"/>
-      <c r="X38" s="143"/>
-      <c r="Y38" s="143"/>
-      <c r="Z38" s="143"/>
-      <c r="AA38" s="143"/>
-    </row>
-    <row r="39" spans="1:31" s="11" customFormat="1">
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="147"/>
+      <c r="R38" s="147"/>
+      <c r="S38" s="147"/>
+      <c r="T38" s="147"/>
+      <c r="U38" s="147"/>
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+      <c r="X38" s="147"/>
+      <c r="Y38" s="147"/>
+      <c r="Z38" s="147"/>
+      <c r="AA38" s="147"/>
+    </row>
+    <row r="39" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="144">
-        <v>247</v>
-      </c>
-      <c r="D39" s="144"/>
+        <v>50</v>
+      </c>
+      <c r="C39" s="148">
+        <v>0</v>
+      </c>
+      <c r="D39" s="148"/>
       <c r="E39" s="108"/>
       <c r="F39" s="108"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="143"/>
-      <c r="S39" s="143"/>
-      <c r="T39" s="143"/>
-      <c r="U39" s="143"/>
-      <c r="V39" s="143"/>
-      <c r="W39" s="143"/>
-      <c r="X39" s="143"/>
-      <c r="Y39" s="143"/>
-      <c r="Z39" s="143"/>
-      <c r="AA39" s="143"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="147"/>
+      <c r="Q39" s="147"/>
+      <c r="R39" s="147"/>
+      <c r="S39" s="147"/>
+      <c r="T39" s="147"/>
+      <c r="U39" s="147"/>
+      <c r="V39" s="147"/>
+      <c r="W39" s="147"/>
+      <c r="X39" s="147"/>
+      <c r="Y39" s="147"/>
+      <c r="Z39" s="147"/>
+      <c r="AA39" s="147"/>
       <c r="AD39" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="52"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AA42" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="AA4:AA39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="G39:AA39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AA2"/>
@@ -4825,6 +4937,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4840,30 +4957,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31">
-      <c r="A1" s="158" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-    </row>
-    <row r="3" spans="1:6">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="159" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -4883,7 +5000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -4902,7 +5019,7 @@
       </c>
       <c r="F4" s="127"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -4916,12 +5033,12 @@
         <v>3332000</v>
       </c>
       <c r="E5" s="125">
-        <f t="shared" ref="E5:E33" si="0">SUM(D5,-C5)</f>
+        <f t="shared" ref="E5:E34" si="0">SUM(D5,-C5)</f>
         <v>1042073</v>
       </c>
       <c r="F5" s="127"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -4940,7 +5057,7 @@
       </c>
       <c r="F6" s="127"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -4959,7 +5076,7 @@
       </c>
       <c r="F7" s="127"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -4978,7 +5095,7 @@
       </c>
       <c r="F8" s="62"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>7</v>
       </c>
@@ -4997,7 +5114,7 @@
       </c>
       <c r="F9" s="62"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -5016,7 +5133,7 @@
       </c>
       <c r="F10" s="62"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -5035,7 +5152,7 @@
       </c>
       <c r="F11" s="62"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -5054,7 +5171,7 @@
       </c>
       <c r="F12" s="62"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -5073,7 +5190,7 @@
       </c>
       <c r="F13" s="62"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -5092,7 +5209,7 @@
       </c>
       <c r="F14" s="62"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>12</v>
       </c>
@@ -5111,7 +5228,7 @@
       </c>
       <c r="F15" s="62"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>13</v>
       </c>
@@ -5130,7 +5247,7 @@
       </c>
       <c r="F16" s="62"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>14</v>
       </c>
@@ -5149,7 +5266,7 @@
       </c>
       <c r="F17" s="62"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>15</v>
       </c>
@@ -5168,7 +5285,7 @@
       </c>
       <c r="F18" s="62"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>17</v>
       </c>
@@ -5187,7 +5304,7 @@
       </c>
       <c r="F19" s="62"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>17</v>
       </c>
@@ -5206,7 +5323,7 @@
       </c>
       <c r="F20" s="62"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>18</v>
       </c>
@@ -5225,7 +5342,7 @@
       </c>
       <c r="F21" s="62"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>19</v>
       </c>
@@ -5244,7 +5361,7 @@
       </c>
       <c r="F22" s="62"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>20</v>
       </c>
@@ -5263,7 +5380,7 @@
       </c>
       <c r="F23" s="62"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>21</v>
       </c>
@@ -5282,14 +5399,14 @@
       </c>
       <c r="F24" s="62"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>22</v>
       </c>
       <c r="B25" s="21">
         <v>44034</v>
       </c>
-      <c r="C25" s="129">
+      <c r="C25" s="125">
         <v>778362</v>
       </c>
       <c r="D25" s="125">
@@ -5301,14 +5418,14 @@
       </c>
       <c r="F25" s="62"/>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>23</v>
       </c>
       <c r="B26" s="21">
         <v>44035</v>
       </c>
-      <c r="C26" s="185">
+      <c r="C26" s="128">
         <v>1618454</v>
       </c>
       <c r="D26" s="125">
@@ -5320,7 +5437,7 @@
       </c>
       <c r="F26" s="126"/>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>24</v>
       </c>
@@ -5330,7 +5447,7 @@
       <c r="C27" s="125">
         <v>2263045</v>
       </c>
-      <c r="D27" s="185">
+      <c r="D27" s="128">
         <v>3106000</v>
       </c>
       <c r="E27" s="125">
@@ -5339,17 +5456,17 @@
       </c>
       <c r="F27" s="126"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>25</v>
       </c>
       <c r="B28" s="21">
         <v>44037</v>
       </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="C28" s="186">
+        <v>0</v>
+      </c>
+      <c r="D28" s="186">
         <v>0</v>
       </c>
       <c r="E28" s="125">
@@ -5357,26 +5474,26 @@
       </c>
       <c r="F28" s="126"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>27</v>
       </c>
       <c r="B29" s="21">
         <v>44038</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="125">
         <v>0</v>
       </c>
       <c r="D29" s="125">
         <v>0</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>27</v>
       </c>
@@ -5389,89 +5506,106 @@
       <c r="D30" s="125">
         <v>5480000</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="125">
         <f t="shared" si="0"/>
         <v>1560390</v>
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>28</v>
       </c>
       <c r="B31" s="21">
         <v>44040</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="125">
         <v>1782136</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="125">
         <v>2490000</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="125">
         <f t="shared" si="0"/>
         <v>707864</v>
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="95" customFormat="1">
+    <row r="32" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>29</v>
       </c>
       <c r="B32" s="21">
         <v>44041</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="125">
         <v>894346</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="125">
         <v>1680000</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="125">
         <f t="shared" si="0"/>
         <v>785654</v>
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="95" customFormat="1">
+    <row r="33" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>30</v>
       </c>
       <c r="B33" s="21">
         <v>44042</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="125">
         <v>292196</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="125">
         <v>3407000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="125">
         <f t="shared" si="0"/>
         <v>3114804</v>
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="34">
+    <row r="34" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="21">
+        <v>44043</v>
+      </c>
+      <c r="C34" s="125">
+        <v>0</v>
+      </c>
+      <c r="D34" s="125">
+        <v>0</v>
+      </c>
+      <c r="E34" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
         <v>32</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B35" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="43">
-        <f>SUM(C4:C33)</f>
+      <c r="C35" s="43">
+        <f>SUM(C4:C34)</f>
         <v>64506641</v>
       </c>
-      <c r="D34" s="43">
-        <f>SUM(D4:D33)</f>
+      <c r="D35" s="43">
+        <f>SUM(D4:D34)</f>
         <v>94184000</v>
       </c>
-      <c r="E34" s="43">
-        <f>SUM(E4:E33)</f>
+      <c r="E35" s="43">
+        <f>SUM(E4:E34)</f>
         <v>29677359</v>
       </c>
-      <c r="F34" s="23"/>
+      <c r="F35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5490,87 +5624,87 @@
   </sheetPr>
   <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="84" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="133" customWidth="1"/>
-    <col min="4" max="4" width="18" style="134" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="74" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="81" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="84" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="132" customWidth="1"/>
+    <col min="4" max="4" width="18" style="133" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="74" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="81" customWidth="1"/>
     <col min="7" max="7" width="30" style="76" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="91" customFormat="1" ht="31">
-      <c r="A2" s="165" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-    </row>
-    <row r="3" spans="1:7" ht="31">
+    <row r="2" spans="1:7" s="91" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="166" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="25"/>
-      <c r="C3" s="132"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1">
+      <c r="C3" s="131"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="138" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="130" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="138" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="71" customFormat="1" ht="16">
-      <c r="A5" s="161">
+    <row r="5" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="163">
         <v>1</v>
       </c>
-      <c r="B5" s="159">
+      <c r="B5" s="160">
         <v>44013</v>
       </c>
-      <c r="C5" s="131">
+      <c r="C5" s="130">
         <v>1</v>
       </c>
-      <c r="D5" s="136" t="s">
-        <v>93</v>
+      <c r="D5" s="135" t="s">
+        <v>92</v>
       </c>
       <c r="E5" s="98">
         <v>750000</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="141"/>
-    </row>
-    <row r="6" spans="1:7" s="117" customFormat="1" ht="16">
-      <c r="A6" s="162"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="131">
+      <c r="F5" s="139"/>
+      <c r="G5" s="140"/>
+    </row>
+    <row r="6" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="164"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="130">
         <v>2</v>
       </c>
-      <c r="D6" s="135" t="s">
-        <v>80</v>
+      <c r="D6" s="134" t="s">
+        <v>79</v>
       </c>
       <c r="E6" s="87">
         <v>365000</v>
@@ -5578,14 +5712,14 @@
       <c r="F6" s="88"/>
       <c r="G6" s="77"/>
     </row>
-    <row r="7" spans="1:7" s="117" customFormat="1" ht="16">
-      <c r="A7" s="162"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="131">
+    <row r="7" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="164"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="130">
         <v>3</v>
       </c>
-      <c r="D7" s="135" t="s">
-        <v>94</v>
+      <c r="D7" s="134" t="s">
+        <v>93</v>
       </c>
       <c r="E7" s="87">
         <v>560000</v>
@@ -5593,14 +5727,14 @@
       <c r="F7" s="88"/>
       <c r="G7" s="77"/>
     </row>
-    <row r="8" spans="1:7" s="117" customFormat="1" ht="16">
-      <c r="A8" s="162"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="131">
+    <row r="8" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="164"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="130">
         <v>4</v>
       </c>
-      <c r="D8" s="135" t="s">
-        <v>95</v>
+      <c r="D8" s="134" t="s">
+        <v>94</v>
       </c>
       <c r="E8" s="87">
         <v>870000</v>
@@ -5608,14 +5742,14 @@
       <c r="F8" s="88"/>
       <c r="G8" s="77"/>
     </row>
-    <row r="9" spans="1:7" s="117" customFormat="1" ht="16">
-      <c r="A9" s="162"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="131">
+    <row r="9" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="164"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="130">
         <v>5</v>
       </c>
-      <c r="D9" s="135" t="s">
-        <v>96</v>
+      <c r="D9" s="134" t="s">
+        <v>95</v>
       </c>
       <c r="E9" s="87">
         <v>275000</v>
@@ -5623,14 +5757,14 @@
       <c r="F9" s="88"/>
       <c r="G9" s="77"/>
     </row>
-    <row r="10" spans="1:7" s="117" customFormat="1" ht="16">
-      <c r="A10" s="163"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="131">
+    <row r="10" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="165"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="130">
         <v>6</v>
       </c>
-      <c r="D10" s="135" t="s">
-        <v>79</v>
+      <c r="D10" s="134" t="s">
+        <v>78</v>
       </c>
       <c r="E10" s="87">
         <v>360000</v>
@@ -5638,44 +5772,44 @@
       <c r="F10" s="88"/>
       <c r="G10" s="77"/>
     </row>
-    <row r="11" spans="1:7" s="71" customFormat="1" hidden="1">
+    <row r="11" spans="1:7" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="86">
         <v>2</v>
       </c>
-      <c r="B11" s="159">
+      <c r="B11" s="160">
         <v>44014</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="135"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="134"/>
       <c r="E11" s="87">
         <v>0</v>
       </c>
       <c r="F11" s="88"/>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:7" s="103" customFormat="1" hidden="1">
+    <row r="12" spans="1:7" s="103" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="102"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="135"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="87">
         <v>0</v>
       </c>
       <c r="F12" s="88"/>
       <c r="G12" s="77"/>
     </row>
-    <row r="13" spans="1:7" s="75" customFormat="1" ht="16">
-      <c r="A13" s="161">
+    <row r="13" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="163">
         <v>2</v>
       </c>
-      <c r="B13" s="159">
+      <c r="B13" s="160">
         <v>44015</v>
       </c>
-      <c r="C13" s="131">
+      <c r="C13" s="130">
         <v>1</v>
       </c>
-      <c r="D13" s="135" t="s">
-        <v>97</v>
+      <c r="D13" s="134" t="s">
+        <v>96</v>
       </c>
       <c r="E13" s="87">
         <v>650000</v>
@@ -5683,14 +5817,14 @@
       <c r="F13" s="88"/>
       <c r="G13" s="100"/>
     </row>
-    <row r="14" spans="1:7" s="117" customFormat="1" ht="16">
-      <c r="A14" s="162"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="131">
+    <row r="14" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="164"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="130">
         <v>2</v>
       </c>
-      <c r="D14" s="135" t="s">
-        <v>98</v>
+      <c r="D14" s="134" t="s">
+        <v>97</v>
       </c>
       <c r="E14" s="87">
         <v>1820000</v>
@@ -5698,14 +5832,14 @@
       <c r="F14" s="88"/>
       <c r="G14" s="100"/>
     </row>
-    <row r="15" spans="1:7" s="117" customFormat="1" ht="16">
-      <c r="A15" s="162"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="131">
+    <row r="15" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="164"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="130">
         <v>3</v>
       </c>
-      <c r="D15" s="135" t="s">
-        <v>99</v>
+      <c r="D15" s="134" t="s">
+        <v>98</v>
       </c>
       <c r="E15" s="87">
         <v>436000</v>
@@ -5713,14 +5847,14 @@
       <c r="F15" s="88"/>
       <c r="G15" s="100"/>
     </row>
-    <row r="16" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A16" s="162"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="131">
+    <row r="16" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="164"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="130">
         <v>4</v>
       </c>
-      <c r="D16" s="135" t="s">
-        <v>56</v>
+      <c r="D16" s="134" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="87"/>
       <c r="F16" s="88">
@@ -5728,35 +5862,35 @@
       </c>
       <c r="G16" s="100"/>
     </row>
-    <row r="17" spans="1:7" s="117" customFormat="1" ht="16">
-      <c r="A17" s="162"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="131">
+    <row r="17" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="164"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="130">
         <v>5</v>
       </c>
-      <c r="D17" s="135" t="s">
-        <v>56</v>
+      <c r="D17" s="134" t="s">
+        <v>55</v>
       </c>
       <c r="E17" s="87">
         <v>16950000</v>
       </c>
       <c r="F17" s="88"/>
       <c r="G17" s="100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="99" customFormat="1" ht="16">
-      <c r="A18" s="161">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="163">
         <v>3</v>
       </c>
-      <c r="B18" s="159">
+      <c r="B18" s="160">
         <v>44016</v>
       </c>
-      <c r="C18" s="131">
+      <c r="C18" s="130">
         <v>1</v>
       </c>
-      <c r="D18" s="135" t="s">
-        <v>103</v>
+      <c r="D18" s="134" t="s">
+        <v>102</v>
       </c>
       <c r="E18" s="87">
         <v>2800000</v>
@@ -5764,14 +5898,14 @@
       <c r="F18" s="88"/>
       <c r="G18" s="100"/>
     </row>
-    <row r="19" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A19" s="162"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="131">
+    <row r="19" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="164"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="130">
         <v>2</v>
       </c>
-      <c r="D19" s="135" t="s">
-        <v>104</v>
+      <c r="D19" s="134" t="s">
+        <v>103</v>
       </c>
       <c r="E19" s="87">
         <v>650000</v>
@@ -5779,14 +5913,14 @@
       <c r="F19" s="88"/>
       <c r="G19" s="100"/>
     </row>
-    <row r="20" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A20" s="162"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="131">
+    <row r="20" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="164"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="130">
         <v>3</v>
       </c>
-      <c r="D20" s="135" t="s">
-        <v>105</v>
+      <c r="D20" s="134" t="s">
+        <v>104</v>
       </c>
       <c r="E20" s="87">
         <v>1950000</v>
@@ -5794,14 +5928,14 @@
       <c r="F20" s="88"/>
       <c r="G20" s="100"/>
     </row>
-    <row r="21" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A21" s="162"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="131">
+    <row r="21" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="164"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="130">
         <v>4</v>
       </c>
-      <c r="D21" s="135" t="s">
-        <v>106</v>
+      <c r="D21" s="134" t="s">
+        <v>105</v>
       </c>
       <c r="E21" s="87">
         <v>2080000</v>
@@ -5809,14 +5943,14 @@
       <c r="F21" s="88"/>
       <c r="G21" s="100"/>
     </row>
-    <row r="22" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A22" s="162"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="131">
+    <row r="22" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="164"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="130">
         <v>5</v>
       </c>
-      <c r="D22" s="135" t="s">
-        <v>107</v>
+      <c r="D22" s="134" t="s">
+        <v>106</v>
       </c>
       <c r="E22" s="87">
         <v>2300000</v>
@@ -5824,14 +5958,14 @@
       <c r="F22" s="88"/>
       <c r="G22" s="100"/>
     </row>
-    <row r="23" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A23" s="162"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="131">
+    <row r="23" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="164"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="130">
         <v>6</v>
       </c>
-      <c r="D23" s="135" t="s">
-        <v>108</v>
+      <c r="D23" s="134" t="s">
+        <v>107</v>
       </c>
       <c r="E23" s="87">
         <v>1560000</v>
@@ -5839,14 +5973,14 @@
       <c r="F23" s="88"/>
       <c r="G23" s="100"/>
     </row>
-    <row r="24" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A24" s="163"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="131">
+    <row r="24" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="165"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="130">
         <v>7</v>
       </c>
-      <c r="D24" s="135" t="s">
-        <v>127</v>
+      <c r="D24" s="134" t="s">
+        <v>126</v>
       </c>
       <c r="E24" s="87"/>
       <c r="F24" s="88">
@@ -5854,35 +5988,35 @@
       </c>
       <c r="G24" s="100"/>
     </row>
-    <row r="25" spans="1:7" s="80" customFormat="1" ht="16">
-      <c r="A25" s="161">
+    <row r="25" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="163">
         <v>4</v>
       </c>
-      <c r="B25" s="159">
+      <c r="B25" s="160">
         <v>44023</v>
       </c>
-      <c r="C25" s="131">
+      <c r="C25" s="130">
         <v>1</v>
       </c>
-      <c r="D25" s="136" t="s">
-        <v>109</v>
+      <c r="D25" s="135" t="s">
+        <v>108</v>
       </c>
       <c r="E25" s="87">
         <v>4950000</v>
       </c>
       <c r="F25" s="88"/>
       <c r="G25" s="100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A26" s="162"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="131">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="164"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="130">
         <v>2</v>
       </c>
-      <c r="D26" s="136" t="s">
-        <v>110</v>
+      <c r="D26" s="135" t="s">
+        <v>109</v>
       </c>
       <c r="E26" s="87">
         <v>2500000</v>
@@ -5890,14 +6024,14 @@
       <c r="F26" s="88"/>
       <c r="G26" s="77"/>
     </row>
-    <row r="27" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A27" s="162"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="131">
+    <row r="27" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="164"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="130">
         <v>3</v>
       </c>
-      <c r="D27" s="136" t="s">
-        <v>111</v>
+      <c r="D27" s="135" t="s">
+        <v>110</v>
       </c>
       <c r="E27" s="87">
         <v>4050000</v>
@@ -5905,69 +6039,69 @@
       <c r="F27" s="88"/>
       <c r="G27" s="77"/>
     </row>
-    <row r="28" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A28" s="163"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="131">
+    <row r="28" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="165"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="130">
         <v>4</v>
       </c>
-      <c r="D28" s="135" t="s">
-        <v>112</v>
+      <c r="D28" s="134" t="s">
+        <v>111</v>
       </c>
       <c r="E28" s="87"/>
       <c r="F28" s="88">
         <v>1500000</v>
       </c>
-      <c r="G28" s="142"/>
-    </row>
-    <row r="29" spans="1:7" s="80" customFormat="1" ht="16">
-      <c r="A29" s="161">
+      <c r="G28" s="141"/>
+    </row>
+    <row r="29" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="163">
         <v>5</v>
       </c>
-      <c r="B29" s="159">
+      <c r="B29" s="160">
         <v>44026</v>
       </c>
-      <c r="C29" s="131">
+      <c r="C29" s="130">
         <v>1</v>
       </c>
-      <c r="D29" s="135" t="s">
-        <v>112</v>
+      <c r="D29" s="134" t="s">
+        <v>111</v>
       </c>
       <c r="E29" s="87">
         <v>1500000</v>
       </c>
       <c r="F29" s="88"/>
-      <c r="G29" s="161" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A30" s="163"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="131">
+      <c r="G29" s="163" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="165"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="130">
         <v>2</v>
       </c>
-      <c r="D30" s="135" t="s">
-        <v>113</v>
+      <c r="D30" s="134" t="s">
+        <v>112</v>
       </c>
       <c r="E30" s="87">
         <v>1500000</v>
       </c>
       <c r="F30" s="88"/>
-      <c r="G30" s="163"/>
-    </row>
-    <row r="31" spans="1:7" ht="16">
-      <c r="A31" s="161">
+      <c r="G30" s="165"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="163">
         <v>6</v>
       </c>
-      <c r="B31" s="159">
+      <c r="B31" s="160">
         <v>44027</v>
       </c>
-      <c r="C31" s="131">
+      <c r="C31" s="130">
         <v>1</v>
       </c>
-      <c r="D31" s="135" t="s">
-        <v>116</v>
+      <c r="D31" s="134" t="s">
+        <v>115</v>
       </c>
       <c r="E31" s="87">
         <v>5300000</v>
@@ -5975,14 +6109,14 @@
       <c r="F31" s="88"/>
       <c r="G31" s="77"/>
     </row>
-    <row r="32" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A32" s="162"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="131">
+    <row r="32" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="164"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="130">
         <v>2</v>
       </c>
-      <c r="D32" s="135" t="s">
-        <v>94</v>
+      <c r="D32" s="134" t="s">
+        <v>93</v>
       </c>
       <c r="E32" s="87">
         <v>560000</v>
@@ -5990,14 +6124,14 @@
       <c r="F32" s="88"/>
       <c r="G32" s="77"/>
     </row>
-    <row r="33" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A33" s="162"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="131">
+    <row r="33" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="164"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="130">
         <v>3</v>
       </c>
-      <c r="D33" s="135" t="s">
-        <v>80</v>
+      <c r="D33" s="134" t="s">
+        <v>79</v>
       </c>
       <c r="E33" s="87">
         <v>360000</v>
@@ -6005,14 +6139,14 @@
       <c r="F33" s="88"/>
       <c r="G33" s="77"/>
     </row>
-    <row r="34" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A34" s="163"/>
-      <c r="B34" s="160"/>
-      <c r="C34" s="131">
+    <row r="34" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="165"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="130">
         <v>4</v>
       </c>
-      <c r="D34" s="135" t="s">
-        <v>117</v>
+      <c r="D34" s="134" t="s">
+        <v>116</v>
       </c>
       <c r="E34" s="87">
         <v>360000</v>
@@ -6020,338 +6154,338 @@
       <c r="F34" s="88"/>
       <c r="G34" s="77"/>
     </row>
-    <row r="35" spans="1:7" ht="16">
-      <c r="A35" s="161">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="163">
         <v>7</v>
       </c>
-      <c r="B35" s="159">
+      <c r="B35" s="160">
         <v>44029</v>
       </c>
-      <c r="C35" s="131">
+      <c r="C35" s="130">
         <v>1</v>
       </c>
-      <c r="D35" s="135" t="s">
-        <v>82</v>
+      <c r="D35" s="134" t="s">
+        <v>81</v>
       </c>
       <c r="E35" s="87">
         <v>774000</v>
       </c>
       <c r="F35" s="88"/>
       <c r="G35" s="77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="122" customFormat="1" ht="16">
-      <c r="A36" s="163"/>
-      <c r="B36" s="160"/>
-      <c r="C36" s="131">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="165"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="130">
         <v>2</v>
       </c>
-      <c r="D36" s="135" t="s">
-        <v>82</v>
+      <c r="D36" s="134" t="s">
+        <v>81</v>
       </c>
       <c r="F36" s="87">
         <v>774000</v>
       </c>
       <c r="G36" s="77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="82" customFormat="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="86">
         <v>19</v>
       </c>
       <c r="B37" s="101">
         <v>44029</v>
       </c>
-      <c r="C37" s="131"/>
-      <c r="D37" s="135"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="87">
         <v>0</v>
       </c>
       <c r="F37" s="88"/>
       <c r="G37" s="77"/>
     </row>
-    <row r="38" spans="1:7" s="64" customFormat="1">
+    <row r="38" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="86">
         <v>20</v>
       </c>
       <c r="B38" s="101">
         <v>44030</v>
       </c>
-      <c r="C38" s="131"/>
-      <c r="D38" s="135"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="134"/>
       <c r="E38" s="87">
         <v>0</v>
       </c>
       <c r="F38" s="88"/>
       <c r="G38" s="77"/>
     </row>
-    <row r="39" spans="1:7" s="70" customFormat="1">
+    <row r="39" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="86">
         <v>21</v>
       </c>
       <c r="B39" s="101">
         <v>44031</v>
       </c>
-      <c r="C39" s="131"/>
-      <c r="D39" s="135"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="134"/>
       <c r="E39" s="87">
         <v>0</v>
       </c>
       <c r="F39" s="88"/>
       <c r="G39" s="77"/>
     </row>
-    <row r="40" spans="1:7" s="83" customFormat="1">
+    <row r="40" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="86">
         <v>22</v>
       </c>
       <c r="B40" s="101">
         <v>44032</v>
       </c>
-      <c r="C40" s="131"/>
-      <c r="D40" s="135"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="134"/>
       <c r="E40" s="87">
         <v>0</v>
       </c>
       <c r="F40" s="88"/>
       <c r="G40" s="77"/>
     </row>
-    <row r="41" spans="1:7" s="97" customFormat="1">
+    <row r="41" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="86">
         <v>23</v>
       </c>
       <c r="B41" s="101">
         <v>44033</v>
       </c>
-      <c r="C41" s="131"/>
-      <c r="D41" s="135"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="134"/>
       <c r="E41" s="87">
         <v>0</v>
       </c>
       <c r="F41" s="88"/>
       <c r="G41" s="77"/>
     </row>
-    <row r="42" spans="1:7" s="65" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:7" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="86">
         <v>24</v>
       </c>
       <c r="B42" s="101">
         <v>44034</v>
       </c>
-      <c r="C42" s="131"/>
-      <c r="D42" s="135"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="134"/>
       <c r="E42" s="87">
         <v>0</v>
       </c>
       <c r="F42" s="88"/>
       <c r="G42" s="77"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="86">
         <v>25</v>
       </c>
       <c r="B43" s="101">
         <v>44035</v>
       </c>
-      <c r="C43" s="131"/>
-      <c r="D43" s="135"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="134"/>
       <c r="E43" s="87">
         <v>0</v>
       </c>
       <c r="F43" s="88"/>
       <c r="G43" s="77"/>
     </row>
-    <row r="44" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="86">
         <v>27</v>
       </c>
-      <c r="B44" s="159"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="135"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="134"/>
       <c r="E44" s="87">
         <v>0</v>
       </c>
       <c r="F44" s="88"/>
       <c r="G44" s="77"/>
     </row>
-    <row r="45" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="102"/>
-      <c r="B45" s="164"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="135"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="87">
         <v>0</v>
       </c>
       <c r="F45" s="88"/>
       <c r="G45" s="77"/>
     </row>
-    <row r="46" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="102"/>
-      <c r="B46" s="160"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="135"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="87">
         <v>0</v>
       </c>
       <c r="F46" s="88"/>
       <c r="G46" s="77"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="86">
         <v>27</v>
       </c>
-      <c r="B47" s="159">
+      <c r="B47" s="160">
         <v>44039</v>
       </c>
-      <c r="C47" s="131"/>
-      <c r="D47" s="135"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="87">
         <v>0</v>
       </c>
       <c r="F47" s="88"/>
       <c r="G47" s="77"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="86">
         <v>27</v>
       </c>
-      <c r="B48" s="160"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="135"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="134"/>
       <c r="E48" s="87">
         <v>0</v>
       </c>
       <c r="F48" s="88"/>
       <c r="G48" s="77"/>
     </row>
-    <row r="49" spans="1:7" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:7" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="86">
         <v>28</v>
       </c>
       <c r="B49" s="101">
         <v>44039</v>
       </c>
-      <c r="C49" s="131"/>
-      <c r="D49" s="135"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="134"/>
       <c r="E49" s="87">
         <v>0</v>
       </c>
       <c r="F49" s="88"/>
       <c r="G49" s="77"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="161">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="163">
         <v>29</v>
       </c>
-      <c r="B50" s="159">
+      <c r="B50" s="160">
         <v>44040</v>
       </c>
-      <c r="C50" s="131"/>
-      <c r="D50" s="135"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="134"/>
       <c r="E50" s="87">
         <v>0</v>
       </c>
       <c r="F50" s="88"/>
       <c r="G50" s="77"/>
     </row>
-    <row r="51" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="162"/>
-      <c r="B51" s="164"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="135"/>
+    <row r="51" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="164"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="134"/>
       <c r="E51" s="87">
         <v>0</v>
       </c>
       <c r="F51" s="88"/>
       <c r="G51" s="77"/>
     </row>
-    <row r="52" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="162"/>
-      <c r="B52" s="164"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="135"/>
+    <row r="52" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="164"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="134"/>
       <c r="E52" s="87">
         <v>0</v>
       </c>
       <c r="F52" s="88"/>
       <c r="G52" s="77"/>
     </row>
-    <row r="53" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="162"/>
-      <c r="B53" s="164"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="135"/>
+    <row r="53" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="164"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="134"/>
       <c r="E53" s="87">
         <v>0</v>
       </c>
       <c r="F53" s="88"/>
       <c r="G53" s="77"/>
     </row>
-    <row r="54" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="162"/>
-      <c r="B54" s="164"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="135"/>
+    <row r="54" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="164"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="134"/>
       <c r="E54" s="87">
         <v>0</v>
       </c>
       <c r="F54" s="88"/>
       <c r="G54" s="77"/>
     </row>
-    <row r="55" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="163"/>
-      <c r="B55" s="160"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="135"/>
+    <row r="55" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="165"/>
+      <c r="B55" s="162"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="134"/>
       <c r="E55" s="87">
         <v>0</v>
       </c>
       <c r="F55" s="88"/>
       <c r="G55" s="77"/>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="86">
         <v>30</v>
       </c>
       <c r="B56" s="101">
         <v>44041</v>
       </c>
-      <c r="C56" s="131"/>
-      <c r="D56" s="135"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="134"/>
       <c r="E56" s="87">
         <v>0</v>
       </c>
       <c r="F56" s="88"/>
       <c r="G56" s="77"/>
     </row>
-    <row r="57" spans="1:7" s="69" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:7" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="86">
         <v>32</v>
       </c>
-      <c r="B57" s="159">
+      <c r="B57" s="160">
         <v>44042</v>
       </c>
-      <c r="C57" s="131"/>
-      <c r="D57" s="135"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="134"/>
       <c r="E57" s="87">
         <v>0</v>
       </c>
       <c r="F57" s="88"/>
       <c r="G57" s="77"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="86"/>
-      <c r="B58" s="160"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="135"/>
+      <c r="B58" s="162"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="134"/>
       <c r="E58" s="87">
         <v>0</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="77"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <v>35</v>
       </c>
@@ -6359,7 +6493,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="123"/>
-      <c r="D59" s="137"/>
+      <c r="D59" s="136"/>
       <c r="E59" s="87">
         <f>SUM(E5:E58)</f>
         <v>56230000</v>
@@ -6370,17 +6504,23 @@
       </c>
       <c r="G59" s="78"/>
     </row>
-    <row r="60" spans="1:7" s="93" customFormat="1">
+    <row r="60" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="84"/>
       <c r="B60" s="20"/>
-      <c r="C60" s="133"/>
-      <c r="D60" s="134"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="133"/>
       <c r="E60" s="74"/>
       <c r="F60" s="81"/>
       <c r="G60" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B50:B55"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="B57:B58"/>
@@ -6397,16 +6537,10 @@
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6421,27 +6555,27 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="115"/>
+    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="115"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="29">
-      <c r="A2" s="166" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="167" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -6461,7 +6595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -6469,7 +6603,7 @@
         <v>44013</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="26">
         <v>200</v>
@@ -6479,7 +6613,7 @@
       </c>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>2</v>
       </c>
@@ -6491,9 +6625,9 @@
       <c r="E6" s="42"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" s="105" customFormat="1" hidden="1">
+    <row r="7" spans="1:6" s="105" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
-      <c r="B7" s="167">
+      <c r="B7" s="168">
         <v>44015</v>
       </c>
       <c r="C7" s="34"/>
@@ -6501,17 +6635,17 @@
       <c r="E7" s="42"/>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="168"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="42"/>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6" s="72" customFormat="1" hidden="1">
+    <row r="9" spans="1:6" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>4</v>
       </c>
@@ -6523,7 +6657,7 @@
       <c r="E9" s="42"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>5</v>
       </c>
@@ -6531,17 +6665,17 @@
         <v>44017</v>
       </c>
       <c r="C10" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>121</v>
       </c>
       <c r="E10" s="42">
         <v>50000</v>
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>7</v>
       </c>
@@ -6553,7 +6687,7 @@
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>7</v>
       </c>
@@ -6565,7 +6699,7 @@
       <c r="E12" s="42"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>8</v>
       </c>
@@ -6577,7 +6711,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>9</v>
       </c>
@@ -6589,7 +6723,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6" s="82" customFormat="1" hidden="1">
+    <row r="15" spans="1:6" s="82" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>10</v>
       </c>
@@ -6601,7 +6735,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>11</v>
       </c>
@@ -6609,17 +6743,17 @@
         <v>44023</v>
       </c>
       <c r="C16" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>123</v>
       </c>
       <c r="E16" s="42">
         <v>50000</v>
       </c>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>12</v>
       </c>
@@ -6631,7 +6765,7 @@
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>13</v>
       </c>
@@ -6643,7 +6777,7 @@
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>14</v>
       </c>
@@ -6655,7 +6789,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>15</v>
       </c>
@@ -6667,7 +6801,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6" s="73" customFormat="1">
+    <row r="21" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>17</v>
       </c>
@@ -6675,7 +6809,7 @@
         <v>44028</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="34">
         <v>200</v>
@@ -6685,7 +6819,7 @@
       </c>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>17</v>
       </c>
@@ -6697,7 +6831,7 @@
       <c r="E22" s="42"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>18</v>
       </c>
@@ -6709,7 +6843,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>19</v>
       </c>
@@ -6717,17 +6851,17 @@
         <v>44031</v>
       </c>
       <c r="C24" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>124</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>125</v>
       </c>
       <c r="E24" s="42">
         <v>30000</v>
       </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>20</v>
       </c>
@@ -6739,7 +6873,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>21</v>
       </c>
@@ -6751,7 +6885,7 @@
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>22</v>
       </c>
@@ -6763,7 +6897,7 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>23</v>
       </c>
@@ -6775,7 +6909,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>24</v>
       </c>
@@ -6787,11 +6921,11 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="93" customFormat="1">
+    <row r="30" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>25</v>
       </c>
-      <c r="B30" s="169">
+      <c r="B30" s="170">
         <v>44039</v>
       </c>
       <c r="C30" s="34"/>
@@ -6799,17 +6933,17 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="93" customFormat="1">
+    <row r="31" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>27</v>
       </c>
-      <c r="B31" s="170"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -6821,7 +6955,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="69" customFormat="1">
+    <row r="33" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>28</v>
       </c>
@@ -6833,7 +6967,7 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="69" customFormat="1">
+    <row r="34" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>29</v>
       </c>
@@ -6845,7 +6979,7 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>30</v>
       </c>
@@ -6857,7 +6991,7 @@
       <c r="E35" s="42"/>
       <c r="F35" s="34"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>31</v>
       </c>
@@ -6869,7 +7003,7 @@
       <c r="E36" s="42"/>
       <c r="F36" s="34"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>32</v>
       </c>
@@ -6907,25 +7041,25 @@
       <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20">
-      <c r="B2" s="171" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-    </row>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -6942,146 +7076,146 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="103" customFormat="1">
+    <row r="4" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>59</v>
       </c>
       <c r="E4" s="98">
         <v>5825000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="110" customFormat="1" ht="16">
+    <row r="5" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="112">
         <v>44019</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="88">
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="110" customFormat="1" ht="16">
+    <row r="6" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="88">
         <v>1032000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="110" customFormat="1" ht="16">
+    <row r="7" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="88">
         <v>780000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="75" customFormat="1">
+    <row r="8" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
       <c r="E8" s="48">
         <f>SUM(E4:E7)</f>
         <v>9137000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="63"/>
       <c r="D10" s="63"/>
       <c r="E10" s="63"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" s="63"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" s="63"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -7101,21 +7235,21 @@
       <c r="U21" s="60"/>
       <c r="V21" s="60"/>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="K22" s="63"/>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="K23" s="63"/>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -7123,20 +7257,20 @@
       <c r="F24" s="8"/>
       <c r="K24" s="63"/>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="K25" s="63"/>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -7147,7 +7281,7 @@
       <c r="R27" s="63"/>
       <c r="S27" s="63"/>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -7158,28 +7292,28 @@
       <c r="R28" s="63"/>
       <c r="S28" s="63"/>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="O29" s="63"/>
       <c r="P29" s="63"/>
       <c r="Q29" s="63"/>
       <c r="R29" s="63"/>
       <c r="S29" s="63"/>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="O30" s="63"/>
       <c r="P30" s="63"/>
       <c r="Q30" s="63"/>
       <c r="R30" s="63"/>
       <c r="S30" s="63"/>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="O31" s="63"/>
       <c r="P31" s="63"/>
       <c r="Q31" s="63"/>
       <c r="R31" s="63"/>
       <c r="S31" s="63"/>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="O32" s="63"/>
       <c r="P32" s="63"/>
       <c r="Q32" s="63"/>
@@ -7205,45 +7339,45 @@
   </sheetPr>
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="29">
-      <c r="B2" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="174" t="s">
+    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="167" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
@@ -7254,7 +7388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="31">
         <v>1</v>
       </c>
@@ -7263,17 +7397,17 @@
       </c>
       <c r="D8" s="42">
         <f>'khám bệnh'!D37+'khám bệnh'!F37+'khám bệnh'!H37</f>
-        <v>63100000</v>
+        <v>79700000</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="47">
         <f>SUM(D8,D9)</f>
-        <v>87650000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>107420000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="31">
         <v>2</v>
       </c>
@@ -7282,7 +7416,7 @@
       </c>
       <c r="D9" s="42">
         <f>'khám bệnh'!Y37</f>
-        <v>24550000</v>
+        <v>27720000</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
@@ -7293,7 +7427,7 @@
         <v>37724000</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="31">
         <v>3</v>
       </c>
@@ -7301,7 +7435,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="42">
-        <f>thuốc!D34</f>
+        <f>thuốc!D35</f>
         <v>94184000</v>
       </c>
       <c r="G10" s="23" t="s">
@@ -7312,7 +7446,7 @@
         <v>34361000</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>4</v>
       </c>
@@ -7321,25 +7455,25 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>181834000</v>
+        <v>201604000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="175" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-    </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
-    <row r="16" spans="2:8">
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+    </row>
+    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -7353,11 +7487,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="180" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7367,11 +7501,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="179"/>
+      <c r="C18" s="180"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7379,23 +7513,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="179"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="179"/>
+      <c r="C20" s="180"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7404,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1">
+    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
         <v>7</v>
       </c>
@@ -7419,7 +7553,7 @@
         <v>56230000</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
         <v>7</v>
       </c>
@@ -7434,62 +7568,62 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="180" t="s">
+      <c r="C23" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="181"/>
+      <c r="D23" s="182"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
         <v>56460000</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="16" thickBot="1">
-      <c r="B26" s="174" t="s">
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-    </row>
-    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B27" s="176">
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+    </row>
+    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="177">
         <f>SUM(D11,-E23)</f>
-        <v>125374000</v>
-      </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
+        <v>145144000</v>
+      </c>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="179"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="15:15">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="15:15">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="15:15">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="15:15">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -7516,168 +7650,168 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="184" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="175" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="175"/>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="185" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="176"/>
       <c r="D2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="110" customFormat="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="111"/>
       <c r="B3" s="111"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="47">
         <f>E4</f>
         <v>94184000</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="47">
-        <f>thuốc!D34</f>
+        <f>thuốc!D35</f>
         <v>94184000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="47">
         <f>chi!E37+nhập!E59</f>
         <v>56460000</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="47">
-        <f>thuốc!C34</f>
+        <f>thuốc!C35</f>
         <v>64506641</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
         <v>37724000</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="47">
         <f>E4-E5</f>
         <v>29677359</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="175" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="182" t="s">
+      <c r="B9" s="184"/>
+      <c r="C9" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="184"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="182" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="183"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="B10" s="47">
         <f>B7</f>
         <v>0</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="47">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="116"/>
       <c r="C11" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="47">
         <f>E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="47"/>
       <c r="C12" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="47"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="B13" s="47">
         <f>B10+B11</f>
         <v>0</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="47">
         <f>D12+D11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <f>B13-D13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
   </sheetData>

--- a/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC688A98-E4F4-4251-AB1E-6FA288226C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215039C5-E4AC-4F61-8692-D704F6D19F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="151">
   <si>
     <t>STT</t>
   </si>
@@ -425,6 +425,69 @@
   </si>
   <si>
     <t>Bs Hương T:0 ; H:1</t>
+  </si>
+  <si>
+    <t>Zithromax</t>
+  </si>
+  <si>
+    <t>Anaferon</t>
+  </si>
+  <si>
+    <t>Bisolvon</t>
+  </si>
+  <si>
+    <t>Aquadetrim</t>
+  </si>
+  <si>
+    <t>Fosmicin</t>
+  </si>
+  <si>
+    <t>Fucidin</t>
+  </si>
+  <si>
+    <t>Medrol 16mg</t>
+  </si>
+  <si>
+    <t>seretide 25/125</t>
+  </si>
+  <si>
+    <t>Special Kid</t>
+  </si>
+  <si>
+    <t>Babycanyl</t>
+  </si>
+  <si>
+    <t>maxitrol</t>
+  </si>
+  <si>
+    <t>ORS</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>500c</t>
+  </si>
+  <si>
+    <t>Thanh toán mã ngày 11/07/2020</t>
+  </si>
+  <si>
+    <t>khẩu trang</t>
+  </si>
+  <si>
+    <t>6 hộp</t>
+  </si>
+  <si>
+    <t>Nước rửa tay</t>
+  </si>
+  <si>
+    <t>Cồn</t>
+  </si>
+  <si>
+    <t>1 lọ</t>
+  </si>
+  <si>
+    <t>2 lọ</t>
   </si>
 </sst>
 </file>
@@ -737,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1056,9 +1119,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1072,15 +1132,20 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1092,6 +1157,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1115,15 +1183,18 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,6 +1205,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1194,7 +1268,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1584,99 +1666,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:42" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="145" t="s">
+      <c r="A4" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="157" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="144" t="s">
+      <c r="F4" s="161"/>
+      <c r="G4" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="144"/>
-      <c r="K4" s="151" t="s">
+      <c r="J4" s="153"/>
+      <c r="K4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="151"/>
-      <c r="M4" s="144" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144" t="s">
+      <c r="N4" s="153"/>
+      <c r="O4" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144" t="s">
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144" t="s">
+      <c r="R4" s="153"/>
+      <c r="S4" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="144"/>
-      <c r="U4" s="152" t="s">
+      <c r="T4" s="153"/>
+      <c r="U4" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="152"/>
-      <c r="W4" s="155" t="s">
+      <c r="V4" s="155"/>
+      <c r="W4" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="153" t="s">
+      <c r="X4" s="159"/>
+      <c r="Y4" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="150" t="s">
+      <c r="Z4" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="144" t="s">
+      <c r="AA4" s="153" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="144"/>
-      <c r="B5" s="145"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1743,9 +1825,9 @@
       <c r="X5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="154"/>
-      <c r="Z5" s="150"/>
-      <c r="AA5" s="144"/>
+      <c r="Y5" s="157"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="153"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -1851,7 +1933,7 @@
         <v>30000</v>
       </c>
       <c r="Z6" s="17">
-        <f>SUM(D6,H6,Y6,F6)</f>
+        <f t="shared" ref="Z6:Z36" si="0">SUM(D6,H6,Y6,F6)</f>
         <v>1730000</v>
       </c>
       <c r="AA6" s="68"/>
@@ -1867,85 +1949,85 @@
         <v>8</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" ref="D7:D36" si="0">PRODUCT(C7,200000)</f>
+        <f t="shared" ref="D7:D36" si="1">PRODUCT(C7,200000)</f>
         <v>1600000</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" ref="F7:F36" si="1">PRODUCT(E7,100000)</f>
+        <f t="shared" ref="F7:F36" si="2">PRODUCT(E7,100000)</f>
         <v>100000</v>
       </c>
       <c r="G7" s="118">
         <v>0</v>
       </c>
       <c r="H7" s="40">
-        <f t="shared" ref="H7:H36" si="2">PRODUCT(G7,300000)</f>
+        <f t="shared" ref="H7:H36" si="3">PRODUCT(G7,300000)</f>
         <v>0</v>
       </c>
       <c r="I7" s="40">
         <v>0</v>
       </c>
       <c r="J7" s="40">
-        <f t="shared" ref="J7:J36" si="3">PRODUCT(I8,150000)</f>
+        <f t="shared" ref="J7:J36" si="4">PRODUCT(I8,150000)</f>
         <v>0</v>
       </c>
       <c r="K7" s="119">
         <v>0</v>
       </c>
       <c r="L7" s="41">
-        <f t="shared" ref="L7:L36" si="4">PRODUCT(K7,30000)</f>
+        <f t="shared" ref="L7:L36" si="5">PRODUCT(K7,30000)</f>
         <v>0</v>
       </c>
       <c r="M7" s="14">
         <v>0</v>
       </c>
       <c r="N7" s="16">
-        <f t="shared" ref="N7:N36" si="5">PRODUCT(M7,300000)</f>
+        <f t="shared" ref="N7:N36" si="6">PRODUCT(M7,300000)</f>
         <v>0</v>
       </c>
       <c r="O7" s="14">
         <v>0</v>
       </c>
       <c r="P7" s="19">
-        <f t="shared" ref="P7:P36" si="6">PRODUCT(O7,600000)</f>
+        <f t="shared" ref="P7:P36" si="7">PRODUCT(O7,600000)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="14">
         <v>0</v>
       </c>
       <c r="R7" s="14">
-        <f t="shared" ref="R7:R36" si="7">PRODUCT(Q7,30000)</f>
+        <f t="shared" ref="R7:R36" si="8">PRODUCT(Q7,30000)</f>
         <v>0</v>
       </c>
       <c r="S7" s="13">
         <v>0</v>
       </c>
       <c r="T7" s="12">
-        <f t="shared" ref="T7:T36" si="8">PRODUCT(S7,50000)</f>
+        <f t="shared" ref="T7:T36" si="9">PRODUCT(S7,50000)</f>
         <v>0</v>
       </c>
       <c r="U7" s="120">
         <v>0</v>
       </c>
       <c r="V7" s="120">
-        <f t="shared" ref="V7:V36" si="9">PRODUCT(U7,700000)</f>
+        <f t="shared" ref="V7:V36" si="10">PRODUCT(U7,700000)</f>
         <v>0</v>
       </c>
       <c r="W7" s="120">
         <v>0</v>
       </c>
       <c r="X7" s="18">
-        <f t="shared" ref="X7:X36" si="10">PRODUCT(W7,1300000)</f>
+        <f t="shared" ref="X7:X36" si="11">PRODUCT(W7,1300000)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="18">
-        <f t="shared" ref="Y7:Y36" si="11">SUM(L7,N7,P7,R7,T7,V7,X7)</f>
+        <f t="shared" ref="Y7:Y36" si="12">SUM(L7,N7,P7,R7,T7,V7,X7)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="17">
-        <f>SUM(D7,H7,Y7,F7)</f>
+        <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
       <c r="AA7" s="85"/>
@@ -1961,85 +2043,85 @@
         <v>5</v>
       </c>
       <c r="D8" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E8" s="17">
         <v>0</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="118">
         <v>3</v>
       </c>
       <c r="H8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900000</v>
       </c>
       <c r="I8" s="40">
         <v>0</v>
       </c>
       <c r="J8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="119">
         <v>0</v>
       </c>
       <c r="L8" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M8" s="14">
         <v>2</v>
       </c>
       <c r="N8" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>600000</v>
       </c>
       <c r="O8" s="14">
         <v>0</v>
       </c>
       <c r="P8" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q8" s="14">
         <v>0</v>
       </c>
       <c r="R8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S8" s="13">
         <v>0</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U8" s="120">
         <v>0</v>
       </c>
       <c r="V8" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W8" s="120">
         <v>0</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>600000</v>
       </c>
       <c r="Z8" s="17">
-        <f>SUM(D8,H8,Y8,F8)</f>
+        <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
       <c r="AA8" s="85"/>
@@ -2068,85 +2150,85 @@
         <v>4</v>
       </c>
       <c r="D9" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800000</v>
       </c>
       <c r="E9" s="17">
         <v>0</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="118">
         <v>17</v>
       </c>
       <c r="H9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5100000</v>
       </c>
       <c r="I9" s="40">
         <v>0</v>
       </c>
       <c r="J9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="119">
         <v>2</v>
       </c>
       <c r="L9" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
       <c r="M9" s="14">
         <v>10</v>
       </c>
       <c r="N9" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3000000</v>
       </c>
       <c r="O9" s="14">
         <v>2</v>
       </c>
       <c r="P9" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1200000</v>
       </c>
       <c r="Q9" s="14">
         <v>0</v>
       </c>
       <c r="R9" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S9" s="13">
         <v>0</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U9" s="120">
         <v>0</v>
       </c>
       <c r="V9" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W9" s="120">
         <v>0</v>
       </c>
       <c r="X9" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y9" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4260000</v>
       </c>
       <c r="Z9" s="17">
-        <f>SUM(D9,H9,Y9,F9)</f>
+        <f t="shared" si="0"/>
         <v>10160000</v>
       </c>
       <c r="AA9" s="85"/>
@@ -2162,85 +2244,85 @@
         <v>4</v>
       </c>
       <c r="D10" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800000</v>
       </c>
       <c r="E10" s="17">
         <v>0</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G10" s="118">
         <v>11</v>
       </c>
       <c r="H10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3300000</v>
       </c>
       <c r="I10" s="40">
         <v>0</v>
       </c>
       <c r="J10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="119">
         <v>0</v>
       </c>
       <c r="L10" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M10" s="14">
         <v>10</v>
       </c>
       <c r="N10" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3000000</v>
       </c>
       <c r="O10" s="14">
         <v>1</v>
       </c>
       <c r="P10" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600000</v>
       </c>
       <c r="Q10" s="14">
         <v>0</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S10" s="13">
         <v>0</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U10" s="120">
         <v>0</v>
       </c>
       <c r="V10" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W10" s="120">
         <v>0</v>
       </c>
       <c r="X10" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y10" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3600000</v>
       </c>
       <c r="Z10" s="17">
-        <f>SUM(D10,H10,Y10,F10)</f>
+        <f t="shared" si="0"/>
         <v>7700000</v>
       </c>
       <c r="AA10" s="85"/>
@@ -2256,85 +2338,85 @@
         <v>5</v>
       </c>
       <c r="D11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E11" s="17">
         <v>0</v>
       </c>
       <c r="F11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="118">
         <v>4</v>
       </c>
       <c r="H11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200000</v>
       </c>
       <c r="I11" s="40">
         <v>0</v>
       </c>
       <c r="J11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="119">
         <v>0</v>
       </c>
       <c r="L11" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M11" s="14">
         <v>0</v>
       </c>
       <c r="N11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O11" s="14">
         <v>1</v>
       </c>
       <c r="P11" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600000</v>
       </c>
       <c r="Q11" s="14">
         <v>0</v>
       </c>
       <c r="R11" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S11" s="13">
         <v>0</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U11" s="120">
         <v>0</v>
       </c>
       <c r="V11" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W11" s="120">
         <v>0</v>
       </c>
       <c r="X11" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y11" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>600000</v>
       </c>
       <c r="Z11" s="17">
-        <f>SUM(D11,H11,Y11,F11)</f>
+        <f t="shared" si="0"/>
         <v>2800000</v>
       </c>
       <c r="AA11" s="85"/>
@@ -2350,85 +2432,85 @@
         <v>10</v>
       </c>
       <c r="D12" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="E12" s="17">
         <v>4</v>
       </c>
       <c r="F12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
       <c r="G12" s="118">
         <v>2</v>
       </c>
       <c r="H12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
       <c r="I12" s="40">
         <v>0</v>
       </c>
       <c r="J12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K12" s="119">
         <v>0</v>
       </c>
       <c r="L12" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M12" s="14">
         <v>2</v>
       </c>
       <c r="N12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>600000</v>
       </c>
       <c r="O12" s="14">
         <v>0</v>
       </c>
       <c r="P12" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q12" s="14">
         <v>0</v>
       </c>
       <c r="R12" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S12" s="13">
         <v>0</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U12" s="120">
         <v>0</v>
       </c>
       <c r="V12" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W12" s="120">
         <v>0</v>
       </c>
       <c r="X12" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y12" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>600000</v>
       </c>
       <c r="Z12" s="17">
-        <f>SUM(D12,H12,Y12,F12)</f>
+        <f t="shared" si="0"/>
         <v>3600000</v>
       </c>
       <c r="AA12" s="85"/>
@@ -2444,85 +2526,85 @@
         <v>5</v>
       </c>
       <c r="D13" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E13" s="17">
         <v>5</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
       <c r="G13" s="118">
         <v>5</v>
       </c>
       <c r="H13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500000</v>
       </c>
       <c r="I13" s="40">
         <v>0</v>
       </c>
       <c r="J13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K13" s="119">
         <v>0</v>
       </c>
       <c r="L13" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M13" s="14">
         <v>0</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O13" s="14">
         <v>0</v>
       </c>
       <c r="P13" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q13" s="14">
         <v>1</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="S13" s="13">
         <v>0</v>
       </c>
       <c r="T13" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U13" s="120">
         <v>0</v>
       </c>
       <c r="V13" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W13" s="120">
         <v>0</v>
       </c>
       <c r="X13" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y13" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30000</v>
       </c>
       <c r="Z13" s="17">
-        <f>SUM(D13,H13,Y13,F13)</f>
+        <f t="shared" si="0"/>
         <v>3030000</v>
       </c>
       <c r="AA13" s="85" t="s">
@@ -2540,85 +2622,85 @@
         <v>4</v>
       </c>
       <c r="D14" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800000</v>
       </c>
       <c r="E14" s="17">
         <v>0</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="118">
         <v>3</v>
       </c>
       <c r="H14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900000</v>
       </c>
       <c r="I14" s="40">
         <v>0</v>
       </c>
       <c r="J14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K14" s="119">
         <v>0</v>
       </c>
       <c r="L14" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M14" s="14">
         <v>0</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O14" s="14">
         <v>0</v>
       </c>
       <c r="P14" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q14" s="14">
         <v>0</v>
       </c>
       <c r="R14" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S14" s="13">
         <v>0</v>
       </c>
       <c r="T14" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U14" s="120">
         <v>0</v>
       </c>
       <c r="V14" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W14" s="120">
         <v>0</v>
       </c>
       <c r="X14" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y14" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z14" s="17">
-        <f>SUM(D14,H14,Y14,F14)</f>
+        <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
       <c r="AA14" s="85"/>
@@ -2636,85 +2718,85 @@
         <v>11</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2200000</v>
       </c>
       <c r="E15" s="17">
         <v>0</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="118">
         <v>4</v>
       </c>
       <c r="H15" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200000</v>
       </c>
       <c r="I15" s="40">
         <v>0</v>
       </c>
       <c r="J15" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K15" s="119">
         <v>0</v>
       </c>
       <c r="L15" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15" s="14">
         <v>0</v>
       </c>
       <c r="N15" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O15" s="14">
         <v>0</v>
       </c>
       <c r="P15" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q15" s="14">
         <v>0</v>
       </c>
       <c r="R15" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S15" s="13">
         <v>0</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U15" s="120">
         <v>0</v>
       </c>
       <c r="V15" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W15" s="120">
         <v>0</v>
       </c>
       <c r="X15" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y15" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z15" s="17">
-        <f>SUM(D15,H15,Y15,F15)</f>
+        <f t="shared" si="0"/>
         <v>3400000</v>
       </c>
       <c r="AA15" s="92"/>
@@ -2732,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="E16" s="17">
@@ -2746,71 +2828,71 @@
         <v>9</v>
       </c>
       <c r="H16" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2700000</v>
       </c>
       <c r="I16" s="40">
         <v>0</v>
       </c>
       <c r="J16" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16" s="119">
         <v>0</v>
       </c>
       <c r="L16" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M16" s="14">
         <v>0</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O16" s="14">
         <v>0</v>
       </c>
       <c r="P16" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q16" s="14">
         <v>0</v>
       </c>
       <c r="R16" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S16" s="13">
         <v>0</v>
       </c>
       <c r="T16" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U16" s="120">
         <v>0</v>
       </c>
       <c r="V16" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W16" s="120">
         <v>0</v>
       </c>
       <c r="X16" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y16" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z16" s="17">
-        <f>SUM(D16,H16,Y16,F16)</f>
+        <f t="shared" si="0"/>
         <v>3400000</v>
       </c>
       <c r="AA16" s="92"/>
@@ -2828,85 +2910,85 @@
         <v>7</v>
       </c>
       <c r="D17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1400000</v>
       </c>
       <c r="E17" s="17">
         <v>1</v>
       </c>
       <c r="F17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="G17" s="118">
         <v>19</v>
       </c>
       <c r="H17" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5700000</v>
       </c>
       <c r="I17" s="40">
         <v>0</v>
       </c>
       <c r="J17" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17" s="119">
         <v>1</v>
       </c>
       <c r="L17" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
       <c r="M17" s="14">
         <v>13</v>
       </c>
       <c r="N17" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3900000</v>
       </c>
       <c r="O17" s="14">
         <v>3</v>
       </c>
       <c r="P17" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1800000</v>
       </c>
       <c r="Q17" s="14">
         <v>0</v>
       </c>
       <c r="R17" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S17" s="13">
         <v>0</v>
       </c>
       <c r="T17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U17" s="120">
         <v>0</v>
       </c>
       <c r="V17" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W17" s="120">
         <v>0</v>
       </c>
       <c r="X17" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y17" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5730000</v>
       </c>
       <c r="Z17" s="17">
-        <f>SUM(D17,H17,Y17,F17)</f>
+        <f t="shared" si="0"/>
         <v>12930000</v>
       </c>
       <c r="AA17" s="92"/>
@@ -2924,85 +3006,85 @@
         <v>8</v>
       </c>
       <c r="D18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1600000</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
       </c>
       <c r="F18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="118">
         <v>2</v>
       </c>
       <c r="H18" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
       <c r="I18" s="40">
         <v>0</v>
       </c>
       <c r="J18" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K18" s="119">
         <v>2</v>
       </c>
       <c r="L18" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
       <c r="M18" s="14">
         <v>0</v>
       </c>
       <c r="N18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O18" s="14">
         <v>0</v>
       </c>
       <c r="P18" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q18" s="14">
         <v>0</v>
       </c>
       <c r="R18" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S18" s="13">
         <v>0</v>
       </c>
       <c r="T18" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U18" s="120">
         <v>0</v>
       </c>
       <c r="V18" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W18" s="120">
         <v>0</v>
       </c>
       <c r="X18" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y18" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="Z18" s="17">
-        <f>SUM(D18,H18,Y18,F18)</f>
+        <f t="shared" si="0"/>
         <v>2260000</v>
       </c>
       <c r="AA18" s="92"/>
@@ -3020,85 +3102,85 @@
         <v>14</v>
       </c>
       <c r="D19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2800000</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="118">
         <v>2</v>
       </c>
       <c r="H19" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
       <c r="I19" s="40">
         <v>0</v>
       </c>
       <c r="J19" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K19" s="119">
         <v>0</v>
       </c>
       <c r="L19" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M19" s="14">
         <v>0</v>
       </c>
       <c r="N19" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O19" s="14">
         <v>0</v>
       </c>
       <c r="P19" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q19" s="14">
         <v>0</v>
       </c>
       <c r="R19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S19" s="13">
         <v>0</v>
       </c>
       <c r="T19" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U19" s="120">
         <v>0</v>
       </c>
       <c r="V19" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W19" s="120">
         <v>0</v>
       </c>
       <c r="X19" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y19" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z19" s="17">
-        <f>SUM(D19,H19,Y19,F19)</f>
+        <f t="shared" si="0"/>
         <v>3400000</v>
       </c>
       <c r="AA19" s="124" t="s">
@@ -3118,85 +3200,85 @@
         <v>11</v>
       </c>
       <c r="D20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2200000</v>
       </c>
       <c r="E20" s="17">
         <v>1</v>
       </c>
       <c r="F20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="G20" s="118">
         <v>6</v>
       </c>
       <c r="H20" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1800000</v>
       </c>
       <c r="I20" s="40">
         <v>0</v>
       </c>
       <c r="J20" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K20" s="119">
         <v>0</v>
       </c>
       <c r="L20" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M20" s="14">
         <v>2</v>
       </c>
       <c r="N20" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>600000</v>
       </c>
       <c r="O20" s="14">
         <v>0</v>
       </c>
       <c r="P20" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q20" s="14">
         <v>0</v>
       </c>
       <c r="R20" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S20" s="13">
         <v>1</v>
       </c>
       <c r="T20" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50000</v>
       </c>
       <c r="U20" s="120">
         <v>0</v>
       </c>
       <c r="V20" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W20" s="120">
         <v>0</v>
       </c>
       <c r="X20" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y20" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>650000</v>
       </c>
       <c r="Z20" s="17">
-        <f>SUM(D20,H20,Y20,F20)</f>
+        <f t="shared" si="0"/>
         <v>4750000</v>
       </c>
       <c r="AA20" s="92"/>
@@ -3214,85 +3296,85 @@
         <v>2</v>
       </c>
       <c r="D21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400000</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
       </c>
       <c r="F21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="118">
         <v>1</v>
       </c>
       <c r="H21" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300000</v>
       </c>
       <c r="I21" s="40">
         <v>0</v>
       </c>
       <c r="J21" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K21" s="119">
         <v>0</v>
       </c>
       <c r="L21" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M21" s="14">
         <v>0</v>
       </c>
       <c r="N21" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O21" s="14">
         <v>1</v>
       </c>
       <c r="P21" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600000</v>
       </c>
       <c r="Q21" s="14">
         <v>0</v>
       </c>
       <c r="R21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S21" s="13">
         <v>0</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U21" s="120">
         <v>0</v>
       </c>
       <c r="V21" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W21" s="120">
         <v>0</v>
       </c>
       <c r="X21" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y21" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>600000</v>
       </c>
       <c r="Z21" s="17">
-        <f>SUM(D21,H21,Y21,F21)</f>
+        <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
       <c r="AA21" s="92"/>
@@ -3310,63 +3392,63 @@
         <v>7</v>
       </c>
       <c r="D22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1400000</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
       </c>
       <c r="F22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="118">
         <v>3</v>
       </c>
       <c r="H22" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900000</v>
       </c>
       <c r="I22" s="40">
         <v>0</v>
       </c>
       <c r="J22" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22" s="119">
         <v>0</v>
       </c>
       <c r="L22" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M22" s="14">
         <v>2</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>600000</v>
       </c>
       <c r="O22" s="14">
         <v>2</v>
       </c>
       <c r="P22" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1200000</v>
       </c>
       <c r="Q22" s="14">
         <v>1</v>
       </c>
       <c r="R22" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="S22" s="13">
         <v>0</v>
       </c>
       <c r="T22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U22" s="120">
@@ -3379,15 +3461,15 @@
         <v>0</v>
       </c>
       <c r="X22" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y22" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2630000</v>
       </c>
       <c r="Z22" s="17">
-        <f>SUM(D22,H22,Y22,F22)</f>
+        <f t="shared" si="0"/>
         <v>4930000</v>
       </c>
       <c r="AA22" s="92"/>
@@ -3405,85 +3487,85 @@
         <v>14</v>
       </c>
       <c r="D23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2800000</v>
       </c>
       <c r="E23" s="17">
         <v>1</v>
       </c>
       <c r="F23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="G23" s="118">
         <v>12</v>
       </c>
       <c r="H23" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="I23" s="40">
         <v>0</v>
       </c>
       <c r="J23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K23" s="119">
         <v>0</v>
       </c>
       <c r="L23" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M23" s="14">
         <v>7</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2100000</v>
       </c>
       <c r="O23" s="14">
         <v>1</v>
       </c>
       <c r="P23" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600000</v>
       </c>
       <c r="Q23" s="14">
         <v>1</v>
       </c>
       <c r="R23" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="S23" s="13">
         <v>0</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U23" s="120">
         <v>0</v>
       </c>
       <c r="V23" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W23" s="120">
         <v>0</v>
       </c>
       <c r="X23" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y23" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2730000</v>
       </c>
       <c r="Z23" s="17">
-        <f>SUM(D23,H23,Y23,F23)</f>
+        <f t="shared" si="0"/>
         <v>9230000</v>
       </c>
       <c r="AA23" s="92"/>
@@ -3501,85 +3583,85 @@
         <v>1</v>
       </c>
       <c r="D24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200000</v>
       </c>
       <c r="E24" s="17">
         <v>1</v>
       </c>
       <c r="F24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="G24" s="118">
         <v>12</v>
       </c>
       <c r="H24" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
       <c r="I24" s="40">
         <v>0</v>
       </c>
       <c r="J24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K24" s="119">
         <v>0</v>
       </c>
       <c r="L24" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M24" s="14">
         <v>7</v>
       </c>
       <c r="N24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2100000</v>
       </c>
       <c r="O24" s="14">
         <v>0</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q24" s="14">
         <v>2</v>
       </c>
       <c r="R24" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60000</v>
       </c>
       <c r="S24" s="13">
         <v>0</v>
       </c>
       <c r="T24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U24" s="120">
         <v>0</v>
       </c>
       <c r="V24" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W24" s="120">
         <v>0</v>
       </c>
       <c r="X24" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y24" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2160000</v>
       </c>
       <c r="Z24" s="17">
-        <f>SUM(D24,H24,Y24,F24)</f>
+        <f t="shared" si="0"/>
         <v>6060000</v>
       </c>
       <c r="AA24" s="92"/>
@@ -3597,85 +3679,85 @@
         <v>11</v>
       </c>
       <c r="D25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2200000</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>
       </c>
       <c r="F25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="118">
         <v>1</v>
       </c>
       <c r="H25" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300000</v>
       </c>
       <c r="I25" s="40">
         <v>0</v>
       </c>
       <c r="J25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K25" s="119">
         <v>0</v>
       </c>
       <c r="L25" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M25" s="14">
         <v>1</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
       <c r="O25" s="14">
         <v>0</v>
       </c>
       <c r="P25" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q25" s="14">
         <v>0</v>
       </c>
       <c r="R25" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S25" s="13">
         <v>0</v>
       </c>
       <c r="T25" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U25" s="120">
         <v>0</v>
       </c>
       <c r="V25" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W25" s="120">
         <v>0</v>
       </c>
       <c r="X25" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>300000</v>
       </c>
       <c r="Z25" s="17">
-        <f>SUM(D25,H25,Y25,F25)</f>
+        <f t="shared" si="0"/>
         <v>2800000</v>
       </c>
       <c r="AA25" s="92"/>
@@ -3693,85 +3775,85 @@
         <v>3</v>
       </c>
       <c r="D26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="E26" s="17">
         <v>1</v>
       </c>
       <c r="F26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="G26" s="118">
         <v>4</v>
       </c>
       <c r="H26" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200000</v>
       </c>
       <c r="I26" s="40">
         <v>0</v>
       </c>
       <c r="J26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K26" s="119">
         <v>1</v>
       </c>
       <c r="L26" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
       <c r="M26" s="14">
         <v>1</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
       <c r="O26" s="14">
         <v>0</v>
       </c>
       <c r="P26" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q26" s="14">
         <v>0</v>
       </c>
       <c r="R26" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S26" s="13">
         <v>0</v>
       </c>
       <c r="T26" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U26" s="120">
         <v>0</v>
       </c>
       <c r="V26" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W26" s="120">
         <v>0</v>
       </c>
       <c r="X26" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y26" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330000</v>
       </c>
       <c r="Z26" s="17">
-        <f>SUM(D26,H26,Y26,F26)</f>
+        <f t="shared" si="0"/>
         <v>2230000</v>
       </c>
       <c r="AA26" s="92"/>
@@ -3789,88 +3871,88 @@
         <v>3</v>
       </c>
       <c r="D27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="E27" s="17">
         <v>0</v>
       </c>
       <c r="F27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="118">
         <v>2</v>
       </c>
       <c r="H27" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
       <c r="I27" s="40">
         <v>0</v>
       </c>
       <c r="J27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K27" s="119">
         <v>0</v>
       </c>
       <c r="L27" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M27" s="14">
         <v>0</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O27" s="14">
         <v>0</v>
       </c>
       <c r="P27" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q27" s="14">
         <v>0</v>
       </c>
       <c r="R27" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S27" s="13">
         <v>1</v>
       </c>
       <c r="T27" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50000</v>
       </c>
       <c r="U27" s="120">
         <v>0</v>
       </c>
       <c r="V27" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W27" s="120">
         <v>0</v>
       </c>
       <c r="X27" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y27" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50000</v>
       </c>
       <c r="Z27" s="17">
-        <f>SUM(D27,H27,Y27,F27)</f>
+        <f t="shared" si="0"/>
         <v>1250000</v>
       </c>
-      <c r="AA27" s="143" t="s">
+      <c r="AA27" s="142" t="s">
         <v>129</v>
       </c>
       <c r="AB27" s="11"/>
@@ -3887,85 +3969,85 @@
         <v>8</v>
       </c>
       <c r="D28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1600000</v>
       </c>
       <c r="E28" s="17">
         <v>0</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="118">
         <v>2</v>
       </c>
       <c r="H28" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
       <c r="I28" s="40">
         <v>0</v>
       </c>
       <c r="J28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K28" s="119">
         <v>1</v>
       </c>
       <c r="L28" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
       <c r="M28" s="14">
         <v>1</v>
       </c>
       <c r="N28" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
       <c r="O28" s="14">
         <v>0</v>
       </c>
       <c r="P28" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q28" s="14">
         <v>0</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S28" s="13">
         <v>0</v>
       </c>
       <c r="T28" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U28" s="120">
         <v>0</v>
       </c>
       <c r="V28" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W28" s="120">
         <v>0</v>
       </c>
       <c r="X28" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y28" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330000</v>
       </c>
       <c r="Z28" s="17">
-        <f>SUM(D28,H28,Y28,F28)</f>
+        <f t="shared" si="0"/>
         <v>2530000</v>
       </c>
       <c r="AA28" s="92"/>
@@ -3983,85 +4065,85 @@
         <v>6</v>
       </c>
       <c r="D29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1200000</v>
       </c>
       <c r="E29" s="17">
         <v>0</v>
       </c>
       <c r="F29" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="118">
         <v>4</v>
       </c>
       <c r="H29" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200000</v>
       </c>
       <c r="I29" s="40">
         <v>0</v>
       </c>
       <c r="J29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K29" s="119">
         <v>0</v>
       </c>
       <c r="L29" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M29" s="14">
         <v>1</v>
       </c>
       <c r="N29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
       <c r="O29" s="14">
         <v>0</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q29" s="14">
         <v>0</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S29" s="13">
         <v>0</v>
       </c>
       <c r="T29" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U29" s="120">
         <v>0</v>
       </c>
       <c r="V29" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W29" s="120">
         <v>0</v>
       </c>
       <c r="X29" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y29" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>300000</v>
       </c>
       <c r="Z29" s="17">
-        <f>SUM(D29,H29,Y29,F29)</f>
+        <f t="shared" si="0"/>
         <v>2700000</v>
       </c>
       <c r="AA29" s="92"/>
@@ -4079,85 +4161,85 @@
         <v>0</v>
       </c>
       <c r="D30" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="118">
+        <v>0</v>
+      </c>
+      <c r="H30" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="40">
+        <v>0</v>
+      </c>
+      <c r="J30" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="119">
+        <v>0</v>
+      </c>
+      <c r="L30" s="41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="13">
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="120">
+        <v>0</v>
+      </c>
+      <c r="V30" s="120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="120">
+        <v>0</v>
+      </c>
+      <c r="X30" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="118">
-        <v>0</v>
-      </c>
-      <c r="H30" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="40">
-        <v>0</v>
-      </c>
-      <c r="J30" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="119">
-        <v>0</v>
-      </c>
-      <c r="L30" s="41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="14">
-        <v>0</v>
-      </c>
-      <c r="N30" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="14">
-        <v>0</v>
-      </c>
-      <c r="P30" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>0</v>
-      </c>
-      <c r="R30" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="13">
-        <v>0</v>
-      </c>
-      <c r="T30" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="120">
-        <v>0</v>
-      </c>
-      <c r="V30" s="120">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="120">
-        <v>0</v>
-      </c>
-      <c r="X30" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="17">
-        <f>SUM(D30,H30,Y30,F30)</f>
         <v>0</v>
       </c>
       <c r="AA30" s="92"/>
@@ -4175,85 +4257,85 @@
         <v>0</v>
       </c>
       <c r="D31" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="118">
+        <v>0</v>
+      </c>
+      <c r="H31" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="40">
+        <v>0</v>
+      </c>
+      <c r="J31" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="119">
+        <v>0</v>
+      </c>
+      <c r="L31" s="41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="13">
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="120">
+        <v>0</v>
+      </c>
+      <c r="V31" s="120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="120">
+        <v>0</v>
+      </c>
+      <c r="X31" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="118">
-        <v>0</v>
-      </c>
-      <c r="H31" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="40">
-        <v>0</v>
-      </c>
-      <c r="J31" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="119">
-        <v>0</v>
-      </c>
-      <c r="L31" s="41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="14">
-        <v>0</v>
-      </c>
-      <c r="N31" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="14">
-        <v>0</v>
-      </c>
-      <c r="P31" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>0</v>
-      </c>
-      <c r="R31" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="13">
-        <v>0</v>
-      </c>
-      <c r="T31" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="120">
-        <v>0</v>
-      </c>
-      <c r="V31" s="120">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="120">
-        <v>0</v>
-      </c>
-      <c r="X31" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="17">
-        <f>SUM(D31,H31,Y31,F31)</f>
         <v>0</v>
       </c>
       <c r="AA31" s="92"/>
@@ -4271,85 +4353,85 @@
         <v>7</v>
       </c>
       <c r="D32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1400000</v>
       </c>
       <c r="E32" s="17">
         <v>0</v>
       </c>
       <c r="F32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="118">
         <v>5</v>
       </c>
       <c r="H32" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500000</v>
       </c>
       <c r="I32" s="40">
         <v>0</v>
       </c>
       <c r="J32" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K32" s="119">
         <v>1</v>
       </c>
       <c r="L32" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
       <c r="M32" s="14">
         <v>2</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>600000</v>
       </c>
       <c r="O32" s="14">
         <v>0</v>
       </c>
       <c r="P32" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q32" s="14">
         <v>1</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="S32" s="13">
         <v>0</v>
       </c>
       <c r="T32" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U32" s="120">
         <v>0</v>
       </c>
       <c r="V32" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W32" s="120">
         <v>0</v>
       </c>
       <c r="X32" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y32" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>660000</v>
       </c>
       <c r="Z32" s="17">
-        <f>SUM(D32,H32,Y32,F32)</f>
+        <f t="shared" si="0"/>
         <v>3560000</v>
       </c>
       <c r="AA32" s="92"/>
@@ -4367,85 +4449,85 @@
         <v>4</v>
       </c>
       <c r="D33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800000</v>
       </c>
       <c r="E33" s="17">
         <v>0</v>
       </c>
       <c r="F33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="118">
         <v>3</v>
       </c>
       <c r="H33" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900000</v>
       </c>
       <c r="I33" s="40">
         <v>0</v>
       </c>
       <c r="J33" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K33" s="119">
         <v>0</v>
       </c>
       <c r="L33" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M33" s="14">
         <v>2</v>
       </c>
       <c r="N33" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>600000</v>
       </c>
       <c r="O33" s="14">
         <v>1</v>
       </c>
       <c r="P33" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600000</v>
       </c>
       <c r="Q33" s="14">
         <v>0</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S33" s="13">
         <v>0</v>
       </c>
       <c r="T33" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U33" s="120">
         <v>0</v>
       </c>
       <c r="V33" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W33" s="120">
         <v>0</v>
       </c>
       <c r="X33" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y33" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1200000</v>
       </c>
       <c r="Z33" s="17">
-        <f>SUM(D33,H33,Y33,F33)</f>
+        <f t="shared" si="0"/>
         <v>2900000</v>
       </c>
       <c r="AA33" s="92"/>
@@ -4463,85 +4545,85 @@
         <v>7</v>
       </c>
       <c r="D34" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1400000</v>
       </c>
       <c r="E34" s="17">
         <v>0</v>
       </c>
       <c r="F34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="118">
         <v>1</v>
       </c>
       <c r="H34" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300000</v>
       </c>
       <c r="I34" s="40">
         <v>0</v>
       </c>
       <c r="J34" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K34" s="119">
         <v>0</v>
       </c>
       <c r="L34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M34" s="14">
         <v>0</v>
       </c>
       <c r="N34" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O34" s="14">
         <v>0</v>
       </c>
       <c r="P34" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q34" s="14">
         <v>0</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S34" s="13">
         <v>0</v>
       </c>
       <c r="T34" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U34" s="120">
         <v>0</v>
       </c>
       <c r="V34" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W34" s="120">
         <v>0</v>
       </c>
       <c r="X34" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y34" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z34" s="17">
-        <f>SUM(D34,H34,Y34,F34)</f>
+        <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
       <c r="AA34" s="94"/>
@@ -4559,85 +4641,85 @@
         <v>10</v>
       </c>
       <c r="D35" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="E35" s="17">
         <v>0</v>
       </c>
       <c r="F35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="118">
         <v>2</v>
       </c>
       <c r="H35" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
       <c r="I35" s="40">
         <v>0</v>
       </c>
       <c r="J35" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K35" s="119">
         <v>0</v>
       </c>
       <c r="L35" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M35" s="14">
         <v>1</v>
       </c>
       <c r="N35" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
       <c r="O35" s="14">
         <v>0</v>
       </c>
       <c r="P35" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q35" s="14">
         <v>0</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S35" s="13">
         <v>0</v>
       </c>
       <c r="T35" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U35" s="120">
         <v>0</v>
       </c>
       <c r="V35" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W35" s="120">
         <v>0</v>
       </c>
       <c r="X35" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y35" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>300000</v>
       </c>
       <c r="Z35" s="17">
-        <f>SUM(D35,H35,Y35,F35)</f>
+        <f t="shared" si="0"/>
         <v>2900000</v>
       </c>
       <c r="AA35" s="94"/>
@@ -4655,85 +4737,85 @@
         <v>0</v>
       </c>
       <c r="D36" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="118">
+        <v>0</v>
+      </c>
+      <c r="H36" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="40">
+        <v>0</v>
+      </c>
+      <c r="J36" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="119">
+        <v>0</v>
+      </c>
+      <c r="L36" s="41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0</v>
+      </c>
+      <c r="N36" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="14">
+        <v>0</v>
+      </c>
+      <c r="P36" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>0</v>
+      </c>
+      <c r="R36" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="13">
+        <v>0</v>
+      </c>
+      <c r="T36" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="120">
+        <v>0</v>
+      </c>
+      <c r="V36" s="120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="120">
+        <v>0</v>
+      </c>
+      <c r="X36" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="118">
-        <v>0</v>
-      </c>
-      <c r="H36" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="40">
-        <v>0</v>
-      </c>
-      <c r="J36" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="119">
-        <v>0</v>
-      </c>
-      <c r="L36" s="41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="14">
-        <v>0</v>
-      </c>
-      <c r="N36" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="14">
-        <v>0</v>
-      </c>
-      <c r="P36" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>0</v>
-      </c>
-      <c r="R36" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="13">
-        <v>0</v>
-      </c>
-      <c r="T36" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="120">
-        <v>0</v>
-      </c>
-      <c r="V36" s="120">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="120">
-        <v>0</v>
-      </c>
-      <c r="X36" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="17">
-        <f>SUM(D36,H36,Y36,F36)</f>
         <v>0</v>
       </c>
       <c r="AA36" s="118"/>
@@ -4753,71 +4835,71 @@
         <v>36400000</v>
       </c>
       <c r="E37" s="39">
-        <f t="shared" ref="E37:X37" si="12">SUM(E7:E36)</f>
+        <f t="shared" ref="E37:U37" si="13">SUM(E7:E36)</f>
         <v>15</v>
       </c>
       <c r="F37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1600000</v>
       </c>
       <c r="G37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>139</v>
       </c>
       <c r="H37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41700000</v>
       </c>
       <c r="I37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="L37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>240000</v>
       </c>
       <c r="M37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="N37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19200000</v>
       </c>
       <c r="O37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="P37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7200000</v>
       </c>
       <c r="Q37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="R37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>180000</v>
       </c>
       <c r="S37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="T37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100000</v>
       </c>
       <c r="U37" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V37" s="39">
@@ -4829,11 +4911,11 @@
         <v>0</v>
       </c>
       <c r="X37" s="39">
-        <f t="shared" ref="X37:Y37" si="13">SUM(X7:X36)</f>
+        <f t="shared" ref="X37:Y37" si="14">SUM(X7:X36)</f>
         <v>0</v>
       </c>
       <c r="Y37" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27720000</v>
       </c>
       <c r="Z37" s="39">
@@ -4847,65 +4929,65 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="146">
-        <v>0</v>
-      </c>
-      <c r="D38" s="146"/>
+      <c r="C38" s="163">
+        <v>0</v>
+      </c>
+      <c r="D38" s="163"/>
       <c r="E38" s="107"/>
       <c r="F38" s="107"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
-      <c r="N38" s="147"/>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="147"/>
-      <c r="T38" s="147"/>
-      <c r="U38" s="147"/>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
-      <c r="X38" s="147"/>
-      <c r="Y38" s="147"/>
-      <c r="Z38" s="147"/>
-      <c r="AA38" s="147"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="149"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="149"/>
+      <c r="R38" s="149"/>
+      <c r="S38" s="149"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="149"/>
+      <c r="W38" s="149"/>
+      <c r="X38" s="149"/>
+      <c r="Y38" s="149"/>
+      <c r="Z38" s="149"/>
+      <c r="AA38" s="149"/>
     </row>
     <row r="39" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="148">
-        <v>0</v>
-      </c>
-      <c r="D39" s="148"/>
+      <c r="C39" s="150">
+        <v>0</v>
+      </c>
+      <c r="D39" s="150"/>
       <c r="E39" s="108"/>
       <c r="F39" s="108"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="147"/>
-      <c r="N39" s="147"/>
-      <c r="O39" s="147"/>
-      <c r="P39" s="147"/>
-      <c r="Q39" s="147"/>
-      <c r="R39" s="147"/>
-      <c r="S39" s="147"/>
-      <c r="T39" s="147"/>
-      <c r="U39" s="147"/>
-      <c r="V39" s="147"/>
-      <c r="W39" s="147"/>
-      <c r="X39" s="147"/>
-      <c r="Y39" s="147"/>
-      <c r="Z39" s="147"/>
-      <c r="AA39" s="147"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
+      <c r="N39" s="149"/>
+      <c r="O39" s="149"/>
+      <c r="P39" s="149"/>
+      <c r="Q39" s="149"/>
+      <c r="R39" s="149"/>
+      <c r="S39" s="149"/>
+      <c r="T39" s="149"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="149"/>
+      <c r="W39" s="149"/>
+      <c r="X39" s="149"/>
+      <c r="Y39" s="149"/>
+      <c r="Z39" s="149"/>
+      <c r="AA39" s="149"/>
       <c r="AD39" s="11" t="s">
         <v>9</v>
       </c>
@@ -4921,6 +5003,11 @@
   </sheetData>
   <autoFilter ref="AA4:AA39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="G39:AA39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AA2"/>
@@ -4937,11 +5024,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4971,14 +5053,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -5463,10 +5545,10 @@
       <c r="B28" s="21">
         <v>44037</v>
       </c>
-      <c r="C28" s="186">
-        <v>0</v>
-      </c>
-      <c r="D28" s="186">
+      <c r="C28" s="148">
+        <v>0</v>
+      </c>
+      <c r="D28" s="148">
         <v>0</v>
       </c>
       <c r="E28" s="125">
@@ -5569,7 +5651,7 @@
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
       <c r="B34" s="21">
         <v>44043</v>
@@ -5622,10 +5704,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G60"/>
+  <dimension ref="A2:G69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5643,15 +5725,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="91" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="25"/>
@@ -5674,15 +5756,15 @@
       <c r="F4" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="147" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163">
+      <c r="A5" s="167">
         <v>1</v>
       </c>
-      <c r="B5" s="160">
+      <c r="B5" s="165">
         <v>44013</v>
       </c>
       <c r="C5" s="130">
@@ -5694,12 +5776,12 @@
       <c r="E5" s="98">
         <v>750000</v>
       </c>
-      <c r="F5" s="139"/>
-      <c r="G5" s="140"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
     </row>
     <row r="6" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="164"/>
-      <c r="B6" s="161"/>
+      <c r="A6" s="168"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="130">
         <v>2</v>
       </c>
@@ -5713,8 +5795,8 @@
       <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164"/>
-      <c r="B7" s="161"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="130">
         <v>3</v>
       </c>
@@ -5728,8 +5810,8 @@
       <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="164"/>
-      <c r="B8" s="161"/>
+      <c r="A8" s="168"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="130">
         <v>4</v>
       </c>
@@ -5743,8 +5825,8 @@
       <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="164"/>
-      <c r="B9" s="161"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="130">
         <v>5</v>
       </c>
@@ -5758,8 +5840,8 @@
       <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="165"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="130">
         <v>6</v>
       </c>
@@ -5776,7 +5858,7 @@
       <c r="A11" s="86">
         <v>2</v>
       </c>
-      <c r="B11" s="160">
+      <c r="B11" s="165">
         <v>44014</v>
       </c>
       <c r="C11" s="130"/>
@@ -5789,7 +5871,7 @@
     </row>
     <row r="12" spans="1:7" s="103" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="102"/>
-      <c r="B12" s="162"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="130"/>
       <c r="D12" s="134"/>
       <c r="E12" s="87">
@@ -5799,10 +5881,10 @@
       <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="163">
+      <c r="A13" s="167">
         <v>2</v>
       </c>
-      <c r="B13" s="160">
+      <c r="B13" s="165">
         <v>44015</v>
       </c>
       <c r="C13" s="130">
@@ -5818,8 +5900,8 @@
       <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="164"/>
-      <c r="B14" s="161"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="130">
         <v>2</v>
       </c>
@@ -5833,8 +5915,8 @@
       <c r="G14" s="100"/>
     </row>
     <row r="15" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="164"/>
-      <c r="B15" s="161"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="130">
         <v>3</v>
       </c>
@@ -5848,8 +5930,8 @@
       <c r="G15" s="100"/>
     </row>
     <row r="16" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="164"/>
-      <c r="B16" s="161"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="130">
         <v>4</v>
       </c>
@@ -5863,8 +5945,8 @@
       <c r="G16" s="100"/>
     </row>
     <row r="17" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="164"/>
-      <c r="B17" s="161"/>
+      <c r="A17" s="168"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="130">
         <v>5</v>
       </c>
@@ -5880,10 +5962,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163">
+      <c r="A18" s="167">
         <v>3</v>
       </c>
-      <c r="B18" s="160">
+      <c r="B18" s="165">
         <v>44016</v>
       </c>
       <c r="C18" s="130">
@@ -5899,8 +5981,8 @@
       <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="164"/>
-      <c r="B19" s="161"/>
+      <c r="A19" s="168"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="130">
         <v>2</v>
       </c>
@@ -5914,8 +5996,8 @@
       <c r="G19" s="100"/>
     </row>
     <row r="20" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="164"/>
-      <c r="B20" s="161"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="130">
         <v>3</v>
       </c>
@@ -5929,8 +6011,8 @@
       <c r="G20" s="100"/>
     </row>
     <row r="21" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
-      <c r="B21" s="161"/>
+      <c r="A21" s="168"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="130">
         <v>4</v>
       </c>
@@ -5944,8 +6026,8 @@
       <c r="G21" s="100"/>
     </row>
     <row r="22" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="164"/>
-      <c r="B22" s="161"/>
+      <c r="A22" s="168"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="130">
         <v>5</v>
       </c>
@@ -5959,8 +6041,8 @@
       <c r="G22" s="100"/>
     </row>
     <row r="23" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="164"/>
-      <c r="B23" s="161"/>
+      <c r="A23" s="168"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="130">
         <v>6</v>
       </c>
@@ -5974,8 +6056,8 @@
       <c r="G23" s="100"/>
     </row>
     <row r="24" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="165"/>
-      <c r="B24" s="162"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="130">
         <v>7</v>
       </c>
@@ -5989,10 +6071,10 @@
       <c r="G24" s="100"/>
     </row>
     <row r="25" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="163">
+      <c r="A25" s="167">
         <v>4</v>
       </c>
-      <c r="B25" s="160">
+      <c r="B25" s="165">
         <v>44023</v>
       </c>
       <c r="C25" s="130">
@@ -6010,8 +6092,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="164"/>
-      <c r="B26" s="161"/>
+      <c r="A26" s="168"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="130">
         <v>2</v>
       </c>
@@ -6025,8 +6107,8 @@
       <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
-      <c r="B27" s="161"/>
+      <c r="A27" s="168"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="130">
         <v>3</v>
       </c>
@@ -6040,25 +6122,25 @@
       <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="165"/>
-      <c r="B28" s="162"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="166"/>
       <c r="C28" s="130">
         <v>4</v>
       </c>
       <c r="D28" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88">
+      <c r="E28" s="87">
         <v>1500000</v>
       </c>
-      <c r="G28" s="141"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="140"/>
     </row>
     <row r="29" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="163">
+      <c r="A29" s="167">
         <v>5</v>
       </c>
-      <c r="B29" s="160">
+      <c r="B29" s="165">
         <v>44026</v>
       </c>
       <c r="C29" s="130">
@@ -6071,13 +6153,13 @@
         <v>1500000</v>
       </c>
       <c r="F29" s="88"/>
-      <c r="G29" s="163" t="s">
+      <c r="G29" s="167" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="165"/>
-      <c r="B30" s="162"/>
+      <c r="A30" s="169"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="130">
         <v>2</v>
       </c>
@@ -6088,13 +6170,13 @@
         <v>1500000</v>
       </c>
       <c r="F30" s="88"/>
-      <c r="G30" s="165"/>
+      <c r="G30" s="169"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="163">
+      <c r="A31" s="167">
         <v>6</v>
       </c>
-      <c r="B31" s="160">
+      <c r="B31" s="165">
         <v>44027</v>
       </c>
       <c r="C31" s="130">
@@ -6110,8 +6192,8 @@
       <c r="G31" s="77"/>
     </row>
     <row r="32" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="164"/>
-      <c r="B32" s="161"/>
+      <c r="A32" s="168"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="130">
         <v>2</v>
       </c>
@@ -6125,8 +6207,8 @@
       <c r="G32" s="77"/>
     </row>
     <row r="33" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="164"/>
-      <c r="B33" s="161"/>
+      <c r="A33" s="168"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="130">
         <v>3</v>
       </c>
@@ -6140,8 +6222,8 @@
       <c r="G33" s="77"/>
     </row>
     <row r="34" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="165"/>
-      <c r="B34" s="162"/>
+      <c r="A34" s="169"/>
+      <c r="B34" s="166"/>
       <c r="C34" s="130">
         <v>4</v>
       </c>
@@ -6155,10 +6237,10 @@
       <c r="G34" s="77"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="163">
+      <c r="A35" s="145">
         <v>7</v>
       </c>
-      <c r="B35" s="160">
+      <c r="B35" s="144">
         <v>44029</v>
       </c>
       <c r="C35" s="130">
@@ -6175,28 +6257,27 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="165"/>
-      <c r="B36" s="162"/>
-      <c r="C36" s="130">
-        <v>2</v>
-      </c>
-      <c r="D36" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="87">
-        <v>774000</v>
-      </c>
-      <c r="G36" s="77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="86">
+        <v>20</v>
+      </c>
+      <c r="B36" s="101">
+        <v>44030</v>
+      </c>
+      <c r="C36" s="130"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="87">
+        <v>0</v>
+      </c>
+      <c r="F36" s="88"/>
+      <c r="G36" s="77"/>
+    </row>
+    <row r="37" spans="1:7" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="86">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B37" s="101">
-        <v>44029</v>
+        <v>44031</v>
       </c>
       <c r="C37" s="130"/>
       <c r="D37" s="134"/>
@@ -6206,123 +6287,137 @@
       <c r="F37" s="88"/>
       <c r="G37" s="77"/>
     </row>
-    <row r="38" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="86">
-        <v>20</v>
-      </c>
-      <c r="B38" s="101">
-        <v>44030</v>
-      </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="134"/>
+        <v>22</v>
+      </c>
+      <c r="B38" s="165">
+        <v>44032</v>
+      </c>
+      <c r="C38" s="130">
+        <v>1</v>
+      </c>
+      <c r="D38" s="134" t="s">
+        <v>130</v>
+      </c>
       <c r="E38" s="87">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="F38" s="88"/>
       <c r="G38" s="77"/>
     </row>
-    <row r="39" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86">
-        <v>21</v>
-      </c>
-      <c r="B39" s="101">
-        <v>44031</v>
-      </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="134"/>
+    <row r="39" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="146"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="130">
+        <v>2</v>
+      </c>
+      <c r="D39" s="134" t="s">
+        <v>131</v>
+      </c>
       <c r="E39" s="87">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="F39" s="88"/>
       <c r="G39" s="77"/>
     </row>
-    <row r="40" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="86">
-        <v>22</v>
-      </c>
-      <c r="B40" s="101">
-        <v>44032</v>
-      </c>
-      <c r="C40" s="130"/>
-      <c r="D40" s="134"/>
+    <row r="40" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="146"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="130">
+        <v>3</v>
+      </c>
+      <c r="D40" s="134" t="s">
+        <v>116</v>
+      </c>
       <c r="E40" s="87">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="F40" s="88"/>
       <c r="G40" s="77"/>
     </row>
-    <row r="41" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86">
-        <v>23</v>
-      </c>
-      <c r="B41" s="101">
-        <v>44033</v>
-      </c>
-      <c r="C41" s="130"/>
-      <c r="D41" s="134"/>
+    <row r="41" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="146"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="130">
+        <v>4</v>
+      </c>
+      <c r="D41" s="134" t="s">
+        <v>132</v>
+      </c>
       <c r="E41" s="87">
-        <v>0</v>
+        <v>315000</v>
       </c>
       <c r="F41" s="88"/>
       <c r="G41" s="77"/>
     </row>
-    <row r="42" spans="1:7" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="86">
-        <v>24</v>
-      </c>
-      <c r="B42" s="101">
-        <v>44034</v>
-      </c>
-      <c r="C42" s="130"/>
-      <c r="D42" s="134"/>
+    <row r="42" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="146"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="130">
+        <v>5</v>
+      </c>
+      <c r="D42" s="134" t="s">
+        <v>133</v>
+      </c>
       <c r="E42" s="87">
-        <v>0</v>
+        <v>620000</v>
       </c>
       <c r="F42" s="88"/>
       <c r="G42" s="77"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="86">
-        <v>25</v>
-      </c>
-      <c r="B43" s="101">
-        <v>44035</v>
-      </c>
-      <c r="C43" s="130"/>
-      <c r="D43" s="134"/>
+    <row r="43" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="146"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="130">
+        <v>6</v>
+      </c>
+      <c r="D43" s="134" t="s">
+        <v>134</v>
+      </c>
       <c r="E43" s="87">
-        <v>0</v>
+        <v>1020000</v>
       </c>
       <c r="F43" s="88"/>
       <c r="G43" s="77"/>
     </row>
-    <row r="44" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86">
-        <v>27</v>
-      </c>
-      <c r="B44" s="160"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="134"/>
+    <row r="44" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="146"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="130">
+        <v>7</v>
+      </c>
+      <c r="D44" s="134" t="s">
+        <v>135</v>
+      </c>
       <c r="E44" s="87">
-        <v>0</v>
+        <v>380000</v>
       </c>
       <c r="F44" s="88"/>
       <c r="G44" s="77"/>
     </row>
-    <row r="45" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="102"/>
-      <c r="B45" s="161"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="134"/>
+    <row r="45" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="146"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="130">
+        <v>8</v>
+      </c>
+      <c r="D45" s="134" t="s">
+        <v>136</v>
+      </c>
       <c r="E45" s="87">
-        <v>0</v>
+        <v>113000</v>
       </c>
       <c r="F45" s="88"/>
       <c r="G45" s="77"/>
     </row>
-    <row r="46" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="102"/>
-      <c r="B46" s="162"/>
+    <row r="46" spans="1:7" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="86">
+        <v>23</v>
+      </c>
+      <c r="B46" s="101">
+        <v>44033</v>
+      </c>
       <c r="C46" s="130"/>
       <c r="D46" s="134"/>
       <c r="E46" s="87">
@@ -6331,12 +6426,12 @@
       <c r="F46" s="88"/>
       <c r="G46" s="77"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="65" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="86">
-        <v>27</v>
-      </c>
-      <c r="B47" s="160">
-        <v>44039</v>
+        <v>24</v>
+      </c>
+      <c r="B47" s="101">
+        <v>44034</v>
       </c>
       <c r="C47" s="130"/>
       <c r="D47" s="134"/>
@@ -6348,38 +6443,46 @@
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="86">
-        <v>27</v>
-      </c>
-      <c r="B48" s="162"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="134"/>
+        <v>25</v>
+      </c>
+      <c r="B48" s="165">
+        <v>44035</v>
+      </c>
+      <c r="C48" s="130">
+        <v>1</v>
+      </c>
+      <c r="D48" s="134" t="s">
+        <v>78</v>
+      </c>
       <c r="E48" s="87">
-        <v>0</v>
+        <v>1620000</v>
       </c>
       <c r="F48" s="88"/>
       <c r="G48" s="77"/>
     </row>
-    <row r="49" spans="1:7" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="86">
-        <v>28</v>
-      </c>
-      <c r="B49" s="101">
-        <v>44039</v>
-      </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="134"/>
+        <v>27</v>
+      </c>
+      <c r="B49" s="166"/>
+      <c r="C49" s="130">
+        <v>2</v>
+      </c>
+      <c r="D49" s="134" t="s">
+        <v>137</v>
+      </c>
       <c r="E49" s="87">
-        <v>0</v>
+        <v>645000</v>
       </c>
       <c r="F49" s="88"/>
       <c r="G49" s="77"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="163">
-        <v>29</v>
-      </c>
-      <c r="B50" s="160">
-        <v>44040</v>
+    <row r="50" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="86">
+        <v>27</v>
+      </c>
+      <c r="B50" s="165">
+        <v>44039</v>
       </c>
       <c r="C50" s="130"/>
       <c r="D50" s="134"/>
@@ -6389,9 +6492,11 @@
       <c r="F50" s="88"/>
       <c r="G50" s="77"/>
     </row>
-    <row r="51" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="164"/>
-      <c r="B51" s="161"/>
+    <row r="51" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="86">
+        <v>27</v>
+      </c>
+      <c r="B51" s="166"/>
       <c r="C51" s="130"/>
       <c r="D51" s="134"/>
       <c r="E51" s="87">
@@ -6400,9 +6505,13 @@
       <c r="F51" s="88"/>
       <c r="G51" s="77"/>
     </row>
-    <row r="52" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="164"/>
-      <c r="B52" s="161"/>
+    <row r="52" spans="1:7" s="67" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="86">
+        <v>28</v>
+      </c>
+      <c r="B52" s="101">
+        <v>44039</v>
+      </c>
       <c r="C52" s="130"/>
       <c r="D52" s="134"/>
       <c r="E52" s="87">
@@ -6411,9 +6520,13 @@
       <c r="F52" s="88"/>
       <c r="G52" s="77"/>
     </row>
-    <row r="53" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="164"/>
-      <c r="B53" s="161"/>
+    <row r="53" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="167">
+        <v>29</v>
+      </c>
+      <c r="B53" s="165">
+        <v>44040</v>
+      </c>
       <c r="C53" s="130"/>
       <c r="D53" s="134"/>
       <c r="E53" s="87">
@@ -6422,9 +6535,9 @@
       <c r="F53" s="88"/>
       <c r="G53" s="77"/>
     </row>
-    <row r="54" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="164"/>
-      <c r="B54" s="161"/>
+    <row r="54" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="168"/>
+      <c r="B54" s="170"/>
       <c r="C54" s="130"/>
       <c r="D54" s="134"/>
       <c r="E54" s="87">
@@ -6433,9 +6546,9 @@
       <c r="F54" s="88"/>
       <c r="G54" s="77"/>
     </row>
-    <row r="55" spans="1:7" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="165"/>
-      <c r="B55" s="162"/>
+    <row r="55" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="168"/>
+      <c r="B55" s="170"/>
       <c r="C55" s="130"/>
       <c r="D55" s="134"/>
       <c r="E55" s="87">
@@ -6444,13 +6557,9 @@
       <c r="F55" s="88"/>
       <c r="G55" s="77"/>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="86">
-        <v>30</v>
-      </c>
-      <c r="B56" s="101">
-        <v>44041</v>
-      </c>
+    <row r="56" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="168"/>
+      <c r="B56" s="170"/>
       <c r="C56" s="130"/>
       <c r="D56" s="134"/>
       <c r="E56" s="87">
@@ -6459,13 +6568,9 @@
       <c r="F56" s="88"/>
       <c r="G56" s="77"/>
     </row>
-    <row r="57" spans="1:7" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="86">
-        <v>32</v>
-      </c>
-      <c r="B57" s="160">
-        <v>44042</v>
-      </c>
+    <row r="57" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="168"/>
+      <c r="B57" s="170"/>
       <c r="C57" s="130"/>
       <c r="D57" s="134"/>
       <c r="E57" s="87">
@@ -6474,56 +6579,194 @@
       <c r="F57" s="88"/>
       <c r="G57" s="77"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
-      <c r="B58" s="162"/>
+    <row r="58" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="169"/>
+      <c r="B58" s="166"/>
       <c r="C58" s="130"/>
       <c r="D58" s="134"/>
       <c r="E58" s="87">
         <v>0</v>
       </c>
-      <c r="F58" s="42"/>
+      <c r="F58" s="88"/>
       <c r="G58" s="77"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
+    <row r="59" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="86">
+        <v>30</v>
+      </c>
+      <c r="B59" s="101">
+        <v>44041</v>
+      </c>
+      <c r="C59" s="130"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="87">
+        <v>0</v>
+      </c>
+      <c r="F59" s="88"/>
+      <c r="G59" s="77"/>
+    </row>
+    <row r="60" spans="1:7" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="86">
+        <v>32</v>
+      </c>
+      <c r="B60" s="191">
+        <v>44042</v>
+      </c>
+      <c r="C60" s="130">
+        <v>1</v>
+      </c>
+      <c r="D60" s="134" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="87">
+        <v>1500000</v>
+      </c>
+      <c r="F60" s="88"/>
+      <c r="G60" s="100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="146"/>
+      <c r="B61" s="191"/>
+      <c r="C61" s="130">
+        <v>2</v>
+      </c>
+      <c r="D61" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="87">
+        <v>1553000</v>
+      </c>
+      <c r="F61" s="88"/>
+      <c r="G61" s="77"/>
+    </row>
+    <row r="62" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="146"/>
+      <c r="B62" s="165">
+        <v>44043</v>
+      </c>
+      <c r="C62" s="130">
+        <v>1</v>
+      </c>
+      <c r="D62" s="134" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="87">
+        <v>2300000</v>
+      </c>
+      <c r="F62" s="88"/>
+      <c r="G62" s="77"/>
+    </row>
+    <row r="63" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="146"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="130">
+        <v>2</v>
+      </c>
+      <c r="D63" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="87">
+        <v>870000</v>
+      </c>
+      <c r="F63" s="88"/>
+      <c r="G63" s="77"/>
+    </row>
+    <row r="64" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="146"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="130">
+        <v>3</v>
+      </c>
+      <c r="D64" s="134" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="87">
+        <v>240000</v>
+      </c>
+      <c r="F64" s="88"/>
+      <c r="G64" s="77"/>
+    </row>
+    <row r="65" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="146"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="130">
+        <v>4</v>
+      </c>
+      <c r="D65" s="134" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" s="87">
+        <v>430000</v>
+      </c>
+      <c r="F65" s="88"/>
+      <c r="G65" s="77"/>
+    </row>
+    <row r="66" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="146"/>
+      <c r="B66" s="170"/>
+      <c r="C66" s="130">
+        <v>5</v>
+      </c>
+      <c r="D66" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="87">
+        <v>30000</v>
+      </c>
+      <c r="F66" s="88"/>
+      <c r="G66" s="77"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="86"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="130">
+        <v>6</v>
+      </c>
+      <c r="D67" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="87">
+        <v>1050000</v>
+      </c>
+      <c r="F67" s="42"/>
+      <c r="G67" s="77"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="34">
         <v>35</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B68" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="87">
-        <f>SUM(E5:E58)</f>
-        <v>56230000</v>
-      </c>
-      <c r="F59" s="87">
-        <f>SUM(F5:F58)</f>
-        <v>25224000</v>
-      </c>
-      <c r="G59" s="78"/>
-    </row>
-    <row r="60" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="76"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="136"/>
+      <c r="E68" s="87">
+        <f>SUM(E5:E67)</f>
+        <v>73276000</v>
+      </c>
+      <c r="F68" s="87">
+        <f>SUM(F5:F67)</f>
+        <v>22950000</v>
+      </c>
+      <c r="G68" s="78"/>
+    </row>
+    <row r="69" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="84"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="133"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A53:A58"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B28"/>
@@ -6536,11 +6779,16 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6552,7 +6800,7 @@
   <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6566,14 +6814,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
@@ -6627,7 +6875,7 @@
     </row>
     <row r="7" spans="1:6" s="105" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
-      <c r="B7" s="168">
+      <c r="B7" s="173">
         <v>44015</v>
       </c>
       <c r="C7" s="34"/>
@@ -6639,7 +6887,7 @@
       <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="169"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="42"/>
@@ -6868,9 +7116,15 @@
       <c r="B25" s="113">
         <v>44032</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="42"/>
+      <c r="C25" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="42">
+        <v>500000</v>
+      </c>
       <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6925,7 +7179,7 @@
       <c r="A30" s="34">
         <v>25</v>
       </c>
-      <c r="B30" s="170">
+      <c r="B30" s="175">
         <v>44039</v>
       </c>
       <c r="C30" s="34"/>
@@ -6937,7 +7191,7 @@
       <c r="A31" s="34">
         <v>27</v>
       </c>
-      <c r="B31" s="171"/>
+      <c r="B31" s="176"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="42"/>
@@ -6962,9 +7216,15 @@
       <c r="B33" s="113">
         <v>44040</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="42"/>
+      <c r="C33" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="42">
+        <v>570000</v>
+      </c>
       <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -6983,24 +7243,34 @@
       <c r="A35" s="34">
         <v>30</v>
       </c>
-      <c r="B35" s="114">
+      <c r="B35" s="192">
         <v>44042</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="42"/>
+      <c r="C35" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="42">
+        <v>50000</v>
+      </c>
       <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>31</v>
       </c>
-      <c r="B36" s="113">
-        <v>43982</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="42"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="42">
+        <v>50000</v>
+      </c>
       <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7014,15 +7284,16 @@
       <c r="D37" s="26"/>
       <c r="E37" s="43">
         <f>SUM(E5:E36)</f>
-        <v>230000</v>
+        <v>1400000</v>
       </c>
       <c r="F37" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7052,12 +7323,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -7138,11 +7409,11 @@
     </row>
     <row r="8" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
       <c r="E8" s="48">
         <f>SUM(E4:E7)</f>
         <v>9137000</v>
@@ -7356,22 +7627,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6"/>
@@ -7424,7 +7695,7 @@
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E37)</f>
-        <v>37724000</v>
+        <v>19508000</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -7442,8 +7713,8 @@
         <v>49</v>
       </c>
       <c r="H10" s="47">
-        <f>nợ!E8+nhập!F59</f>
-        <v>34361000</v>
+        <f>nợ!E8+nhập!F68</f>
+        <v>32087000</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -7465,12 +7736,12 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
     </row>
     <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -7491,7 +7762,7 @@
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="185" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7505,7 +7776,7 @@
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="180"/>
+      <c r="C18" s="185"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7517,7 +7788,7 @@
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="180"/>
+      <c r="C19" s="185"/>
       <c r="D19" s="34" t="s">
         <v>125</v>
       </c>
@@ -7529,7 +7800,7 @@
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="180"/>
+      <c r="C20" s="185"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7549,8 +7820,8 @@
         <v>17</v>
       </c>
       <c r="E21" s="49">
-        <f>nhập!E59</f>
-        <v>56230000</v>
+        <f>nhập!E68</f>
+        <v>73276000</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7565,38 +7836,38 @@
       </c>
       <c r="E22" s="43">
         <f>chi!E37</f>
-        <v>230000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="181" t="s">
+      <c r="C23" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="182"/>
+      <c r="D23" s="187"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
-        <v>56460000</v>
+        <v>74676000</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
     </row>
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="177">
+      <c r="B27" s="182">
         <f>SUM(D11,-E23)</f>
-        <v>145144000</v>
-      </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
+        <v>126928000</v>
+      </c>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="184"/>
       <c r="O27" s="8"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -7660,19 +7931,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="190" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="176"/>
+      <c r="B2" s="181"/>
       <c r="D2" t="s">
         <v>64</v>
       </c>
@@ -7702,8 +7973,8 @@
         <v>62</v>
       </c>
       <c r="B5" s="47">
-        <f>chi!E37+nhập!E59</f>
-        <v>56460000</v>
+        <f>chi!E37+nhập!E68</f>
+        <v>74676000</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>66</v>
@@ -7719,7 +7990,7 @@
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>37724000</v>
+        <v>19508000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>67</v>
@@ -7730,22 +8001,22 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="183" t="s">
+      <c r="B9" s="189"/>
+      <c r="C9" s="188" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="184"/>
+      <c r="D9" s="189"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">

--- a/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215039C5-E4AC-4F61-8692-D704F6D19F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB43938B-FDBF-454F-B8D5-E85A67979FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AA$4:$AA$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
   <si>
     <t>STT</t>
   </si>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t>Sữa nước</t>
-  </si>
-  <si>
-    <t>4 lon</t>
   </si>
   <si>
     <t>24 lon</t>
@@ -1146,6 +1143,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1157,9 +1163,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1183,18 +1186,18 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,9 +1208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1226,6 +1226,12 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1267,15 +1273,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1629,136 +1626,136 @@
       <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="51" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="51" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="8" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="3" customWidth="1"/>
-    <col min="28" max="29" width="9.140625" style="1"/>
-    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="1"/>
-    <col min="32" max="32" width="4.7109375" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="3" customWidth="1"/>
+    <col min="28" max="29" width="9.109375" style="1"/>
+    <col min="30" max="30" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.109375" style="1"/>
+    <col min="32" max="32" width="4.6640625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:42" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="151" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="162" t="s">
+    <row r="2" spans="1:42" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="B2" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="160" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="153" t="s">
+      <c r="F4" s="163"/>
+      <c r="G4" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="154" t="s">
+      <c r="H4" s="149"/>
+      <c r="I4" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="149"/>
+      <c r="K4" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="153" t="s">
+      <c r="L4" s="156"/>
+      <c r="M4" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153" t="s">
+      <c r="N4" s="149"/>
+      <c r="O4" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153" t="s">
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153" t="s">
+      <c r="R4" s="149"/>
+      <c r="S4" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="153"/>
-      <c r="U4" s="155" t="s">
+      <c r="T4" s="149"/>
+      <c r="U4" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="158" t="s">
+      <c r="V4" s="157"/>
+      <c r="W4" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="156" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="152" t="s">
+      <c r="Z4" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="153" t="s">
+      <c r="AA4" s="149" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="162"/>
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="149"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1825,9 +1822,9 @@
       <c r="X5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="157"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="153"/>
+      <c r="Y5" s="159"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="149"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -1844,7 +1841,7 @@
       <c r="AO5"/>
       <c r="AP5"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1938,7 +1935,7 @@
       </c>
       <c r="AA6" s="68"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2032,7 +2029,7 @@
       </c>
       <c r="AA7" s="85"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -2139,7 +2136,7 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
     </row>
-    <row r="9" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2233,7 +2230,7 @@
       </c>
       <c r="AA9" s="85"/>
     </row>
-    <row r="10" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2327,7 +2324,7 @@
       </c>
       <c r="AA10" s="85"/>
     </row>
-    <row r="11" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2421,7 +2418,7 @@
       </c>
       <c r="AA11" s="85"/>
     </row>
-    <row r="12" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2515,7 +2512,7 @@
       </c>
       <c r="AA12" s="85"/>
     </row>
-    <row r="13" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2608,10 +2605,10 @@
         <v>3030000</v>
       </c>
       <c r="AA13" s="85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -2709,7 +2706,7 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="92"/>
       <c r="B15" s="57">
         <v>44022</v>
@@ -2805,7 +2802,7 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="92"/>
       <c r="B16" s="57">
         <v>44023</v>
@@ -2901,7 +2898,7 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="92"/>
       <c r="B17" s="57">
         <v>44024</v>
@@ -2997,7 +2994,7 @@
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="92"/>
       <c r="B18" s="57">
         <v>44025</v>
@@ -3093,7 +3090,7 @@
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="92"/>
       <c r="B19" s="57">
         <v>44026</v>
@@ -3184,14 +3181,14 @@
         <v>3400000</v>
       </c>
       <c r="AA19" s="124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="92"/>
       <c r="B20" s="57">
         <v>44027</v>
@@ -3287,7 +3284,7 @@
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="92"/>
       <c r="B21" s="57">
         <v>44028</v>
@@ -3383,7 +3380,7 @@
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="92"/>
       <c r="B22" s="57">
         <v>44029</v>
@@ -3478,7 +3475,7 @@
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="92"/>
       <c r="B23" s="57">
         <v>44030</v>
@@ -3574,7 +3571,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="92"/>
       <c r="B24" s="57">
         <v>44031</v>
@@ -3670,7 +3667,7 @@
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="92"/>
       <c r="B25" s="57">
         <v>44032</v>
@@ -3766,7 +3763,7 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="92"/>
       <c r="B26" s="57">
         <v>44033</v>
@@ -3862,7 +3859,7 @@
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="92"/>
       <c r="B27" s="57">
         <v>44034</v>
@@ -3953,14 +3950,14 @@
         <v>1250000</v>
       </c>
       <c r="AA27" s="142" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="92"/>
       <c r="B28" s="57">
         <v>44035</v>
@@ -4056,7 +4053,7 @@
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="92"/>
       <c r="B29" s="57">
         <v>44036</v>
@@ -4152,7 +4149,7 @@
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="92"/>
       <c r="B30" s="57">
         <v>44037</v>
@@ -4248,7 +4245,7 @@
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="92"/>
       <c r="B31" s="57">
         <v>44038</v>
@@ -4344,7 +4341,7 @@
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="92"/>
       <c r="B32" s="57">
         <v>44039</v>
@@ -4440,7 +4437,7 @@
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="92"/>
       <c r="B33" s="57">
         <v>44040</v>
@@ -4536,7 +4533,7 @@
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="94"/>
       <c r="B34" s="57">
         <v>44041</v>
@@ -4632,7 +4629,7 @@
       <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="94"/>
       <c r="B35" s="57">
         <v>44042</v>
@@ -4728,7 +4725,7 @@
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="118"/>
       <c r="B36" s="57">
         <v>44043</v>
@@ -4824,7 +4821,7 @@
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="57" t="s">
         <v>8</v>
@@ -4924,90 +4921,85 @@
       </c>
       <c r="AA37" s="68"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="53"/>
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="163">
-        <v>0</v>
-      </c>
-      <c r="D38" s="163"/>
+      <c r="C38" s="151">
+        <v>0</v>
+      </c>
+      <c r="D38" s="151"/>
       <c r="E38" s="107"/>
       <c r="F38" s="107"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
-      <c r="N38" s="149"/>
-      <c r="O38" s="149"/>
-      <c r="P38" s="149"/>
-      <c r="Q38" s="149"/>
-      <c r="R38" s="149"/>
-      <c r="S38" s="149"/>
-      <c r="T38" s="149"/>
-      <c r="U38" s="149"/>
-      <c r="V38" s="149"/>
-      <c r="W38" s="149"/>
-      <c r="X38" s="149"/>
-      <c r="Y38" s="149"/>
-      <c r="Z38" s="149"/>
-      <c r="AA38" s="149"/>
-    </row>
-    <row r="39" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="152"/>
+      <c r="O38" s="152"/>
+      <c r="P38" s="152"/>
+      <c r="Q38" s="152"/>
+      <c r="R38" s="152"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="152"/>
+      <c r="U38" s="152"/>
+      <c r="V38" s="152"/>
+      <c r="W38" s="152"/>
+      <c r="X38" s="152"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="152"/>
+      <c r="AA38" s="152"/>
+    </row>
+    <row r="39" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="150">
-        <v>0</v>
-      </c>
-      <c r="D39" s="150"/>
+      <c r="C39" s="153">
+        <v>0</v>
+      </c>
+      <c r="D39" s="153"/>
       <c r="E39" s="108"/>
       <c r="F39" s="108"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="149"/>
-      <c r="P39" s="149"/>
-      <c r="Q39" s="149"/>
-      <c r="R39" s="149"/>
-      <c r="S39" s="149"/>
-      <c r="T39" s="149"/>
-      <c r="U39" s="149"/>
-      <c r="V39" s="149"/>
-      <c r="W39" s="149"/>
-      <c r="X39" s="149"/>
-      <c r="Y39" s="149"/>
-      <c r="Z39" s="149"/>
-      <c r="AA39" s="149"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
+      <c r="S39" s="152"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="152"/>
+      <c r="V39" s="152"/>
+      <c r="W39" s="152"/>
+      <c r="X39" s="152"/>
+      <c r="Y39" s="152"/>
+      <c r="Z39" s="152"/>
+      <c r="AA39" s="152"/>
       <c r="AD39" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="52"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AA42" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="AA4:AA39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="G39:AA39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AA2"/>
@@ -5024,6 +5016,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5041,20 +5038,20 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="20" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="164" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="164"/>
       <c r="C1" s="164"/>
@@ -5062,7 +5059,7 @@
       <c r="E1" s="164"/>
       <c r="F1" s="164"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +5079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -5101,7 +5098,7 @@
       </c>
       <c r="F4" s="127"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -5120,7 +5117,7 @@
       </c>
       <c r="F5" s="127"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -5139,7 +5136,7 @@
       </c>
       <c r="F6" s="127"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -5158,7 +5155,7 @@
       </c>
       <c r="F7" s="127"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -5177,7 +5174,7 @@
       </c>
       <c r="F8" s="62"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>7</v>
       </c>
@@ -5196,7 +5193,7 @@
       </c>
       <c r="F9" s="62"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -5215,7 +5212,7 @@
       </c>
       <c r="F10" s="62"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -5234,7 +5231,7 @@
       </c>
       <c r="F11" s="62"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -5253,7 +5250,7 @@
       </c>
       <c r="F12" s="62"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -5272,7 +5269,7 @@
       </c>
       <c r="F13" s="62"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -5291,7 +5288,7 @@
       </c>
       <c r="F14" s="62"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <v>12</v>
       </c>
@@ -5310,7 +5307,7 @@
       </c>
       <c r="F15" s="62"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <v>13</v>
       </c>
@@ -5329,7 +5326,7 @@
       </c>
       <c r="F16" s="62"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <v>14</v>
       </c>
@@ -5348,7 +5345,7 @@
       </c>
       <c r="F17" s="62"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <v>15</v>
       </c>
@@ -5367,7 +5364,7 @@
       </c>
       <c r="F18" s="62"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>17</v>
       </c>
@@ -5386,7 +5383,7 @@
       </c>
       <c r="F19" s="62"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <v>17</v>
       </c>
@@ -5405,7 +5402,7 @@
       </c>
       <c r="F20" s="62"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>18</v>
       </c>
@@ -5424,7 +5421,7 @@
       </c>
       <c r="F21" s="62"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <v>19</v>
       </c>
@@ -5443,7 +5440,7 @@
       </c>
       <c r="F22" s="62"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <v>20</v>
       </c>
@@ -5462,7 +5459,7 @@
       </c>
       <c r="F23" s="62"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>21</v>
       </c>
@@ -5481,7 +5478,7 @@
       </c>
       <c r="F24" s="62"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <v>22</v>
       </c>
@@ -5500,7 +5497,7 @@
       </c>
       <c r="F25" s="62"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <v>23</v>
       </c>
@@ -5519,7 +5516,7 @@
       </c>
       <c r="F26" s="126"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <v>24</v>
       </c>
@@ -5538,7 +5535,7 @@
       </c>
       <c r="F27" s="126"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <v>25</v>
       </c>
@@ -5556,7 +5553,7 @@
       </c>
       <c r="F28" s="126"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <v>27</v>
       </c>
@@ -5575,7 +5572,7 @@
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <v>27</v>
       </c>
@@ -5594,7 +5591,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <v>28</v>
       </c>
@@ -5613,7 +5610,7 @@
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34">
         <v>29</v>
       </c>
@@ -5632,7 +5629,7 @@
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <v>30</v>
       </c>
@@ -5651,7 +5648,7 @@
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
       <c r="B34" s="21">
         <v>44043</v>
@@ -5668,7 +5665,7 @@
       </c>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="34">
         <v>32</v>
       </c>
@@ -5706,40 +5703,40 @@
   </sheetPr>
   <dimension ref="A2:G69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="84" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="132" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="84" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="132" customWidth="1"/>
     <col min="4" max="4" width="18" style="133" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="74" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="81" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="74" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="81" customWidth="1"/>
     <col min="7" max="7" width="30" style="76" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="91" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="171" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" s="91" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A2" s="172" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B3" s="25"/>
       <c r="C3" s="131"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>0</v>
       </c>
@@ -5760,18 +5757,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167">
+    <row r="5" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="169">
         <v>1</v>
       </c>
-      <c r="B5" s="165">
+      <c r="B5" s="166">
         <v>44013</v>
       </c>
       <c r="C5" s="130">
         <v>1</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="98">
         <v>750000</v>
@@ -5779,9 +5776,9 @@
       <c r="F5" s="138"/>
       <c r="G5" s="139"/>
     </row>
-    <row r="6" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="168"/>
-      <c r="B6" s="170"/>
+    <row r="6" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="170"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="130">
         <v>2</v>
       </c>
@@ -5794,14 +5791,14 @@
       <c r="F6" s="88"/>
       <c r="G6" s="77"/>
     </row>
-    <row r="7" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="168"/>
-      <c r="B7" s="170"/>
+    <row r="7" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="170"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="130">
         <v>3</v>
       </c>
       <c r="D7" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="87">
         <v>560000</v>
@@ -5809,14 +5806,14 @@
       <c r="F7" s="88"/>
       <c r="G7" s="77"/>
     </row>
-    <row r="8" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="168"/>
-      <c r="B8" s="170"/>
+    <row r="8" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="170"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="130">
         <v>4</v>
       </c>
       <c r="D8" s="134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="87">
         <v>870000</v>
@@ -5824,14 +5821,14 @@
       <c r="F8" s="88"/>
       <c r="G8" s="77"/>
     </row>
-    <row r="9" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="168"/>
-      <c r="B9" s="170"/>
+    <row r="9" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="170"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="130">
         <v>5</v>
       </c>
       <c r="D9" s="134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="87">
         <v>275000</v>
@@ -5839,9 +5836,9 @@
       <c r="F9" s="88"/>
       <c r="G9" s="77"/>
     </row>
-    <row r="10" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
-      <c r="B10" s="166"/>
+    <row r="10" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="171"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="130">
         <v>6</v>
       </c>
@@ -5854,11 +5851,11 @@
       <c r="F10" s="88"/>
       <c r="G10" s="77"/>
     </row>
-    <row r="11" spans="1:7" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86">
         <v>2</v>
       </c>
-      <c r="B11" s="165">
+      <c r="B11" s="166">
         <v>44014</v>
       </c>
       <c r="C11" s="130"/>
@@ -5869,9 +5866,9 @@
       <c r="F11" s="88"/>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:7" s="103" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="103" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="102"/>
-      <c r="B12" s="166"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="130"/>
       <c r="D12" s="134"/>
       <c r="E12" s="87">
@@ -5880,18 +5877,18 @@
       <c r="F12" s="88"/>
       <c r="G12" s="77"/>
     </row>
-    <row r="13" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="167">
+    <row r="13" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="169">
         <v>2</v>
       </c>
-      <c r="B13" s="165">
+      <c r="B13" s="166">
         <v>44015</v>
       </c>
       <c r="C13" s="130">
         <v>1</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="87">
         <v>650000</v>
@@ -5899,14 +5896,14 @@
       <c r="F13" s="88"/>
       <c r="G13" s="100"/>
     </row>
-    <row r="14" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="168"/>
-      <c r="B14" s="170"/>
+    <row r="14" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="170"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="130">
         <v>2</v>
       </c>
       <c r="D14" s="134" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="87">
         <v>1820000</v>
@@ -5914,14 +5911,14 @@
       <c r="F14" s="88"/>
       <c r="G14" s="100"/>
     </row>
-    <row r="15" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="168"/>
-      <c r="B15" s="170"/>
+    <row r="15" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="170"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="130">
         <v>3</v>
       </c>
       <c r="D15" s="134" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="87">
         <v>436000</v>
@@ -5929,9 +5926,9 @@
       <c r="F15" s="88"/>
       <c r="G15" s="100"/>
     </row>
-    <row r="16" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="168"/>
-      <c r="B16" s="170"/>
+    <row r="16" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="170"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="130">
         <v>4</v>
       </c>
@@ -5944,9 +5941,9 @@
       </c>
       <c r="G16" s="100"/>
     </row>
-    <row r="17" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="168"/>
-      <c r="B17" s="170"/>
+    <row r="17" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="170"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="130">
         <v>5</v>
       </c>
@@ -5958,21 +5955,21 @@
       </c>
       <c r="F17" s="88"/>
       <c r="G17" s="100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="167">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="169">
         <v>3</v>
       </c>
-      <c r="B18" s="165">
+      <c r="B18" s="166">
         <v>44016</v>
       </c>
       <c r="C18" s="130">
         <v>1</v>
       </c>
       <c r="D18" s="134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="87">
         <v>2800000</v>
@@ -5980,14 +5977,14 @@
       <c r="F18" s="88"/>
       <c r="G18" s="100"/>
     </row>
-    <row r="19" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="168"/>
-      <c r="B19" s="170"/>
+    <row r="19" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="170"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="130">
         <v>2</v>
       </c>
       <c r="D19" s="134" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="87">
         <v>650000</v>
@@ -5995,14 +5992,14 @@
       <c r="F19" s="88"/>
       <c r="G19" s="100"/>
     </row>
-    <row r="20" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="168"/>
-      <c r="B20" s="170"/>
+    <row r="20" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="170"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="130">
         <v>3</v>
       </c>
       <c r="D20" s="134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="87">
         <v>1950000</v>
@@ -6010,14 +6007,14 @@
       <c r="F20" s="88"/>
       <c r="G20" s="100"/>
     </row>
-    <row r="21" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="168"/>
-      <c r="B21" s="170"/>
+    <row r="21" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="170"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="130">
         <v>4</v>
       </c>
       <c r="D21" s="134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" s="87">
         <v>2080000</v>
@@ -6025,14 +6022,14 @@
       <c r="F21" s="88"/>
       <c r="G21" s="100"/>
     </row>
-    <row r="22" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="168"/>
-      <c r="B22" s="170"/>
+    <row r="22" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="170"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="130">
         <v>5</v>
       </c>
       <c r="D22" s="134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="87">
         <v>2300000</v>
@@ -6040,14 +6037,14 @@
       <c r="F22" s="88"/>
       <c r="G22" s="100"/>
     </row>
-    <row r="23" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="168"/>
-      <c r="B23" s="170"/>
+    <row r="23" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="170"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="130">
         <v>6</v>
       </c>
       <c r="D23" s="134" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="87">
         <v>1560000</v>
@@ -6055,14 +6052,14 @@
       <c r="F23" s="88"/>
       <c r="G23" s="100"/>
     </row>
-    <row r="24" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="166"/>
+    <row r="24" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="171"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="130">
         <v>7</v>
       </c>
       <c r="D24" s="134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="87"/>
       <c r="F24" s="88">
@@ -6070,35 +6067,35 @@
       </c>
       <c r="G24" s="100"/>
     </row>
-    <row r="25" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="167">
+    <row r="25" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="169">
         <v>4</v>
       </c>
-      <c r="B25" s="165">
+      <c r="B25" s="166">
         <v>44023</v>
       </c>
       <c r="C25" s="130">
         <v>1</v>
       </c>
       <c r="D25" s="135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="87">
         <v>4950000</v>
       </c>
       <c r="F25" s="88"/>
       <c r="G25" s="100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="168"/>
-      <c r="B26" s="170"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="170"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="130">
         <v>2</v>
       </c>
       <c r="D26" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="87">
         <v>2500000</v>
@@ -6106,14 +6103,14 @@
       <c r="F26" s="88"/>
       <c r="G26" s="77"/>
     </row>
-    <row r="27" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="168"/>
-      <c r="B27" s="170"/>
+    <row r="27" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="170"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="130">
         <v>3</v>
       </c>
       <c r="D27" s="135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" s="87">
         <v>4050000</v>
@@ -6121,14 +6118,14 @@
       <c r="F27" s="88"/>
       <c r="G27" s="77"/>
     </row>
-    <row r="28" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="169"/>
-      <c r="B28" s="166"/>
+    <row r="28" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="171"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="130">
         <v>4</v>
       </c>
       <c r="D28" s="134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="87">
         <v>1500000</v>
@@ -6136,54 +6133,54 @@
       <c r="F28" s="88"/>
       <c r="G28" s="140"/>
     </row>
-    <row r="29" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="167">
+    <row r="29" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="169">
         <v>5</v>
       </c>
-      <c r="B29" s="165">
+      <c r="B29" s="166">
         <v>44026</v>
       </c>
       <c r="C29" s="130">
         <v>1</v>
       </c>
       <c r="D29" s="134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="87">
         <v>1500000</v>
       </c>
       <c r="F29" s="88"/>
-      <c r="G29" s="167" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="169"/>
-      <c r="B30" s="166"/>
+      <c r="G29" s="169" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="171"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="130">
         <v>2</v>
       </c>
       <c r="D30" s="134" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="87">
         <v>1500000</v>
       </c>
       <c r="F30" s="88"/>
-      <c r="G30" s="169"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="167">
+      <c r="G30" s="171"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="169">
         <v>6</v>
       </c>
-      <c r="B31" s="165">
+      <c r="B31" s="166">
         <v>44027</v>
       </c>
       <c r="C31" s="130">
         <v>1</v>
       </c>
       <c r="D31" s="134" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="87">
         <v>5300000</v>
@@ -6191,14 +6188,14 @@
       <c r="F31" s="88"/>
       <c r="G31" s="77"/>
     </row>
-    <row r="32" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="168"/>
-      <c r="B32" s="170"/>
+    <row r="32" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="170"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="130">
         <v>2</v>
       </c>
       <c r="D32" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="87">
         <v>560000</v>
@@ -6206,9 +6203,9 @@
       <c r="F32" s="88"/>
       <c r="G32" s="77"/>
     </row>
-    <row r="33" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="168"/>
-      <c r="B33" s="170"/>
+    <row r="33" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="170"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="130">
         <v>3</v>
       </c>
@@ -6221,14 +6218,14 @@
       <c r="F33" s="88"/>
       <c r="G33" s="77"/>
     </row>
-    <row r="34" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="169"/>
-      <c r="B34" s="166"/>
+    <row r="34" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="171"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="130">
         <v>4</v>
       </c>
       <c r="D34" s="134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" s="87">
         <v>360000</v>
@@ -6236,7 +6233,7 @@
       <c r="F34" s="88"/>
       <c r="G34" s="77"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="145">
         <v>7</v>
       </c>
@@ -6254,10 +6251,10 @@
       </c>
       <c r="F35" s="88"/>
       <c r="G35" s="77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="86">
         <v>20</v>
       </c>
@@ -6272,7 +6269,7 @@
       <c r="F36" s="88"/>
       <c r="G36" s="77"/>
     </row>
-    <row r="37" spans="1:7" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="86">
         <v>21</v>
       </c>
@@ -6287,18 +6284,18 @@
       <c r="F37" s="88"/>
       <c r="G37" s="77"/>
     </row>
-    <row r="38" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="86">
         <v>22</v>
       </c>
-      <c r="B38" s="165">
+      <c r="B38" s="166">
         <v>44032</v>
       </c>
       <c r="C38" s="130">
         <v>1</v>
       </c>
       <c r="D38" s="134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="87">
         <v>700000</v>
@@ -6306,14 +6303,14 @@
       <c r="F38" s="88"/>
       <c r="G38" s="77"/>
     </row>
-    <row r="39" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="146"/>
-      <c r="B39" s="170"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="130">
         <v>2</v>
       </c>
       <c r="D39" s="134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="87">
         <v>1800000</v>
@@ -6321,14 +6318,14 @@
       <c r="F39" s="88"/>
       <c r="G39" s="77"/>
     </row>
-    <row r="40" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="146"/>
-      <c r="B40" s="170"/>
+      <c r="B40" s="167"/>
       <c r="C40" s="130">
         <v>3</v>
       </c>
       <c r="D40" s="134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="87">
         <v>360000</v>
@@ -6336,14 +6333,14 @@
       <c r="F40" s="88"/>
       <c r="G40" s="77"/>
     </row>
-    <row r="41" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="146"/>
-      <c r="B41" s="170"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="130">
         <v>4</v>
       </c>
       <c r="D41" s="134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" s="87">
         <v>315000</v>
@@ -6351,14 +6348,14 @@
       <c r="F41" s="88"/>
       <c r="G41" s="77"/>
     </row>
-    <row r="42" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="146"/>
-      <c r="B42" s="170"/>
+      <c r="B42" s="167"/>
       <c r="C42" s="130">
         <v>5</v>
       </c>
       <c r="D42" s="134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="87">
         <v>620000</v>
@@ -6366,14 +6363,14 @@
       <c r="F42" s="88"/>
       <c r="G42" s="77"/>
     </row>
-    <row r="43" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="146"/>
-      <c r="B43" s="170"/>
+      <c r="B43" s="167"/>
       <c r="C43" s="130">
         <v>6</v>
       </c>
       <c r="D43" s="134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="87">
         <v>1020000</v>
@@ -6381,14 +6378,14 @@
       <c r="F43" s="88"/>
       <c r="G43" s="77"/>
     </row>
-    <row r="44" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="146"/>
-      <c r="B44" s="170"/>
+      <c r="B44" s="167"/>
       <c r="C44" s="130">
         <v>7</v>
       </c>
       <c r="D44" s="134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E44" s="87">
         <v>380000</v>
@@ -6396,14 +6393,14 @@
       <c r="F44" s="88"/>
       <c r="G44" s="77"/>
     </row>
-    <row r="45" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="146"/>
-      <c r="B45" s="166"/>
+      <c r="B45" s="168"/>
       <c r="C45" s="130">
         <v>8</v>
       </c>
       <c r="D45" s="134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="87">
         <v>113000</v>
@@ -6411,7 +6408,7 @@
       <c r="F45" s="88"/>
       <c r="G45" s="77"/>
     </row>
-    <row r="46" spans="1:7" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="86">
         <v>23</v>
       </c>
@@ -6426,7 +6423,7 @@
       <c r="F46" s="88"/>
       <c r="G46" s="77"/>
     </row>
-    <row r="47" spans="1:7" s="65" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="65" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="86">
         <v>24</v>
       </c>
@@ -6441,11 +6438,11 @@
       <c r="F47" s="88"/>
       <c r="G47" s="77"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="86">
         <v>25</v>
       </c>
-      <c r="B48" s="165">
+      <c r="B48" s="166">
         <v>44035</v>
       </c>
       <c r="C48" s="130">
@@ -6460,16 +6457,16 @@
       <c r="F48" s="88"/>
       <c r="G48" s="77"/>
     </row>
-    <row r="49" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="86">
         <v>27</v>
       </c>
-      <c r="B49" s="166"/>
+      <c r="B49" s="168"/>
       <c r="C49" s="130">
         <v>2</v>
       </c>
       <c r="D49" s="134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E49" s="87">
         <v>645000</v>
@@ -6477,11 +6474,11 @@
       <c r="F49" s="88"/>
       <c r="G49" s="77"/>
     </row>
-    <row r="50" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="86">
         <v>27</v>
       </c>
-      <c r="B50" s="165">
+      <c r="B50" s="166">
         <v>44039</v>
       </c>
       <c r="C50" s="130"/>
@@ -6492,11 +6489,11 @@
       <c r="F50" s="88"/>
       <c r="G50" s="77"/>
     </row>
-    <row r="51" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="86">
         <v>27</v>
       </c>
-      <c r="B51" s="166"/>
+      <c r="B51" s="168"/>
       <c r="C51" s="130"/>
       <c r="D51" s="134"/>
       <c r="E51" s="87">
@@ -6505,7 +6502,7 @@
       <c r="F51" s="88"/>
       <c r="G51" s="77"/>
     </row>
-    <row r="52" spans="1:7" s="67" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="67" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="86">
         <v>28</v>
       </c>
@@ -6520,11 +6517,11 @@
       <c r="F52" s="88"/>
       <c r="G52" s="77"/>
     </row>
-    <row r="53" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="167">
+    <row r="53" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="169">
         <v>29</v>
       </c>
-      <c r="B53" s="165">
+      <c r="B53" s="166">
         <v>44040</v>
       </c>
       <c r="C53" s="130"/>
@@ -6535,9 +6532,9 @@
       <c r="F53" s="88"/>
       <c r="G53" s="77"/>
     </row>
-    <row r="54" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="168"/>
-      <c r="B54" s="170"/>
+    <row r="54" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="170"/>
+      <c r="B54" s="167"/>
       <c r="C54" s="130"/>
       <c r="D54" s="134"/>
       <c r="E54" s="87">
@@ -6546,9 +6543,9 @@
       <c r="F54" s="88"/>
       <c r="G54" s="77"/>
     </row>
-    <row r="55" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="168"/>
-      <c r="B55" s="170"/>
+    <row r="55" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="170"/>
+      <c r="B55" s="167"/>
       <c r="C55" s="130"/>
       <c r="D55" s="134"/>
       <c r="E55" s="87">
@@ -6557,9 +6554,9 @@
       <c r="F55" s="88"/>
       <c r="G55" s="77"/>
     </row>
-    <row r="56" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="168"/>
-      <c r="B56" s="170"/>
+    <row r="56" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="170"/>
+      <c r="B56" s="167"/>
       <c r="C56" s="130"/>
       <c r="D56" s="134"/>
       <c r="E56" s="87">
@@ -6568,9 +6565,9 @@
       <c r="F56" s="88"/>
       <c r="G56" s="77"/>
     </row>
-    <row r="57" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="168"/>
-      <c r="B57" s="170"/>
+    <row r="57" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="170"/>
+      <c r="B57" s="167"/>
       <c r="C57" s="130"/>
       <c r="D57" s="134"/>
       <c r="E57" s="87">
@@ -6579,9 +6576,9 @@
       <c r="F57" s="88"/>
       <c r="G57" s="77"/>
     </row>
-    <row r="58" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="169"/>
-      <c r="B58" s="166"/>
+    <row r="58" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="171"/>
+      <c r="B58" s="168"/>
       <c r="C58" s="130"/>
       <c r="D58" s="134"/>
       <c r="E58" s="87">
@@ -6590,7 +6587,7 @@
       <c r="F58" s="88"/>
       <c r="G58" s="77"/>
     </row>
-    <row r="59" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="86">
         <v>30</v>
       </c>
@@ -6605,35 +6602,35 @@
       <c r="F59" s="88"/>
       <c r="G59" s="77"/>
     </row>
-    <row r="60" spans="1:7" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="86">
         <v>32</v>
       </c>
-      <c r="B60" s="191">
+      <c r="B60" s="165">
         <v>44042</v>
       </c>
       <c r="C60" s="130">
         <v>1</v>
       </c>
       <c r="D60" s="134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="87">
         <v>1500000</v>
       </c>
       <c r="F60" s="88"/>
       <c r="G60" s="100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="146"/>
-      <c r="B61" s="191"/>
+      <c r="B61" s="165"/>
       <c r="C61" s="130">
         <v>2</v>
       </c>
       <c r="D61" s="134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="87">
         <v>1553000</v>
@@ -6641,16 +6638,16 @@
       <c r="F61" s="88"/>
       <c r="G61" s="77"/>
     </row>
-    <row r="62" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="146"/>
-      <c r="B62" s="165">
+      <c r="B62" s="166">
         <v>44043</v>
       </c>
       <c r="C62" s="130">
         <v>1</v>
       </c>
       <c r="D62" s="134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E62" s="87">
         <v>2300000</v>
@@ -6658,14 +6655,14 @@
       <c r="F62" s="88"/>
       <c r="G62" s="77"/>
     </row>
-    <row r="63" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="146"/>
-      <c r="B63" s="170"/>
+      <c r="B63" s="167"/>
       <c r="C63" s="130">
         <v>2</v>
       </c>
       <c r="D63" s="134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" s="87">
         <v>870000</v>
@@ -6673,14 +6670,14 @@
       <c r="F63" s="88"/>
       <c r="G63" s="77"/>
     </row>
-    <row r="64" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="146"/>
-      <c r="B64" s="170"/>
+      <c r="B64" s="167"/>
       <c r="C64" s="130">
         <v>3</v>
       </c>
       <c r="D64" s="134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" s="87">
         <v>240000</v>
@@ -6688,14 +6685,14 @@
       <c r="F64" s="88"/>
       <c r="G64" s="77"/>
     </row>
-    <row r="65" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="146"/>
-      <c r="B65" s="170"/>
+      <c r="B65" s="167"/>
       <c r="C65" s="130">
         <v>4</v>
       </c>
       <c r="D65" s="134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E65" s="87">
         <v>430000</v>
@@ -6703,14 +6700,14 @@
       <c r="F65" s="88"/>
       <c r="G65" s="77"/>
     </row>
-    <row r="66" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="146"/>
-      <c r="B66" s="170"/>
+      <c r="B66" s="167"/>
       <c r="C66" s="130">
         <v>5</v>
       </c>
       <c r="D66" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E66" s="87">
         <v>30000</v>
@@ -6718,14 +6715,14 @@
       <c r="F66" s="88"/>
       <c r="G66" s="77"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="86"/>
-      <c r="B67" s="166"/>
+      <c r="B67" s="168"/>
       <c r="C67" s="130">
         <v>6</v>
       </c>
       <c r="D67" s="134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="87">
         <v>1050000</v>
@@ -6733,7 +6730,7 @@
       <c r="F67" s="42"/>
       <c r="G67" s="77"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="34">
         <v>35</v>
       </c>
@@ -6752,7 +6749,7 @@
       </c>
       <c r="G68" s="78"/>
     </row>
-    <row r="69" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="84"/>
       <c r="B69" s="20"/>
       <c r="C69" s="132"/>
@@ -6763,6 +6760,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="B53:B58"/>
@@ -6779,16 +6782,10 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6803,27 +6800,27 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="115"/>
+    <col min="1" max="1" width="4.44140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="115"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="173" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -6843,7 +6840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -6851,7 +6848,7 @@
         <v>44013</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="26">
         <v>200</v>
@@ -6861,7 +6858,7 @@
       </c>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>2</v>
       </c>
@@ -6873,9 +6870,9 @@
       <c r="E6" s="42"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" s="105" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="105" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="173">
+      <c r="B7" s="174">
         <v>44015</v>
       </c>
       <c r="C7" s="34"/>
@@ -6883,17 +6880,17 @@
       <c r="E7" s="42"/>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="174"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="42"/>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>4</v>
       </c>
@@ -6905,7 +6902,7 @@
       <c r="E9" s="42"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <v>5</v>
       </c>
@@ -6913,17 +6910,17 @@
         <v>44017</v>
       </c>
       <c r="C10" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>119</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>120</v>
       </c>
       <c r="E10" s="42">
         <v>50000</v>
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <v>7</v>
       </c>
@@ -6935,7 +6932,7 @@
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <v>7</v>
       </c>
@@ -6947,7 +6944,7 @@
       <c r="E12" s="42"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>8</v>
       </c>
@@ -6959,7 +6956,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <v>9</v>
       </c>
@@ -6971,7 +6968,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6" s="82" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="82" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <v>10</v>
       </c>
@@ -6983,7 +6980,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <v>11</v>
       </c>
@@ -6991,17 +6988,17 @@
         <v>44023</v>
       </c>
       <c r="C16" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>121</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>122</v>
       </c>
       <c r="E16" s="42">
         <v>50000</v>
       </c>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <v>12</v>
       </c>
@@ -7013,7 +7010,7 @@
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <v>13</v>
       </c>
@@ -7025,7 +7022,7 @@
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>14</v>
       </c>
@@ -7037,7 +7034,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <v>15</v>
       </c>
@@ -7049,7 +7046,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>17</v>
       </c>
@@ -7057,7 +7054,7 @@
         <v>44028</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="34">
         <v>200</v>
@@ -7067,7 +7064,7 @@
       </c>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <v>17</v>
       </c>
@@ -7079,7 +7076,7 @@
       <c r="E22" s="42"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <v>18</v>
       </c>
@@ -7091,7 +7088,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>19</v>
       </c>
@@ -7099,17 +7096,17 @@
         <v>44031</v>
       </c>
       <c r="C24" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>124</v>
       </c>
       <c r="E24" s="42">
         <v>30000</v>
       </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <v>20</v>
       </c>
@@ -7117,17 +7114,17 @@
         <v>44032</v>
       </c>
       <c r="C25" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>142</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>143</v>
       </c>
       <c r="E25" s="42">
         <v>500000</v>
       </c>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <v>21</v>
       </c>
@@ -7139,7 +7136,7 @@
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <v>22</v>
       </c>
@@ -7151,7 +7148,7 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <v>23</v>
       </c>
@@ -7163,7 +7160,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <v>24</v>
       </c>
@@ -7175,11 +7172,11 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <v>25</v>
       </c>
-      <c r="B30" s="175">
+      <c r="B30" s="176">
         <v>44039</v>
       </c>
       <c r="C30" s="34"/>
@@ -7187,17 +7184,17 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <v>27</v>
       </c>
-      <c r="B31" s="176"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -7209,7 +7206,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <v>28</v>
       </c>
@@ -7217,17 +7214,17 @@
         <v>44040</v>
       </c>
       <c r="C33" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>145</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>146</v>
       </c>
       <c r="E33" s="42">
         <v>570000</v>
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <v>29</v>
       </c>
@@ -7239,41 +7236,41 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="34">
         <v>30</v>
       </c>
-      <c r="B35" s="192">
+      <c r="B35" s="178">
         <v>44042</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="42">
         <v>50000</v>
       </c>
       <c r="F35" s="34"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="34">
         <v>31</v>
       </c>
-      <c r="B36" s="193"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" s="42">
         <v>50000</v>
       </c>
       <c r="F36" s="34"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="26">
         <v>32</v>
       </c>
@@ -7306,31 +7303,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V32"/>
+  <dimension ref="A2:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="180" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -7347,7 +7344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="104" t="s">
         <v>56</v>
@@ -7362,10 +7359,10 @@
         <v>5825000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="112">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="C5" s="121" t="s">
         <v>80</v>
@@ -7377,171 +7374,167 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="88">
-        <v>1032000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
-      <c r="B7" s="112" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="88">
-        <v>780000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="179" t="s">
+      <c r="B7" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="48">
-        <f>SUM(E4:E7)</f>
-        <v>9137000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="48">
+        <f>SUM(E4:E6)</f>
+        <v>8105000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="63"/>
       <c r="D10" s="63"/>
       <c r="E10" s="63"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="63"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" s="63"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13" s="63"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="K19" s="63"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="63"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
       <c r="K21" s="63"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="K22" s="63"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
+      <c r="F23" s="8"/>
       <c r="K23" s="63"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" s="8"/>
       <c r="K24" s="63"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="K25" s="63"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -7552,49 +7545,38 @@
       <c r="R27" s="63"/>
       <c r="S27" s="63"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O28" s="63"/>
       <c r="P28" s="63"/>
       <c r="Q28" s="63"/>
       <c r="R28" s="63"/>
       <c r="S28" s="63"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O29" s="63"/>
       <c r="P29" s="63"/>
       <c r="Q29" s="63"/>
       <c r="R29" s="63"/>
       <c r="S29" s="63"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O30" s="63"/>
       <c r="P30" s="63"/>
       <c r="Q30" s="63"/>
       <c r="R30" s="63"/>
       <c r="S30" s="63"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O31" s="63"/>
       <c r="P31" s="63"/>
       <c r="Q31" s="63"/>
       <c r="R31" s="63"/>
       <c r="S31" s="63"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7610,45 +7592,45 @@
   </sheetPr>
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="180" t="s">
+    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="173" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
@@ -7659,7 +7641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="31">
         <v>1</v>
       </c>
@@ -7678,7 +7660,7 @@
         <v>107420000</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="31">
         <v>2</v>
       </c>
@@ -7698,7 +7680,7 @@
         <v>19508000</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="31">
         <v>3</v>
       </c>
@@ -7713,11 +7695,11 @@
         <v>49</v>
       </c>
       <c r="H10" s="47">
-        <f>nợ!E8+nhập!F68</f>
-        <v>32087000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <f>nợ!E7+nhập!F68</f>
+        <v>31055000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="31">
         <v>4</v>
       </c>
@@ -7731,20 +7713,20 @@
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C12"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="181" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-    </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+    </row>
+    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -7758,11 +7740,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="188" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7772,11 +7754,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="185"/>
+      <c r="C18" s="188"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7784,23 +7766,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="185"/>
+      <c r="C19" s="188"/>
       <c r="D19" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="185"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7809,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="36">
         <v>7</v>
       </c>
@@ -7824,7 +7806,7 @@
         <v>73276000</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30">
         <v>7</v>
       </c>
@@ -7839,62 +7821,62 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="186" t="s">
+      <c r="C23" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="187"/>
+      <c r="D23" s="190"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
         <v>74676000</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="180" t="s">
+    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-    </row>
-    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="182">
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+    </row>
+    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="185">
         <f>SUM(D11,-E23)</f>
         <v>126928000</v>
       </c>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="184"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="187"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -7917,42 +7899,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805A625-BAF6-47D2-B82C-BA12E06CE220}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="190" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="193" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="181"/>
+      <c r="B2" s="184"/>
       <c r="D2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="111"/>
       <c r="B3" s="111"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>61</v>
       </c>
@@ -7968,7 +7950,7 @@
         <v>94184000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>62</v>
       </c>
@@ -7984,7 +7966,7 @@
         <v>64506641</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>63</v>
       </c>
@@ -8000,25 +7982,25 @@
         <v>29677359</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="181" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="181"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="188" t="s">
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="188" t="s">
+      <c r="B9" s="192"/>
+      <c r="C9" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="189"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="192"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>70</v>
       </c>
@@ -8033,9 +8015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="116"/>
       <c r="C11" s="23" t="s">
@@ -8046,15 +8028,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="47"/>
       <c r="C12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="47"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="47">
+        <v>89187956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>72</v>
       </c>
@@ -8067,22 +8051,19 @@
       </c>
       <c r="D13" s="47">
         <f>D12+D11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89187956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="8"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <f>B13-D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
   </sheetData>

--- a/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22D34A3-3632-48BC-921F-DC7C0C51A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9394CC4-167B-4294-A9CC-BFCAFD369C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1143,6 +1141,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,9 +1161,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1180,18 +1184,18 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,12 +1206,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1619,11 +1617,11 @@
   <dimension ref="A2:AP42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39:D39"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,99 +1661,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:42" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="162" t="s">
+      <c r="A4" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="160" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="153" t="s">
+      <c r="F4" s="163"/>
+      <c r="G4" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153" t="s">
+      <c r="H4" s="149"/>
+      <c r="I4" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="154" t="s">
+      <c r="J4" s="149"/>
+      <c r="K4" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="153" t="s">
+      <c r="L4" s="156"/>
+      <c r="M4" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153" t="s">
+      <c r="N4" s="149"/>
+      <c r="O4" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153" t="s">
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153" t="s">
+      <c r="R4" s="149"/>
+      <c r="S4" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="153"/>
-      <c r="U4" s="155" t="s">
+      <c r="T4" s="149"/>
+      <c r="U4" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="158" t="s">
+      <c r="V4" s="157"/>
+      <c r="W4" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="156" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="152" t="s">
+      <c r="Z4" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="153" t="s">
+      <c r="AA4" s="149" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1822,9 +1820,9 @@
       <c r="X5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="157"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="153"/>
+      <c r="Y5" s="159"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="149"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -4839,7 +4837,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="39">
-        <f t="shared" ref="E37:U37" si="13">SUM(F7:F36)</f>
+        <f t="shared" ref="F37:U37" si="13">SUM(F7:F36)</f>
         <v>1600000</v>
       </c>
       <c r="G37" s="39">
@@ -4929,65 +4927,65 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="163">
+      <c r="C38" s="151">
         <v>92</v>
       </c>
-      <c r="D38" s="163"/>
+      <c r="D38" s="151"/>
       <c r="E38" s="107"/>
       <c r="F38" s="107"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
-      <c r="N38" s="149"/>
-      <c r="O38" s="149"/>
-      <c r="P38" s="149"/>
-      <c r="Q38" s="149"/>
-      <c r="R38" s="149"/>
-      <c r="S38" s="149"/>
-      <c r="T38" s="149"/>
-      <c r="U38" s="149"/>
-      <c r="V38" s="149"/>
-      <c r="W38" s="149"/>
-      <c r="X38" s="149"/>
-      <c r="Y38" s="149"/>
-      <c r="Z38" s="149"/>
-      <c r="AA38" s="149"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="152"/>
+      <c r="O38" s="152"/>
+      <c r="P38" s="152"/>
+      <c r="Q38" s="152"/>
+      <c r="R38" s="152"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="152"/>
+      <c r="U38" s="152"/>
+      <c r="V38" s="152"/>
+      <c r="W38" s="152"/>
+      <c r="X38" s="152"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="152"/>
+      <c r="AA38" s="152"/>
     </row>
     <row r="39" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="150">
+      <c r="C39" s="153">
         <v>289</v>
       </c>
-      <c r="D39" s="150"/>
+      <c r="D39" s="153"/>
       <c r="E39" s="108"/>
       <c r="F39" s="108"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="149"/>
-      <c r="P39" s="149"/>
-      <c r="Q39" s="149"/>
-      <c r="R39" s="149"/>
-      <c r="S39" s="149"/>
-      <c r="T39" s="149"/>
-      <c r="U39" s="149"/>
-      <c r="V39" s="149"/>
-      <c r="W39" s="149"/>
-      <c r="X39" s="149"/>
-      <c r="Y39" s="149"/>
-      <c r="Z39" s="149"/>
-      <c r="AA39" s="149"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
+      <c r="S39" s="152"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="152"/>
+      <c r="V39" s="152"/>
+      <c r="W39" s="152"/>
+      <c r="X39" s="152"/>
+      <c r="Y39" s="152"/>
+      <c r="Z39" s="152"/>
+      <c r="AA39" s="152"/>
       <c r="AD39" s="11" t="s">
         <v>9</v>
       </c>
@@ -5003,11 +5001,6 @@
   </sheetData>
   <autoFilter ref="AA4:AA39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="G39:AA39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AA2"/>
@@ -5024,6 +5017,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5761,10 +5759,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167">
+      <c r="A5" s="169">
         <v>1</v>
       </c>
-      <c r="B5" s="165">
+      <c r="B5" s="166">
         <v>44013</v>
       </c>
       <c r="C5" s="130">
@@ -5780,8 +5778,8 @@
       <c r="G5" s="139"/>
     </row>
     <row r="6" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="168"/>
-      <c r="B6" s="170"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="130">
         <v>2</v>
       </c>
@@ -5795,8 +5793,8 @@
       <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="168"/>
-      <c r="B7" s="170"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="130">
         <v>3</v>
       </c>
@@ -5810,8 +5808,8 @@
       <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="168"/>
-      <c r="B8" s="170"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="130">
         <v>4</v>
       </c>
@@ -5825,8 +5823,8 @@
       <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="168"/>
-      <c r="B9" s="170"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="130">
         <v>5</v>
       </c>
@@ -5840,8 +5838,8 @@
       <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
-      <c r="B10" s="166"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="130">
         <v>6</v>
       </c>
@@ -5858,7 +5856,7 @@
       <c r="A11" s="86">
         <v>2</v>
       </c>
-      <c r="B11" s="165">
+      <c r="B11" s="166">
         <v>44014</v>
       </c>
       <c r="C11" s="130"/>
@@ -5871,7 +5869,7 @@
     </row>
     <row r="12" spans="1:7" s="103" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="102"/>
-      <c r="B12" s="166"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="130"/>
       <c r="D12" s="134"/>
       <c r="E12" s="87">
@@ -5881,10 +5879,10 @@
       <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="167">
+      <c r="A13" s="169">
         <v>2</v>
       </c>
-      <c r="B13" s="165">
+      <c r="B13" s="166">
         <v>44015</v>
       </c>
       <c r="C13" s="130">
@@ -5900,8 +5898,8 @@
       <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="168"/>
-      <c r="B14" s="170"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="130">
         <v>2</v>
       </c>
@@ -5915,8 +5913,8 @@
       <c r="G14" s="100"/>
     </row>
     <row r="15" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="168"/>
-      <c r="B15" s="170"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="130">
         <v>3</v>
       </c>
@@ -5930,8 +5928,8 @@
       <c r="G15" s="100"/>
     </row>
     <row r="16" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="168"/>
-      <c r="B16" s="170"/>
+      <c r="A16" s="170"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="130">
         <v>4</v>
       </c>
@@ -5945,8 +5943,8 @@
       <c r="G16" s="100"/>
     </row>
     <row r="17" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="168"/>
-      <c r="B17" s="170"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="130">
         <v>5</v>
       </c>
@@ -5962,10 +5960,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="167">
+      <c r="A18" s="169">
         <v>3</v>
       </c>
-      <c r="B18" s="165">
+      <c r="B18" s="166">
         <v>44016</v>
       </c>
       <c r="C18" s="130">
@@ -5981,8 +5979,8 @@
       <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="168"/>
-      <c r="B19" s="170"/>
+      <c r="A19" s="170"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="130">
         <v>2</v>
       </c>
@@ -5996,8 +5994,8 @@
       <c r="G19" s="100"/>
     </row>
     <row r="20" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="168"/>
-      <c r="B20" s="170"/>
+      <c r="A20" s="170"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="130">
         <v>3</v>
       </c>
@@ -6011,8 +6009,8 @@
       <c r="G20" s="100"/>
     </row>
     <row r="21" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="168"/>
-      <c r="B21" s="170"/>
+      <c r="A21" s="170"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="130">
         <v>4</v>
       </c>
@@ -6026,8 +6024,8 @@
       <c r="G21" s="100"/>
     </row>
     <row r="22" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="168"/>
-      <c r="B22" s="170"/>
+      <c r="A22" s="170"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="130">
         <v>5</v>
       </c>
@@ -6041,8 +6039,8 @@
       <c r="G22" s="100"/>
     </row>
     <row r="23" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="168"/>
-      <c r="B23" s="170"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="130">
         <v>6</v>
       </c>
@@ -6056,8 +6054,8 @@
       <c r="G23" s="100"/>
     </row>
     <row r="24" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="166"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="130">
         <v>7</v>
       </c>
@@ -6071,10 +6069,10 @@
       <c r="G24" s="100"/>
     </row>
     <row r="25" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="167">
+      <c r="A25" s="169">
         <v>4</v>
       </c>
-      <c r="B25" s="165">
+      <c r="B25" s="166">
         <v>44023</v>
       </c>
       <c r="C25" s="130">
@@ -6092,8 +6090,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="168"/>
-      <c r="B26" s="170"/>
+      <c r="A26" s="170"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="130">
         <v>2</v>
       </c>
@@ -6107,8 +6105,8 @@
       <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="168"/>
-      <c r="B27" s="170"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="130">
         <v>3</v>
       </c>
@@ -6122,8 +6120,8 @@
       <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="169"/>
-      <c r="B28" s="166"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="130">
         <v>4</v>
       </c>
@@ -6137,10 +6135,10 @@
       <c r="G28" s="140"/>
     </row>
     <row r="29" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="167">
+      <c r="A29" s="169">
         <v>5</v>
       </c>
-      <c r="B29" s="165">
+      <c r="B29" s="166">
         <v>44026</v>
       </c>
       <c r="C29" s="130">
@@ -6153,13 +6151,13 @@
         <v>1500000</v>
       </c>
       <c r="F29" s="88"/>
-      <c r="G29" s="167" t="s">
+      <c r="G29" s="169" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="169"/>
-      <c r="B30" s="166"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="130">
         <v>2</v>
       </c>
@@ -6170,13 +6168,13 @@
         <v>1500000</v>
       </c>
       <c r="F30" s="88"/>
-      <c r="G30" s="169"/>
+      <c r="G30" s="171"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="167">
+      <c r="A31" s="169">
         <v>6</v>
       </c>
-      <c r="B31" s="165">
+      <c r="B31" s="166">
         <v>44027</v>
       </c>
       <c r="C31" s="130">
@@ -6192,8 +6190,8 @@
       <c r="G31" s="77"/>
     </row>
     <row r="32" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="168"/>
-      <c r="B32" s="170"/>
+      <c r="A32" s="170"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="130">
         <v>2</v>
       </c>
@@ -6207,8 +6205,8 @@
       <c r="G32" s="77"/>
     </row>
     <row r="33" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="168"/>
-      <c r="B33" s="170"/>
+      <c r="A33" s="170"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="130">
         <v>3</v>
       </c>
@@ -6222,8 +6220,8 @@
       <c r="G33" s="77"/>
     </row>
     <row r="34" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="169"/>
-      <c r="B34" s="166"/>
+      <c r="A34" s="171"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="130">
         <v>4</v>
       </c>
@@ -6291,7 +6289,7 @@
       <c r="A38" s="86">
         <v>22</v>
       </c>
-      <c r="B38" s="165">
+      <c r="B38" s="166">
         <v>44032</v>
       </c>
       <c r="C38" s="130">
@@ -6308,7 +6306,7 @@
     </row>
     <row r="39" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="146"/>
-      <c r="B39" s="170"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="130">
         <v>2</v>
       </c>
@@ -6323,7 +6321,7 @@
     </row>
     <row r="40" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="146"/>
-      <c r="B40" s="170"/>
+      <c r="B40" s="167"/>
       <c r="C40" s="130">
         <v>3</v>
       </c>
@@ -6338,7 +6336,7 @@
     </row>
     <row r="41" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="146"/>
-      <c r="B41" s="170"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="130">
         <v>4</v>
       </c>
@@ -6353,7 +6351,7 @@
     </row>
     <row r="42" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="146"/>
-      <c r="B42" s="170"/>
+      <c r="B42" s="167"/>
       <c r="C42" s="130">
         <v>5</v>
       </c>
@@ -6368,7 +6366,7 @@
     </row>
     <row r="43" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="146"/>
-      <c r="B43" s="170"/>
+      <c r="B43" s="167"/>
       <c r="C43" s="130">
         <v>6</v>
       </c>
@@ -6383,7 +6381,7 @@
     </row>
     <row r="44" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="146"/>
-      <c r="B44" s="170"/>
+      <c r="B44" s="167"/>
       <c r="C44" s="130">
         <v>7</v>
       </c>
@@ -6398,7 +6396,7 @@
     </row>
     <row r="45" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="146"/>
-      <c r="B45" s="166"/>
+      <c r="B45" s="168"/>
       <c r="C45" s="130">
         <v>8</v>
       </c>
@@ -6445,7 +6443,7 @@
       <c r="A48" s="86">
         <v>25</v>
       </c>
-      <c r="B48" s="165">
+      <c r="B48" s="166">
         <v>44035</v>
       </c>
       <c r="C48" s="130">
@@ -6464,7 +6462,7 @@
       <c r="A49" s="86">
         <v>27</v>
       </c>
-      <c r="B49" s="166"/>
+      <c r="B49" s="168"/>
       <c r="C49" s="130">
         <v>2</v>
       </c>
@@ -6481,7 +6479,7 @@
       <c r="A50" s="86">
         <v>27</v>
       </c>
-      <c r="B50" s="165">
+      <c r="B50" s="166">
         <v>44039</v>
       </c>
       <c r="C50" s="130"/>
@@ -6496,7 +6494,7 @@
       <c r="A51" s="86">
         <v>27</v>
       </c>
-      <c r="B51" s="166"/>
+      <c r="B51" s="168"/>
       <c r="C51" s="130"/>
       <c r="D51" s="134"/>
       <c r="E51" s="87">
@@ -6521,10 +6519,10 @@
       <c r="G52" s="77"/>
     </row>
     <row r="53" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="167">
+      <c r="A53" s="169">
         <v>29</v>
       </c>
-      <c r="B53" s="165">
+      <c r="B53" s="166">
         <v>44040</v>
       </c>
       <c r="C53" s="130"/>
@@ -6536,8 +6534,8 @@
       <c r="G53" s="77"/>
     </row>
     <row r="54" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="168"/>
-      <c r="B54" s="170"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="167"/>
       <c r="C54" s="130"/>
       <c r="D54" s="134"/>
       <c r="E54" s="87">
@@ -6547,8 +6545,8 @@
       <c r="G54" s="77"/>
     </row>
     <row r="55" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="168"/>
-      <c r="B55" s="170"/>
+      <c r="A55" s="170"/>
+      <c r="B55" s="167"/>
       <c r="C55" s="130"/>
       <c r="D55" s="134"/>
       <c r="E55" s="87">
@@ -6558,8 +6556,8 @@
       <c r="G55" s="77"/>
     </row>
     <row r="56" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="168"/>
-      <c r="B56" s="170"/>
+      <c r="A56" s="170"/>
+      <c r="B56" s="167"/>
       <c r="C56" s="130"/>
       <c r="D56" s="134"/>
       <c r="E56" s="87">
@@ -6569,8 +6567,8 @@
       <c r="G56" s="77"/>
     </row>
     <row r="57" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="168"/>
-      <c r="B57" s="170"/>
+      <c r="A57" s="170"/>
+      <c r="B57" s="167"/>
       <c r="C57" s="130"/>
       <c r="D57" s="134"/>
       <c r="E57" s="87">
@@ -6580,8 +6578,8 @@
       <c r="G57" s="77"/>
     </row>
     <row r="58" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="169"/>
-      <c r="B58" s="166"/>
+      <c r="A58" s="171"/>
+      <c r="B58" s="168"/>
       <c r="C58" s="130"/>
       <c r="D58" s="134"/>
       <c r="E58" s="87">
@@ -6609,7 +6607,7 @@
       <c r="A60" s="86">
         <v>32</v>
       </c>
-      <c r="B60" s="171">
+      <c r="B60" s="165">
         <v>44042</v>
       </c>
       <c r="C60" s="130">
@@ -6628,7 +6626,7 @@
     </row>
     <row r="61" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="146"/>
-      <c r="B61" s="171"/>
+      <c r="B61" s="165"/>
       <c r="C61" s="130">
         <v>2</v>
       </c>
@@ -6643,7 +6641,7 @@
     </row>
     <row r="62" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="146"/>
-      <c r="B62" s="165">
+      <c r="B62" s="166">
         <v>44043</v>
       </c>
       <c r="C62" s="130">
@@ -6660,7 +6658,7 @@
     </row>
     <row r="63" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="146"/>
-      <c r="B63" s="170"/>
+      <c r="B63" s="167"/>
       <c r="C63" s="130">
         <v>2</v>
       </c>
@@ -6675,7 +6673,7 @@
     </row>
     <row r="64" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="146"/>
-      <c r="B64" s="170"/>
+      <c r="B64" s="167"/>
       <c r="C64" s="130">
         <v>3</v>
       </c>
@@ -6690,7 +6688,7 @@
     </row>
     <row r="65" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="146"/>
-      <c r="B65" s="170"/>
+      <c r="B65" s="167"/>
       <c r="C65" s="130">
         <v>4</v>
       </c>
@@ -6705,7 +6703,7 @@
     </row>
     <row r="66" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="146"/>
-      <c r="B66" s="170"/>
+      <c r="B66" s="167"/>
       <c r="C66" s="130">
         <v>5</v>
       </c>
@@ -6720,7 +6718,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="86"/>
-      <c r="B67" s="166"/>
+      <c r="B67" s="168"/>
       <c r="C67" s="130">
         <v>6</v>
       </c>
@@ -6763,6 +6761,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="B53:B58"/>
@@ -6779,16 +6783,10 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7595,7 +7593,7 @@
   </sheetPr>
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -7902,7 +7900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805A625-BAF6-47D2-B82C-BA12E06CE220}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
+++ b/Báo cáo/tháng 7 - 2020/báo cáo bán hàng tháng 7-2020.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22D34A3-3632-48BC-921F-DC7C0C51A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0170A8-10BD-4928-A047-036DE9884712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
   <si>
     <t>STT</t>
   </si>
@@ -485,6 +485,12 @@
   </si>
   <si>
     <t>2 lọ</t>
+  </si>
+  <si>
+    <t>29/7/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
   </si>
 </sst>
 </file>
@@ -797,7 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -849,7 +855,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,9 +1005,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1021,9 +1023,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,19 +1129,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,6 +1278,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1619,11 +1628,11 @@
   <dimension ref="A2:AP42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39:D39"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1646,7 @@
     <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="51" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="50" customWidth="1"/>
     <col min="11" max="11" width="4.7109375" style="9" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="4.7109375" style="1" customWidth="1"/>
@@ -1756,55 +1765,55 @@
     <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="153"/>
       <c r="B5" s="162"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="54" t="s">
+      <c r="Q5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="T5" s="13" t="s">
@@ -1816,10 +1825,10 @@
       <c r="V5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="89" t="s">
+      <c r="W5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="89" t="s">
+      <c r="X5" s="88" t="s">
         <v>16</v>
       </c>
       <c r="Y5" s="157"/>
@@ -1865,21 +1874,21 @@
       <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="39">
         <f>PRODUCT(G6,300000)</f>
         <v>900000</v>
       </c>
-      <c r="I6" s="40">
-        <v>0</v>
-      </c>
-      <c r="J6" s="40">
+      <c r="I6" s="39">
+        <v>0</v>
+      </c>
+      <c r="J6" s="39">
         <f>PRODUCT(I7,150000)</f>
         <v>0</v>
       </c>
       <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="40">
         <f>PRODUCT(K6,30000)</f>
         <v>30000</v>
       </c>
@@ -1918,7 +1927,7 @@
         <f>PRODUCT(U6,700000)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="89">
+      <c r="W6" s="88">
         <v>0</v>
       </c>
       <c r="X6" s="18">
@@ -1933,16 +1942,16 @@
         <f t="shared" ref="Z6:Z36" si="0">SUM(D6,H6,Y6,F6)</f>
         <v>1730000</v>
       </c>
-      <c r="AA6" s="68"/>
+      <c r="AA6" s="67"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <v>44014</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="115">
         <v>8</v>
       </c>
       <c r="D7" s="17">
@@ -1956,24 +1965,24 @@
         <f t="shared" ref="F7:F36" si="2">PRODUCT(E7,100000)</f>
         <v>100000</v>
       </c>
-      <c r="G7" s="118">
-        <v>0</v>
-      </c>
-      <c r="H7" s="40">
+      <c r="G7" s="115">
+        <v>0</v>
+      </c>
+      <c r="H7" s="39">
         <f t="shared" ref="H7:H36" si="3">PRODUCT(G7,300000)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="40">
-        <v>0</v>
-      </c>
-      <c r="J7" s="40">
+      <c r="I7" s="39">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39">
         <f t="shared" ref="J7:J36" si="4">PRODUCT(I8,150000)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="119">
-        <v>0</v>
-      </c>
-      <c r="L7" s="41">
+      <c r="K7" s="116">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
         <f t="shared" ref="L7:L36" si="5">PRODUCT(K7,30000)</f>
         <v>0</v>
       </c>
@@ -2005,14 +2014,14 @@
         <f t="shared" ref="T7:T36" si="9">PRODUCT(S7,50000)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="120">
-        <v>0</v>
-      </c>
-      <c r="V7" s="120">
+      <c r="U7" s="117">
+        <v>0</v>
+      </c>
+      <c r="V7" s="117">
         <f t="shared" ref="V7:V36" si="10">PRODUCT(U7,700000)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="120">
+      <c r="W7" s="117">
         <v>0</v>
       </c>
       <c r="X7" s="18">
@@ -2027,16 +2036,16 @@
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
-      <c r="AA7" s="85"/>
+      <c r="AA7" s="84"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <v>44015</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="115">
         <v>5</v>
       </c>
       <c r="D8" s="17">
@@ -2050,24 +2059,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="118">
+      <c r="G8" s="115">
         <v>3</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="39">
         <f t="shared" si="3"/>
         <v>900000</v>
       </c>
-      <c r="I8" s="40">
-        <v>0</v>
-      </c>
-      <c r="J8" s="40">
+      <c r="I8" s="39">
+        <v>0</v>
+      </c>
+      <c r="J8" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K8" s="119">
-        <v>0</v>
-      </c>
-      <c r="L8" s="41">
+      <c r="K8" s="116">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2099,14 +2108,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U8" s="120">
-        <v>0</v>
-      </c>
-      <c r="V8" s="120">
+      <c r="U8" s="117">
+        <v>0</v>
+      </c>
+      <c r="V8" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W8" s="120">
+      <c r="W8" s="117">
         <v>0</v>
       </c>
       <c r="X8" s="18">
@@ -2121,7 +2130,7 @@
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="AA8" s="85"/>
+      <c r="AA8" s="84"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
@@ -2140,10 +2149,10 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>44016</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="115">
         <v>4</v>
       </c>
       <c r="D9" s="17">
@@ -2157,24 +2166,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="115">
         <v>17</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="39">
         <f t="shared" si="3"/>
         <v>5100000</v>
       </c>
-      <c r="I9" s="40">
-        <v>0</v>
-      </c>
-      <c r="J9" s="40">
+      <c r="I9" s="39">
+        <v>0</v>
+      </c>
+      <c r="J9" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K9" s="119">
+      <c r="K9" s="116">
         <v>2</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="40">
         <f t="shared" si="5"/>
         <v>60000</v>
       </c>
@@ -2206,14 +2215,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U9" s="120">
-        <v>0</v>
-      </c>
-      <c r="V9" s="120">
+      <c r="U9" s="117">
+        <v>0</v>
+      </c>
+      <c r="V9" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W9" s="120">
+      <c r="W9" s="117">
         <v>0</v>
       </c>
       <c r="X9" s="18">
@@ -2228,16 +2237,16 @@
         <f t="shared" si="0"/>
         <v>10160000</v>
       </c>
-      <c r="AA9" s="85"/>
+      <c r="AA9" s="84"/>
     </row>
     <row r="10" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>44017</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="115">
         <v>4</v>
       </c>
       <c r="D10" s="17">
@@ -2251,24 +2260,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="118">
+      <c r="G10" s="115">
         <v>11</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="39">
         <f t="shared" si="3"/>
         <v>3300000</v>
       </c>
-      <c r="I10" s="40">
-        <v>0</v>
-      </c>
-      <c r="J10" s="40">
+      <c r="I10" s="39">
+        <v>0</v>
+      </c>
+      <c r="J10" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K10" s="119">
-        <v>0</v>
-      </c>
-      <c r="L10" s="41">
+      <c r="K10" s="116">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2300,14 +2309,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U10" s="120">
-        <v>0</v>
-      </c>
-      <c r="V10" s="120">
+      <c r="U10" s="117">
+        <v>0</v>
+      </c>
+      <c r="V10" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W10" s="120">
+      <c r="W10" s="117">
         <v>0</v>
       </c>
       <c r="X10" s="18">
@@ -2322,16 +2331,16 @@
         <f t="shared" si="0"/>
         <v>7700000</v>
       </c>
-      <c r="AA10" s="85"/>
+      <c r="AA10" s="84"/>
     </row>
     <row r="11" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="56">
         <v>44018</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="115">
         <v>5</v>
       </c>
       <c r="D11" s="17">
@@ -2345,24 +2354,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="115">
         <v>4</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="39">
         <f t="shared" si="3"/>
         <v>1200000</v>
       </c>
-      <c r="I11" s="40">
-        <v>0</v>
-      </c>
-      <c r="J11" s="40">
+      <c r="I11" s="39">
+        <v>0</v>
+      </c>
+      <c r="J11" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="119">
-        <v>0</v>
-      </c>
-      <c r="L11" s="41">
+      <c r="K11" s="116">
+        <v>0</v>
+      </c>
+      <c r="L11" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2394,14 +2403,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U11" s="120">
-        <v>0</v>
-      </c>
-      <c r="V11" s="120">
+      <c r="U11" s="117">
+        <v>0</v>
+      </c>
+      <c r="V11" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W11" s="120">
+      <c r="W11" s="117">
         <v>0</v>
       </c>
       <c r="X11" s="18">
@@ -2416,21 +2425,21 @@
         <f t="shared" si="0"/>
         <v>2800000</v>
       </c>
-      <c r="AA11" s="85"/>
+      <c r="AA11" s="84"/>
     </row>
     <row r="12" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>44019</v>
       </c>
-      <c r="C12" s="118">
-        <v>10</v>
+      <c r="C12" s="115">
+        <v>12</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="1"/>
-        <v>2000000</v>
+        <v>2400000</v>
       </c>
       <c r="E12" s="17">
         <v>4</v>
@@ -2439,24 +2448,24 @@
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="G12" s="118">
+      <c r="G12" s="115">
         <v>2</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="39">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="I12" s="40">
-        <v>0</v>
-      </c>
-      <c r="J12" s="40">
+      <c r="I12" s="39">
+        <v>0</v>
+      </c>
+      <c r="J12" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K12" s="119">
-        <v>0</v>
-      </c>
-      <c r="L12" s="41">
+      <c r="K12" s="116">
+        <v>0</v>
+      </c>
+      <c r="L12" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2488,14 +2497,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U12" s="120">
-        <v>0</v>
-      </c>
-      <c r="V12" s="120">
+      <c r="U12" s="117">
+        <v>0</v>
+      </c>
+      <c r="V12" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W12" s="120">
+      <c r="W12" s="117">
         <v>0</v>
       </c>
       <c r="X12" s="18">
@@ -2508,18 +2517,20 @@
       </c>
       <c r="Z12" s="17">
         <f t="shared" si="0"/>
-        <v>3600000</v>
-      </c>
-      <c r="AA12" s="85"/>
+        <v>4000000</v>
+      </c>
+      <c r="AA12" s="144" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <v>44020</v>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="115">
         <v>5</v>
       </c>
       <c r="D13" s="17">
@@ -2527,30 +2538,30 @@
         <v>1000000</v>
       </c>
       <c r="E13" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" si="2"/>
-        <v>500000</v>
-      </c>
-      <c r="G13" s="118">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="115">
         <v>5</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="39">
         <f t="shared" si="3"/>
         <v>1500000</v>
       </c>
-      <c r="I13" s="40">
-        <v>0</v>
-      </c>
-      <c r="J13" s="40">
+      <c r="I13" s="39">
+        <v>0</v>
+      </c>
+      <c r="J13" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K13" s="119">
-        <v>0</v>
-      </c>
-      <c r="L13" s="41">
+      <c r="K13" s="116">
+        <v>0</v>
+      </c>
+      <c r="L13" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2582,14 +2593,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U13" s="120">
-        <v>0</v>
-      </c>
-      <c r="V13" s="120">
+      <c r="U13" s="117">
+        <v>0</v>
+      </c>
+      <c r="V13" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W13" s="120">
+      <c r="W13" s="117">
         <v>0</v>
       </c>
       <c r="X13" s="18">
@@ -2602,20 +2613,18 @@
       </c>
       <c r="Z13" s="17">
         <f t="shared" si="0"/>
-        <v>3030000</v>
-      </c>
-      <c r="AA13" s="85" t="s">
-        <v>99</v>
-      </c>
+        <v>2630000</v>
+      </c>
+      <c r="AA13" s="84"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="56">
         <v>44021</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="115">
         <v>4</v>
       </c>
       <c r="D14" s="17">
@@ -2629,33 +2638,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="118">
+      <c r="G14" s="115">
         <v>3</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="39">
         <f t="shared" si="3"/>
         <v>900000</v>
       </c>
-      <c r="I14" s="40">
-        <v>0</v>
-      </c>
-      <c r="J14" s="40">
+      <c r="I14" s="39">
+        <v>0</v>
+      </c>
+      <c r="J14" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K14" s="119">
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
+      <c r="K14" s="116">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="O14" s="14">
         <v>0</v>
@@ -2665,11 +2674,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="S14" s="13">
         <v>0</v>
@@ -2678,14 +2687,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U14" s="120">
-        <v>0</v>
-      </c>
-      <c r="V14" s="120">
+      <c r="U14" s="117">
+        <v>0</v>
+      </c>
+      <c r="V14" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W14" s="120">
+      <c r="W14" s="117">
         <v>0</v>
       </c>
       <c r="X14" s="18">
@@ -2694,24 +2703,24 @@
       </c>
       <c r="Y14" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>420000</v>
       </c>
       <c r="Z14" s="17">
         <f t="shared" si="0"/>
-        <v>1700000</v>
-      </c>
-      <c r="AA14" s="85"/>
+        <v>2120000</v>
+      </c>
+      <c r="AA14" s="84"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="57">
+      <c r="A15" s="90"/>
+      <c r="B15" s="56">
         <v>44022</v>
       </c>
-      <c r="C15" s="118">
+      <c r="C15" s="115">
         <v>11</v>
       </c>
       <c r="D15" s="17">
@@ -2725,24 +2734,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="118">
+      <c r="G15" s="115">
         <v>4</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="39">
         <f t="shared" si="3"/>
         <v>1200000</v>
       </c>
-      <c r="I15" s="40">
-        <v>0</v>
-      </c>
-      <c r="J15" s="40">
+      <c r="I15" s="39">
+        <v>0</v>
+      </c>
+      <c r="J15" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K15" s="119">
-        <v>0</v>
-      </c>
-      <c r="L15" s="41">
+      <c r="K15" s="116">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2774,14 +2783,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U15" s="120">
-        <v>0</v>
-      </c>
-      <c r="V15" s="120">
+      <c r="U15" s="117">
+        <v>0</v>
+      </c>
+      <c r="V15" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W15" s="120">
+      <c r="W15" s="117">
         <v>0</v>
       </c>
       <c r="X15" s="18">
@@ -2796,18 +2805,18 @@
         <f t="shared" si="0"/>
         <v>3400000</v>
       </c>
-      <c r="AA15" s="92"/>
+      <c r="AA15" s="90"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="57">
+      <c r="A16" s="90"/>
+      <c r="B16" s="56">
         <v>44023</v>
       </c>
-      <c r="C16" s="118">
+      <c r="C16" s="115">
         <v>3</v>
       </c>
       <c r="D16" s="17">
@@ -2819,35 +2828,35 @@
       </c>
       <c r="F16" s="17">
         <f>PRODUCT(E17,100000)</f>
-        <v>100000</v>
-      </c>
-      <c r="G16" s="118">
+        <v>0</v>
+      </c>
+      <c r="G16" s="115">
         <v>9</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="39">
         <f t="shared" si="3"/>
         <v>2700000</v>
       </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="40">
+      <c r="I16" s="39">
+        <v>0</v>
+      </c>
+      <c r="J16" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="119">
-        <v>0</v>
-      </c>
-      <c r="L16" s="41">
+        <v>150000</v>
+      </c>
+      <c r="K16" s="116">
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M16" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="O16" s="14">
         <v>0</v>
@@ -2857,11 +2866,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R16" s="14">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="S16" s="13">
         <v>0</v>
@@ -2870,14 +2879,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U16" s="120">
-        <v>0</v>
-      </c>
-      <c r="V16" s="120">
+      <c r="U16" s="117">
+        <v>0</v>
+      </c>
+      <c r="V16" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W16" s="120">
+      <c r="W16" s="117">
         <v>0</v>
       </c>
       <c r="X16" s="18">
@@ -2886,24 +2895,24 @@
       </c>
       <c r="Y16" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1650000</v>
       </c>
       <c r="Z16" s="17">
         <f t="shared" si="0"/>
-        <v>3400000</v>
-      </c>
-      <c r="AA16" s="92"/>
+        <v>4950000</v>
+      </c>
+      <c r="AA16" s="90"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="57">
+      <c r="A17" s="90"/>
+      <c r="B17" s="56">
         <v>44024</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="115">
         <v>7</v>
       </c>
       <c r="D17" s="17">
@@ -2911,30 +2920,30 @@
         <v>1400000</v>
       </c>
       <c r="E17" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="G17" s="118">
+        <v>0</v>
+      </c>
+      <c r="G17" s="115">
         <v>19</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="39">
         <f t="shared" si="3"/>
         <v>5700000</v>
       </c>
-      <c r="I17" s="40">
-        <v>0</v>
-      </c>
-      <c r="J17" s="40">
+      <c r="I17" s="39">
+        <v>1</v>
+      </c>
+      <c r="J17" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="116">
         <v>1</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="40">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
@@ -2966,14 +2975,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U17" s="120">
-        <v>0</v>
-      </c>
-      <c r="V17" s="120">
+      <c r="U17" s="117">
+        <v>0</v>
+      </c>
+      <c r="V17" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W17" s="120">
+      <c r="W17" s="117">
         <v>0</v>
       </c>
       <c r="X17" s="18">
@@ -2986,20 +2995,20 @@
       </c>
       <c r="Z17" s="17">
         <f t="shared" si="0"/>
-        <v>12930000</v>
-      </c>
-      <c r="AA17" s="92"/>
+        <v>12830000</v>
+      </c>
+      <c r="AA17" s="90"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="57">
+      <c r="A18" s="90"/>
+      <c r="B18" s="56">
         <v>44025</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C18" s="115">
         <v>8</v>
       </c>
       <c r="D18" s="17">
@@ -3013,24 +3022,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="118">
+      <c r="G18" s="115">
         <v>2</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="39">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="I18" s="40">
-        <v>0</v>
-      </c>
-      <c r="J18" s="40">
+      <c r="I18" s="39">
+        <v>0</v>
+      </c>
+      <c r="J18" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="119">
+      <c r="K18" s="116">
         <v>2</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="40">
         <f t="shared" si="5"/>
         <v>60000</v>
       </c>
@@ -3062,14 +3071,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U18" s="120">
-        <v>0</v>
-      </c>
-      <c r="V18" s="120">
+      <c r="U18" s="117">
+        <v>0</v>
+      </c>
+      <c r="V18" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W18" s="120">
+      <c r="W18" s="117">
         <v>0</v>
       </c>
       <c r="X18" s="18">
@@ -3084,18 +3093,18 @@
         <f t="shared" si="0"/>
         <v>2260000</v>
       </c>
-      <c r="AA18" s="92"/>
+      <c r="AA18" s="90"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="57">
+      <c r="A19" s="90"/>
+      <c r="B19" s="56">
         <v>44026</v>
       </c>
-      <c r="C19" s="118">
+      <c r="C19" s="115">
         <v>14</v>
       </c>
       <c r="D19" s="17">
@@ -3109,24 +3118,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="115">
         <v>2</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="39">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="I19" s="40">
-        <v>0</v>
-      </c>
-      <c r="J19" s="40">
+      <c r="I19" s="39">
+        <v>0</v>
+      </c>
+      <c r="J19" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="119">
-        <v>0</v>
-      </c>
-      <c r="L19" s="41">
+      <c r="K19" s="116">
+        <v>0</v>
+      </c>
+      <c r="L19" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3158,14 +3167,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U19" s="120">
-        <v>0</v>
-      </c>
-      <c r="V19" s="120">
+      <c r="U19" s="117">
+        <v>0</v>
+      </c>
+      <c r="V19" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W19" s="120">
+      <c r="W19" s="117">
         <v>0</v>
       </c>
       <c r="X19" s="18">
@@ -3180,7 +3189,7 @@
         <f t="shared" si="0"/>
         <v>3400000</v>
       </c>
-      <c r="AA19" s="124" t="s">
+      <c r="AA19" s="121" t="s">
         <v>100</v>
       </c>
       <c r="AB19" s="11"/>
@@ -3189,11 +3198,11 @@
       <c r="AE19" s="11"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="57">
+      <c r="A20" s="90"/>
+      <c r="B20" s="56">
         <v>44027</v>
       </c>
-      <c r="C20" s="118">
+      <c r="C20" s="115">
         <v>11</v>
       </c>
       <c r="D20" s="17">
@@ -3207,24 +3216,24 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="G20" s="118">
+      <c r="G20" s="115">
         <v>6</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="39">
         <f t="shared" si="3"/>
         <v>1800000</v>
       </c>
-      <c r="I20" s="40">
-        <v>0</v>
-      </c>
-      <c r="J20" s="40">
+      <c r="I20" s="39">
+        <v>0</v>
+      </c>
+      <c r="J20" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="119">
-        <v>0</v>
-      </c>
-      <c r="L20" s="41">
+      <c r="K20" s="116">
+        <v>0</v>
+      </c>
+      <c r="L20" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3256,14 +3265,14 @@
         <f t="shared" si="9"/>
         <v>50000</v>
       </c>
-      <c r="U20" s="120">
-        <v>0</v>
-      </c>
-      <c r="V20" s="120">
+      <c r="U20" s="117">
+        <v>0</v>
+      </c>
+      <c r="V20" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W20" s="120">
+      <c r="W20" s="117">
         <v>0</v>
       </c>
       <c r="X20" s="18">
@@ -3278,18 +3287,18 @@
         <f t="shared" si="0"/>
         <v>4750000</v>
       </c>
-      <c r="AA20" s="92"/>
+      <c r="AA20" s="90"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
-      <c r="B21" s="57">
+      <c r="A21" s="90"/>
+      <c r="B21" s="56">
         <v>44028</v>
       </c>
-      <c r="C21" s="118">
+      <c r="C21" s="115">
         <v>2</v>
       </c>
       <c r="D21" s="17">
@@ -3303,24 +3312,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="118">
+      <c r="G21" s="115">
         <v>1</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="39">
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-      <c r="I21" s="40">
-        <v>0</v>
-      </c>
-      <c r="J21" s="40">
+      <c r="I21" s="39">
+        <v>0</v>
+      </c>
+      <c r="J21" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="119">
-        <v>0</v>
-      </c>
-      <c r="L21" s="41">
+      <c r="K21" s="116">
+        <v>0</v>
+      </c>
+      <c r="L21" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3352,14 +3361,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U21" s="120">
-        <v>0</v>
-      </c>
-      <c r="V21" s="120">
+      <c r="U21" s="117">
+        <v>0</v>
+      </c>
+      <c r="V21" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W21" s="120">
+      <c r="W21" s="117">
         <v>0</v>
       </c>
       <c r="X21" s="18">
@@ -3374,18 +3383,18 @@
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="AA21" s="92"/>
+      <c r="AA21" s="90"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="57">
+      <c r="A22" s="90"/>
+      <c r="B22" s="56">
         <v>44029</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="115">
         <v>7</v>
       </c>
       <c r="D22" s="17">
@@ -3399,24 +3408,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="118">
+      <c r="G22" s="115">
         <v>3</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="39">
         <f t="shared" si="3"/>
         <v>900000</v>
       </c>
-      <c r="I22" s="40">
-        <v>0</v>
-      </c>
-      <c r="J22" s="40">
+      <c r="I22" s="39">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K22" s="119">
-        <v>0</v>
-      </c>
-      <c r="L22" s="41">
+      <c r="K22" s="116">
+        <v>0</v>
+      </c>
+      <c r="L22" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3448,13 +3457,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U22" s="120">
+      <c r="U22" s="117">
         <v>1</v>
       </c>
-      <c r="V22" s="120">
+      <c r="V22" s="117">
         <v>800000</v>
       </c>
-      <c r="W22" s="120">
+      <c r="W22" s="117">
         <v>0</v>
       </c>
       <c r="X22" s="18">
@@ -3469,18 +3478,18 @@
         <f t="shared" si="0"/>
         <v>4930000</v>
       </c>
-      <c r="AA22" s="92"/>
+      <c r="AA22" s="90"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="57">
+      <c r="A23" s="90"/>
+      <c r="B23" s="56">
         <v>44030</v>
       </c>
-      <c r="C23" s="118">
+      <c r="C23" s="115">
         <v>14</v>
       </c>
       <c r="D23" s="17">
@@ -3494,24 +3503,24 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="G23" s="118">
+      <c r="G23" s="115">
         <v>12</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="39">
         <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
-      <c r="I23" s="40">
-        <v>0</v>
-      </c>
-      <c r="J23" s="40">
+      <c r="I23" s="39">
+        <v>0</v>
+      </c>
+      <c r="J23" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="119">
-        <v>0</v>
-      </c>
-      <c r="L23" s="41">
+        <v>150000</v>
+      </c>
+      <c r="K23" s="116">
+        <v>0</v>
+      </c>
+      <c r="L23" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3543,14 +3552,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U23" s="120">
-        <v>0</v>
-      </c>
-      <c r="V23" s="120">
+      <c r="U23" s="117">
+        <v>0</v>
+      </c>
+      <c r="V23" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W23" s="120">
+      <c r="W23" s="117">
         <v>0</v>
       </c>
       <c r="X23" s="18">
@@ -3565,18 +3574,18 @@
         <f t="shared" si="0"/>
         <v>9230000</v>
       </c>
-      <c r="AA23" s="92"/>
+      <c r="AA23" s="90"/>
       <c r="AB23" s="11"/>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="57">
+      <c r="A24" s="90"/>
+      <c r="B24" s="56">
         <v>44031</v>
       </c>
-      <c r="C24" s="118">
+      <c r="C24" s="115">
         <v>1</v>
       </c>
       <c r="D24" s="17">
@@ -3584,30 +3593,30 @@
         <v>200000</v>
       </c>
       <c r="E24" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="G24" s="118">
+        <v>0</v>
+      </c>
+      <c r="G24" s="115">
         <v>12</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="39">
         <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
-      <c r="I24" s="40">
-        <v>0</v>
-      </c>
-      <c r="J24" s="40">
+      <c r="I24" s="39">
+        <v>1</v>
+      </c>
+      <c r="J24" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K24" s="119">
-        <v>0</v>
-      </c>
-      <c r="L24" s="41">
+      <c r="K24" s="116">
+        <v>0</v>
+      </c>
+      <c r="L24" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3619,11 +3628,11 @@
         <v>2100000</v>
       </c>
       <c r="O24" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="Q24" s="14">
         <v>2</v>
@@ -3639,14 +3648,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U24" s="120">
-        <v>0</v>
-      </c>
-      <c r="V24" s="120">
+      <c r="U24" s="117">
+        <v>0</v>
+      </c>
+      <c r="V24" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W24" s="120">
+      <c r="W24" s="117">
         <v>0</v>
       </c>
       <c r="X24" s="18">
@@ -3655,24 +3664,24 @@
       </c>
       <c r="Y24" s="18">
         <f t="shared" si="12"/>
-        <v>2160000</v>
+        <v>2760000</v>
       </c>
       <c r="Z24" s="17">
         <f t="shared" si="0"/>
-        <v>6060000</v>
-      </c>
-      <c r="AA24" s="92"/>
+        <v>6560000</v>
+      </c>
+      <c r="AA24" s="90"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="57">
+      <c r="A25" s="90"/>
+      <c r="B25" s="56">
         <v>44032</v>
       </c>
-      <c r="C25" s="118">
+      <c r="C25" s="115">
         <v>11</v>
       </c>
       <c r="D25" s="17">
@@ -3686,24 +3695,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="118">
+      <c r="G25" s="115">
         <v>1</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="39">
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-      <c r="I25" s="40">
-        <v>0</v>
-      </c>
-      <c r="J25" s="40">
+      <c r="I25" s="39">
+        <v>0</v>
+      </c>
+      <c r="J25" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K25" s="119">
-        <v>0</v>
-      </c>
-      <c r="L25" s="41">
+      <c r="K25" s="116">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3735,14 +3744,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U25" s="120">
-        <v>0</v>
-      </c>
-      <c r="V25" s="120">
+      <c r="U25" s="117">
+        <v>0</v>
+      </c>
+      <c r="V25" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W25" s="120">
+      <c r="W25" s="117">
         <v>0</v>
       </c>
       <c r="X25" s="18">
@@ -3757,49 +3766,49 @@
         <f t="shared" si="0"/>
         <v>2800000</v>
       </c>
-      <c r="AA25" s="92"/>
+      <c r="AA25" s="90"/>
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="57">
+      <c r="A26" s="90"/>
+      <c r="B26" s="56">
         <v>44033</v>
       </c>
-      <c r="C26" s="118">
-        <v>3</v>
+      <c r="C26" s="115">
+        <v>5</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="1"/>
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="E26" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="17">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="G26" s="118">
-        <v>4</v>
-      </c>
-      <c r="H26" s="40">
+        <v>0</v>
+      </c>
+      <c r="G26" s="115">
+        <v>3</v>
+      </c>
+      <c r="H26" s="39">
         <f t="shared" si="3"/>
-        <v>1200000</v>
-      </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="J26" s="40">
+        <v>900000</v>
+      </c>
+      <c r="I26" s="39">
+        <v>0</v>
+      </c>
+      <c r="J26" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K26" s="119">
+      <c r="K26" s="116">
         <v>1</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="40">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
@@ -3831,14 +3840,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U26" s="120">
-        <v>0</v>
-      </c>
-      <c r="V26" s="120">
+      <c r="U26" s="117">
+        <v>0</v>
+      </c>
+      <c r="V26" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W26" s="120">
+      <c r="W26" s="117">
         <v>0</v>
       </c>
       <c r="X26" s="18">
@@ -3853,18 +3862,18 @@
         <f t="shared" si="0"/>
         <v>2230000</v>
       </c>
-      <c r="AA26" s="92"/>
+      <c r="AA26" s="90"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
-      <c r="B27" s="57">
+      <c r="A27" s="90"/>
+      <c r="B27" s="56">
         <v>44034</v>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="115">
         <v>3</v>
       </c>
       <c r="D27" s="17">
@@ -3878,24 +3887,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="118">
+      <c r="G27" s="115">
         <v>2</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="39">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="I27" s="40">
-        <v>0</v>
-      </c>
-      <c r="J27" s="40">
+      <c r="I27" s="39">
+        <v>0</v>
+      </c>
+      <c r="J27" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K27" s="119">
-        <v>0</v>
-      </c>
-      <c r="L27" s="41">
+      <c r="K27" s="116">
+        <v>0</v>
+      </c>
+      <c r="L27" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3927,14 +3936,14 @@
         <f t="shared" si="9"/>
         <v>50000</v>
       </c>
-      <c r="U27" s="120">
-        <v>0</v>
-      </c>
-      <c r="V27" s="120">
+      <c r="U27" s="117">
+        <v>0</v>
+      </c>
+      <c r="V27" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W27" s="120">
+      <c r="W27" s="117">
         <v>0</v>
       </c>
       <c r="X27" s="18">
@@ -3949,7 +3958,7 @@
         <f t="shared" si="0"/>
         <v>1250000</v>
       </c>
-      <c r="AA27" s="142" t="s">
+      <c r="AA27" s="139" t="s">
         <v>128</v>
       </c>
       <c r="AB27" s="11"/>
@@ -3958,11 +3967,11 @@
       <c r="AE27" s="11"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="57">
+      <c r="A28" s="90"/>
+      <c r="B28" s="56">
         <v>44035</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="115">
         <v>8</v>
       </c>
       <c r="D28" s="17">
@@ -3976,24 +3985,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="118">
+      <c r="G28" s="115">
         <v>2</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="39">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="I28" s="40">
-        <v>0</v>
-      </c>
-      <c r="J28" s="40">
+      <c r="I28" s="39">
+        <v>0</v>
+      </c>
+      <c r="J28" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K28" s="119">
+      <c r="K28" s="116">
         <v>1</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="40">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
@@ -4025,14 +4034,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U28" s="120">
-        <v>0</v>
-      </c>
-      <c r="V28" s="120">
+      <c r="U28" s="117">
+        <v>0</v>
+      </c>
+      <c r="V28" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W28" s="120">
+      <c r="W28" s="117">
         <v>0</v>
       </c>
       <c r="X28" s="18">
@@ -4047,18 +4056,18 @@
         <f t="shared" si="0"/>
         <v>2530000</v>
       </c>
-      <c r="AA28" s="92"/>
+      <c r="AA28" s="90"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
-      <c r="B29" s="57">
+      <c r="A29" s="90"/>
+      <c r="B29" s="56">
         <v>44036</v>
       </c>
-      <c r="C29" s="118">
+      <c r="C29" s="115">
         <v>6</v>
       </c>
       <c r="D29" s="17">
@@ -4072,24 +4081,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G29" s="118">
-        <v>4</v>
-      </c>
-      <c r="H29" s="40">
+      <c r="G29" s="115">
+        <v>5</v>
+      </c>
+      <c r="H29" s="39">
         <f t="shared" si="3"/>
-        <v>1200000</v>
-      </c>
-      <c r="I29" s="40">
-        <v>0</v>
-      </c>
-      <c r="J29" s="40">
+        <v>1500000</v>
+      </c>
+      <c r="I29" s="39">
+        <v>0</v>
+      </c>
+      <c r="J29" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K29" s="119">
-        <v>0</v>
-      </c>
-      <c r="L29" s="41">
+      <c r="K29" s="116">
+        <v>0</v>
+      </c>
+      <c r="L29" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4121,14 +4130,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U29" s="120">
-        <v>0</v>
-      </c>
-      <c r="V29" s="120">
+      <c r="U29" s="117">
+        <v>0</v>
+      </c>
+      <c r="V29" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W29" s="120">
+      <c r="W29" s="117">
         <v>0</v>
       </c>
       <c r="X29" s="18">
@@ -4141,20 +4150,20 @@
       </c>
       <c r="Z29" s="17">
         <f t="shared" si="0"/>
-        <v>2700000</v>
-      </c>
-      <c r="AA29" s="92"/>
+        <v>3000000</v>
+      </c>
+      <c r="AA29" s="90"/>
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="57">
+      <c r="A30" s="90"/>
+      <c r="B30" s="56">
         <v>44037</v>
       </c>
-      <c r="C30" s="118">
+      <c r="C30" s="115">
         <v>0</v>
       </c>
       <c r="D30" s="17">
@@ -4168,24 +4177,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="118">
-        <v>0</v>
-      </c>
-      <c r="H30" s="40">
+      <c r="G30" s="115">
+        <v>0</v>
+      </c>
+      <c r="H30" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="40">
-        <v>0</v>
-      </c>
-      <c r="J30" s="40">
+      <c r="I30" s="39">
+        <v>0</v>
+      </c>
+      <c r="J30" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K30" s="119">
-        <v>0</v>
-      </c>
-      <c r="L30" s="41">
+      <c r="K30" s="116">
+        <v>0</v>
+      </c>
+      <c r="L30" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4217,14 +4226,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U30" s="120">
-        <v>0</v>
-      </c>
-      <c r="V30" s="120">
+      <c r="U30" s="117">
+        <v>0</v>
+      </c>
+      <c r="V30" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W30" s="120">
+      <c r="W30" s="117">
         <v>0</v>
       </c>
       <c r="X30" s="18">
@@ -4239,18 +4248,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="92"/>
+      <c r="AA30" s="90"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
-      <c r="B31" s="57">
+      <c r="A31" s="90"/>
+      <c r="B31" s="56">
         <v>44038</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="115">
         <v>0</v>
       </c>
       <c r="D31" s="17">
@@ -4264,24 +4273,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="118">
-        <v>0</v>
-      </c>
-      <c r="H31" s="40">
+      <c r="G31" s="115">
+        <v>0</v>
+      </c>
+      <c r="H31" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31" s="40">
-        <v>0</v>
-      </c>
-      <c r="J31" s="40">
+      <c r="I31" s="39">
+        <v>0</v>
+      </c>
+      <c r="J31" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K31" s="119">
-        <v>0</v>
-      </c>
-      <c r="L31" s="41">
+      <c r="K31" s="116">
+        <v>0</v>
+      </c>
+      <c r="L31" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4313,14 +4322,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U31" s="120">
-        <v>0</v>
-      </c>
-      <c r="V31" s="120">
+      <c r="U31" s="117">
+        <v>0</v>
+      </c>
+      <c r="V31" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W31" s="120">
+      <c r="W31" s="117">
         <v>0</v>
       </c>
       <c r="X31" s="18">
@@ -4335,18 +4344,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="92"/>
+      <c r="AA31" s="90"/>
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="57">
+      <c r="A32" s="90"/>
+      <c r="B32" s="56">
         <v>44039</v>
       </c>
-      <c r="C32" s="118">
+      <c r="C32" s="115">
         <v>7</v>
       </c>
       <c r="D32" s="17">
@@ -4360,24 +4369,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G32" s="118">
-        <v>5</v>
-      </c>
-      <c r="H32" s="40">
+      <c r="G32" s="115">
+        <v>4</v>
+      </c>
+      <c r="H32" s="39">
         <f t="shared" si="3"/>
-        <v>1500000</v>
-      </c>
-      <c r="I32" s="40">
-        <v>0</v>
-      </c>
-      <c r="J32" s="40">
+        <v>1200000</v>
+      </c>
+      <c r="I32" s="39">
+        <v>0</v>
+      </c>
+      <c r="J32" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K32" s="119">
+      <c r="K32" s="116">
         <v>1</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="40">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
@@ -4409,14 +4418,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U32" s="120">
-        <v>0</v>
-      </c>
-      <c r="V32" s="120">
+      <c r="U32" s="117">
+        <v>0</v>
+      </c>
+      <c r="V32" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W32" s="120">
+      <c r="W32" s="117">
         <v>0</v>
       </c>
       <c r="X32" s="18">
@@ -4429,20 +4438,20 @@
       </c>
       <c r="Z32" s="17">
         <f t="shared" si="0"/>
-        <v>3560000</v>
-      </c>
-      <c r="AA32" s="92"/>
+        <v>3260000</v>
+      </c>
+      <c r="AA32" s="90"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
-      <c r="B33" s="57">
+      <c r="A33" s="90"/>
+      <c r="B33" s="56">
         <v>44040</v>
       </c>
-      <c r="C33" s="118">
+      <c r="C33" s="115">
         <v>4</v>
       </c>
       <c r="D33" s="17">
@@ -4456,24 +4465,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G33" s="118">
-        <v>3</v>
-      </c>
-      <c r="H33" s="40">
+      <c r="G33" s="115">
+        <v>4</v>
+      </c>
+      <c r="H33" s="39">
         <f t="shared" si="3"/>
-        <v>900000</v>
-      </c>
-      <c r="I33" s="40">
-        <v>0</v>
-      </c>
-      <c r="J33" s="40">
+        <v>1200000</v>
+      </c>
+      <c r="I33" s="39">
+        <v>0</v>
+      </c>
+      <c r="J33" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K33" s="119">
-        <v>0</v>
-      </c>
-      <c r="L33" s="41">
+      <c r="K33" s="116">
+        <v>0</v>
+      </c>
+      <c r="L33" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4505,14 +4514,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U33" s="120">
-        <v>0</v>
-      </c>
-      <c r="V33" s="120">
+      <c r="U33" s="117">
+        <v>0</v>
+      </c>
+      <c r="V33" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W33" s="120">
+      <c r="W33" s="117">
         <v>0</v>
       </c>
       <c r="X33" s="18">
@@ -4525,20 +4534,20 @@
       </c>
       <c r="Z33" s="17">
         <f t="shared" si="0"/>
-        <v>2900000</v>
-      </c>
-      <c r="AA33" s="92"/>
+        <v>3200000</v>
+      </c>
+      <c r="AA33" s="90"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="57">
+      <c r="A34" s="92"/>
+      <c r="B34" s="56">
         <v>44041</v>
       </c>
-      <c r="C34" s="118">
+      <c r="C34" s="115">
         <v>7</v>
       </c>
       <c r="D34" s="17">
@@ -4552,24 +4561,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G34" s="118">
+      <c r="G34" s="115">
         <v>1</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="39">
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-      <c r="I34" s="40">
-        <v>0</v>
-      </c>
-      <c r="J34" s="40">
+      <c r="I34" s="39">
+        <v>0</v>
+      </c>
+      <c r="J34" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K34" s="119">
-        <v>0</v>
-      </c>
-      <c r="L34" s="41">
+      <c r="K34" s="116">
+        <v>0</v>
+      </c>
+      <c r="L34" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4601,14 +4610,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U34" s="120">
-        <v>0</v>
-      </c>
-      <c r="V34" s="120">
+      <c r="U34" s="117">
+        <v>0</v>
+      </c>
+      <c r="V34" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W34" s="120">
+      <c r="W34" s="117">
         <v>0</v>
       </c>
       <c r="X34" s="18">
@@ -4623,18 +4632,18 @@
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
-      <c r="AA34" s="94"/>
+      <c r="AA34" s="92"/>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="57">
+      <c r="A35" s="92"/>
+      <c r="B35" s="56">
         <v>44042</v>
       </c>
-      <c r="C35" s="118">
+      <c r="C35" s="115">
         <v>10</v>
       </c>
       <c r="D35" s="17">
@@ -4648,24 +4657,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="118">
+      <c r="G35" s="115">
         <v>2</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="39">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="I35" s="40">
-        <v>0</v>
-      </c>
-      <c r="J35" s="40">
+      <c r="I35" s="39">
+        <v>0</v>
+      </c>
+      <c r="J35" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K35" s="119">
-        <v>0</v>
-      </c>
-      <c r="L35" s="41">
+      <c r="K35" s="116">
+        <v>0</v>
+      </c>
+      <c r="L35" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4697,14 +4706,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U35" s="120">
-        <v>0</v>
-      </c>
-      <c r="V35" s="120">
+      <c r="U35" s="117">
+        <v>0</v>
+      </c>
+      <c r="V35" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W35" s="120">
+      <c r="W35" s="117">
         <v>0</v>
       </c>
       <c r="X35" s="18">
@@ -4719,18 +4728,18 @@
         <f t="shared" si="0"/>
         <v>2900000</v>
       </c>
-      <c r="AA35" s="94"/>
+      <c r="AA35" s="92"/>
       <c r="AB35" s="11"/>
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="118"/>
-      <c r="B36" s="57">
+      <c r="A36" s="115"/>
+      <c r="B36" s="56">
         <v>44043</v>
       </c>
-      <c r="C36" s="118">
+      <c r="C36" s="115">
         <v>2</v>
       </c>
       <c r="D36" s="17">
@@ -4744,24 +4753,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G36" s="118">
+      <c r="G36" s="115">
         <v>2</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="39">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="I36" s="40">
-        <v>0</v>
-      </c>
-      <c r="J36" s="40">
+      <c r="I36" s="39">
+        <v>0</v>
+      </c>
+      <c r="J36" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="119">
-        <v>0</v>
-      </c>
-      <c r="L36" s="41">
+        <v>300000</v>
+      </c>
+      <c r="K36" s="116">
+        <v>0</v>
+      </c>
+      <c r="L36" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4793,14 +4802,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U36" s="120">
-        <v>0</v>
-      </c>
-      <c r="V36" s="120">
+      <c r="U36" s="117">
+        <v>0</v>
+      </c>
+      <c r="V36" s="117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W36" s="120">
+      <c r="W36" s="117">
         <v>0</v>
       </c>
       <c r="X36" s="18">
@@ -4815,7 +4824,7 @@
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="AA36" s="118"/>
+      <c r="AA36" s="115"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
@@ -4823,118 +4832,118 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="7">
         <f>SUM(C6:C36)</f>
-        <v>188</v>
-      </c>
-      <c r="D37" s="39">
+        <v>192</v>
+      </c>
+      <c r="D37" s="38">
         <f>SUM(D7:D36)</f>
-        <v>36800000</v>
-      </c>
-      <c r="E37" s="39">
+        <v>37600000</v>
+      </c>
+      <c r="E37" s="38">
         <f>SUM(E7:E36)</f>
-        <v>15</v>
-      </c>
-      <c r="F37" s="39">
-        <f t="shared" ref="E37:U37" si="13">SUM(F7:F36)</f>
-        <v>1600000</v>
-      </c>
-      <c r="G37" s="39">
+        <v>8</v>
+      </c>
+      <c r="F37" s="38">
+        <f t="shared" ref="F37:U37" si="13">SUM(F7:F36)</f>
+        <v>800000</v>
+      </c>
+      <c r="G37" s="38">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="38">
         <f t="shared" si="13"/>
         <v>42300000</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="38">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="39">
+        <v>2</v>
+      </c>
+      <c r="J37" s="38">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="39">
+        <v>600000</v>
+      </c>
+      <c r="K37" s="38">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="38">
         <f t="shared" si="13"/>
         <v>240000</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="38">
         <f t="shared" si="13"/>
-        <v>65</v>
-      </c>
-      <c r="N37" s="39">
+        <v>71</v>
+      </c>
+      <c r="N37" s="38">
         <f t="shared" si="13"/>
-        <v>19500000</v>
-      </c>
-      <c r="O37" s="39">
+        <v>21300000</v>
+      </c>
+      <c r="O37" s="38">
         <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="P37" s="39">
+        <v>13</v>
+      </c>
+      <c r="P37" s="38">
         <f t="shared" si="13"/>
-        <v>7200000</v>
-      </c>
-      <c r="Q37" s="39">
+        <v>7800000</v>
+      </c>
+      <c r="Q37" s="38">
         <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="R37" s="39">
+        <v>15</v>
+      </c>
+      <c r="R37" s="38">
         <f t="shared" si="13"/>
-        <v>180000</v>
-      </c>
-      <c r="S37" s="39">
+        <v>450000</v>
+      </c>
+      <c r="S37" s="38">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="T37" s="39">
+      <c r="T37" s="38">
         <f t="shared" si="13"/>
         <v>100000</v>
       </c>
-      <c r="U37" s="39">
+      <c r="U37" s="38">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V37" s="39">
+      <c r="V37" s="38">
         <f>SUM(V7:V36)</f>
         <v>800000</v>
       </c>
-      <c r="W37" s="39">
+      <c r="W37" s="38">
         <f>SUM(W7:W36)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="39">
+      <c r="X37" s="38">
         <f t="shared" ref="X37:Y37" si="14">SUM(X7:X36)</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="39">
+      <c r="Y37" s="38">
         <f t="shared" si="14"/>
-        <v>28020000</v>
-      </c>
-      <c r="Z37" s="39">
+        <v>30690000</v>
+      </c>
+      <c r="Z37" s="38">
         <f>SUM(Z7:Z36)</f>
-        <v>108720000</v>
-      </c>
-      <c r="AA37" s="68"/>
+        <v>111390000</v>
+      </c>
+      <c r="AA37" s="67"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="59" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="163">
         <v>92</v>
       </c>
       <c r="D38" s="163"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
       <c r="G38" s="149"/>
       <c r="H38" s="149"/>
       <c r="I38" s="149"/>
@@ -4958,15 +4967,15 @@
       <c r="AA38" s="149"/>
     </row>
     <row r="39" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="150">
         <v>289</v>
       </c>
       <c r="D39" s="150"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
       <c r="G39" s="149"/>
       <c r="H39" s="149"/>
       <c r="I39" s="149"/>
@@ -4995,7 +5004,7 @@
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="52"/>
+      <c r="J40" s="51"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AA42" s="1"/>
@@ -5042,7 +5051,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5083,607 +5092,607 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
       <c r="B4" s="21">
         <v>44013</v>
       </c>
-      <c r="C4" s="125">
+      <c r="C4" s="122">
         <v>1388509</v>
       </c>
-      <c r="D4" s="125">
+      <c r="D4" s="122">
         <v>2135000</v>
       </c>
-      <c r="E4" s="125">
+      <c r="E4" s="122">
         <f>SUM(D4,-C4)</f>
         <v>746491</v>
       </c>
-      <c r="F4" s="127"/>
+      <c r="F4" s="124"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="33">
         <v>2</v>
       </c>
       <c r="B5" s="21">
         <v>44014</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="122">
         <v>2289927</v>
       </c>
-      <c r="D5" s="125">
+      <c r="D5" s="122">
         <v>3332000</v>
       </c>
-      <c r="E5" s="125">
+      <c r="E5" s="122">
         <f t="shared" ref="E5:E34" si="0">SUM(D5,-C5)</f>
         <v>1042073</v>
       </c>
-      <c r="F5" s="127"/>
+      <c r="F5" s="124"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
       <c r="B6" s="21">
         <v>44015</v>
       </c>
-      <c r="C6" s="125">
+      <c r="C6" s="122">
         <v>1208542</v>
       </c>
-      <c r="D6" s="125">
+      <c r="D6" s="122">
         <v>1750000</v>
       </c>
-      <c r="E6" s="125">
+      <c r="E6" s="122">
         <f t="shared" si="0"/>
         <v>541458</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="124"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="33">
         <v>4</v>
       </c>
       <c r="B7" s="21">
         <v>44016</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="122">
         <v>6740207</v>
       </c>
-      <c r="D7" s="125">
+      <c r="D7" s="122">
         <v>9290000</v>
       </c>
-      <c r="E7" s="125">
+      <c r="E7" s="122">
         <f t="shared" si="0"/>
         <v>2549793</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="124"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>5</v>
       </c>
       <c r="B8" s="21">
         <v>44017</v>
       </c>
-      <c r="C8" s="125">
+      <c r="C8" s="122">
         <v>2714582</v>
       </c>
-      <c r="D8" s="128">
+      <c r="D8" s="125">
         <v>3700000</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="122">
         <f t="shared" si="0"/>
         <v>985418</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>7</v>
       </c>
       <c r="B9" s="21">
         <v>44018</v>
       </c>
-      <c r="C9" s="128">
+      <c r="C9" s="125">
         <v>1627218</v>
       </c>
-      <c r="D9" s="128">
+      <c r="D9" s="125">
         <v>2208000</v>
       </c>
-      <c r="E9" s="125">
+      <c r="E9" s="122">
         <f t="shared" si="0"/>
         <v>580782</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>7</v>
       </c>
       <c r="B10" s="21">
         <v>44019</v>
       </c>
-      <c r="C10" s="128">
+      <c r="C10" s="125">
         <v>1560518</v>
       </c>
-      <c r="D10" s="128">
+      <c r="D10" s="125">
         <v>2240000</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E10" s="122">
         <f t="shared" si="0"/>
         <v>679482</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>8</v>
       </c>
       <c r="B11" s="21">
         <v>44020</v>
       </c>
-      <c r="C11" s="128">
+      <c r="C11" s="125">
         <v>680564</v>
       </c>
-      <c r="D11" s="128">
+      <c r="D11" s="125">
         <v>1026000</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="122">
         <f t="shared" si="0"/>
         <v>345436</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="61"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>9</v>
       </c>
       <c r="B12" s="21">
         <v>44021</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="125">
         <v>665194</v>
       </c>
-      <c r="D12" s="128">
+      <c r="D12" s="125">
         <v>840000</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E12" s="122">
         <f t="shared" si="0"/>
         <v>174806</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>10</v>
       </c>
       <c r="B13" s="21">
         <v>44022</v>
       </c>
-      <c r="C13" s="128">
+      <c r="C13" s="125">
         <v>1724864</v>
       </c>
-      <c r="D13" s="128">
+      <c r="D13" s="125">
         <v>2490000</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="122">
         <f t="shared" si="0"/>
         <v>765136</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>11</v>
       </c>
       <c r="B14" s="21">
         <v>44023</v>
       </c>
-      <c r="C14" s="128">
+      <c r="C14" s="125">
         <v>2975927</v>
       </c>
-      <c r="D14" s="128">
+      <c r="D14" s="125">
         <v>4341000</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="122">
         <f t="shared" si="0"/>
         <v>1365073</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>12</v>
       </c>
       <c r="B15" s="21">
         <v>44024</v>
       </c>
-      <c r="C15" s="128">
+      <c r="C15" s="125">
         <v>4290790</v>
       </c>
-      <c r="D15" s="128">
+      <c r="D15" s="125">
         <v>5839000</v>
       </c>
-      <c r="E15" s="125">
+      <c r="E15" s="122">
         <f t="shared" si="0"/>
         <v>1548210</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="61"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="33">
         <v>13</v>
       </c>
       <c r="B16" s="21">
         <v>44025</v>
       </c>
-      <c r="C16" s="128">
+      <c r="C16" s="125">
         <v>2084637</v>
       </c>
-      <c r="D16" s="128">
+      <c r="D16" s="125">
         <v>3133000</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="122">
         <f t="shared" si="0"/>
         <v>1048363</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>14</v>
       </c>
       <c r="B17" s="21">
         <v>44026</v>
       </c>
-      <c r="C17" s="128">
+      <c r="C17" s="125">
         <v>2762818</v>
       </c>
-      <c r="D17" s="128">
+      <c r="D17" s="125">
         <v>3785000</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="122">
         <f t="shared" si="0"/>
         <v>1022182</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>15</v>
       </c>
       <c r="B18" s="21">
         <v>44027</v>
       </c>
-      <c r="C18" s="128">
+      <c r="C18" s="125">
         <v>4590956</v>
       </c>
-      <c r="D18" s="128">
+      <c r="D18" s="125">
         <v>6400000</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18" s="122">
         <f t="shared" si="0"/>
         <v>1809044</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>17</v>
       </c>
       <c r="B19" s="21">
         <v>44028</v>
       </c>
-      <c r="C19" s="128">
+      <c r="C19" s="125">
         <v>370481</v>
       </c>
-      <c r="D19" s="128">
+      <c r="D19" s="125">
         <v>510000</v>
       </c>
-      <c r="E19" s="125">
+      <c r="E19" s="122">
         <f t="shared" si="0"/>
         <v>139519</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>17</v>
       </c>
       <c r="B20" s="21">
         <v>44029</v>
       </c>
-      <c r="C20" s="128">
+      <c r="C20" s="125">
         <v>1735853</v>
       </c>
-      <c r="D20" s="128">
+      <c r="D20" s="125">
         <v>2680000</v>
       </c>
-      <c r="E20" s="125">
+      <c r="E20" s="122">
         <f t="shared" si="0"/>
         <v>944147</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>18</v>
       </c>
       <c r="B21" s="21">
         <v>44030</v>
       </c>
-      <c r="C21" s="128">
+      <c r="C21" s="125">
         <v>5646367</v>
       </c>
-      <c r="D21" s="128">
+      <c r="D21" s="125">
         <v>8065000</v>
       </c>
-      <c r="E21" s="125">
+      <c r="E21" s="122">
         <f t="shared" si="0"/>
         <v>2418633</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>19</v>
       </c>
       <c r="B22" s="21">
         <v>44031</v>
       </c>
-      <c r="C22" s="128">
+      <c r="C22" s="125">
         <v>2599301</v>
       </c>
-      <c r="D22" s="128">
+      <c r="D22" s="125">
         <v>3280000</v>
       </c>
-      <c r="E22" s="125">
+      <c r="E22" s="122">
         <f t="shared" si="0"/>
         <v>680699</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="33">
         <v>20</v>
       </c>
       <c r="B23" s="21">
         <v>44032</v>
       </c>
-      <c r="C23" s="128">
+      <c r="C23" s="125">
         <v>2995309</v>
       </c>
-      <c r="D23" s="128">
+      <c r="D23" s="125">
         <v>4411000</v>
       </c>
-      <c r="E23" s="125">
+      <c r="E23" s="122">
         <f t="shared" si="0"/>
         <v>1415691</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="A24" s="33">
         <v>21</v>
       </c>
       <c r="B24" s="21">
         <v>44033</v>
       </c>
-      <c r="C24" s="125">
+      <c r="C24" s="122">
         <v>2305928</v>
       </c>
-      <c r="D24" s="125">
+      <c r="D24" s="122">
         <v>3226000</v>
       </c>
-      <c r="E24" s="125">
+      <c r="E24" s="122">
         <f t="shared" si="0"/>
         <v>920072</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="33">
         <v>22</v>
       </c>
       <c r="B25" s="21">
         <v>44034</v>
       </c>
-      <c r="C25" s="125">
+      <c r="C25" s="122">
         <v>778362</v>
       </c>
-      <c r="D25" s="125">
+      <c r="D25" s="122">
         <v>925000</v>
       </c>
-      <c r="E25" s="125">
+      <c r="E25" s="122">
         <f t="shared" si="0"/>
         <v>146638</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>23</v>
       </c>
       <c r="B26" s="21">
         <v>44035</v>
       </c>
-      <c r="C26" s="128">
+      <c r="C26" s="125">
         <v>1618454</v>
       </c>
-      <c r="D26" s="125">
+      <c r="D26" s="122">
         <v>2415000</v>
       </c>
-      <c r="E26" s="125">
+      <c r="E26" s="122">
         <f t="shared" si="0"/>
         <v>796546</v>
       </c>
-      <c r="F26" s="126"/>
+      <c r="F26" s="123"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>24</v>
       </c>
       <c r="B27" s="21">
         <v>44036</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="122">
         <v>2263045</v>
       </c>
-      <c r="D27" s="128">
+      <c r="D27" s="125">
         <v>3106000</v>
       </c>
-      <c r="E27" s="125">
+      <c r="E27" s="122">
         <f t="shared" si="0"/>
         <v>842955</v>
       </c>
-      <c r="F27" s="126"/>
+      <c r="F27" s="123"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+      <c r="A28" s="33">
         <v>25</v>
       </c>
       <c r="B28" s="21">
         <v>44037</v>
       </c>
-      <c r="C28" s="148">
-        <v>0</v>
-      </c>
-      <c r="D28" s="148">
-        <v>0</v>
-      </c>
-      <c r="E28" s="125">
-        <v>0</v>
-      </c>
-      <c r="F28" s="126"/>
+      <c r="C28" s="143">
+        <v>0</v>
+      </c>
+      <c r="D28" s="143">
+        <v>0</v>
+      </c>
+      <c r="E28" s="122">
+        <v>0</v>
+      </c>
+      <c r="F28" s="123"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>27</v>
       </c>
       <c r="B29" s="21">
         <v>44038</v>
       </c>
-      <c r="C29" s="125">
-        <v>0</v>
-      </c>
-      <c r="D29" s="125">
-        <v>0</v>
-      </c>
-      <c r="E29" s="125">
+      <c r="C29" s="122">
+        <v>0</v>
+      </c>
+      <c r="D29" s="122">
+        <v>0</v>
+      </c>
+      <c r="E29" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="33">
         <v>27</v>
       </c>
       <c r="B30" s="21">
         <v>44039</v>
       </c>
-      <c r="C30" s="125">
+      <c r="C30" s="122">
         <v>3919610</v>
       </c>
-      <c r="D30" s="125">
+      <c r="D30" s="122">
         <v>5480000</v>
       </c>
-      <c r="E30" s="125">
+      <c r="E30" s="122">
         <f t="shared" si="0"/>
         <v>1560390</v>
       </c>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="33">
         <v>28</v>
       </c>
       <c r="B31" s="21">
         <v>44040</v>
       </c>
-      <c r="C31" s="125">
+      <c r="C31" s="122">
         <v>1782136</v>
       </c>
-      <c r="D31" s="125">
+      <c r="D31" s="122">
         <v>2490000</v>
       </c>
-      <c r="E31" s="125">
+      <c r="E31" s="122">
         <f t="shared" si="0"/>
         <v>707864</v>
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+    <row r="32" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
         <v>29</v>
       </c>
       <c r="B32" s="21">
         <v>44041</v>
       </c>
-      <c r="C32" s="125">
+      <c r="C32" s="122">
         <v>894346</v>
       </c>
-      <c r="D32" s="125">
+      <c r="D32" s="122">
         <v>1680000</v>
       </c>
-      <c r="E32" s="125">
+      <c r="E32" s="122">
         <f t="shared" si="0"/>
         <v>785654</v>
       </c>
-      <c r="F32" s="34"/>
-    </row>
-    <row r="33" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
         <v>30</v>
       </c>
       <c r="B33" s="21">
         <v>44042</v>
       </c>
-      <c r="C33" s="125">
+      <c r="C33" s="122">
         <v>292196</v>
       </c>
-      <c r="D33" s="125">
+      <c r="D33" s="122">
         <v>3407000</v>
       </c>
-      <c r="E33" s="125">
+      <c r="E33" s="122">
         <f t="shared" si="0"/>
         <v>3114804</v>
       </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="1:6" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
       <c r="B34" s="21">
         <v>44043</v>
       </c>
-      <c r="C34" s="125">
+      <c r="C34" s="122">
         <v>1905353</v>
       </c>
-      <c r="D34" s="125">
+      <c r="D34" s="122">
         <v>2915000</v>
       </c>
-      <c r="E34" s="125">
+      <c r="E34" s="122">
         <f t="shared" si="0"/>
         <v>1009647</v>
       </c>
-      <c r="F34" s="34"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="33">
         <v>32</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="42">
         <f>SUM(C4:C34)</f>
         <v>66411994</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="42">
         <f>SUM(D4:D34)</f>
         <v>97099000</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="42">
         <f>SUM(E4:E34)</f>
         <v>30687006</v>
       </c>
@@ -5704,27 +5713,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G69"/>
+  <dimension ref="A2:G71"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:D39"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="84" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="132" customWidth="1"/>
-    <col min="4" max="4" width="18" style="133" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="74" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="81" customWidth="1"/>
-    <col min="7" max="7" width="30" style="76" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="83" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="194" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="129" customWidth="1"/>
+    <col min="4" max="4" width="18" style="130" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="73" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="80" customWidth="1"/>
+    <col min="7" max="7" width="30" style="75" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="91" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" s="89" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="172" t="s">
         <v>86</v>
       </c>
@@ -5736,440 +5745,440 @@
       <c r="G2" s="172"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B3" s="25"/>
-      <c r="C3" s="131"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="128"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="137" t="s">
+      <c r="C4" s="127"/>
+      <c r="D4" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="129" t="s">
+      <c r="E4" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="147" t="s">
+      <c r="G4" s="142" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="167">
         <v>1</v>
       </c>
       <c r="B5" s="165">
         <v>44013</v>
       </c>
-      <c r="C5" s="130">
+      <c r="C5" s="127">
         <v>1</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="96">
         <v>750000</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139"/>
-    </row>
-    <row r="6" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="135"/>
+      <c r="G5" s="136"/>
+    </row>
+    <row r="6" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="168"/>
       <c r="B6" s="170"/>
-      <c r="C6" s="130">
+      <c r="C6" s="127">
         <v>2</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="86">
         <v>365000</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="77"/>
-    </row>
-    <row r="7" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="87"/>
+      <c r="G6" s="76"/>
+    </row>
+    <row r="7" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="168"/>
       <c r="B7" s="170"/>
-      <c r="C7" s="130">
+      <c r="C7" s="127">
         <v>3</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="87">
+      <c r="E7" s="86">
         <v>560000</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="77"/>
-    </row>
-    <row r="8" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="87"/>
+      <c r="G7" s="76"/>
+    </row>
+    <row r="8" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="168"/>
       <c r="B8" s="170"/>
-      <c r="C8" s="130">
+      <c r="C8" s="127">
         <v>4</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="86">
         <v>870000</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="77"/>
-    </row>
-    <row r="9" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="87"/>
+      <c r="G8" s="76"/>
+    </row>
+    <row r="9" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="168"/>
       <c r="B9" s="170"/>
-      <c r="C9" s="130">
+      <c r="C9" s="127">
         <v>5</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="87">
+      <c r="E9" s="86">
         <v>275000</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="77"/>
-    </row>
-    <row r="10" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="87"/>
+      <c r="G9" s="76"/>
+    </row>
+    <row r="10" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="169"/>
       <c r="B10" s="166"/>
-      <c r="C10" s="130">
+      <c r="C10" s="127">
         <v>6</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="86">
         <v>360000</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="77"/>
-    </row>
-    <row r="11" spans="1:7" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86">
+      <c r="F10" s="87"/>
+      <c r="G10" s="76"/>
+    </row>
+    <row r="11" spans="1:7" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85">
         <v>2</v>
       </c>
       <c r="B11" s="165">
         <v>44014</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="87">
-        <v>0</v>
-      </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="77"/>
-    </row>
-    <row r="12" spans="1:7" s="103" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="86">
+        <v>0</v>
+      </c>
+      <c r="F11" s="87"/>
+      <c r="G11" s="76"/>
+    </row>
+    <row r="12" spans="1:7" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="99"/>
       <c r="B12" s="166"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="87">
-        <v>0</v>
-      </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="77"/>
-    </row>
-    <row r="13" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="127"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="86">
+        <v>0</v>
+      </c>
+      <c r="F12" s="87"/>
+      <c r="G12" s="76"/>
+    </row>
+    <row r="13" spans="1:7" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="167">
         <v>2</v>
       </c>
       <c r="B13" s="165">
         <v>44015</v>
       </c>
-      <c r="C13" s="130">
+      <c r="C13" s="127">
         <v>1</v>
       </c>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="86">
         <v>650000</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="100"/>
-    </row>
-    <row r="14" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="87"/>
+      <c r="G13" s="98"/>
+    </row>
+    <row r="14" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="168"/>
       <c r="B14" s="170"/>
-      <c r="C14" s="130">
+      <c r="C14" s="127">
         <v>2</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="86">
         <v>1820000</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="100"/>
-    </row>
-    <row r="15" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="87"/>
+      <c r="G14" s="98"/>
+    </row>
+    <row r="15" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="168"/>
       <c r="B15" s="170"/>
-      <c r="C15" s="130">
+      <c r="C15" s="127">
         <v>3</v>
       </c>
-      <c r="D15" s="134" t="s">
+      <c r="D15" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="86">
         <v>436000</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="100"/>
-    </row>
-    <row r="16" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="87"/>
+      <c r="G15" s="98"/>
+    </row>
+    <row r="16" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="168"/>
       <c r="B16" s="170"/>
-      <c r="C16" s="130">
+      <c r="C16" s="127">
         <v>4</v>
       </c>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88">
+      <c r="E16" s="86"/>
+      <c r="F16" s="87">
         <v>16950000</v>
       </c>
-      <c r="G16" s="100"/>
-    </row>
-    <row r="17" spans="1:7" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="98"/>
+    </row>
+    <row r="17" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="168"/>
       <c r="B17" s="170"/>
-      <c r="C17" s="130">
+      <c r="C17" s="127">
         <v>5</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="86">
         <v>16950000</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="100" t="s">
+      <c r="F17" s="87"/>
+      <c r="G17" s="98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="167">
         <v>3</v>
       </c>
       <c r="B18" s="165">
         <v>44016</v>
       </c>
-      <c r="C18" s="130">
+      <c r="C18" s="127">
         <v>1</v>
       </c>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="87">
+      <c r="E18" s="86">
         <v>2800000</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="100"/>
-    </row>
-    <row r="19" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="87"/>
+      <c r="G18" s="98"/>
+    </row>
+    <row r="19" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="168"/>
       <c r="B19" s="170"/>
-      <c r="C19" s="130">
+      <c r="C19" s="127">
         <v>2</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="87">
+      <c r="E19" s="86">
         <v>650000</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="100"/>
-    </row>
-    <row r="20" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="87"/>
+      <c r="G19" s="98"/>
+    </row>
+    <row r="20" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="168"/>
       <c r="B20" s="170"/>
-      <c r="C20" s="130">
+      <c r="C20" s="127">
         <v>3</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="86">
         <v>1950000</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="100"/>
-    </row>
-    <row r="21" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="87"/>
+      <c r="G20" s="98"/>
+    </row>
+    <row r="21" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="168"/>
       <c r="B21" s="170"/>
-      <c r="C21" s="130">
+      <c r="C21" s="127">
         <v>4</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="86">
         <v>2080000</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="100"/>
-    </row>
-    <row r="22" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="87"/>
+      <c r="G21" s="98"/>
+    </row>
+    <row r="22" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="168"/>
       <c r="B22" s="170"/>
-      <c r="C22" s="130">
+      <c r="C22" s="127">
         <v>5</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="87">
+      <c r="E22" s="86">
         <v>2300000</v>
       </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="100"/>
-    </row>
-    <row r="23" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="87"/>
+      <c r="G22" s="98"/>
+    </row>
+    <row r="23" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="168"/>
       <c r="B23" s="170"/>
-      <c r="C23" s="130">
+      <c r="C23" s="127">
         <v>6</v>
       </c>
-      <c r="D23" s="134" t="s">
+      <c r="D23" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="86">
         <v>1560000</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="100"/>
-    </row>
-    <row r="24" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="87"/>
+      <c r="G23" s="98"/>
+    </row>
+    <row r="24" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="169"/>
       <c r="B24" s="166"/>
-      <c r="C24" s="130">
+      <c r="C24" s="127">
         <v>7</v>
       </c>
-      <c r="D24" s="134" t="s">
+      <c r="D24" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88">
+      <c r="E24" s="86"/>
+      <c r="F24" s="87">
         <v>6000000</v>
       </c>
-      <c r="G24" s="100"/>
-    </row>
-    <row r="25" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="98"/>
+    </row>
+    <row r="25" spans="1:7" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="167">
         <v>4</v>
       </c>
       <c r="B25" s="165">
         <v>44023</v>
       </c>
-      <c r="C25" s="130">
+      <c r="C25" s="127">
         <v>1</v>
       </c>
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="87">
+      <c r="E25" s="86">
         <v>4950000</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="100" t="s">
+      <c r="F25" s="87"/>
+      <c r="G25" s="98" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="168"/>
       <c r="B26" s="170"/>
-      <c r="C26" s="130">
+      <c r="C26" s="127">
         <v>2</v>
       </c>
-      <c r="D26" s="135" t="s">
+      <c r="D26" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="86">
         <v>2500000</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="77"/>
-    </row>
-    <row r="27" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="87"/>
+      <c r="G26" s="76"/>
+    </row>
+    <row r="27" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="168"/>
       <c r="B27" s="170"/>
-      <c r="C27" s="130">
+      <c r="C27" s="127">
         <v>3</v>
       </c>
-      <c r="D27" s="135" t="s">
+      <c r="D27" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="87">
+      <c r="E27" s="86">
         <v>4050000</v>
       </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="77"/>
-    </row>
-    <row r="28" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="87"/>
+      <c r="G27" s="76"/>
+    </row>
+    <row r="28" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="169"/>
       <c r="B28" s="166"/>
-      <c r="C28" s="130">
+      <c r="C28" s="127">
         <v>4</v>
       </c>
-      <c r="D28" s="134" t="s">
+      <c r="D28" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="86">
         <v>1500000</v>
       </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="140"/>
-    </row>
-    <row r="29" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="87"/>
+      <c r="G28" s="137"/>
+    </row>
+    <row r="29" spans="1:7" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="167">
         <v>5</v>
       </c>
       <c r="B29" s="165">
         <v>44026</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="127">
         <v>1</v>
       </c>
-      <c r="D29" s="134" t="s">
+      <c r="D29" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="87">
+      <c r="E29" s="86">
         <v>1500000</v>
       </c>
-      <c r="F29" s="88"/>
+      <c r="F29" s="87"/>
       <c r="G29" s="167" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="169"/>
       <c r="B30" s="166"/>
-      <c r="C30" s="130">
+      <c r="C30" s="127">
         <v>2</v>
       </c>
-      <c r="D30" s="134" t="s">
+      <c r="D30" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="87">
+      <c r="E30" s="86">
         <v>1500000</v>
       </c>
-      <c r="F30" s="88"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="169"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6179,594 +6188,626 @@
       <c r="B31" s="165">
         <v>44027</v>
       </c>
-      <c r="C31" s="130">
+      <c r="C31" s="127">
         <v>1</v>
       </c>
-      <c r="D31" s="134" t="s">
+      <c r="D31" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="87">
+      <c r="E31" s="86">
         <v>5300000</v>
       </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="77"/>
-    </row>
-    <row r="32" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="87"/>
+      <c r="G31" s="76"/>
+    </row>
+    <row r="32" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="168"/>
       <c r="B32" s="170"/>
-      <c r="C32" s="130">
+      <c r="C32" s="127">
         <v>2</v>
       </c>
-      <c r="D32" s="134" t="s">
+      <c r="D32" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="87">
+      <c r="E32" s="86">
         <v>560000</v>
       </c>
-      <c r="F32" s="88"/>
-      <c r="G32" s="77"/>
-    </row>
-    <row r="33" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="87"/>
+      <c r="G32" s="76"/>
+    </row>
+    <row r="33" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="168"/>
       <c r="B33" s="170"/>
-      <c r="C33" s="130">
+      <c r="C33" s="127">
         <v>3</v>
       </c>
-      <c r="D33" s="134" t="s">
+      <c r="D33" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="87">
+      <c r="E33" s="86">
         <v>360000</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="77"/>
-    </row>
-    <row r="34" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="87"/>
+      <c r="G33" s="76"/>
+    </row>
+    <row r="34" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="169"/>
       <c r="B34" s="166"/>
-      <c r="C34" s="130">
+      <c r="C34" s="127">
         <v>4</v>
       </c>
-      <c r="D34" s="134" t="s">
+      <c r="D34" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="87">
+      <c r="E34" s="86">
         <v>360000</v>
       </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="77"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="76"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="145">
+      <c r="A35" s="167">
         <v>7</v>
       </c>
-      <c r="B35" s="144">
+      <c r="B35" s="147">
         <v>44029</v>
       </c>
-      <c r="C35" s="130">
+      <c r="C35" s="127">
         <v>1</v>
       </c>
-      <c r="D35" s="134" t="s">
+      <c r="D35" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="87">
+      <c r="E35" s="86">
         <v>774000</v>
       </c>
-      <c r="F35" s="88"/>
-      <c r="G35" s="77" t="s">
+      <c r="F35" s="87"/>
+      <c r="G35" s="76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="86">
-        <v>20</v>
-      </c>
-      <c r="B36" s="101">
+    <row r="36" spans="1:7" s="63" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="168"/>
+      <c r="B36" s="147">
         <v>44030</v>
       </c>
-      <c r="C36" s="130"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="87">
-        <v>0</v>
-      </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="77"/>
-    </row>
-    <row r="37" spans="1:7" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86">
-        <v>21</v>
-      </c>
-      <c r="B37" s="101">
+      <c r="C36" s="127">
+        <v>2</v>
+      </c>
+      <c r="D36" s="131"/>
+      <c r="E36" s="86">
+        <v>0</v>
+      </c>
+      <c r="F36" s="87"/>
+      <c r="G36" s="76"/>
+    </row>
+    <row r="37" spans="1:7" s="69" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="168"/>
+      <c r="B37" s="147">
         <v>44031</v>
       </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="87">
-        <v>0</v>
-      </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="77"/>
-    </row>
-    <row r="38" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86">
+      <c r="C37" s="127">
+        <v>3</v>
+      </c>
+      <c r="D37" s="131"/>
+      <c r="E37" s="86">
+        <v>0</v>
+      </c>
+      <c r="F37" s="87"/>
+      <c r="G37" s="76"/>
+    </row>
+    <row r="38" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="168"/>
+      <c r="B38" s="147">
+        <v>44029</v>
+      </c>
+      <c r="C38" s="127">
+        <v>4</v>
+      </c>
+      <c r="D38" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="86"/>
+      <c r="F38" s="87">
+        <v>774000</v>
+      </c>
+      <c r="G38" s="76"/>
+    </row>
+    <row r="39" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="85">
         <v>22</v>
       </c>
-      <c r="B38" s="165">
+      <c r="B39" s="165">
         <v>44032</v>
       </c>
-      <c r="C38" s="130">
+      <c r="C39" s="127">
         <v>1</v>
       </c>
-      <c r="D38" s="134" t="s">
+      <c r="D39" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="87">
+      <c r="E39" s="86">
         <v>700000</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="77"/>
-    </row>
-    <row r="39" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="146"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="130">
+      <c r="F39" s="87"/>
+      <c r="G39" s="76"/>
+    </row>
+    <row r="40" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="141"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="127">
         <v>2</v>
       </c>
-      <c r="D39" s="134" t="s">
+      <c r="D40" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="87">
+      <c r="E40" s="86">
         <v>1800000</v>
       </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="77"/>
-    </row>
-    <row r="40" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="146"/>
-      <c r="B40" s="170"/>
-      <c r="C40" s="130">
+      <c r="F40" s="87"/>
+      <c r="G40" s="76"/>
+    </row>
+    <row r="41" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="141"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="127">
         <v>3</v>
       </c>
-      <c r="D40" s="134" t="s">
+      <c r="D41" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="87">
+      <c r="E41" s="86">
         <v>360000</v>
       </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="77"/>
-    </row>
-    <row r="41" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="146"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="130">
+      <c r="F41" s="87"/>
+      <c r="G41" s="76"/>
+    </row>
+    <row r="42" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="141"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="127">
         <v>4</v>
       </c>
-      <c r="D41" s="134" t="s">
+      <c r="D42" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="87">
+      <c r="E42" s="86">
         <v>315000</v>
       </c>
-      <c r="F41" s="88"/>
-      <c r="G41" s="77"/>
-    </row>
-    <row r="42" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="146"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="130">
+      <c r="F42" s="87"/>
+      <c r="G42" s="76"/>
+    </row>
+    <row r="43" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="141"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="127">
         <v>5</v>
       </c>
-      <c r="D42" s="134" t="s">
+      <c r="D43" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="87">
+      <c r="E43" s="86">
         <v>620000</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="77"/>
-    </row>
-    <row r="43" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="146"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="130">
+      <c r="F43" s="87"/>
+      <c r="G43" s="76"/>
+    </row>
+    <row r="44" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="141"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="127">
         <v>6</v>
       </c>
-      <c r="D43" s="134" t="s">
+      <c r="D44" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="87">
+      <c r="E44" s="86">
         <v>1020000</v>
       </c>
-      <c r="F43" s="88"/>
-      <c r="G43" s="77"/>
-    </row>
-    <row r="44" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="146"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="130">
+      <c r="F44" s="87"/>
+      <c r="G44" s="76"/>
+    </row>
+    <row r="45" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="141"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="127">
         <v>7</v>
       </c>
-      <c r="D44" s="134" t="s">
+      <c r="D45" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="87">
+      <c r="E45" s="86">
         <v>380000</v>
       </c>
-      <c r="F44" s="88"/>
-      <c r="G44" s="77"/>
-    </row>
-    <row r="45" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="146"/>
-      <c r="B45" s="166"/>
-      <c r="C45" s="130">
+      <c r="F45" s="87"/>
+      <c r="G45" s="76"/>
+    </row>
+    <row r="46" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="141"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="127">
         <v>8</v>
       </c>
-      <c r="D45" s="134" t="s">
+      <c r="D46" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="87">
+      <c r="E46" s="86">
         <v>113000</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="77"/>
-    </row>
-    <row r="46" spans="1:7" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86">
+      <c r="F46" s="87"/>
+      <c r="G46" s="76"/>
+    </row>
+    <row r="47" spans="1:7" s="95" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="85">
         <v>23</v>
       </c>
-      <c r="B46" s="101">
+      <c r="B47" s="147">
         <v>44033</v>
       </c>
-      <c r="C46" s="130"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="87">
-        <v>0</v>
-      </c>
-      <c r="F46" s="88"/>
-      <c r="G46" s="77"/>
-    </row>
-    <row r="47" spans="1:7" s="65" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="86">
+      <c r="C47" s="127"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="86">
+        <v>0</v>
+      </c>
+      <c r="F47" s="87"/>
+      <c r="G47" s="76"/>
+    </row>
+    <row r="48" spans="1:7" s="64" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="85">
         <v>24</v>
       </c>
-      <c r="B47" s="101">
+      <c r="B48" s="147">
         <v>44034</v>
       </c>
-      <c r="C47" s="130"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="87">
-        <v>0</v>
-      </c>
-      <c r="F47" s="88"/>
-      <c r="G47" s="77"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="86">
+      <c r="C48" s="127"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="86">
+        <v>0</v>
+      </c>
+      <c r="F48" s="87"/>
+      <c r="G48" s="76"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="85">
         <v>25</v>
       </c>
-      <c r="B48" s="165">
+      <c r="B49" s="165">
         <v>44035</v>
       </c>
-      <c r="C48" s="130">
+      <c r="C49" s="127">
         <v>1</v>
       </c>
-      <c r="D48" s="134" t="s">
+      <c r="D49" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="87">
+      <c r="E49" s="86">
         <v>1620000</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="77"/>
-    </row>
-    <row r="49" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="86">
+      <c r="F49" s="87"/>
+      <c r="G49" s="76"/>
+    </row>
+    <row r="50" spans="1:7" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="85">
         <v>27</v>
       </c>
-      <c r="B49" s="166"/>
-      <c r="C49" s="130">
+      <c r="B50" s="166"/>
+      <c r="C50" s="127">
         <v>2</v>
       </c>
-      <c r="D49" s="134" t="s">
+      <c r="D50" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="87">
+      <c r="E50" s="86">
         <v>645000</v>
       </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="77"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="86">
+      <c r="F50" s="87"/>
+      <c r="G50" s="76"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="85">
         <v>27</v>
       </c>
-      <c r="B50" s="165">
+      <c r="B51" s="165">
         <v>44039</v>
       </c>
-      <c r="C50" s="130"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="87">
-        <v>0</v>
-      </c>
-      <c r="F50" s="88"/>
-      <c r="G50" s="77"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="86">
+      <c r="C51" s="127"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="86">
+        <v>0</v>
+      </c>
+      <c r="F51" s="87"/>
+      <c r="G51" s="76"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="85">
         <v>27</v>
       </c>
-      <c r="B51" s="166"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="87">
-        <v>0</v>
-      </c>
-      <c r="F51" s="88"/>
-      <c r="G51" s="77"/>
-    </row>
-    <row r="52" spans="1:7" s="67" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="86">
+      <c r="B52" s="166"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="86">
+        <v>0</v>
+      </c>
+      <c r="F52" s="87"/>
+      <c r="G52" s="76"/>
+    </row>
+    <row r="53" spans="1:7" s="66" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="85">
         <v>28</v>
       </c>
-      <c r="B52" s="101">
+      <c r="B53" s="147">
         <v>44039</v>
       </c>
-      <c r="C52" s="130"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="87">
-        <v>0</v>
-      </c>
-      <c r="F52" s="88"/>
-      <c r="G52" s="77"/>
-    </row>
-    <row r="53" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="167">
+      <c r="C53" s="127"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="86">
+        <v>0</v>
+      </c>
+      <c r="F53" s="87"/>
+      <c r="G53" s="76"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="167">
         <v>29</v>
       </c>
-      <c r="B53" s="165">
+      <c r="B54" s="165">
         <v>44040</v>
       </c>
-      <c r="C53" s="130"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="87">
-        <v>0</v>
-      </c>
-      <c r="F53" s="88"/>
-      <c r="G53" s="77"/>
-    </row>
-    <row r="54" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="168"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="87">
-        <v>0</v>
-      </c>
-      <c r="F54" s="88"/>
-      <c r="G54" s="77"/>
-    </row>
-    <row r="55" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="127"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="86">
+        <v>0</v>
+      </c>
+      <c r="F54" s="87"/>
+      <c r="G54" s="76"/>
+    </row>
+    <row r="55" spans="1:7" s="106" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="168"/>
       <c r="B55" s="170"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="87">
-        <v>0</v>
-      </c>
-      <c r="F55" s="88"/>
-      <c r="G55" s="77"/>
-    </row>
-    <row r="56" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="127"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="86">
+        <v>0</v>
+      </c>
+      <c r="F55" s="87"/>
+      <c r="G55" s="76"/>
+    </row>
+    <row r="56" spans="1:7" s="106" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="168"/>
       <c r="B56" s="170"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="87">
-        <v>0</v>
-      </c>
-      <c r="F56" s="88"/>
-      <c r="G56" s="77"/>
-    </row>
-    <row r="57" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="127"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="86">
+        <v>0</v>
+      </c>
+      <c r="F56" s="87"/>
+      <c r="G56" s="76"/>
+    </row>
+    <row r="57" spans="1:7" s="106" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="168"/>
       <c r="B57" s="170"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="87">
-        <v>0</v>
-      </c>
-      <c r="F57" s="88"/>
-      <c r="G57" s="77"/>
-    </row>
-    <row r="58" spans="1:7" s="109" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="169"/>
-      <c r="B58" s="166"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="87">
-        <v>0</v>
-      </c>
-      <c r="F58" s="88"/>
-      <c r="G58" s="77"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="86">
+      <c r="C57" s="127"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="86">
+        <v>0</v>
+      </c>
+      <c r="F57" s="87"/>
+      <c r="G57" s="76"/>
+    </row>
+    <row r="58" spans="1:7" s="106" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="168"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="86">
+        <v>0</v>
+      </c>
+      <c r="F58" s="87"/>
+      <c r="G58" s="76"/>
+    </row>
+    <row r="59" spans="1:7" s="106" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="169"/>
+      <c r="B59" s="166"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="86">
+        <v>0</v>
+      </c>
+      <c r="F59" s="87"/>
+      <c r="G59" s="76"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="85">
         <v>30</v>
       </c>
-      <c r="B59" s="101">
+      <c r="B60" s="147">
         <v>44041</v>
       </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="87">
-        <v>0</v>
-      </c>
-      <c r="F59" s="88"/>
-      <c r="G59" s="77"/>
-    </row>
-    <row r="60" spans="1:7" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="86">
+      <c r="C60" s="127"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="86">
+        <v>0</v>
+      </c>
+      <c r="F60" s="87"/>
+      <c r="G60" s="76"/>
+    </row>
+    <row r="61" spans="1:7" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="148"/>
+      <c r="B61" s="147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="127"/>
+      <c r="D61" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="23"/>
+      <c r="F61" s="96">
+        <v>1500000</v>
+      </c>
+      <c r="G61" s="76"/>
+    </row>
+    <row r="62" spans="1:7" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="85">
         <v>32</v>
       </c>
-      <c r="B60" s="171">
+      <c r="B62" s="171">
         <v>44042</v>
       </c>
-      <c r="C60" s="130">
+      <c r="C62" s="127">
         <v>1</v>
       </c>
-      <c r="D60" s="134" t="s">
+      <c r="D62" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="87">
+      <c r="E62" s="96">
         <v>1500000</v>
       </c>
-      <c r="F60" s="88"/>
-      <c r="G60" s="100" t="s">
+      <c r="F62" s="135"/>
+      <c r="G62" s="98" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="146"/>
-      <c r="B61" s="171"/>
-      <c r="C61" s="130">
+    <row r="63" spans="1:7" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="141"/>
+      <c r="B63" s="171"/>
+      <c r="C63" s="127">
         <v>2</v>
       </c>
-      <c r="D61" s="134" t="s">
+      <c r="D63" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="87">
+      <c r="E63" s="96">
         <v>1553000</v>
       </c>
-      <c r="F61" s="88"/>
-      <c r="G61" s="77"/>
-    </row>
-    <row r="62" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="146"/>
-      <c r="B62" s="165">
+      <c r="F63" s="135"/>
+      <c r="G63" s="76"/>
+    </row>
+    <row r="64" spans="1:7" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="141"/>
+      <c r="B64" s="165">
         <v>44043</v>
       </c>
-      <c r="C62" s="130">
+      <c r="C64" s="127">
         <v>1</v>
       </c>
-      <c r="D62" s="134" t="s">
+      <c r="D64" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="E62" s="87">
+      <c r="E64" s="96">
         <v>2300000</v>
       </c>
-      <c r="F62" s="88"/>
-      <c r="G62" s="77"/>
-    </row>
-    <row r="63" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="146"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="130">
+      <c r="F64" s="135"/>
+      <c r="G64" s="76"/>
+    </row>
+    <row r="65" spans="1:7" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="141"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="127">
         <v>2</v>
       </c>
-      <c r="D63" s="134" t="s">
+      <c r="D65" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="E63" s="87">
+      <c r="E65" s="96">
         <v>870000</v>
       </c>
-      <c r="F63" s="88"/>
-      <c r="G63" s="77"/>
-    </row>
-    <row r="64" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="146"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="130">
+      <c r="F65" s="135"/>
+      <c r="G65" s="76"/>
+    </row>
+    <row r="66" spans="1:7" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="141"/>
+      <c r="B66" s="170"/>
+      <c r="C66" s="127">
         <v>3</v>
       </c>
-      <c r="D64" s="134" t="s">
+      <c r="D66" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="87">
+      <c r="E66" s="86">
         <v>240000</v>
       </c>
-      <c r="F64" s="88"/>
-      <c r="G64" s="77"/>
-    </row>
-    <row r="65" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="146"/>
-      <c r="B65" s="170"/>
-      <c r="C65" s="130">
+      <c r="F66" s="87"/>
+      <c r="G66" s="76"/>
+    </row>
+    <row r="67" spans="1:7" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="141"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="127">
         <v>4</v>
       </c>
-      <c r="D65" s="134" t="s">
+      <c r="D67" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="E65" s="87">
+      <c r="E67" s="86">
         <v>430000</v>
       </c>
-      <c r="F65" s="88"/>
-      <c r="G65" s="77"/>
-    </row>
-    <row r="66" spans="1:7" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="146"/>
-      <c r="B66" s="170"/>
-      <c r="C66" s="130">
+      <c r="F67" s="87"/>
+      <c r="G67" s="76"/>
+    </row>
+    <row r="68" spans="1:7" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="141"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="127">
         <v>5</v>
       </c>
-      <c r="D66" s="134" t="s">
+      <c r="D68" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="87">
+      <c r="E68" s="86">
         <v>30000</v>
       </c>
-      <c r="F66" s="88"/>
-      <c r="G66" s="77"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="86"/>
-      <c r="B67" s="166"/>
-      <c r="C67" s="130">
+      <c r="F68" s="87"/>
+      <c r="G68" s="76"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="85"/>
+      <c r="B69" s="166"/>
+      <c r="C69" s="127">
         <v>6</v>
       </c>
-      <c r="D67" s="134" t="s">
+      <c r="D69" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="87">
+      <c r="E69" s="86">
         <v>1050000</v>
       </c>
-      <c r="F67" s="42"/>
-      <c r="G67" s="77"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
+      <c r="F69" s="41"/>
+      <c r="G69" s="76"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="33">
         <v>35</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B70" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="123"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="87">
-        <f>SUM(E5:E67)</f>
+      <c r="C70" s="120"/>
+      <c r="D70" s="133"/>
+      <c r="E70" s="86">
+        <f>SUM(E5:E69)</f>
         <v>73276000</v>
       </c>
-      <c r="F68" s="87">
-        <f>SUM(F5:F67)</f>
-        <v>22950000</v>
-      </c>
-      <c r="G68" s="78"/>
-    </row>
-    <row r="69" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="132"/>
-      <c r="D69" s="133"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="76"/>
+      <c r="F70" s="86">
+        <f>SUM(F5:F69)</f>
+        <v>25224000</v>
+      </c>
+      <c r="G70" s="77"/>
+    </row>
+    <row r="71" spans="1:7" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="83"/>
+      <c r="B71" s="194"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A53:A58"/>
+  <mergeCells count="23">
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A54:A59"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B28"/>
@@ -6779,16 +6820,17 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B51:B52"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A35:A38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6805,8 +6847,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="115"/>
+    <col min="1" max="1" width="4.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="112"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
@@ -6824,469 +6866,469 @@
       <c r="F2" s="173"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="113" t="s">
+      <c r="A4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="113">
+      <c r="B5" s="110">
         <v>44013</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>200</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <v>50000</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="110">
         <v>44014</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="1:6" s="105" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" s="102" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
       <c r="B7" s="174">
         <v>44015</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
       <c r="B8" s="175"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="1:6" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:6" s="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
         <v>4</v>
       </c>
-      <c r="B9" s="113">
+      <c r="B9" s="110">
         <v>44016</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="34"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>5</v>
       </c>
-      <c r="B10" s="113">
+      <c r="B10" s="110">
         <v>44017</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>50000</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>7</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="111">
         <v>44019</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>7</v>
       </c>
-      <c r="B12" s="113">
+      <c r="B12" s="110">
         <v>44019</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>8</v>
       </c>
-      <c r="B13" s="113">
+      <c r="B13" s="110">
         <v>44020</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>9</v>
       </c>
-      <c r="B14" s="114">
+      <c r="B14" s="111">
         <v>44021</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="1:6" s="82" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
         <v>10</v>
       </c>
-      <c r="B15" s="113">
+      <c r="B15" s="110">
         <v>44022</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="33">
         <v>11</v>
       </c>
-      <c r="B16" s="113">
+      <c r="B16" s="110">
         <v>44023</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>50000</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>12</v>
       </c>
-      <c r="B17" s="114">
+      <c r="B17" s="111">
         <v>44024</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="34"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>13</v>
       </c>
-      <c r="B18" s="113">
+      <c r="B18" s="110">
         <v>44025</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="34"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>14</v>
       </c>
-      <c r="B19" s="113">
+      <c r="B19" s="110">
         <v>44026</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>15</v>
       </c>
-      <c r="B20" s="114">
+      <c r="B20" s="111">
         <v>44027</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="34"/>
-    </row>
-    <row r="21" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
         <v>17</v>
       </c>
-      <c r="B21" s="113">
+      <c r="B21" s="110">
         <v>44028</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="33">
         <v>200</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <v>50000</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>17</v>
       </c>
-      <c r="B22" s="113">
+      <c r="B22" s="110">
         <v>44029</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="34"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="33">
         <v>18</v>
       </c>
-      <c r="B23" s="114">
+      <c r="B23" s="111">
         <v>44030</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="34"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="A24" s="33">
         <v>19</v>
       </c>
-      <c r="B24" s="113">
+      <c r="B24" s="110">
         <v>44031</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>30000</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="33">
         <v>20</v>
       </c>
-      <c r="B25" s="113">
+      <c r="B25" s="110">
         <v>44032</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="41">
         <v>500000</v>
       </c>
-      <c r="F25" s="34"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>21</v>
       </c>
-      <c r="B26" s="114">
+      <c r="B26" s="111">
         <v>44033</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="34"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>22</v>
       </c>
-      <c r="B27" s="113">
+      <c r="B27" s="110">
         <v>44034</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="34"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+      <c r="A28" s="33">
         <v>23</v>
       </c>
-      <c r="B28" s="113">
+      <c r="B28" s="110">
         <v>44035</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="34"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>24</v>
       </c>
-      <c r="B29" s="114">
+      <c r="B29" s="111">
         <v>44036</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
         <v>25</v>
       </c>
       <c r="B30" s="176">
         <v>44039</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
         <v>27</v>
       </c>
       <c r="B31" s="177"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="34"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>27</v>
       </c>
-      <c r="B32" s="114">
+      <c r="B32" s="111">
         <v>44039</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="34"/>
-    </row>
-    <row r="33" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
         <v>28</v>
       </c>
-      <c r="B33" s="113">
+      <c r="B33" s="110">
         <v>44040</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="41">
         <v>570000</v>
       </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
         <v>29</v>
       </c>
-      <c r="B34" s="113">
+      <c r="B34" s="110">
         <v>44041</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="34"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="33">
         <v>30</v>
       </c>
       <c r="B35" s="178">
         <v>44042</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="41">
         <v>50000</v>
       </c>
-      <c r="F35" s="34"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>31</v>
       </c>
       <c r="B36" s="179"/>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <v>50000</v>
       </c>
-      <c r="F36" s="34"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
+      <c r="A37" s="25">
         <v>32</v>
       </c>
-      <c r="B37" s="113"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="110"/>
+      <c r="C37" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="43">
+      <c r="D37" s="25"/>
+      <c r="E37" s="42">
         <f>SUM(E5:E36)</f>
         <v>1400000</v>
       </c>
-      <c r="F37" s="26"/>
+      <c r="F37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7315,9 +7357,9 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7334,99 +7376,99 @@
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="94" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="96">
         <v>5825000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="B5" s="112">
+      <c r="B5" s="109">
         <v>44018</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="87">
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="87">
         <v>780000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="182" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="182"/>
       <c r="D7" s="182"/>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <f>SUM(E4:E6)</f>
         <v>8105000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11" s="63"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12" s="63"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13"/>
@@ -7459,51 +7501,51 @@
       <c r="E17"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="K19" s="63"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="63"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="62"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="K21" s="63"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="K22" s="63"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23"/>
@@ -7511,14 +7553,14 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" s="8"/>
-      <c r="K23" s="63"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="K24" s="63"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25"/>
@@ -7531,50 +7573,50 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7595,8 +7637,8 @@
   </sheetPr>
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7634,87 +7676,87 @@
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <f>'khám bệnh'!D37+'khám bệnh'!F37+'khám bệnh'!H37</f>
         <v>80700000</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="46">
         <f>SUM(D8,D9)</f>
-        <v>108720000</v>
+        <v>111390000</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <f>'khám bệnh'!Y37</f>
-        <v>28020000</v>
+        <v>30690000</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="46">
         <f>SUM(D10,-E21,-chi!E37)</f>
         <v>22423000</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>3</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <f>thuốc!D35</f>
         <v>97099000</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="47">
-        <f>nợ!E7+nhập!F68</f>
-        <v>31055000</v>
+      <c r="H10" s="46">
+        <f>nợ!E7+nhập!F70</f>
+        <v>33329000</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>4</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="42">
         <f>SUM(D8:D10)</f>
-        <v>205819000</v>
+        <v>208489000</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="47"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12"/>
@@ -7730,111 +7772,114 @@
     </row>
     <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="38">
+      <c r="B17" s="37">
         <v>1</v>
       </c>
       <c r="C17" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="38">
+      <c r="B18" s="37">
         <v>2</v>
       </c>
       <c r="C18" s="188"/>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="38">
+      <c r="B19" s="37">
         <v>4</v>
       </c>
       <c r="C19" s="188"/>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="38">
+      <c r="B20" s="37">
         <v>5</v>
       </c>
       <c r="C20" s="188"/>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="42">
         <f>SUM(E17:E19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <v>7</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="49">
-        <f>nhập!E68</f>
+      <c r="E21" s="48">
+        <f>nhập!E70</f>
         <v>73276000</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="30">
+      <c r="B22" s="29">
         <v>7</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="42">
         <f>chi!E37</f>
         <v>1400000</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>8</v>
       </c>
       <c r="C23" s="189" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="190"/>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <f>SUM(E20:E22)</f>
         <v>74676000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7848,7 +7893,7 @@
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="185">
         <f>SUM(D11,-E23)</f>
-        <v>131143000</v>
+        <v>133813000</v>
       </c>
       <c r="C27" s="186"/>
       <c r="D27" s="186"/>
@@ -7900,10 +7945,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805A625-BAF6-47D2-B82C-BA12E06CE220}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7933,22 +7978,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
+    <row r="3" spans="1:5" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <f>E4</f>
         <v>97099000</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <f>thuốc!D35</f>
         <v>97099000</v>
       </c>
@@ -7957,14 +8002,14 @@
       <c r="A5" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="47">
-        <f>chi!E37+nhập!E68</f>
+      <c r="B5" s="46">
+        <f>chi!E37+nhập!E70</f>
         <v>74676000</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <f>thuốc!C35</f>
         <v>66411994</v>
       </c>
@@ -7973,14 +8018,14 @@
       <c r="A6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <f>B4-B5</f>
         <v>22423000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <f>E4-E5</f>
         <v>30687006</v>
       </c>
@@ -8007,13 +8052,13 @@
       <c r="A10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <v>22423000</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <v>0</v>
       </c>
     </row>
@@ -8021,23 +8066,24 @@
       <c r="A11" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="116">
+      <c r="B11" s="113">
         <v>94952702</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
+        <f>E6</f>
         <v>30687006</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
-      <c r="B12" s="47"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="46">
         <v>89187956</v>
       </c>
     </row>
@@ -8045,14 +8091,14 @@
       <c r="A13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <f>B10+B11</f>
         <v>117375702</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <f>D12+D11</f>
         <v>119874962</v>
       </c>
@@ -8067,7 +8113,14 @@
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <f>D13-B13</f>
+        <v>2499260</v>
+      </c>
       <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
